--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="836">
   <si>
     <t>Total commands implemented</t>
   </si>
@@ -2671,7 +2672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2713,6 +2714,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2804,28 +2809,27 @@
   <dimension ref="A1:J1121"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1169" activeCellId="0" sqref="A1169"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.1530612244898"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
     </row>
@@ -2837,7 +2841,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -2855,7 +2859,7 @@
       <c r="C3" s="0"/>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.221751412429379</v>
+        <v>0.234463276836158</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -2864,6 +2868,7 @@
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="6"/>
     </row>
@@ -2894,6 +2899,7 @@
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="1"/>
     </row>
@@ -2958,6 +2964,7 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="1"/>
       <c r="I9" s="0" t="n">
@@ -2980,6 +2987,7 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="1"/>
       <c r="I10" s="0" t="n">
@@ -3002,6 +3010,7 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="1"/>
       <c r="I11" s="0" t="n">
@@ -3149,6 +3158,7 @@
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="1"/>
       <c r="I17" s="0" t="n">
@@ -3221,6 +3231,7 @@
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="1"/>
       <c r="I20" s="0" t="n">
@@ -3368,6 +3379,7 @@
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="1"/>
       <c r="I26" s="0" t="n">
@@ -3415,6 +3427,7 @@
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="1"/>
       <c r="I28" s="0" t="n">
@@ -3512,6 +3525,7 @@
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="1"/>
       <c r="I32" s="0" t="n">
@@ -3609,6 +3623,7 @@
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D36" s="0"/>
       <c r="F36" s="0"/>
       <c r="G36" s="1"/>
       <c r="I36" s="0" t="n">
@@ -3631,6 +3646,7 @@
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D37" s="0"/>
       <c r="F37" s="0"/>
       <c r="G37" s="1"/>
       <c r="I37" s="0" t="n">
@@ -3653,6 +3669,7 @@
       <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D38" s="0"/>
       <c r="F38" s="0"/>
       <c r="G38" s="1"/>
       <c r="I38" s="0" t="n">
@@ -3675,6 +3692,7 @@
       <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D39" s="0"/>
       <c r="F39" s="0"/>
       <c r="G39" s="1"/>
       <c r="I39" s="0" t="n">
@@ -3697,6 +3715,7 @@
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D40" s="0"/>
       <c r="F40" s="0"/>
       <c r="G40" s="1"/>
       <c r="I40" s="0" t="n">
@@ -3719,6 +3738,7 @@
       <c r="C41" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D41" s="0"/>
       <c r="F41" s="0"/>
       <c r="G41" s="1"/>
       <c r="I41" s="0" t="n">
@@ -3741,6 +3761,7 @@
       <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D42" s="0"/>
       <c r="F42" s="0"/>
       <c r="G42" s="1"/>
       <c r="I42" s="0" t="n">
@@ -3763,6 +3784,7 @@
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D43" s="0"/>
       <c r="F43" s="0"/>
       <c r="G43" s="1"/>
       <c r="I43" s="0" t="n">
@@ -3785,6 +3807,7 @@
       <c r="C44" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D44" s="0"/>
       <c r="F44" s="0"/>
       <c r="G44" s="1"/>
       <c r="I44" s="0" t="n">
@@ -3857,6 +3880,7 @@
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="1"/>
       <c r="I47" s="0" t="n">
@@ -3929,6 +3953,7 @@
       <c r="C50" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D50" s="0"/>
       <c r="F50" s="0"/>
       <c r="G50" s="1"/>
       <c r="I50" s="0" t="n">
@@ -3951,6 +3976,7 @@
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D51" s="0"/>
       <c r="F51" s="0"/>
       <c r="G51" s="1"/>
       <c r="I51" s="0" t="n">
@@ -3998,6 +4024,7 @@
       <c r="C53" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D53" s="0"/>
       <c r="F53" s="0"/>
       <c r="G53" s="1"/>
       <c r="I53" s="0" t="n">
@@ -4020,6 +4047,7 @@
       <c r="C54" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D54" s="0"/>
       <c r="F54" s="0"/>
       <c r="G54" s="1"/>
       <c r="I54" s="0" t="n">
@@ -4067,6 +4095,7 @@
       <c r="C56" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D56" s="0"/>
       <c r="F56" s="0"/>
       <c r="G56" s="1"/>
       <c r="I56" s="0" t="n">
@@ -4089,6 +4118,7 @@
       <c r="C57" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D57" s="0"/>
       <c r="F57" s="0"/>
       <c r="G57" s="1"/>
       <c r="I57" s="0" t="n">
@@ -4111,6 +4141,7 @@
       <c r="C58" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D58" s="0"/>
       <c r="F58" s="0"/>
       <c r="G58" s="1"/>
       <c r="I58" s="0" t="n">
@@ -4208,6 +4239,7 @@
       <c r="C62" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D62" s="0"/>
       <c r="F62" s="0"/>
       <c r="G62" s="1"/>
       <c r="I62" s="0" t="n">
@@ -4255,6 +4287,8 @@
       <c r="C64" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D64" s="0"/>
+      <c r="F64" s="0"/>
       <c r="G64" s="1"/>
       <c r="I64" s="0" t="n">
         <f aca="false">IF(ISBLANK(B64),0,IF(D64="N/A",0,1))</f>
@@ -4276,6 +4310,8 @@
       <c r="C65" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D65" s="0"/>
+      <c r="F65" s="0"/>
       <c r="G65" s="1"/>
       <c r="I65" s="0" t="n">
         <f aca="false">IF(ISBLANK(B65),0,IF(D65="N/A",0,1))</f>
@@ -4300,6 +4336,7 @@
       <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F66" s="0"/>
       <c r="G66" s="1"/>
       <c r="I66" s="0" t="n">
         <f aca="false">IF(ISBLANK(B66),0,IF(D66="N/A",0,1))</f>
@@ -4321,6 +4358,8 @@
       <c r="C67" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D67" s="0"/>
+      <c r="F67" s="0"/>
       <c r="G67" s="1"/>
       <c r="I67" s="0" t="n">
         <f aca="false">IF(ISBLANK(B67),0,IF(D67="N/A",0,1))</f>
@@ -4345,6 +4384,7 @@
       <c r="D68" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F68" s="0"/>
       <c r="G68" s="1"/>
       <c r="I68" s="0" t="n">
         <f aca="false">IF(ISBLANK(B68),0,IF(D68="N/A",0,1))</f>
@@ -4369,6 +4409,7 @@
       <c r="D69" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F69" s="0"/>
       <c r="G69" s="1"/>
       <c r="I69" s="0" t="n">
         <f aca="false">IF(ISBLANK(B69),0,IF(D69="N/A",0,1))</f>
@@ -4390,6 +4431,8 @@
       <c r="C70" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D70" s="0"/>
+      <c r="F70" s="0"/>
       <c r="G70" s="1"/>
       <c r="I70" s="0" t="n">
         <f aca="false">IF(ISBLANK(B70),0,IF(D70="N/A",0,1))</f>
@@ -4411,6 +4454,8 @@
       <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D71" s="0"/>
+      <c r="F71" s="0"/>
       <c r="G71" s="1"/>
       <c r="I71" s="0" t="n">
         <f aca="false">IF(ISBLANK(B71),0,IF(D71="N/A",0,1))</f>
@@ -4432,6 +4477,8 @@
       <c r="C72" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D72" s="0"/>
+      <c r="F72" s="0"/>
       <c r="G72" s="1"/>
       <c r="I72" s="0" t="n">
         <f aca="false">IF(ISBLANK(B72),0,IF(D72="N/A",0,1))</f>
@@ -4453,6 +4500,8 @@
       <c r="C73" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D73" s="0"/>
+      <c r="F73" s="0"/>
       <c r="G73" s="1"/>
       <c r="I73" s="0" t="n">
         <f aca="false">IF(ISBLANK(B73),0,IF(D73="N/A",0,1))</f>
@@ -4474,6 +4523,8 @@
       <c r="C74" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D74" s="0"/>
+      <c r="F74" s="0"/>
       <c r="G74" s="1"/>
       <c r="I74" s="0" t="n">
         <f aca="false">IF(ISBLANK(B74),0,IF(D74="N/A",0,1))</f>
@@ -4498,6 +4549,7 @@
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F75" s="0"/>
       <c r="G75" s="1"/>
       <c r="I75" s="0" t="n">
         <f aca="false">IF(ISBLANK(B75),0,IF(D75="N/A",0,1))</f>
@@ -4519,6 +4571,8 @@
       <c r="C76" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D76" s="0"/>
+      <c r="F76" s="0"/>
       <c r="G76" s="1"/>
       <c r="I76" s="0" t="n">
         <f aca="false">IF(ISBLANK(B76),0,IF(D76="N/A",0,1))</f>
@@ -4540,6 +4594,8 @@
       <c r="C77" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D77" s="0"/>
+      <c r="F77" s="0"/>
       <c r="G77" s="1"/>
       <c r="I77" s="0" t="n">
         <f aca="false">IF(ISBLANK(B77),0,IF(D77="N/A",0,1))</f>
@@ -4564,6 +4620,7 @@
       <c r="D78" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F78" s="0"/>
       <c r="G78" s="1"/>
       <c r="I78" s="0" t="n">
         <f aca="false">IF(ISBLANK(B78),0,IF(D78="N/A",0,1))</f>
@@ -4585,6 +4642,8 @@
       <c r="C79" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D79" s="0"/>
+      <c r="F79" s="0"/>
       <c r="G79" s="1"/>
       <c r="I79" s="0" t="n">
         <f aca="false">IF(ISBLANK(B79),0,IF(D79="N/A",0,1))</f>
@@ -4606,6 +4665,8 @@
       <c r="C80" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D80" s="0"/>
+      <c r="F80" s="0"/>
       <c r="G80" s="1"/>
       <c r="I80" s="0" t="n">
         <f aca="false">IF(ISBLANK(B80),0,IF(D80="N/A",0,1))</f>
@@ -4627,6 +4688,8 @@
       <c r="C81" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D81" s="0"/>
+      <c r="F81" s="0"/>
       <c r="G81" s="1"/>
       <c r="I81" s="0" t="n">
         <f aca="false">IF(ISBLANK(B81),0,IF(D81="N/A",0,1))</f>
@@ -4651,6 +4714,7 @@
       <c r="D82" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F82" s="0"/>
       <c r="G82" s="1"/>
       <c r="I82" s="0" t="n">
         <f aca="false">IF(ISBLANK(B82),0,IF(D82="N/A",0,1))</f>
@@ -4672,6 +4736,8 @@
       <c r="C83" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D83" s="0"/>
+      <c r="F83" s="0"/>
       <c r="G83" s="1"/>
       <c r="I83" s="0" t="n">
         <f aca="false">IF(ISBLANK(B83),0,IF(D83="N/A",0,1))</f>
@@ -4696,6 +4762,7 @@
       <c r="D84" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F84" s="0"/>
       <c r="G84" s="1"/>
       <c r="I84" s="0" t="n">
         <f aca="false">IF(ISBLANK(B84),0,IF(D84="N/A",0,1))</f>
@@ -4720,6 +4787,7 @@
       <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F85" s="0"/>
       <c r="G85" s="1"/>
       <c r="I85" s="0" t="n">
         <f aca="false">IF(ISBLANK(B85),0,IF(D85="N/A",0,1))</f>
@@ -4744,6 +4812,7 @@
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F86" s="0"/>
       <c r="G86" s="1"/>
       <c r="I86" s="0" t="n">
         <f aca="false">IF(ISBLANK(B86),0,IF(D86="N/A",0,1))</f>
@@ -4765,6 +4834,8 @@
       <c r="C87" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D87" s="0"/>
+      <c r="F87" s="0"/>
       <c r="G87" s="1"/>
       <c r="I87" s="0" t="n">
         <f aca="false">IF(ISBLANK(B87),0,IF(D87="N/A",0,1))</f>
@@ -4786,6 +4857,8 @@
       <c r="C88" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D88" s="0"/>
+      <c r="F88" s="0"/>
       <c r="G88" s="1"/>
       <c r="I88" s="0" t="n">
         <f aca="false">IF(ISBLANK(B88),0,IF(D88="N/A",0,1))</f>
@@ -4810,6 +4883,7 @@
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F89" s="0"/>
       <c r="G89" s="1"/>
       <c r="I89" s="0" t="n">
         <f aca="false">IF(ISBLANK(B89),0,IF(D89="N/A",0,1))</f>
@@ -4834,6 +4908,7 @@
       <c r="D90" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F90" s="0"/>
       <c r="G90" s="1"/>
       <c r="I90" s="0" t="n">
         <f aca="false">IF(ISBLANK(B90),0,IF(D90="N/A",0,1))</f>
@@ -4858,6 +4933,7 @@
       <c r="D91" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F91" s="0"/>
       <c r="G91" s="1"/>
       <c r="I91" s="0" t="n">
         <f aca="false">IF(ISBLANK(B91),0,IF(D91="N/A",0,1))</f>
@@ -4882,6 +4958,7 @@
       <c r="D92" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F92" s="0"/>
       <c r="G92" s="1"/>
       <c r="I92" s="0" t="n">
         <f aca="false">IF(ISBLANK(B92),0,IF(D92="N/A",0,1))</f>
@@ -4906,6 +4983,7 @@
       <c r="D93" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F93" s="0"/>
       <c r="G93" s="1"/>
       <c r="I93" s="0" t="n">
         <f aca="false">IF(ISBLANK(B93),0,IF(D93="N/A",0,1))</f>
@@ -4927,6 +5005,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D94" s="0"/>
+      <c r="F94" s="0"/>
       <c r="G94" s="1"/>
       <c r="I94" s="0" t="n">
         <f aca="false">IF(ISBLANK(B94),0,IF(D94="N/A",0,1))</f>
@@ -4951,6 +5031,7 @@
       <c r="D95" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F95" s="0"/>
       <c r="G95" s="1" t="s">
         <v>121</v>
       </c>
@@ -4974,6 +5055,8 @@
       <c r="C96" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D96" s="0"/>
+      <c r="F96" s="0"/>
       <c r="G96" s="1"/>
       <c r="I96" s="0" t="n">
         <f aca="false">IF(ISBLANK(B96),0,IF(D96="N/A",0,1))</f>
@@ -4998,6 +5081,7 @@
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F97" s="0"/>
       <c r="G97" s="1"/>
       <c r="I97" s="0" t="n">
         <f aca="false">IF(ISBLANK(B97),0,IF(D97="N/A",0,1))</f>
@@ -5019,6 +5103,8 @@
       <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D98" s="0"/>
+      <c r="F98" s="0"/>
       <c r="G98" s="1"/>
       <c r="I98" s="0" t="n">
         <f aca="false">IF(ISBLANK(B98),0,IF(D98="N/A",0,1))</f>
@@ -5043,6 +5129,7 @@
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F99" s="0"/>
       <c r="G99" s="1"/>
       <c r="I99" s="0" t="n">
         <f aca="false">IF(ISBLANK(B99),0,IF(D99="N/A",0,1))</f>
@@ -5064,6 +5151,8 @@
       <c r="C100" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D100" s="0"/>
+      <c r="F100" s="0"/>
       <c r="G100" s="1"/>
       <c r="I100" s="0" t="n">
         <f aca="false">IF(ISBLANK(B100),0,IF(D100="N/A",0,1))</f>
@@ -5085,6 +5174,8 @@
       <c r="C101" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D101" s="0"/>
+      <c r="F101" s="0"/>
       <c r="G101" s="1"/>
       <c r="I101" s="0" t="n">
         <f aca="false">IF(ISBLANK(B101),0,IF(D101="N/A",0,1))</f>
@@ -5106,6 +5197,8 @@
       <c r="C102" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D102" s="0"/>
+      <c r="F102" s="0"/>
       <c r="G102" s="1"/>
       <c r="I102" s="0" t="n">
         <f aca="false">IF(ISBLANK(B102),0,IF(D102="N/A",0,1))</f>
@@ -5127,6 +5220,8 @@
       <c r="C103" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D103" s="0"/>
+      <c r="F103" s="0"/>
       <c r="G103" s="1"/>
       <c r="I103" s="0" t="n">
         <f aca="false">IF(ISBLANK(B103),0,IF(D103="N/A",0,1))</f>
@@ -5148,6 +5243,8 @@
       <c r="C104" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D104" s="0"/>
+      <c r="F104" s="0"/>
       <c r="G104" s="1"/>
       <c r="I104" s="0" t="n">
         <f aca="false">IF(ISBLANK(B104),0,IF(D104="N/A",0,1))</f>
@@ -5169,6 +5266,8 @@
       <c r="C105" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D105" s="0"/>
+      <c r="F105" s="0"/>
       <c r="G105" s="1"/>
       <c r="I105" s="0" t="n">
         <f aca="false">IF(ISBLANK(B105),0,IF(D105="N/A",0,1))</f>
@@ -5190,6 +5289,8 @@
       <c r="C106" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D106" s="0"/>
+      <c r="F106" s="0"/>
       <c r="G106" s="1"/>
       <c r="I106" s="0" t="n">
         <f aca="false">IF(ISBLANK(B106),0,IF(D106="N/A",0,1))</f>
@@ -5211,6 +5312,8 @@
       <c r="C107" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D107" s="0"/>
+      <c r="F107" s="0"/>
       <c r="G107" s="1"/>
       <c r="I107" s="0" t="n">
         <f aca="false">IF(ISBLANK(B107),0,IF(D107="N/A",0,1))</f>
@@ -5235,6 +5338,7 @@
       <c r="D108" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F108" s="0"/>
       <c r="G108" s="1"/>
       <c r="I108" s="0" t="n">
         <f aca="false">IF(ISBLANK(B108),0,IF(D108="N/A",0,1))</f>
@@ -5256,6 +5360,8 @@
       <c r="C109" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D109" s="0"/>
+      <c r="F109" s="0"/>
       <c r="G109" s="1"/>
       <c r="I109" s="0" t="n">
         <f aca="false">IF(ISBLANK(B109),0,IF(D109="N/A",0,1))</f>
@@ -5277,6 +5383,8 @@
       <c r="C110" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D110" s="0"/>
+      <c r="F110" s="0"/>
       <c r="G110" s="1"/>
       <c r="I110" s="0" t="n">
         <f aca="false">IF(ISBLANK(B110),0,IF(D110="N/A",0,1))</f>
@@ -5298,6 +5406,8 @@
       <c r="C111" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D111" s="0"/>
+      <c r="F111" s="0"/>
       <c r="G111" s="1"/>
       <c r="I111" s="0" t="n">
         <f aca="false">IF(ISBLANK(B111),0,IF(D111="N/A",0,1))</f>
@@ -5319,6 +5429,8 @@
       <c r="C112" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D112" s="0"/>
+      <c r="F112" s="0"/>
       <c r="G112" s="1"/>
       <c r="I112" s="0" t="n">
         <f aca="false">IF(ISBLANK(B112),0,IF(D112="N/A",0,1))</f>
@@ -5340,6 +5452,8 @@
       <c r="C113" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D113" s="0"/>
+      <c r="F113" s="0"/>
       <c r="G113" s="1"/>
       <c r="I113" s="0" t="n">
         <f aca="false">IF(ISBLANK(B113),0,IF(D113="N/A",0,1))</f>
@@ -5361,6 +5475,8 @@
       <c r="C114" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D114" s="0"/>
+      <c r="F114" s="0"/>
       <c r="G114" s="1"/>
       <c r="I114" s="0" t="n">
         <f aca="false">IF(ISBLANK(B114),0,IF(D114="N/A",0,1))</f>
@@ -5385,6 +5501,7 @@
       <c r="D115" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F115" s="0"/>
       <c r="G115" s="1"/>
       <c r="I115" s="0" t="n">
         <f aca="false">IF(ISBLANK(B115),0,IF(D115="N/A",0,1))</f>
@@ -5409,6 +5526,7 @@
       <c r="D116" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F116" s="0"/>
       <c r="G116" s="1"/>
       <c r="I116" s="0" t="n">
         <f aca="false">IF(ISBLANK(B116),0,IF(D116="N/A",0,1))</f>
@@ -5430,6 +5548,8 @@
       <c r="C117" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D117" s="0"/>
+      <c r="F117" s="0"/>
       <c r="G117" s="1"/>
       <c r="I117" s="0" t="n">
         <f aca="false">IF(ISBLANK(B117),0,IF(D117="N/A",0,1))</f>
@@ -5451,6 +5571,8 @@
       <c r="C118" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D118" s="0"/>
+      <c r="F118" s="0"/>
       <c r="G118" s="1"/>
       <c r="I118" s="0" t="n">
         <f aca="false">IF(ISBLANK(B118),0,IF(D118="N/A",0,1))</f>
@@ -5472,6 +5594,8 @@
       <c r="C119" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D119" s="0"/>
+      <c r="F119" s="0"/>
       <c r="G119" s="1"/>
       <c r="I119" s="0" t="n">
         <f aca="false">IF(ISBLANK(B119),0,IF(D119="N/A",0,1))</f>
@@ -5493,6 +5617,8 @@
       <c r="C120" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D120" s="0"/>
+      <c r="F120" s="0"/>
       <c r="G120" s="1"/>
       <c r="I120" s="0" t="n">
         <f aca="false">IF(ISBLANK(B120),0,IF(D120="N/A",0,1))</f>
@@ -5514,6 +5640,8 @@
       <c r="C121" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D121" s="0"/>
+      <c r="F121" s="0"/>
       <c r="G121" s="1"/>
       <c r="I121" s="0" t="n">
         <f aca="false">IF(ISBLANK(B121),0,IF(D121="N/A",0,1))</f>
@@ -5535,6 +5663,8 @@
       <c r="C122" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D122" s="0"/>
+      <c r="F122" s="0"/>
       <c r="G122" s="1"/>
       <c r="I122" s="0" t="n">
         <f aca="false">IF(ISBLANK(B122),0,IF(D122="N/A",0,1))</f>
@@ -5559,6 +5689,7 @@
       <c r="D123" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F123" s="0"/>
       <c r="G123" s="1"/>
       <c r="I123" s="0" t="n">
         <f aca="false">IF(ISBLANK(B123),0,IF(D123="N/A",0,1))</f>
@@ -5580,6 +5711,8 @@
       <c r="C124" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D124" s="0"/>
+      <c r="F124" s="0"/>
       <c r="G124" s="1"/>
       <c r="I124" s="0" t="n">
         <f aca="false">IF(ISBLANK(B124),0,IF(D124="N/A",0,1))</f>
@@ -5601,6 +5734,8 @@
       <c r="C125" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D125" s="0"/>
+      <c r="F125" s="0"/>
       <c r="G125" s="1"/>
       <c r="I125" s="0" t="n">
         <f aca="false">IF(ISBLANK(B125),0,IF(D125="N/A",0,1))</f>
@@ -5622,6 +5757,8 @@
       <c r="C126" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D126" s="0"/>
+      <c r="F126" s="0"/>
       <c r="G126" s="1"/>
       <c r="I126" s="0" t="n">
         <f aca="false">IF(ISBLANK(B126),0,IF(D126="N/A",0,1))</f>
@@ -5646,6 +5783,7 @@
       <c r="D127" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F127" s="0"/>
       <c r="G127" s="1"/>
       <c r="I127" s="0" t="n">
         <f aca="false">IF(ISBLANK(B127),0,IF(D127="N/A",0,1))</f>
@@ -5670,6 +5808,7 @@
       <c r="D128" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F128" s="0"/>
       <c r="G128" s="1"/>
       <c r="I128" s="0" t="n">
         <f aca="false">IF(ISBLANK(B128),0,IF(D128="N/A",0,1))</f>
@@ -5691,6 +5830,8 @@
       <c r="C129" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D129" s="0"/>
+      <c r="F129" s="0"/>
       <c r="G129" s="1"/>
       <c r="I129" s="0" t="n">
         <f aca="false">IF(ISBLANK(B129),0,IF(D129="N/A",0,1))</f>
@@ -5715,6 +5856,7 @@
       <c r="D130" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F130" s="0"/>
       <c r="G130" s="1"/>
       <c r="I130" s="0" t="n">
         <f aca="false">IF(ISBLANK(B130),0,IF(D130="N/A",0,1))</f>
@@ -5736,6 +5878,8 @@
       <c r="C131" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D131" s="0"/>
+      <c r="F131" s="0"/>
       <c r="G131" s="1"/>
       <c r="I131" s="0" t="n">
         <f aca="false">IF(ISBLANK(B131),0,IF(D131="N/A",0,1))</f>
@@ -5757,6 +5901,8 @@
       <c r="C132" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D132" s="0"/>
+      <c r="F132" s="0"/>
       <c r="G132" s="1"/>
       <c r="I132" s="0" t="n">
         <f aca="false">IF(ISBLANK(B132),0,IF(D132="N/A",0,1))</f>
@@ -5778,6 +5924,8 @@
       <c r="C133" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D133" s="0"/>
+      <c r="F133" s="0"/>
       <c r="G133" s="1"/>
       <c r="I133" s="0" t="n">
         <f aca="false">IF(ISBLANK(B133),0,IF(D133="N/A",0,1))</f>
@@ -5802,6 +5950,7 @@
       <c r="D134" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F134" s="0"/>
       <c r="G134" s="1" t="s">
         <v>165</v>
       </c>
@@ -5825,6 +5974,8 @@
       <c r="C135" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D135" s="0"/>
+      <c r="F135" s="0"/>
       <c r="G135" s="1"/>
       <c r="I135" s="0" t="n">
         <f aca="false">IF(ISBLANK(B135),0,IF(D135="N/A",0,1))</f>
@@ -5846,6 +5997,8 @@
       <c r="C136" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D136" s="0"/>
+      <c r="F136" s="0"/>
       <c r="G136" s="1"/>
       <c r="I136" s="0" t="n">
         <f aca="false">IF(ISBLANK(B136),0,IF(D136="N/A",0,1))</f>
@@ -5870,6 +6023,7 @@
       <c r="D137" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F137" s="0"/>
       <c r="G137" s="1"/>
       <c r="I137" s="0" t="n">
         <f aca="false">IF(ISBLANK(B137),0,IF(D137="N/A",0,1))</f>
@@ -5891,6 +6045,8 @@
       <c r="C138" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D138" s="0"/>
+      <c r="F138" s="0"/>
       <c r="G138" s="1"/>
       <c r="I138" s="0" t="n">
         <f aca="false">IF(ISBLANK(B138),0,IF(D138="N/A",0,1))</f>
@@ -5912,6 +6068,8 @@
       <c r="C139" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D139" s="0"/>
+      <c r="F139" s="0"/>
       <c r="G139" s="1"/>
       <c r="I139" s="0" t="n">
         <f aca="false">IF(ISBLANK(B139),0,IF(D139="N/A",0,1))</f>
@@ -5936,6 +6094,7 @@
       <c r="D140" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F140" s="0"/>
       <c r="G140" s="1"/>
       <c r="I140" s="0" t="n">
         <f aca="false">IF(ISBLANK(B140),0,IF(D140="N/A",0,1))</f>
@@ -5957,6 +6116,8 @@
       <c r="C141" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D141" s="0"/>
+      <c r="F141" s="0"/>
       <c r="G141" s="1"/>
       <c r="I141" s="0" t="n">
         <f aca="false">IF(ISBLANK(B141),0,IF(D141="N/A",0,1))</f>
@@ -5978,6 +6139,8 @@
       <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D142" s="0"/>
+      <c r="F142" s="0"/>
       <c r="G142" s="1"/>
       <c r="I142" s="0" t="n">
         <f aca="false">IF(ISBLANK(B142),0,IF(D142="N/A",0,1))</f>
@@ -5999,6 +6162,8 @@
       <c r="C143" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D143" s="0"/>
+      <c r="F143" s="0"/>
       <c r="G143" s="1"/>
       <c r="I143" s="0" t="n">
         <f aca="false">IF(ISBLANK(B143),0,IF(D143="N/A",0,1))</f>
@@ -6020,6 +6185,8 @@
       <c r="C144" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D144" s="0"/>
+      <c r="F144" s="0"/>
       <c r="G144" s="1"/>
       <c r="I144" s="0" t="n">
         <f aca="false">IF(ISBLANK(B144),0,IF(D144="N/A",0,1))</f>
@@ -6044,6 +6211,7 @@
       <c r="D145" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F145" s="0"/>
       <c r="G145" s="1"/>
       <c r="I145" s="0" t="n">
         <f aca="false">IF(ISBLANK(B145),0,IF(D145="N/A",0,1))</f>
@@ -6068,6 +6236,7 @@
       <c r="D146" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F146" s="0"/>
       <c r="G146" s="1"/>
       <c r="I146" s="0" t="n">
         <f aca="false">IF(ISBLANK(B146),0,IF(D146="N/A",0,1))</f>
@@ -6092,6 +6261,7 @@
       <c r="D147" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F147" s="0"/>
       <c r="G147" s="1"/>
       <c r="I147" s="0" t="n">
         <f aca="false">IF(ISBLANK(B147),0,IF(D147="N/A",0,1))</f>
@@ -6113,6 +6283,8 @@
       <c r="C148" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D148" s="0"/>
+      <c r="F148" s="0"/>
       <c r="G148" s="1"/>
       <c r="I148" s="0" t="n">
         <f aca="false">IF(ISBLANK(B148),0,IF(D148="N/A",0,1))</f>
@@ -6134,6 +6306,8 @@
       <c r="C149" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D149" s="0"/>
+      <c r="F149" s="0"/>
       <c r="G149" s="1"/>
       <c r="I149" s="0" t="n">
         <f aca="false">IF(ISBLANK(B149),0,IF(D149="N/A",0,1))</f>
@@ -6155,6 +6329,8 @@
       <c r="C150" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D150" s="0"/>
+      <c r="F150" s="0"/>
       <c r="G150" s="1"/>
       <c r="I150" s="0" t="n">
         <f aca="false">IF(ISBLANK(B150),0,IF(D150="N/A",0,1))</f>
@@ -6176,6 +6352,8 @@
       <c r="C151" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D151" s="0"/>
+      <c r="F151" s="0"/>
       <c r="G151" s="1"/>
       <c r="I151" s="0" t="n">
         <f aca="false">IF(ISBLANK(B151),0,IF(D151="N/A",0,1))</f>
@@ -6197,6 +6375,8 @@
       <c r="C152" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D152" s="0"/>
+      <c r="F152" s="0"/>
       <c r="G152" s="1"/>
       <c r="I152" s="0" t="n">
         <f aca="false">IF(ISBLANK(B152),0,IF(D152="N/A",0,1))</f>
@@ -6218,6 +6398,8 @@
       <c r="C153" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D153" s="0"/>
+      <c r="F153" s="0"/>
       <c r="G153" s="1"/>
       <c r="I153" s="0" t="n">
         <f aca="false">IF(ISBLANK(B153),0,IF(D153="N/A",0,1))</f>
@@ -6239,6 +6421,8 @@
       <c r="C154" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D154" s="0"/>
+      <c r="F154" s="0"/>
       <c r="G154" s="1"/>
       <c r="I154" s="0" t="n">
         <f aca="false">IF(ISBLANK(B154),0,IF(D154="N/A",0,1))</f>
@@ -6263,6 +6447,7 @@
       <c r="D155" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F155" s="0"/>
       <c r="G155" s="1"/>
       <c r="I155" s="0" t="n">
         <f aca="false">IF(ISBLANK(B155),0,IF(D155="N/A",0,1))</f>
@@ -6284,6 +6469,8 @@
       <c r="C156" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D156" s="0"/>
+      <c r="F156" s="0"/>
       <c r="G156" s="1"/>
       <c r="I156" s="0" t="n">
         <f aca="false">IF(ISBLANK(B156),0,IF(D156="N/A",0,1))</f>
@@ -6305,6 +6492,8 @@
       <c r="C157" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D157" s="0"/>
+      <c r="F157" s="0"/>
       <c r="G157" s="1"/>
       <c r="I157" s="0" t="n">
         <f aca="false">IF(ISBLANK(B157),0,IF(D157="N/A",0,1))</f>
@@ -6326,6 +6515,8 @@
       <c r="C158" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D158" s="0"/>
+      <c r="F158" s="0"/>
       <c r="G158" s="1"/>
       <c r="I158" s="0" t="n">
         <f aca="false">IF(ISBLANK(B158),0,IF(D158="N/A",0,1))</f>
@@ -6347,6 +6538,8 @@
       <c r="C159" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D159" s="0"/>
+      <c r="F159" s="0"/>
       <c r="G159" s="1"/>
       <c r="I159" s="0" t="n">
         <f aca="false">IF(ISBLANK(B159),0,IF(D159="N/A",0,1))</f>
@@ -6371,6 +6564,7 @@
       <c r="D160" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F160" s="0"/>
       <c r="G160" s="1"/>
       <c r="I160" s="0" t="n">
         <f aca="false">IF(ISBLANK(B160),0,IF(D160="N/A",0,1))</f>
@@ -6392,6 +6586,8 @@
       <c r="C161" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D161" s="0"/>
+      <c r="F161" s="0"/>
       <c r="G161" s="1"/>
       <c r="I161" s="0" t="n">
         <f aca="false">IF(ISBLANK(B161),0,IF(D161="N/A",0,1))</f>
@@ -6416,6 +6612,7 @@
       <c r="D162" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F162" s="0"/>
       <c r="G162" s="1"/>
       <c r="I162" s="0" t="n">
         <f aca="false">IF(ISBLANK(B162),0,IF(D162="N/A",0,1))</f>
@@ -6440,6 +6637,7 @@
       <c r="D163" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F163" s="0"/>
       <c r="G163" s="1"/>
       <c r="I163" s="0" t="n">
         <f aca="false">IF(ISBLANK(B163),0,IF(D163="N/A",0,1))</f>
@@ -6461,6 +6659,8 @@
       <c r="C164" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D164" s="0"/>
+      <c r="F164" s="0"/>
       <c r="G164" s="1"/>
       <c r="I164" s="0" t="n">
         <f aca="false">IF(ISBLANK(B164),0,IF(D164="N/A",0,1))</f>
@@ -6485,6 +6685,7 @@
       <c r="D165" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F165" s="0"/>
       <c r="G165" s="1"/>
       <c r="I165" s="0" t="n">
         <f aca="false">IF(ISBLANK(B165),0,IF(D165="N/A",0,1))</f>
@@ -6509,6 +6710,7 @@
       <c r="D166" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F166" s="0"/>
       <c r="G166" s="1"/>
       <c r="I166" s="0" t="n">
         <f aca="false">IF(ISBLANK(B166),0,IF(D166="N/A",0,1))</f>
@@ -6533,6 +6735,7 @@
       <c r="D167" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F167" s="0"/>
       <c r="G167" s="1"/>
       <c r="I167" s="0" t="n">
         <f aca="false">IF(ISBLANK(B167),0,IF(D167="N/A",0,1))</f>
@@ -6554,6 +6757,8 @@
       <c r="C168" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D168" s="0"/>
+      <c r="F168" s="0"/>
       <c r="G168" s="1"/>
       <c r="I168" s="0" t="n">
         <f aca="false">IF(ISBLANK(B168),0,IF(D168="N/A",0,1))</f>
@@ -6575,6 +6780,8 @@
       <c r="C169" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D169" s="0"/>
+      <c r="F169" s="0"/>
       <c r="G169" s="1"/>
       <c r="I169" s="0" t="n">
         <f aca="false">IF(ISBLANK(B169),0,IF(D169="N/A",0,1))</f>
@@ -6596,6 +6803,8 @@
       <c r="C170" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D170" s="0"/>
+      <c r="F170" s="0"/>
       <c r="G170" s="1"/>
       <c r="I170" s="0" t="n">
         <f aca="false">IF(ISBLANK(B170),0,IF(D170="N/A",0,1))</f>
@@ -6617,6 +6826,8 @@
       <c r="C171" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D171" s="0"/>
+      <c r="F171" s="0"/>
       <c r="G171" s="1"/>
       <c r="I171" s="0" t="n">
         <f aca="false">IF(ISBLANK(B171),0,IF(D171="N/A",0,1))</f>
@@ -6638,6 +6849,8 @@
       <c r="C172" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D172" s="0"/>
+      <c r="F172" s="0"/>
       <c r="G172" s="1"/>
       <c r="I172" s="0" t="n">
         <f aca="false">IF(ISBLANK(B172),0,IF(D172="N/A",0,1))</f>
@@ -6659,6 +6872,8 @@
       <c r="C173" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D173" s="0"/>
+      <c r="F173" s="0"/>
       <c r="G173" s="1"/>
       <c r="I173" s="0" t="n">
         <f aca="false">IF(ISBLANK(B173),0,IF(D173="N/A",0,1))</f>
@@ -6680,6 +6895,8 @@
       <c r="C174" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D174" s="0"/>
+      <c r="F174" s="0"/>
       <c r="G174" s="1"/>
       <c r="I174" s="0" t="n">
         <f aca="false">IF(ISBLANK(B174),0,IF(D174="N/A",0,1))</f>
@@ -6701,6 +6918,8 @@
       <c r="C175" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D175" s="0"/>
+      <c r="F175" s="0"/>
       <c r="G175" s="1"/>
       <c r="I175" s="0" t="n">
         <f aca="false">IF(ISBLANK(B175),0,IF(D175="N/A",0,1))</f>
@@ -6722,6 +6941,8 @@
       <c r="C176" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D176" s="0"/>
+      <c r="F176" s="0"/>
       <c r="G176" s="1"/>
       <c r="I176" s="0" t="n">
         <f aca="false">IF(ISBLANK(B176),0,IF(D176="N/A",0,1))</f>
@@ -6743,6 +6964,8 @@
       <c r="C177" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D177" s="0"/>
+      <c r="F177" s="0"/>
       <c r="G177" s="1"/>
       <c r="I177" s="0" t="n">
         <f aca="false">IF(ISBLANK(B177),0,IF(D177="N/A",0,1))</f>
@@ -6764,6 +6987,8 @@
       <c r="C178" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D178" s="0"/>
+      <c r="F178" s="0"/>
       <c r="G178" s="1"/>
       <c r="I178" s="0" t="n">
         <f aca="false">IF(ISBLANK(B178),0,IF(D178="N/A",0,1))</f>
@@ -6788,6 +7013,7 @@
       <c r="D179" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F179" s="0"/>
       <c r="G179" s="1"/>
       <c r="I179" s="0" t="n">
         <f aca="false">IF(ISBLANK(B179),0,IF(D179="N/A",0,1))</f>
@@ -6812,6 +7038,7 @@
       <c r="D180" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F180" s="0"/>
       <c r="G180" s="1"/>
       <c r="I180" s="0" t="n">
         <f aca="false">IF(ISBLANK(B180),0,IF(D180="N/A",0,1))</f>
@@ -6836,6 +7063,7 @@
       <c r="D181" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F181" s="0"/>
       <c r="G181" s="1"/>
       <c r="I181" s="0" t="n">
         <f aca="false">IF(ISBLANK(B181),0,IF(D181="N/A",0,1))</f>
@@ -6857,6 +7085,8 @@
       <c r="C182" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D182" s="0"/>
+      <c r="F182" s="0"/>
       <c r="G182" s="1"/>
       <c r="I182" s="0" t="n">
         <f aca="false">IF(ISBLANK(B182),0,IF(D182="N/A",0,1))</f>
@@ -6878,6 +7108,8 @@
       <c r="C183" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D183" s="0"/>
+      <c r="F183" s="0"/>
       <c r="G183" s="1"/>
       <c r="I183" s="0" t="n">
         <f aca="false">IF(ISBLANK(B183),0,IF(D183="N/A",0,1))</f>
@@ -6902,6 +7134,7 @@
       <c r="D184" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F184" s="0"/>
       <c r="G184" s="1"/>
       <c r="I184" s="0" t="n">
         <f aca="false">IF(ISBLANK(B184),0,IF(D184="N/A",0,1))</f>
@@ -6923,6 +7156,8 @@
       <c r="C185" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D185" s="0"/>
+      <c r="F185" s="0"/>
       <c r="G185" s="1"/>
       <c r="I185" s="0" t="n">
         <f aca="false">IF(ISBLANK(B185),0,IF(D185="N/A",0,1))</f>
@@ -6944,6 +7179,8 @@
       <c r="C186" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D186" s="0"/>
+      <c r="F186" s="0"/>
       <c r="G186" s="1"/>
       <c r="I186" s="0" t="n">
         <f aca="false">IF(ISBLANK(B186),0,IF(D186="N/A",0,1))</f>
@@ -6965,6 +7202,8 @@
       <c r="C187" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D187" s="0"/>
+      <c r="F187" s="0"/>
       <c r="G187" s="1"/>
       <c r="I187" s="0" t="n">
         <f aca="false">IF(ISBLANK(B187),0,IF(D187="N/A",0,1))</f>
@@ -6986,6 +7225,8 @@
       <c r="C188" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D188" s="0"/>
+      <c r="F188" s="0"/>
       <c r="G188" s="1"/>
       <c r="I188" s="0" t="n">
         <f aca="false">IF(ISBLANK(B188),0,IF(D188="N/A",0,1))</f>
@@ -7007,6 +7248,8 @@
       <c r="C189" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D189" s="0"/>
+      <c r="F189" s="0"/>
       <c r="G189" s="1"/>
       <c r="I189" s="0" t="n">
         <f aca="false">IF(ISBLANK(B189),0,IF(D189="N/A",0,1))</f>
@@ -7031,6 +7274,7 @@
       <c r="D190" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F190" s="0"/>
       <c r="G190" s="1"/>
       <c r="I190" s="0" t="n">
         <f aca="false">IF(ISBLANK(B190),0,IF(D190="N/A",0,1))</f>
@@ -7052,6 +7296,8 @@
       <c r="C191" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D191" s="0"/>
+      <c r="F191" s="0"/>
       <c r="G191" s="1"/>
       <c r="I191" s="0" t="n">
         <f aca="false">IF(ISBLANK(B191),0,IF(D191="N/A",0,1))</f>
@@ -7073,6 +7319,8 @@
       <c r="C192" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D192" s="0"/>
+      <c r="F192" s="0"/>
       <c r="G192" s="1"/>
       <c r="I192" s="0" t="n">
         <f aca="false">IF(ISBLANK(B192),0,IF(D192="N/A",0,1))</f>
@@ -7094,6 +7342,8 @@
       <c r="C193" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D193" s="0"/>
+      <c r="F193" s="0"/>
       <c r="G193" s="1"/>
       <c r="I193" s="0" t="n">
         <f aca="false">IF(ISBLANK(B193),0,IF(D193="N/A",0,1))</f>
@@ -7115,6 +7365,8 @@
       <c r="C194" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D194" s="0"/>
+      <c r="F194" s="0"/>
       <c r="G194" s="1"/>
       <c r="I194" s="0" t="n">
         <f aca="false">IF(ISBLANK(B194),0,IF(D194="N/A",0,1))</f>
@@ -7139,6 +7391,7 @@
       <c r="D195" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F195" s="0"/>
       <c r="G195" s="1"/>
       <c r="I195" s="0" t="n">
         <f aca="false">IF(ISBLANK(B195),0,IF(D195="N/A",0,1))</f>
@@ -7160,6 +7413,8 @@
       <c r="C196" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D196" s="0"/>
+      <c r="F196" s="0"/>
       <c r="G196" s="1"/>
       <c r="I196" s="0" t="n">
         <f aca="false">IF(ISBLANK(B196),0,IF(D196="N/A",0,1))</f>
@@ -7181,6 +7436,8 @@
       <c r="C197" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D197" s="0"/>
+      <c r="F197" s="0"/>
       <c r="G197" s="1"/>
       <c r="I197" s="0" t="n">
         <f aca="false">IF(ISBLANK(B197),0,IF(D197="N/A",0,1))</f>
@@ -7202,6 +7459,8 @@
       <c r="C198" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D198" s="0"/>
+      <c r="F198" s="0"/>
       <c r="G198" s="1"/>
       <c r="I198" s="0" t="n">
         <f aca="false">IF(ISBLANK(B198),0,IF(D198="N/A",0,1))</f>
@@ -7223,6 +7482,8 @@
       <c r="C199" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D199" s="0"/>
+      <c r="F199" s="0"/>
       <c r="G199" s="1"/>
       <c r="I199" s="0" t="n">
         <f aca="false">IF(ISBLANK(B199),0,IF(D199="N/A",0,1))</f>
@@ -7244,6 +7505,8 @@
       <c r="C200" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D200" s="0"/>
+      <c r="F200" s="0"/>
       <c r="G200" s="1"/>
       <c r="I200" s="0" t="n">
         <f aca="false">IF(ISBLANK(B200),0,IF(D200="N/A",0,1))</f>
@@ -7265,6 +7528,8 @@
       <c r="C201" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D201" s="0"/>
+      <c r="F201" s="0"/>
       <c r="G201" s="1"/>
       <c r="I201" s="0" t="n">
         <f aca="false">IF(ISBLANK(B201),0,IF(D201="N/A",0,1))</f>
@@ -7286,6 +7551,8 @@
       <c r="C202" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D202" s="0"/>
+      <c r="F202" s="0"/>
       <c r="G202" s="1"/>
       <c r="I202" s="0" t="n">
         <f aca="false">IF(ISBLANK(B202),0,IF(D202="N/A",0,1))</f>
@@ -7307,6 +7574,8 @@
       <c r="C203" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D203" s="0"/>
+      <c r="F203" s="0"/>
       <c r="G203" s="1"/>
       <c r="I203" s="0" t="n">
         <f aca="false">IF(ISBLANK(B203),0,IF(D203="N/A",0,1))</f>
@@ -7328,6 +7597,8 @@
       <c r="C204" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D204" s="0"/>
+      <c r="F204" s="0"/>
       <c r="G204" s="1"/>
       <c r="I204" s="0" t="n">
         <f aca="false">IF(ISBLANK(B204),0,IF(D204="N/A",0,1))</f>
@@ -7349,6 +7620,8 @@
       <c r="C205" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D205" s="0"/>
+      <c r="F205" s="0"/>
       <c r="G205" s="1"/>
       <c r="I205" s="0" t="n">
         <f aca="false">IF(ISBLANK(B205),0,IF(D205="N/A",0,1))</f>
@@ -7370,6 +7643,8 @@
       <c r="C206" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D206" s="0"/>
+      <c r="F206" s="0"/>
       <c r="G206" s="1"/>
       <c r="I206" s="0" t="n">
         <f aca="false">IF(ISBLANK(B206),0,IF(D206="N/A",0,1))</f>
@@ -7391,6 +7666,8 @@
       <c r="C207" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D207" s="0"/>
+      <c r="F207" s="0"/>
       <c r="G207" s="1"/>
       <c r="I207" s="0" t="n">
         <f aca="false">IF(ISBLANK(B207),0,IF(D207="N/A",0,1))</f>
@@ -7412,6 +7689,8 @@
       <c r="C208" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D208" s="0"/>
+      <c r="F208" s="0"/>
       <c r="G208" s="1"/>
       <c r="I208" s="0" t="n">
         <f aca="false">IF(ISBLANK(B208),0,IF(D208="N/A",0,1))</f>
@@ -7433,6 +7712,8 @@
       <c r="C209" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D209" s="0"/>
+      <c r="F209" s="0"/>
       <c r="G209" s="1"/>
       <c r="I209" s="0" t="n">
         <f aca="false">IF(ISBLANK(B209),0,IF(D209="N/A",0,1))</f>
@@ -7457,6 +7738,7 @@
       <c r="D210" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F210" s="0"/>
       <c r="G210" s="1"/>
       <c r="I210" s="0" t="n">
         <f aca="false">IF(ISBLANK(B210),0,IF(D210="N/A",0,1))</f>
@@ -7478,6 +7760,8 @@
       <c r="C211" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D211" s="0"/>
+      <c r="F211" s="0"/>
       <c r="G211" s="1"/>
       <c r="I211" s="0" t="n">
         <f aca="false">IF(ISBLANK(B211),0,IF(D211="N/A",0,1))</f>
@@ -7502,6 +7786,7 @@
       <c r="D212" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F212" s="0"/>
       <c r="G212" s="1" t="s">
         <v>246</v>
       </c>
@@ -7525,6 +7810,8 @@
       <c r="C213" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D213" s="0"/>
+      <c r="F213" s="0"/>
       <c r="G213" s="1"/>
       <c r="I213" s="0" t="n">
         <f aca="false">IF(ISBLANK(B213),0,IF(D213="N/A",0,1))</f>
@@ -7549,6 +7836,7 @@
       <c r="D214" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F214" s="0"/>
       <c r="G214" s="1" t="s">
         <v>249</v>
       </c>
@@ -7572,6 +7860,8 @@
       <c r="C215" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D215" s="0"/>
+      <c r="F215" s="0"/>
       <c r="G215" s="1"/>
       <c r="I215" s="0" t="n">
         <f aca="false">IF(ISBLANK(B215),0,IF(D215="N/A",0,1))</f>
@@ -7593,6 +7883,8 @@
       <c r="C216" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D216" s="0"/>
+      <c r="F216" s="0"/>
       <c r="G216" s="1"/>
       <c r="I216" s="0" t="n">
         <f aca="false">IF(ISBLANK(B216),0,IF(D216="N/A",0,1))</f>
@@ -7614,6 +7906,8 @@
       <c r="C217" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D217" s="0"/>
+      <c r="F217" s="0"/>
       <c r="G217" s="1"/>
       <c r="I217" s="0" t="n">
         <f aca="false">IF(ISBLANK(B217),0,IF(D217="N/A",0,1))</f>
@@ -7635,6 +7929,8 @@
       <c r="C218" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D218" s="0"/>
+      <c r="F218" s="0"/>
       <c r="G218" s="1"/>
       <c r="I218" s="0" t="n">
         <f aca="false">IF(ISBLANK(B218),0,IF(D218="N/A",0,1))</f>
@@ -7656,6 +7952,8 @@
       <c r="C219" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D219" s="0"/>
+      <c r="F219" s="0"/>
       <c r="G219" s="1"/>
       <c r="I219" s="0" t="n">
         <f aca="false">IF(ISBLANK(B219),0,IF(D219="N/A",0,1))</f>
@@ -7680,6 +7978,7 @@
       <c r="D220" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F220" s="0"/>
       <c r="G220" s="1"/>
       <c r="I220" s="0" t="n">
         <f aca="false">IF(ISBLANK(B220),0,IF(D220="N/A",0,1))</f>
@@ -7704,6 +8003,7 @@
       <c r="D221" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F221" s="0"/>
       <c r="G221" s="1"/>
       <c r="I221" s="0" t="n">
         <f aca="false">IF(ISBLANK(B221),0,IF(D221="N/A",0,1))</f>
@@ -7728,6 +8028,7 @@
       <c r="D222" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F222" s="0"/>
       <c r="G222" s="1"/>
       <c r="I222" s="0" t="n">
         <f aca="false">IF(ISBLANK(B222),0,IF(D222="N/A",0,1))</f>
@@ -7749,6 +8050,8 @@
       <c r="C223" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D223" s="0"/>
+      <c r="F223" s="0"/>
       <c r="G223" s="1"/>
       <c r="I223" s="0" t="n">
         <f aca="false">IF(ISBLANK(B223),0,IF(D223="N/A",0,1))</f>
@@ -7773,6 +8076,7 @@
       <c r="D224" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F224" s="0"/>
       <c r="G224" s="1"/>
       <c r="I224" s="0" t="n">
         <f aca="false">IF(ISBLANK(B224),0,IF(D224="N/A",0,1))</f>
@@ -7797,6 +8101,7 @@
       <c r="D225" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F225" s="0"/>
       <c r="G225" s="1"/>
       <c r="I225" s="0" t="n">
         <f aca="false">IF(ISBLANK(B225),0,IF(D225="N/A",0,1))</f>
@@ -7821,6 +8126,7 @@
       <c r="D226" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F226" s="0"/>
       <c r="G226" s="1"/>
       <c r="I226" s="0" t="n">
         <f aca="false">IF(ISBLANK(B226),0,IF(D226="N/A",0,1))</f>
@@ -7845,6 +8151,7 @@
       <c r="D227" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F227" s="0"/>
       <c r="G227" s="1"/>
       <c r="I227" s="0" t="n">
         <f aca="false">IF(ISBLANK(B227),0,IF(D227="N/A",0,1))</f>
@@ -7866,6 +8173,8 @@
       <c r="C228" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D228" s="0"/>
+      <c r="F228" s="0"/>
       <c r="G228" s="1"/>
       <c r="I228" s="0" t="n">
         <f aca="false">IF(ISBLANK(B228),0,IF(D228="N/A",0,1))</f>
@@ -7887,6 +8196,8 @@
       <c r="C229" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D229" s="0"/>
+      <c r="F229" s="0"/>
       <c r="G229" s="1"/>
       <c r="I229" s="0" t="n">
         <f aca="false">IF(ISBLANK(B229),0,IF(D229="N/A",0,1))</f>
@@ -7908,6 +8219,8 @@
       <c r="C230" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D230" s="0"/>
+      <c r="F230" s="0"/>
       <c r="G230" s="1"/>
       <c r="I230" s="0" t="n">
         <f aca="false">IF(ISBLANK(B230),0,IF(D230="N/A",0,1))</f>
@@ -7929,6 +8242,8 @@
       <c r="C231" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D231" s="0"/>
+      <c r="F231" s="0"/>
       <c r="G231" s="1"/>
       <c r="I231" s="0" t="n">
         <f aca="false">IF(ISBLANK(B231),0,IF(D231="N/A",0,1))</f>
@@ -7950,6 +8265,8 @@
       <c r="C232" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D232" s="0"/>
+      <c r="F232" s="0"/>
       <c r="G232" s="1"/>
       <c r="I232" s="0" t="n">
         <f aca="false">IF(ISBLANK(B232),0,IF(D232="N/A",0,1))</f>
@@ -7971,6 +8288,8 @@
       <c r="C233" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D233" s="0"/>
+      <c r="F233" s="0"/>
       <c r="G233" s="1"/>
       <c r="I233" s="0" t="n">
         <f aca="false">IF(ISBLANK(B233),0,IF(D233="N/A",0,1))</f>
@@ -7995,6 +8314,7 @@
       <c r="D234" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F234" s="0"/>
       <c r="G234" s="1"/>
       <c r="I234" s="0" t="n">
         <f aca="false">IF(ISBLANK(B234),0,IF(D234="N/A",0,1))</f>
@@ -8019,6 +8339,7 @@
       <c r="D235" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F235" s="0"/>
       <c r="G235" s="1"/>
       <c r="I235" s="0" t="n">
         <f aca="false">IF(ISBLANK(B235),0,IF(D235="N/A",0,1))</f>
@@ -8043,6 +8364,7 @@
       <c r="D236" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F236" s="0"/>
       <c r="G236" s="1"/>
       <c r="I236" s="0" t="n">
         <f aca="false">IF(ISBLANK(B236),0,IF(D236="N/A",0,1))</f>
@@ -8064,6 +8386,8 @@
       <c r="C237" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D237" s="0"/>
+      <c r="F237" s="0"/>
       <c r="G237" s="1"/>
       <c r="I237" s="0" t="n">
         <f aca="false">IF(ISBLANK(B237),0,IF(D237="N/A",0,1))</f>
@@ -8085,6 +8409,8 @@
       <c r="C238" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D238" s="0"/>
+      <c r="F238" s="0"/>
       <c r="G238" s="1"/>
       <c r="I238" s="0" t="n">
         <f aca="false">IF(ISBLANK(B238),0,IF(D238="N/A",0,1))</f>
@@ -8106,6 +8432,8 @@
       <c r="C239" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D239" s="0"/>
+      <c r="F239" s="0"/>
       <c r="G239" s="1"/>
       <c r="I239" s="0" t="n">
         <f aca="false">IF(ISBLANK(B239),0,IF(D239="N/A",0,1))</f>
@@ -8127,6 +8455,8 @@
       <c r="C240" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D240" s="0"/>
+      <c r="F240" s="0"/>
       <c r="G240" s="1"/>
       <c r="I240" s="0" t="n">
         <f aca="false">IF(ISBLANK(B240),0,IF(D240="N/A",0,1))</f>
@@ -8148,6 +8478,8 @@
       <c r="C241" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D241" s="0"/>
+      <c r="F241" s="0"/>
       <c r="G241" s="1"/>
       <c r="I241" s="0" t="n">
         <f aca="false">IF(ISBLANK(B241),0,IF(D241="N/A",0,1))</f>
@@ -8169,6 +8501,8 @@
       <c r="C242" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D242" s="0"/>
+      <c r="F242" s="0"/>
       <c r="G242" s="1"/>
       <c r="I242" s="0" t="n">
         <f aca="false">IF(ISBLANK(B242),0,IF(D242="N/A",0,1))</f>
@@ -8190,6 +8524,8 @@
       <c r="C243" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D243" s="0"/>
+      <c r="F243" s="0"/>
       <c r="G243" s="1"/>
       <c r="I243" s="0" t="n">
         <f aca="false">IF(ISBLANK(B243),0,IF(D243="N/A",0,1))</f>
@@ -8211,6 +8547,8 @@
       <c r="C244" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D244" s="0"/>
+      <c r="F244" s="0"/>
       <c r="G244" s="1"/>
       <c r="I244" s="0" t="n">
         <f aca="false">IF(ISBLANK(B244),0,IF(D244="N/A",0,1))</f>
@@ -8232,6 +8570,8 @@
       <c r="C245" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D245" s="0"/>
+      <c r="F245" s="0"/>
       <c r="G245" s="1"/>
       <c r="I245" s="0" t="n">
         <f aca="false">IF(ISBLANK(B245),0,IF(D245="N/A",0,1))</f>
@@ -8253,6 +8593,8 @@
       <c r="C246" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D246" s="0"/>
+      <c r="F246" s="0"/>
       <c r="G246" s="1"/>
       <c r="I246" s="0" t="n">
         <f aca="false">IF(ISBLANK(B246),0,IF(D246="N/A",0,1))</f>
@@ -8277,6 +8619,7 @@
       <c r="D247" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F247" s="0"/>
       <c r="G247" s="1"/>
       <c r="I247" s="0" t="n">
         <f aca="false">IF(ISBLANK(B247),0,IF(D247="N/A",0,1))</f>
@@ -8298,6 +8641,8 @@
       <c r="C248" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D248" s="0"/>
+      <c r="F248" s="0"/>
       <c r="G248" s="1"/>
       <c r="I248" s="0" t="n">
         <f aca="false">IF(ISBLANK(B248),0,IF(D248="N/A",0,1))</f>
@@ -8322,6 +8667,7 @@
       <c r="D249" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F249" s="0"/>
       <c r="G249" s="1"/>
       <c r="I249" s="0" t="n">
         <f aca="false">IF(ISBLANK(B249),0,IF(D249="N/A",0,1))</f>
@@ -8343,6 +8689,8 @@
       <c r="C250" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D250" s="0"/>
+      <c r="F250" s="0"/>
       <c r="G250" s="1"/>
       <c r="I250" s="0" t="n">
         <f aca="false">IF(ISBLANK(B250),0,IF(D250="N/A",0,1))</f>
@@ -8364,6 +8712,8 @@
       <c r="C251" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D251" s="0"/>
+      <c r="F251" s="0"/>
       <c r="G251" s="1"/>
       <c r="I251" s="0" t="n">
         <f aca="false">IF(ISBLANK(B251),0,IF(D251="N/A",0,1))</f>
@@ -8385,6 +8735,8 @@
       <c r="C252" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D252" s="0"/>
+      <c r="F252" s="0"/>
       <c r="G252" s="1"/>
       <c r="I252" s="0" t="n">
         <f aca="false">IF(ISBLANK(B252),0,IF(D252="N/A",0,1))</f>
@@ -8406,6 +8758,8 @@
       <c r="C253" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D253" s="0"/>
+      <c r="F253" s="0"/>
       <c r="G253" s="1"/>
       <c r="I253" s="0" t="n">
         <f aca="false">IF(ISBLANK(B253),0,IF(D253="N/A",0,1))</f>
@@ -8427,6 +8781,8 @@
       <c r="C254" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D254" s="0"/>
+      <c r="F254" s="0"/>
       <c r="G254" s="1"/>
       <c r="I254" s="0" t="n">
         <f aca="false">IF(ISBLANK(B254),0,IF(D254="N/A",0,1))</f>
@@ -8448,6 +8804,8 @@
       <c r="C255" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D255" s="0"/>
+      <c r="F255" s="0"/>
       <c r="G255" s="1"/>
       <c r="I255" s="0" t="n">
         <f aca="false">IF(ISBLANK(B255),0,IF(D255="N/A",0,1))</f>
@@ -8469,6 +8827,8 @@
       <c r="C256" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D256" s="0"/>
+      <c r="F256" s="0"/>
       <c r="G256" s="1"/>
       <c r="I256" s="0" t="n">
         <f aca="false">IF(ISBLANK(B256),0,IF(D256="N/A",0,1))</f>
@@ -8490,6 +8850,8 @@
       <c r="C257" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D257" s="0"/>
+      <c r="F257" s="0"/>
       <c r="G257" s="1"/>
       <c r="I257" s="0" t="n">
         <f aca="false">IF(ISBLANK(B257),0,IF(D257="N/A",0,1))</f>
@@ -8511,6 +8873,8 @@
       <c r="C258" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D258" s="0"/>
+      <c r="F258" s="0"/>
       <c r="G258" s="1"/>
       <c r="I258" s="0" t="n">
         <f aca="false">IF(ISBLANK(B258),0,IF(D258="N/A",0,1))</f>
@@ -8532,6 +8896,8 @@
       <c r="C259" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D259" s="0"/>
+      <c r="F259" s="0"/>
       <c r="G259" s="1"/>
       <c r="I259" s="0" t="n">
         <f aca="false">IF(ISBLANK(B259),0,IF(D259="N/A",0,1))</f>
@@ -8553,6 +8919,8 @@
       <c r="C260" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D260" s="0"/>
+      <c r="F260" s="0"/>
       <c r="G260" s="1"/>
       <c r="I260" s="0" t="n">
         <f aca="false">IF(ISBLANK(B260),0,IF(D260="N/A",0,1))</f>
@@ -8577,6 +8945,7 @@
       <c r="D261" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F261" s="0"/>
       <c r="G261" s="1" t="s">
         <v>297</v>
       </c>
@@ -8600,6 +8969,8 @@
       <c r="C262" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D262" s="0"/>
+      <c r="F262" s="0"/>
       <c r="G262" s="1"/>
       <c r="I262" s="0" t="n">
         <f aca="false">IF(ISBLANK(B262),0,IF(D262="N/A",0,1))</f>
@@ -8621,6 +8992,8 @@
       <c r="C263" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D263" s="0"/>
+      <c r="F263" s="0"/>
       <c r="G263" s="1"/>
       <c r="I263" s="0" t="n">
         <f aca="false">IF(ISBLANK(B263),0,IF(D263="N/A",0,1))</f>
@@ -8642,6 +9015,8 @@
       <c r="C264" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D264" s="0"/>
+      <c r="F264" s="0"/>
       <c r="G264" s="1"/>
       <c r="I264" s="0" t="n">
         <f aca="false">IF(ISBLANK(B264),0,IF(D264="N/A",0,1))</f>
@@ -8663,6 +9038,8 @@
       <c r="C265" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D265" s="0"/>
+      <c r="F265" s="0"/>
       <c r="G265" s="1"/>
       <c r="I265" s="0" t="n">
         <f aca="false">IF(ISBLANK(B265),0,IF(D265="N/A",0,1))</f>
@@ -8684,6 +9061,8 @@
       <c r="C266" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D266" s="0"/>
+      <c r="F266" s="0"/>
       <c r="G266" s="1"/>
       <c r="I266" s="0" t="n">
         <f aca="false">IF(ISBLANK(B266),0,IF(D266="N/A",0,1))</f>
@@ -8708,6 +9087,7 @@
       <c r="D267" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F267" s="0"/>
       <c r="G267" s="1"/>
       <c r="I267" s="0" t="n">
         <f aca="false">IF(ISBLANK(B267),0,IF(D267="N/A",0,1))</f>
@@ -8732,6 +9112,7 @@
       <c r="D268" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F268" s="0"/>
       <c r="G268" s="1"/>
       <c r="I268" s="0" t="n">
         <f aca="false">IF(ISBLANK(B268),0,IF(D268="N/A",0,1))</f>
@@ -8753,6 +9134,8 @@
       <c r="C269" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D269" s="0"/>
+      <c r="F269" s="0"/>
       <c r="G269" s="1"/>
       <c r="I269" s="0" t="n">
         <f aca="false">IF(ISBLANK(B269),0,IF(D269="N/A",0,1))</f>
@@ -8774,6 +9157,8 @@
       <c r="C270" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D270" s="0"/>
+      <c r="F270" s="0"/>
       <c r="G270" s="1"/>
       <c r="I270" s="0" t="n">
         <f aca="false">IF(ISBLANK(B270),0,IF(D270="N/A",0,1))</f>
@@ -8795,6 +9180,8 @@
       <c r="C271" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D271" s="0"/>
+      <c r="F271" s="0"/>
       <c r="G271" s="1"/>
       <c r="I271" s="0" t="n">
         <f aca="false">IF(ISBLANK(B271),0,IF(D271="N/A",0,1))</f>
@@ -8816,6 +9203,8 @@
       <c r="C272" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D272" s="0"/>
+      <c r="F272" s="0"/>
       <c r="G272" s="1"/>
       <c r="I272" s="0" t="n">
         <f aca="false">IF(ISBLANK(B272),0,IF(D272="N/A",0,1))</f>
@@ -8837,6 +9226,8 @@
       <c r="C273" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D273" s="0"/>
+      <c r="F273" s="0"/>
       <c r="G273" s="1"/>
       <c r="I273" s="0" t="n">
         <f aca="false">IF(ISBLANK(B273),0,IF(D273="N/A",0,1))</f>
@@ -8858,6 +9249,8 @@
       <c r="C274" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D274" s="0"/>
+      <c r="F274" s="0"/>
       <c r="G274" s="1"/>
       <c r="I274" s="0" t="n">
         <f aca="false">IF(ISBLANK(B274),0,IF(D274="N/A",0,1))</f>
@@ -8879,6 +9272,8 @@
       <c r="C275" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D275" s="0"/>
+      <c r="F275" s="0"/>
       <c r="G275" s="1"/>
       <c r="I275" s="0" t="n">
         <f aca="false">IF(ISBLANK(B275),0,IF(D275="N/A",0,1))</f>
@@ -8903,6 +9298,7 @@
       <c r="D276" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F276" s="0"/>
       <c r="G276" s="1"/>
       <c r="I276" s="0" t="n">
         <f aca="false">IF(ISBLANK(B276),0,IF(D276="N/A",0,1))</f>
@@ -8927,6 +9323,7 @@
       <c r="D277" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F277" s="0"/>
       <c r="G277" s="1"/>
       <c r="I277" s="0" t="n">
         <f aca="false">IF(ISBLANK(B277),0,IF(D277="N/A",0,1))</f>
@@ -8948,6 +9345,8 @@
       <c r="C278" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D278" s="0"/>
+      <c r="F278" s="0"/>
       <c r="G278" s="1"/>
       <c r="I278" s="0" t="n">
         <f aca="false">IF(ISBLANK(B278),0,IF(D278="N/A",0,1))</f>
@@ -8969,6 +9368,8 @@
       <c r="C279" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D279" s="0"/>
+      <c r="F279" s="0"/>
       <c r="G279" s="1"/>
       <c r="I279" s="0" t="n">
         <f aca="false">IF(ISBLANK(B279),0,IF(D279="N/A",0,1))</f>
@@ -8990,6 +9391,8 @@
       <c r="C280" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D280" s="0"/>
+      <c r="F280" s="0"/>
       <c r="G280" s="1"/>
       <c r="I280" s="0" t="n">
         <f aca="false">IF(ISBLANK(B280),0,IF(D280="N/A",0,1))</f>
@@ -9011,6 +9414,8 @@
       <c r="C281" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D281" s="0"/>
+      <c r="F281" s="0"/>
       <c r="G281" s="1"/>
       <c r="I281" s="0" t="n">
         <f aca="false">IF(ISBLANK(B281),0,IF(D281="N/A",0,1))</f>
@@ -9035,6 +9440,7 @@
       <c r="D282" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F282" s="0"/>
       <c r="G282" s="1"/>
       <c r="I282" s="0" t="n">
         <f aca="false">IF(ISBLANK(B282),0,IF(D282="N/A",0,1))</f>
@@ -9056,6 +9462,8 @@
       <c r="C283" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D283" s="0"/>
+      <c r="F283" s="0"/>
       <c r="G283" s="1"/>
       <c r="I283" s="0" t="n">
         <f aca="false">IF(ISBLANK(B283),0,IF(D283="N/A",0,1))</f>
@@ -9080,6 +9488,7 @@
       <c r="D284" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F284" s="0"/>
       <c r="G284" s="1"/>
       <c r="I284" s="0" t="n">
         <f aca="false">IF(ISBLANK(B284),0,IF(D284="N/A",0,1))</f>
@@ -9101,6 +9510,8 @@
       <c r="C285" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D285" s="0"/>
+      <c r="F285" s="0"/>
       <c r="G285" s="1"/>
       <c r="I285" s="0" t="n">
         <f aca="false">IF(ISBLANK(B285),0,IF(D285="N/A",0,1))</f>
@@ -9122,6 +9533,8 @@
       <c r="C286" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D286" s="0"/>
+      <c r="F286" s="0"/>
       <c r="G286" s="1"/>
       <c r="I286" s="0" t="n">
         <f aca="false">IF(ISBLANK(B286),0,IF(D286="N/A",0,1))</f>
@@ -9146,6 +9559,7 @@
       <c r="D287" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F287" s="0"/>
       <c r="G287" s="1"/>
       <c r="I287" s="0" t="n">
         <f aca="false">IF(ISBLANK(B287),0,IF(D287="N/A",0,1))</f>
@@ -9170,6 +9584,7 @@
       <c r="D288" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F288" s="0"/>
       <c r="G288" s="1"/>
       <c r="I288" s="0" t="n">
         <f aca="false">IF(ISBLANK(B288),0,IF(D288="N/A",0,1))</f>
@@ -9191,6 +9606,8 @@
       <c r="C289" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D289" s="0"/>
+      <c r="F289" s="0"/>
       <c r="G289" s="1"/>
       <c r="I289" s="0" t="n">
         <f aca="false">IF(ISBLANK(B289),0,IF(D289="N/A",0,1))</f>
@@ -9212,6 +9629,8 @@
       <c r="C290" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D290" s="0"/>
+      <c r="F290" s="0"/>
       <c r="G290" s="1"/>
       <c r="I290" s="0" t="n">
         <f aca="false">IF(ISBLANK(B290),0,IF(D290="N/A",0,1))</f>
@@ -9233,6 +9652,8 @@
       <c r="C291" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D291" s="0"/>
+      <c r="F291" s="0"/>
       <c r="G291" s="1"/>
       <c r="I291" s="0" t="n">
         <f aca="false">IF(ISBLANK(B291),0,IF(D291="N/A",0,1))</f>
@@ -9254,6 +9675,8 @@
       <c r="C292" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D292" s="0"/>
+      <c r="F292" s="0"/>
       <c r="G292" s="1"/>
       <c r="I292" s="0" t="n">
         <f aca="false">IF(ISBLANK(B292),0,IF(D292="N/A",0,1))</f>
@@ -9275,6 +9698,8 @@
       <c r="C293" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D293" s="0"/>
+      <c r="F293" s="0"/>
       <c r="G293" s="1"/>
       <c r="I293" s="0" t="n">
         <f aca="false">IF(ISBLANK(B293),0,IF(D293="N/A",0,1))</f>
@@ -9296,6 +9721,8 @@
       <c r="C294" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D294" s="0"/>
+      <c r="F294" s="0"/>
       <c r="G294" s="1"/>
       <c r="I294" s="0" t="n">
         <f aca="false">IF(ISBLANK(B294),0,IF(D294="N/A",0,1))</f>
@@ -9317,6 +9744,8 @@
       <c r="C295" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D295" s="0"/>
+      <c r="F295" s="0"/>
       <c r="G295" s="1"/>
       <c r="I295" s="0" t="n">
         <f aca="false">IF(ISBLANK(B295),0,IF(D295="N/A",0,1))</f>
@@ -9341,6 +9770,7 @@
       <c r="D296" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F296" s="0"/>
       <c r="G296" s="1"/>
       <c r="I296" s="0" t="n">
         <f aca="false">IF(ISBLANK(B296),0,IF(D296="N/A",0,1))</f>
@@ -9365,6 +9795,7 @@
       <c r="D297" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F297" s="0"/>
       <c r="G297" s="1"/>
       <c r="I297" s="0" t="n">
         <f aca="false">IF(ISBLANK(B297),0,IF(D297="N/A",0,1))</f>
@@ -9386,6 +9817,8 @@
       <c r="C298" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D298" s="0"/>
+      <c r="F298" s="0"/>
       <c r="G298" s="1"/>
       <c r="I298" s="0" t="n">
         <f aca="false">IF(ISBLANK(B298),0,IF(D298="N/A",0,1))</f>
@@ -9410,6 +9843,7 @@
       <c r="D299" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F299" s="0"/>
       <c r="G299" s="1"/>
       <c r="I299" s="0" t="n">
         <f aca="false">IF(ISBLANK(B299),0,IF(D299="N/A",0,1))</f>
@@ -9431,6 +9865,8 @@
       <c r="C300" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D300" s="0"/>
+      <c r="F300" s="0"/>
       <c r="G300" s="1"/>
       <c r="I300" s="0" t="n">
         <f aca="false">IF(ISBLANK(B300),0,IF(D300="N/A",0,1))</f>
@@ -9452,6 +9888,8 @@
       <c r="C301" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D301" s="0"/>
+      <c r="F301" s="0"/>
       <c r="G301" s="1"/>
       <c r="I301" s="0" t="n">
         <f aca="false">IF(ISBLANK(B301),0,IF(D301="N/A",0,1))</f>
@@ -9473,6 +9911,8 @@
       <c r="C302" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D302" s="0"/>
+      <c r="F302" s="0"/>
       <c r="G302" s="1"/>
       <c r="I302" s="0" t="n">
         <f aca="false">IF(ISBLANK(B302),0,IF(D302="N/A",0,1))</f>
@@ -9494,6 +9934,8 @@
       <c r="C303" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D303" s="0"/>
+      <c r="F303" s="0"/>
       <c r="G303" s="1"/>
       <c r="I303" s="0" t="n">
         <f aca="false">IF(ISBLANK(B303),0,IF(D303="N/A",0,1))</f>
@@ -9515,6 +9957,8 @@
       <c r="C304" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D304" s="0"/>
+      <c r="F304" s="0"/>
       <c r="G304" s="1"/>
       <c r="I304" s="0" t="n">
         <f aca="false">IF(ISBLANK(B304),0,IF(D304="N/A",0,1))</f>
@@ -9536,6 +9980,8 @@
       <c r="C305" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D305" s="0"/>
+      <c r="F305" s="0"/>
       <c r="G305" s="1"/>
       <c r="I305" s="0" t="n">
         <f aca="false">IF(ISBLANK(B305),0,IF(D305="N/A",0,1))</f>
@@ -9560,6 +10006,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F306" s="0"/>
       <c r="G306" s="1"/>
       <c r="I306" s="0" t="n">
         <f aca="false">IF(ISBLANK(B306),0,IF(D306="N/A",0,1))</f>
@@ -9584,6 +10031,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F307" s="0"/>
       <c r="G307" s="1"/>
       <c r="I307" s="0" t="n">
         <f aca="false">IF(ISBLANK(B307),0,IF(D307="N/A",0,1))</f>
@@ -9608,6 +10056,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F308" s="0"/>
       <c r="G308" s="1"/>
       <c r="I308" s="0" t="n">
         <f aca="false">IF(ISBLANK(B308),0,IF(D308="N/A",0,1))</f>
@@ -9629,6 +10078,8 @@
       <c r="C309" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D309" s="0"/>
+      <c r="F309" s="0"/>
       <c r="G309" s="1"/>
       <c r="I309" s="0" t="n">
         <f aca="false">IF(ISBLANK(B309),0,IF(D309="N/A",0,1))</f>
@@ -9650,6 +10101,8 @@
       <c r="C310" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D310" s="0"/>
+      <c r="F310" s="0"/>
       <c r="G310" s="1"/>
       <c r="I310" s="0" t="n">
         <f aca="false">IF(ISBLANK(B310),0,IF(D310="N/A",0,1))</f>
@@ -9671,6 +10124,8 @@
       <c r="C311" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D311" s="0"/>
+      <c r="F311" s="0"/>
       <c r="G311" s="1"/>
       <c r="I311" s="0" t="n">
         <f aca="false">IF(ISBLANK(B311),0,IF(D311="N/A",0,1))</f>
@@ -9695,6 +10150,7 @@
       <c r="D312" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F312" s="0"/>
       <c r="G312" s="1"/>
       <c r="I312" s="0" t="n">
         <f aca="false">IF(ISBLANK(B312),0,IF(D312="N/A",0,1))</f>
@@ -9716,6 +10172,8 @@
       <c r="C313" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D313" s="0"/>
+      <c r="F313" s="0"/>
       <c r="G313" s="1"/>
       <c r="I313" s="0" t="n">
         <f aca="false">IF(ISBLANK(B313),0,IF(D313="N/A",0,1))</f>
@@ -9737,6 +10195,8 @@
       <c r="C314" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D314" s="0"/>
+      <c r="F314" s="0"/>
       <c r="G314" s="1"/>
       <c r="I314" s="0" t="n">
         <f aca="false">IF(ISBLANK(B314),0,IF(D314="N/A",0,1))</f>
@@ -9758,6 +10218,8 @@
       <c r="C315" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D315" s="0"/>
+      <c r="F315" s="0"/>
       <c r="G315" s="1"/>
       <c r="I315" s="0" t="n">
         <f aca="false">IF(ISBLANK(B315),0,IF(D315="N/A",0,1))</f>
@@ -9779,6 +10241,8 @@
       <c r="C316" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D316" s="0"/>
+      <c r="F316" s="0"/>
       <c r="G316" s="1"/>
       <c r="I316" s="0" t="n">
         <f aca="false">IF(ISBLANK(B316),0,IF(D316="N/A",0,1))</f>
@@ -9803,6 +10267,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F317" s="0"/>
       <c r="G317" s="1"/>
       <c r="I317" s="0" t="n">
         <f aca="false">IF(ISBLANK(B317),0,IF(D317="N/A",0,1))</f>
@@ -9824,6 +10289,8 @@
       <c r="C318" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D318" s="0"/>
+      <c r="F318" s="0"/>
       <c r="G318" s="1"/>
       <c r="I318" s="0" t="n">
         <f aca="false">IF(ISBLANK(B318),0,IF(D318="N/A",0,1))</f>
@@ -9845,6 +10312,8 @@
       <c r="C319" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D319" s="0"/>
+      <c r="F319" s="0"/>
       <c r="G319" s="1"/>
       <c r="I319" s="0" t="n">
         <f aca="false">IF(ISBLANK(B319),0,IF(D319="N/A",0,1))</f>
@@ -9866,6 +10335,8 @@
       <c r="C320" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D320" s="0"/>
+      <c r="F320" s="0"/>
       <c r="G320" s="1"/>
       <c r="I320" s="0" t="n">
         <f aca="false">IF(ISBLANK(B320),0,IF(D320="N/A",0,1))</f>
@@ -9887,6 +10358,8 @@
       <c r="C321" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D321" s="0"/>
+      <c r="F321" s="0"/>
       <c r="G321" s="1"/>
       <c r="I321" s="0" t="n">
         <f aca="false">IF(ISBLANK(B321),0,IF(D321="N/A",0,1))</f>
@@ -9908,6 +10381,8 @@
       <c r="C322" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D322" s="0"/>
+      <c r="F322" s="0"/>
       <c r="G322" s="1"/>
       <c r="I322" s="0" t="n">
         <f aca="false">IF(ISBLANK(B322),0,IF(D322="N/A",0,1))</f>
@@ -9929,6 +10404,8 @@
       <c r="C323" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D323" s="0"/>
+      <c r="F323" s="0"/>
       <c r="G323" s="1"/>
       <c r="I323" s="0" t="n">
         <f aca="false">IF(ISBLANK(B323),0,IF(D323="N/A",0,1))</f>
@@ -9953,6 +10430,7 @@
       <c r="D324" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F324" s="0"/>
       <c r="G324" s="1"/>
       <c r="I324" s="0" t="n">
         <f aca="false">IF(ISBLANK(B324),0,IF(D324="N/A",0,1))</f>
@@ -9974,6 +10452,8 @@
       <c r="C325" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D325" s="0"/>
+      <c r="F325" s="0"/>
       <c r="G325" s="1"/>
       <c r="I325" s="0" t="n">
         <f aca="false">IF(ISBLANK(B325),0,IF(D325="N/A",0,1))</f>
@@ -9995,6 +10475,8 @@
       <c r="C326" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D326" s="0"/>
+      <c r="F326" s="0"/>
       <c r="G326" s="1"/>
       <c r="I326" s="0" t="n">
         <f aca="false">IF(ISBLANK(B326),0,IF(D326="N/A",0,1))</f>
@@ -10019,6 +10501,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F327" s="0"/>
       <c r="G327" s="1"/>
       <c r="I327" s="0" t="n">
         <f aca="false">IF(ISBLANK(B327),0,IF(D327="N/A",0,1))</f>
@@ -10040,6 +10523,8 @@
       <c r="C328" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D328" s="0"/>
+      <c r="F328" s="0"/>
       <c r="G328" s="1"/>
       <c r="I328" s="0" t="n">
         <f aca="false">IF(ISBLANK(B328),0,IF(D328="N/A",0,1))</f>
@@ -10061,6 +10546,8 @@
       <c r="C329" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D329" s="0"/>
+      <c r="F329" s="0"/>
       <c r="G329" s="1"/>
       <c r="I329" s="0" t="n">
         <f aca="false">IF(ISBLANK(B329),0,IF(D329="N/A",0,1))</f>
@@ -10082,6 +10569,8 @@
       <c r="C330" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D330" s="0"/>
+      <c r="F330" s="0"/>
       <c r="G330" s="1"/>
       <c r="I330" s="0" t="n">
         <f aca="false">IF(ISBLANK(B330),0,IF(D330="N/A",0,1))</f>
@@ -10103,6 +10592,8 @@
       <c r="C331" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D331" s="0"/>
+      <c r="F331" s="0"/>
       <c r="G331" s="1"/>
       <c r="I331" s="0" t="n">
         <f aca="false">IF(ISBLANK(B331),0,IF(D331="N/A",0,1))</f>
@@ -10124,6 +10615,8 @@
       <c r="C332" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D332" s="0"/>
+      <c r="F332" s="0"/>
       <c r="G332" s="1"/>
       <c r="I332" s="0" t="n">
         <f aca="false">IF(ISBLANK(B332),0,IF(D332="N/A",0,1))</f>
@@ -10145,6 +10638,8 @@
       <c r="C333" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D333" s="0"/>
+      <c r="F333" s="0"/>
       <c r="G333" s="1"/>
       <c r="I333" s="0" t="n">
         <f aca="false">IF(ISBLANK(B333),0,IF(D333="N/A",0,1))</f>
@@ -10166,6 +10661,8 @@
       <c r="C334" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D334" s="0"/>
+      <c r="F334" s="0"/>
       <c r="G334" s="1"/>
       <c r="I334" s="0" t="n">
         <f aca="false">IF(ISBLANK(B334),0,IF(D334="N/A",0,1))</f>
@@ -10187,6 +10684,8 @@
       <c r="C335" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D335" s="0"/>
+      <c r="F335" s="0"/>
       <c r="G335" s="1"/>
       <c r="I335" s="0" t="n">
         <f aca="false">IF(ISBLANK(B335),0,IF(D335="N/A",0,1))</f>
@@ -10211,6 +10710,7 @@
       <c r="D336" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F336" s="0"/>
       <c r="G336" s="1"/>
       <c r="I336" s="0" t="n">
         <f aca="false">IF(ISBLANK(B336),0,IF(D336="N/A",0,1))</f>
@@ -10235,6 +10735,7 @@
       <c r="D337" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F337" s="0"/>
       <c r="G337" s="1"/>
       <c r="I337" s="0" t="n">
         <f aca="false">IF(ISBLANK(B337),0,IF(D337="N/A",0,1))</f>
@@ -10256,6 +10757,8 @@
       <c r="C338" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D338" s="0"/>
+      <c r="F338" s="0"/>
       <c r="G338" s="1"/>
       <c r="I338" s="0" t="n">
         <f aca="false">IF(ISBLANK(B338),0,IF(D338="N/A",0,1))</f>
@@ -10277,6 +10780,8 @@
       <c r="C339" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D339" s="0"/>
+      <c r="F339" s="0"/>
       <c r="G339" s="1"/>
       <c r="I339" s="0" t="n">
         <f aca="false">IF(ISBLANK(B339),0,IF(D339="N/A",0,1))</f>
@@ -10298,6 +10803,8 @@
       <c r="C340" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D340" s="0"/>
+      <c r="F340" s="0"/>
       <c r="G340" s="1"/>
       <c r="I340" s="0" t="n">
         <f aca="false">IF(ISBLANK(B340),0,IF(D340="N/A",0,1))</f>
@@ -10319,6 +10826,8 @@
       <c r="C341" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D341" s="0"/>
+      <c r="F341" s="0"/>
       <c r="G341" s="1"/>
       <c r="I341" s="0" t="n">
         <f aca="false">IF(ISBLANK(B341),0,IF(D341="N/A",0,1))</f>
@@ -10343,6 +10852,7 @@
       <c r="D342" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F342" s="0"/>
       <c r="G342" s="1"/>
       <c r="I342" s="0" t="n">
         <f aca="false">IF(ISBLANK(B342),0,IF(D342="N/A",0,1))</f>
@@ -10364,6 +10874,8 @@
       <c r="C343" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D343" s="0"/>
+      <c r="F343" s="0"/>
       <c r="G343" s="1"/>
       <c r="I343" s="0" t="n">
         <f aca="false">IF(ISBLANK(B343),0,IF(D343="N/A",0,1))</f>
@@ -10388,6 +10900,7 @@
       <c r="D344" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F344" s="0"/>
       <c r="G344" s="1"/>
       <c r="I344" s="0" t="n">
         <f aca="false">IF(ISBLANK(B344),0,IF(D344="N/A",0,1))</f>
@@ -10409,6 +10922,8 @@
       <c r="C345" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D345" s="0"/>
+      <c r="F345" s="0"/>
       <c r="G345" s="1"/>
       <c r="I345" s="0" t="n">
         <f aca="false">IF(ISBLANK(B345),0,IF(D345="N/A",0,1))</f>
@@ -10430,6 +10945,8 @@
       <c r="C346" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D346" s="0"/>
+      <c r="F346" s="0"/>
       <c r="G346" s="1"/>
       <c r="I346" s="0" t="n">
         <f aca="false">IF(ISBLANK(B346),0,IF(D346="N/A",0,1))</f>
@@ -10451,6 +10968,8 @@
       <c r="C347" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D347" s="0"/>
+      <c r="F347" s="0"/>
       <c r="G347" s="1"/>
       <c r="I347" s="0" t="n">
         <f aca="false">IF(ISBLANK(B347),0,IF(D347="N/A",0,1))</f>
@@ -10472,6 +10991,8 @@
       <c r="C348" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D348" s="0"/>
+      <c r="F348" s="0"/>
       <c r="G348" s="1"/>
       <c r="I348" s="0" t="n">
         <f aca="false">IF(ISBLANK(B348),0,IF(D348="N/A",0,1))</f>
@@ -10493,6 +11014,8 @@
       <c r="C349" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D349" s="0"/>
+      <c r="F349" s="0"/>
       <c r="G349" s="1"/>
       <c r="I349" s="0" t="n">
         <f aca="false">IF(ISBLANK(B349),0,IF(D349="N/A",0,1))</f>
@@ -10514,6 +11037,8 @@
       <c r="C350" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D350" s="0"/>
+      <c r="F350" s="0"/>
       <c r="G350" s="1"/>
       <c r="I350" s="0" t="n">
         <f aca="false">IF(ISBLANK(B350),0,IF(D350="N/A",0,1))</f>
@@ -10538,6 +11063,7 @@
       <c r="D351" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F351" s="0"/>
       <c r="G351" s="1"/>
       <c r="I351" s="0" t="n">
         <f aca="false">IF(ISBLANK(B351),0,IF(D351="N/A",0,1))</f>
@@ -10559,6 +11085,8 @@
       <c r="C352" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D352" s="0"/>
+      <c r="F352" s="0"/>
       <c r="G352" s="1"/>
       <c r="I352" s="0" t="n">
         <f aca="false">IF(ISBLANK(B352),0,IF(D352="N/A",0,1))</f>
@@ -10583,6 +11111,7 @@
       <c r="D353" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F353" s="0"/>
       <c r="G353" s="1"/>
       <c r="I353" s="0" t="n">
         <f aca="false">IF(ISBLANK(B353),0,IF(D353="N/A",0,1))</f>
@@ -10604,6 +11133,8 @@
       <c r="C354" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D354" s="0"/>
+      <c r="F354" s="0"/>
       <c r="G354" s="1"/>
       <c r="I354" s="0" t="n">
         <f aca="false">IF(ISBLANK(B354),0,IF(D354="N/A",0,1))</f>
@@ -10625,6 +11156,8 @@
       <c r="C355" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D355" s="0"/>
+      <c r="F355" s="0"/>
       <c r="G355" s="1"/>
       <c r="I355" s="0" t="n">
         <f aca="false">IF(ISBLANK(B355),0,IF(D355="N/A",0,1))</f>
@@ -10646,6 +11179,8 @@
       <c r="C356" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D356" s="0"/>
+      <c r="F356" s="0"/>
       <c r="G356" s="1"/>
       <c r="I356" s="0" t="n">
         <f aca="false">IF(ISBLANK(B356),0,IF(D356="N/A",0,1))</f>
@@ -10667,6 +11202,8 @@
       <c r="C357" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D357" s="0"/>
+      <c r="F357" s="0"/>
       <c r="G357" s="1"/>
       <c r="I357" s="0" t="n">
         <f aca="false">IF(ISBLANK(B357),0,IF(D357="N/A",0,1))</f>
@@ -10715,6 +11252,8 @@
       <c r="C359" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D359" s="0"/>
+      <c r="F359" s="0"/>
       <c r="G359" s="1"/>
       <c r="I359" s="0" t="n">
         <f aca="false">IF(ISBLANK(B359),0,IF(D359="N/A",0,1))</f>
@@ -10736,6 +11275,8 @@
       <c r="C360" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D360" s="0"/>
+      <c r="F360" s="0"/>
       <c r="G360" s="1"/>
       <c r="I360" s="0" t="n">
         <f aca="false">IF(ISBLANK(B360),0,IF(D360="N/A",0,1))</f>
@@ -10757,6 +11298,8 @@
       <c r="C361" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D361" s="0"/>
+      <c r="F361" s="0"/>
       <c r="G361" s="1"/>
       <c r="I361" s="0" t="n">
         <f aca="false">IF(ISBLANK(B361),0,IF(D361="N/A",0,1))</f>
@@ -10778,6 +11321,8 @@
       <c r="C362" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D362" s="0"/>
+      <c r="F362" s="0"/>
       <c r="G362" s="1"/>
       <c r="I362" s="0" t="n">
         <f aca="false">IF(ISBLANK(B362),0,IF(D362="N/A",0,1))</f>
@@ -10799,6 +11344,8 @@
       <c r="C363" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D363" s="0"/>
+      <c r="F363" s="0"/>
       <c r="G363" s="1"/>
       <c r="I363" s="0" t="n">
         <f aca="false">IF(ISBLANK(B363),0,IF(D363="N/A",0,1))</f>
@@ -10820,6 +11367,8 @@
       <c r="C364" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D364" s="0"/>
+      <c r="F364" s="0"/>
       <c r="G364" s="1"/>
       <c r="I364" s="0" t="n">
         <f aca="false">IF(ISBLANK(B364),0,IF(D364="N/A",0,1))</f>
@@ -10844,6 +11393,7 @@
       <c r="D365" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F365" s="0"/>
       <c r="G365" s="1"/>
       <c r="I365" s="0" t="n">
         <f aca="false">IF(ISBLANK(B365),0,IF(D365="N/A",0,1))</f>
@@ -10865,6 +11415,8 @@
       <c r="C366" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D366" s="0"/>
+      <c r="F366" s="0"/>
       <c r="G366" s="1"/>
       <c r="I366" s="0" t="n">
         <f aca="false">IF(ISBLANK(B366),0,IF(D366="N/A",0,1))</f>
@@ -10886,6 +11438,8 @@
       <c r="C367" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D367" s="0"/>
+      <c r="F367" s="0"/>
       <c r="G367" s="1"/>
       <c r="I367" s="0" t="n">
         <f aca="false">IF(ISBLANK(B367),0,IF(D367="N/A",0,1))</f>
@@ -10907,6 +11461,8 @@
       <c r="C368" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D368" s="0"/>
+      <c r="F368" s="0"/>
       <c r="G368" s="1"/>
       <c r="I368" s="0" t="n">
         <f aca="false">IF(ISBLANK(B368),0,IF(D368="N/A",0,1))</f>
@@ -10928,6 +11484,8 @@
       <c r="C369" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D369" s="0"/>
+      <c r="F369" s="0"/>
       <c r="G369" s="1"/>
       <c r="I369" s="0" t="n">
         <f aca="false">IF(ISBLANK(B369),0,IF(D369="N/A",0,1))</f>
@@ -10949,6 +11507,8 @@
       <c r="C370" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D370" s="0"/>
+      <c r="F370" s="0"/>
       <c r="G370" s="1"/>
       <c r="I370" s="0" t="n">
         <f aca="false">IF(ISBLANK(B370),0,IF(D370="N/A",0,1))</f>
@@ -10970,6 +11530,8 @@
       <c r="C371" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D371" s="0"/>
+      <c r="F371" s="0"/>
       <c r="G371" s="1"/>
       <c r="I371" s="0" t="n">
         <f aca="false">IF(ISBLANK(B371),0,IF(D371="N/A",0,1))</f>
@@ -10991,6 +11553,8 @@
       <c r="C372" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D372" s="0"/>
+      <c r="F372" s="0"/>
       <c r="G372" s="1"/>
       <c r="I372" s="0" t="n">
         <f aca="false">IF(ISBLANK(B372),0,IF(D372="N/A",0,1))</f>
@@ -11012,6 +11576,8 @@
       <c r="C373" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D373" s="0"/>
+      <c r="F373" s="0"/>
       <c r="G373" s="1"/>
       <c r="I373" s="0" t="n">
         <f aca="false">IF(ISBLANK(B373),0,IF(D373="N/A",0,1))</f>
@@ -11033,6 +11599,8 @@
       <c r="C374" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D374" s="0"/>
+      <c r="F374" s="0"/>
       <c r="G374" s="1"/>
       <c r="I374" s="0" t="n">
         <f aca="false">IF(ISBLANK(B374),0,IF(D374="N/A",0,1))</f>
@@ -11054,6 +11622,8 @@
       <c r="C375" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D375" s="0"/>
+      <c r="F375" s="0"/>
       <c r="G375" s="1"/>
       <c r="I375" s="0" t="n">
         <f aca="false">IF(ISBLANK(B375),0,IF(D375="N/A",0,1))</f>
@@ -11075,6 +11645,8 @@
       <c r="C376" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D376" s="0"/>
+      <c r="F376" s="0"/>
       <c r="G376" s="1"/>
       <c r="I376" s="0" t="n">
         <f aca="false">IF(ISBLANK(B376),0,IF(D376="N/A",0,1))</f>
@@ -11096,6 +11668,8 @@
       <c r="C377" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D377" s="0"/>
+      <c r="F377" s="0"/>
       <c r="G377" s="1"/>
       <c r="I377" s="0" t="n">
         <f aca="false">IF(ISBLANK(B377),0,IF(D377="N/A",0,1))</f>
@@ -11117,6 +11691,8 @@
       <c r="C378" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D378" s="0"/>
+      <c r="F378" s="0"/>
       <c r="G378" s="1"/>
       <c r="I378" s="0" t="n">
         <f aca="false">IF(ISBLANK(B378),0,IF(D378="N/A",0,1))</f>
@@ -11138,6 +11714,8 @@
       <c r="C379" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D379" s="0"/>
+      <c r="F379" s="0"/>
       <c r="G379" s="1"/>
       <c r="I379" s="0" t="n">
         <f aca="false">IF(ISBLANK(B379),0,IF(D379="N/A",0,1))</f>
@@ -11162,6 +11740,7 @@
       <c r="D380" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F380" s="0"/>
       <c r="G380" s="1"/>
       <c r="I380" s="0" t="n">
         <f aca="false">IF(ISBLANK(B380),0,IF(D380="N/A",0,1))</f>
@@ -11183,6 +11762,8 @@
       <c r="C381" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D381" s="0"/>
+      <c r="F381" s="0"/>
       <c r="G381" s="1"/>
       <c r="I381" s="0" t="n">
         <f aca="false">IF(ISBLANK(B381),0,IF(D381="N/A",0,1))</f>
@@ -11204,6 +11785,8 @@
       <c r="C382" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D382" s="0"/>
+      <c r="F382" s="0"/>
       <c r="G382" s="1"/>
       <c r="I382" s="0" t="n">
         <f aca="false">IF(ISBLANK(B382),0,IF(D382="N/A",0,1))</f>
@@ -11225,6 +11808,8 @@
       <c r="C383" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D383" s="0"/>
+      <c r="F383" s="0"/>
       <c r="G383" s="1"/>
       <c r="I383" s="0" t="n">
         <f aca="false">IF(ISBLANK(B383),0,IF(D383="N/A",0,1))</f>
@@ -11246,6 +11831,8 @@
       <c r="C384" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D384" s="0"/>
+      <c r="F384" s="0"/>
       <c r="G384" s="1"/>
       <c r="I384" s="0" t="n">
         <f aca="false">IF(ISBLANK(B384),0,IF(D384="N/A",0,1))</f>
@@ -11267,6 +11854,8 @@
       <c r="C385" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D385" s="0"/>
+      <c r="F385" s="0"/>
       <c r="G385" s="1"/>
       <c r="I385" s="0" t="n">
         <f aca="false">IF(ISBLANK(B385),0,IF(D385="N/A",0,1))</f>
@@ -11288,6 +11877,8 @@
       <c r="C386" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D386" s="0"/>
+      <c r="F386" s="0"/>
       <c r="G386" s="1"/>
       <c r="I386" s="0" t="n">
         <f aca="false">IF(ISBLANK(B386),0,IF(D386="N/A",0,1))</f>
@@ -11309,6 +11900,8 @@
       <c r="C387" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D387" s="0"/>
+      <c r="F387" s="0"/>
       <c r="G387" s="1"/>
       <c r="I387" s="0" t="n">
         <f aca="false">IF(ISBLANK(B387),0,IF(D387="N/A",0,1))</f>
@@ -11333,6 +11926,7 @@
       <c r="D388" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F388" s="0"/>
       <c r="G388" s="1"/>
       <c r="I388" s="0" t="n">
         <f aca="false">IF(ISBLANK(B388),0,IF(D388="N/A",0,1))</f>
@@ -11357,6 +11951,7 @@
       <c r="D389" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F389" s="0"/>
       <c r="G389" s="1"/>
       <c r="I389" s="0" t="n">
         <f aca="false">IF(ISBLANK(B389),0,IF(D389="N/A",0,1))</f>
@@ -11378,6 +11973,8 @@
       <c r="C390" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D390" s="0"/>
+      <c r="F390" s="0"/>
       <c r="G390" s="1"/>
       <c r="I390" s="0" t="n">
         <f aca="false">IF(ISBLANK(B390),0,IF(D390="N/A",0,1))</f>
@@ -11399,6 +11996,8 @@
       <c r="C391" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D391" s="0"/>
+      <c r="F391" s="0"/>
       <c r="G391" s="1"/>
       <c r="I391" s="0" t="n">
         <f aca="false">IF(ISBLANK(B391),0,IF(D391="N/A",0,1))</f>
@@ -11420,6 +12019,8 @@
       <c r="C392" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D392" s="0"/>
+      <c r="F392" s="0"/>
       <c r="G392" s="1"/>
       <c r="I392" s="0" t="n">
         <f aca="false">IF(ISBLANK(B392),0,IF(D392="N/A",0,1))</f>
@@ -11444,6 +12045,7 @@
       <c r="D393" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F393" s="0"/>
       <c r="G393" s="1"/>
       <c r="I393" s="0" t="n">
         <f aca="false">IF(ISBLANK(B393),0,IF(D393="N/A",0,1))</f>
@@ -11465,6 +12067,8 @@
       <c r="C394" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D394" s="0"/>
+      <c r="F394" s="0"/>
       <c r="G394" s="1"/>
       <c r="I394" s="0" t="n">
         <f aca="false">IF(ISBLANK(B394),0,IF(D394="N/A",0,1))</f>
@@ -11486,6 +12090,8 @@
       <c r="C395" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D395" s="0"/>
+      <c r="F395" s="0"/>
       <c r="G395" s="1"/>
       <c r="I395" s="0" t="n">
         <f aca="false">IF(ISBLANK(B395),0,IF(D395="N/A",0,1))</f>
@@ -11507,6 +12113,8 @@
       <c r="C396" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D396" s="0"/>
+      <c r="F396" s="0"/>
       <c r="G396" s="1"/>
       <c r="I396" s="0" t="n">
         <f aca="false">IF(ISBLANK(B396),0,IF(D396="N/A",0,1))</f>
@@ -11528,6 +12136,8 @@
       <c r="C397" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D397" s="0"/>
+      <c r="F397" s="0"/>
       <c r="G397" s="1"/>
       <c r="I397" s="0" t="n">
         <f aca="false">IF(ISBLANK(B397),0,IF(D397="N/A",0,1))</f>
@@ -11549,6 +12159,8 @@
       <c r="C398" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D398" s="0"/>
+      <c r="F398" s="0"/>
       <c r="G398" s="1"/>
       <c r="I398" s="0" t="n">
         <f aca="false">IF(ISBLANK(B398),0,IF(D398="N/A",0,1))</f>
@@ -11570,6 +12182,8 @@
       <c r="C399" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D399" s="0"/>
+      <c r="F399" s="0"/>
       <c r="G399" s="1"/>
       <c r="I399" s="0" t="n">
         <f aca="false">IF(ISBLANK(B399),0,IF(D399="N/A",0,1))</f>
@@ -11591,6 +12205,8 @@
       <c r="C400" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D400" s="0"/>
+      <c r="F400" s="0"/>
       <c r="G400" s="1"/>
       <c r="I400" s="0" t="n">
         <f aca="false">IF(ISBLANK(B400),0,IF(D400="N/A",0,1))</f>
@@ -11612,6 +12228,8 @@
       <c r="C401" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D401" s="0"/>
+      <c r="F401" s="0"/>
       <c r="G401" s="1"/>
       <c r="I401" s="0" t="n">
         <f aca="false">IF(ISBLANK(B401),0,IF(D401="N/A",0,1))</f>
@@ -11633,6 +12251,8 @@
       <c r="C402" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D402" s="0"/>
+      <c r="F402" s="0"/>
       <c r="G402" s="1"/>
       <c r="I402" s="0" t="n">
         <f aca="false">IF(ISBLANK(B402),0,IF(D402="N/A",0,1))</f>
@@ -11654,6 +12274,8 @@
       <c r="C403" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D403" s="0"/>
+      <c r="F403" s="0"/>
       <c r="G403" s="1"/>
       <c r="I403" s="0" t="n">
         <f aca="false">IF(ISBLANK(B403),0,IF(D403="N/A",0,1))</f>
@@ -11678,6 +12300,7 @@
       <c r="D404" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F404" s="0"/>
       <c r="G404" s="1"/>
       <c r="I404" s="0" t="n">
         <f aca="false">IF(ISBLANK(B404),0,IF(D404="N/A",0,1))</f>
@@ -11699,6 +12322,8 @@
       <c r="C405" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D405" s="0"/>
+      <c r="F405" s="0"/>
       <c r="G405" s="1"/>
       <c r="I405" s="0" t="n">
         <f aca="false">IF(ISBLANK(B405),0,IF(D405="N/A",0,1))</f>
@@ -11720,6 +12345,8 @@
       <c r="C406" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D406" s="0"/>
+      <c r="F406" s="0"/>
       <c r="G406" s="1"/>
       <c r="I406" s="0" t="n">
         <f aca="false">IF(ISBLANK(B406),0,IF(D406="N/A",0,1))</f>
@@ -11741,6 +12368,8 @@
       <c r="C407" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D407" s="0"/>
+      <c r="F407" s="0"/>
       <c r="G407" s="1"/>
       <c r="I407" s="0" t="n">
         <f aca="false">IF(ISBLANK(B407),0,IF(D407="N/A",0,1))</f>
@@ -11762,6 +12391,8 @@
       <c r="C408" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D408" s="0"/>
+      <c r="F408" s="0"/>
       <c r="G408" s="1"/>
       <c r="I408" s="0" t="n">
         <f aca="false">IF(ISBLANK(B408),0,IF(D408="N/A",0,1))</f>
@@ -11783,6 +12414,8 @@
       <c r="C409" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D409" s="0"/>
+      <c r="F409" s="0"/>
       <c r="G409" s="1"/>
       <c r="I409" s="0" t="n">
         <f aca="false">IF(ISBLANK(B409),0,IF(D409="N/A",0,1))</f>
@@ -11804,6 +12437,8 @@
       <c r="C410" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D410" s="0"/>
+      <c r="F410" s="0"/>
       <c r="G410" s="1"/>
       <c r="I410" s="0" t="n">
         <f aca="false">IF(ISBLANK(B410),0,IF(D410="N/A",0,1))</f>
@@ -11825,6 +12460,8 @@
       <c r="C411" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D411" s="0"/>
+      <c r="F411" s="0"/>
       <c r="G411" s="1"/>
       <c r="I411" s="0" t="n">
         <f aca="false">IF(ISBLANK(B411),0,IF(D411="N/A",0,1))</f>
@@ -11846,6 +12483,8 @@
       <c r="C412" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D412" s="0"/>
+      <c r="F412" s="0"/>
       <c r="G412" s="1"/>
       <c r="I412" s="0" t="n">
         <f aca="false">IF(ISBLANK(B412),0,IF(D412="N/A",0,1))</f>
@@ -11867,6 +12506,8 @@
       <c r="C413" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D413" s="0"/>
+      <c r="F413" s="0"/>
       <c r="G413" s="1"/>
       <c r="I413" s="0" t="n">
         <f aca="false">IF(ISBLANK(B413),0,IF(D413="N/A",0,1))</f>
@@ -11888,6 +12529,8 @@
       <c r="C414" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D414" s="0"/>
+      <c r="F414" s="0"/>
       <c r="G414" s="1"/>
       <c r="I414" s="0" t="n">
         <f aca="false">IF(ISBLANK(B414),0,IF(D414="N/A",0,1))</f>
@@ -11909,6 +12552,8 @@
       <c r="C415" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D415" s="0"/>
+      <c r="F415" s="0"/>
       <c r="G415" s="1"/>
       <c r="I415" s="0" t="n">
         <f aca="false">IF(ISBLANK(B415),0,IF(D415="N/A",0,1))</f>
@@ -11930,6 +12575,8 @@
       <c r="C416" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D416" s="0"/>
+      <c r="F416" s="0"/>
       <c r="G416" s="1"/>
       <c r="I416" s="0" t="n">
         <f aca="false">IF(ISBLANK(B416),0,IF(D416="N/A",0,1))</f>
@@ -11954,6 +12601,7 @@
       <c r="D417" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F417" s="0"/>
       <c r="G417" s="1"/>
       <c r="I417" s="0" t="n">
         <f aca="false">IF(ISBLANK(B417),0,IF(D417="N/A",0,1))</f>
@@ -11975,6 +12623,8 @@
       <c r="C418" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D418" s="0"/>
+      <c r="F418" s="0"/>
       <c r="G418" s="1"/>
       <c r="I418" s="0" t="n">
         <f aca="false">IF(ISBLANK(B418),0,IF(D418="N/A",0,1))</f>
@@ -11996,6 +12646,8 @@
       <c r="C419" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D419" s="0"/>
+      <c r="F419" s="0"/>
       <c r="G419" s="1"/>
       <c r="I419" s="0" t="n">
         <f aca="false">IF(ISBLANK(B419),0,IF(D419="N/A",0,1))</f>
@@ -12017,6 +12669,8 @@
       <c r="C420" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D420" s="0"/>
+      <c r="F420" s="0"/>
       <c r="G420" s="1"/>
       <c r="I420" s="0" t="n">
         <f aca="false">IF(ISBLANK(B420),0,IF(D420="N/A",0,1))</f>
@@ -12038,6 +12692,8 @@
       <c r="C421" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D421" s="0"/>
+      <c r="F421" s="0"/>
       <c r="G421" s="1"/>
       <c r="I421" s="0" t="n">
         <f aca="false">IF(ISBLANK(B421),0,IF(D421="N/A",0,1))</f>
@@ -12059,6 +12715,8 @@
       <c r="C422" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D422" s="0"/>
+      <c r="F422" s="0"/>
       <c r="G422" s="1"/>
       <c r="I422" s="0" t="n">
         <f aca="false">IF(ISBLANK(B422),0,IF(D422="N/A",0,1))</f>
@@ -12083,6 +12741,7 @@
       <c r="D423" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F423" s="0"/>
       <c r="G423" s="1"/>
       <c r="I423" s="0" t="n">
         <f aca="false">IF(ISBLANK(B423),0,IF(D423="N/A",0,1))</f>
@@ -12107,6 +12766,7 @@
       <c r="D424" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F424" s="0"/>
       <c r="G424" s="1"/>
       <c r="I424" s="0" t="n">
         <f aca="false">IF(ISBLANK(B424),0,IF(D424="N/A",0,1))</f>
@@ -12128,6 +12788,8 @@
       <c r="C425" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D425" s="0"/>
+      <c r="F425" s="0"/>
       <c r="G425" s="1"/>
       <c r="I425" s="0" t="n">
         <f aca="false">IF(ISBLANK(B425),0,IF(D425="N/A",0,1))</f>
@@ -12149,6 +12811,8 @@
       <c r="C426" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="D426" s="0"/>
+      <c r="F426" s="0"/>
       <c r="G426" s="1"/>
       <c r="I426" s="0" t="n">
         <f aca="false">IF(ISBLANK(B426),0,IF(D426="N/A",0,1))</f>
@@ -12170,6 +12834,8 @@
       <c r="C427" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D427" s="0"/>
+      <c r="F427" s="0"/>
       <c r="G427" s="1"/>
       <c r="I427" s="0" t="n">
         <f aca="false">IF(ISBLANK(B427),0,IF(D427="N/A",0,1))</f>
@@ -12191,6 +12857,8 @@
       <c r="C428" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D428" s="0"/>
+      <c r="F428" s="0"/>
       <c r="G428" s="1"/>
       <c r="I428" s="0" t="n">
         <f aca="false">IF(ISBLANK(B428),0,IF(D428="N/A",0,1))</f>
@@ -12212,6 +12880,8 @@
       <c r="C429" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D429" s="0"/>
+      <c r="F429" s="0"/>
       <c r="G429" s="1"/>
       <c r="I429" s="0" t="n">
         <f aca="false">IF(ISBLANK(B429),0,IF(D429="N/A",0,1))</f>
@@ -12233,6 +12903,8 @@
       <c r="C430" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D430" s="0"/>
+      <c r="F430" s="0"/>
       <c r="G430" s="1"/>
       <c r="I430" s="0" t="n">
         <f aca="false">IF(ISBLANK(B430),0,IF(D430="N/A",0,1))</f>
@@ -12254,6 +12926,8 @@
       <c r="C431" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D431" s="0"/>
+      <c r="F431" s="0"/>
       <c r="G431" s="1"/>
       <c r="I431" s="0" t="n">
         <f aca="false">IF(ISBLANK(B431),0,IF(D431="N/A",0,1))</f>
@@ -12275,6 +12949,8 @@
       <c r="C432" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D432" s="0"/>
+      <c r="F432" s="0"/>
       <c r="G432" s="1"/>
       <c r="I432" s="0" t="n">
         <f aca="false">IF(ISBLANK(B432),0,IF(D432="N/A",0,1))</f>
@@ -12296,6 +12972,8 @@
       <c r="C433" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D433" s="0"/>
+      <c r="F433" s="0"/>
       <c r="G433" s="1"/>
       <c r="I433" s="0" t="n">
         <f aca="false">IF(ISBLANK(B433),0,IF(D433="N/A",0,1))</f>
@@ -12320,6 +12998,7 @@
       <c r="D434" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F434" s="0"/>
       <c r="G434" s="1"/>
       <c r="I434" s="0" t="n">
         <f aca="false">IF(ISBLANK(B434),0,IF(D434="N/A",0,1))</f>
@@ -12344,6 +13023,7 @@
       <c r="D435" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F435" s="0"/>
       <c r="G435" s="1"/>
       <c r="I435" s="0" t="n">
         <f aca="false">IF(ISBLANK(B435),0,IF(D435="N/A",0,1))</f>
@@ -12365,6 +13045,8 @@
       <c r="C436" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D436" s="0"/>
+      <c r="F436" s="0"/>
       <c r="G436" s="1"/>
       <c r="I436" s="0" t="n">
         <f aca="false">IF(ISBLANK(B436),0,IF(D436="N/A",0,1))</f>
@@ -12389,6 +13071,7 @@
       <c r="D437" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F437" s="0"/>
       <c r="G437" s="1"/>
       <c r="I437" s="0" t="n">
         <f aca="false">IF(ISBLANK(B437),0,IF(D437="N/A",0,1))</f>
@@ -12438,6 +13121,7 @@
       <c r="D439" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F439" s="0"/>
       <c r="G439" s="1"/>
       <c r="I439" s="0" t="n">
         <f aca="false">IF(ISBLANK(B439),0,IF(D439="N/A",0,1))</f>
@@ -12462,6 +13146,7 @@
       <c r="D440" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F440" s="0"/>
       <c r="G440" s="1"/>
       <c r="I440" s="0" t="n">
         <f aca="false">IF(ISBLANK(B440),0,IF(D440="N/A",0,1))</f>
@@ -12483,6 +13168,8 @@
       <c r="C441" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D441" s="0"/>
+      <c r="F441" s="0"/>
       <c r="G441" s="1"/>
       <c r="I441" s="0" t="n">
         <f aca="false">IF(ISBLANK(B441),0,IF(D441="N/A",0,1))</f>
@@ -12507,6 +13194,7 @@
       <c r="D442" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F442" s="0"/>
       <c r="G442" s="1"/>
       <c r="I442" s="0" t="n">
         <f aca="false">IF(ISBLANK(B442),0,IF(D442="N/A",0,1))</f>
@@ -12531,6 +13219,7 @@
       <c r="D443" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F443" s="0"/>
       <c r="G443" s="1" t="s">
         <v>483</v>
       </c>
@@ -12554,6 +13243,8 @@
       <c r="C444" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D444" s="0"/>
+      <c r="F444" s="0"/>
       <c r="G444" s="1"/>
       <c r="I444" s="0" t="n">
         <f aca="false">IF(ISBLANK(B444),0,IF(D444="N/A",0,1))</f>
@@ -12575,6 +13266,8 @@
       <c r="C445" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D445" s="0"/>
+      <c r="F445" s="0"/>
       <c r="G445" s="1"/>
       <c r="I445" s="0" t="n">
         <f aca="false">IF(ISBLANK(B445),0,IF(D445="N/A",0,1))</f>
@@ -12596,6 +13289,8 @@
       <c r="C446" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D446" s="0"/>
+      <c r="F446" s="0"/>
       <c r="G446" s="1"/>
       <c r="I446" s="0" t="n">
         <f aca="false">IF(ISBLANK(B446),0,IF(D446="N/A",0,1))</f>
@@ -12620,6 +13315,7 @@
       <c r="D447" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F447" s="0"/>
       <c r="G447" s="1"/>
       <c r="I447" s="0" t="n">
         <f aca="false">IF(ISBLANK(B447),0,IF(D447="N/A",0,1))</f>
@@ -12641,6 +13337,8 @@
       <c r="C448" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D448" s="0"/>
+      <c r="F448" s="0"/>
       <c r="G448" s="1"/>
       <c r="I448" s="0" t="n">
         <f aca="false">IF(ISBLANK(B448),0,IF(D448="N/A",0,1))</f>
@@ -12665,6 +13363,7 @@
       <c r="D449" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F449" s="0"/>
       <c r="G449" s="1"/>
       <c r="I449" s="0" t="n">
         <f aca="false">IF(ISBLANK(B449),0,IF(D449="N/A",0,1))</f>
@@ -12689,6 +13388,7 @@
       <c r="D450" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F450" s="0"/>
       <c r="G450" s="1"/>
       <c r="I450" s="0" t="n">
         <f aca="false">IF(ISBLANK(B450),0,IF(D450="N/A",0,1))</f>
@@ -12713,6 +13413,7 @@
       <c r="D451" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F451" s="0"/>
       <c r="G451" s="1"/>
       <c r="I451" s="0" t="n">
         <f aca="false">IF(ISBLANK(B451),0,IF(D451="N/A",0,1))</f>
@@ -12734,6 +13435,8 @@
       <c r="C452" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D452" s="0"/>
+      <c r="F452" s="0"/>
       <c r="G452" s="1"/>
       <c r="I452" s="0" t="n">
         <f aca="false">IF(ISBLANK(B452),0,IF(D452="N/A",0,1))</f>
@@ -12758,6 +13461,7 @@
       <c r="D453" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F453" s="0"/>
       <c r="G453" s="1"/>
       <c r="I453" s="0" t="n">
         <f aca="false">IF(ISBLANK(B453),0,IF(D453="N/A",0,1))</f>
@@ -12779,6 +13483,8 @@
       <c r="C454" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D454" s="0"/>
+      <c r="F454" s="0"/>
       <c r="G454" s="1"/>
       <c r="I454" s="0" t="n">
         <f aca="false">IF(ISBLANK(B454),0,IF(D454="N/A",0,1))</f>
@@ -12800,6 +13506,8 @@
       <c r="C455" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D455" s="0"/>
+      <c r="F455" s="0"/>
       <c r="G455" s="1"/>
       <c r="I455" s="0" t="n">
         <f aca="false">IF(ISBLANK(B455),0,IF(D455="N/A",0,1))</f>
@@ -12821,6 +13529,8 @@
       <c r="C456" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D456" s="0"/>
+      <c r="F456" s="0"/>
       <c r="G456" s="1"/>
       <c r="I456" s="0" t="n">
         <f aca="false">IF(ISBLANK(B456),0,IF(D456="N/A",0,1))</f>
@@ -12845,6 +13555,7 @@
       <c r="D457" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F457" s="0"/>
       <c r="G457" s="1"/>
       <c r="I457" s="0" t="n">
         <f aca="false">IF(ISBLANK(B457),0,IF(D457="N/A",0,1))</f>
@@ -12866,6 +13577,8 @@
       <c r="C458" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D458" s="0"/>
+      <c r="F458" s="0"/>
       <c r="G458" s="1"/>
       <c r="I458" s="0" t="n">
         <f aca="false">IF(ISBLANK(B458),0,IF(D458="N/A",0,1))</f>
@@ -12887,6 +13600,8 @@
       <c r="C459" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D459" s="0"/>
+      <c r="F459" s="0"/>
       <c r="G459" s="1"/>
       <c r="I459" s="0" t="n">
         <f aca="false">IF(ISBLANK(B459),0,IF(D459="N/A",0,1))</f>
@@ -12908,6 +13623,10 @@
       <c r="C460" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D460" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F460" s="0"/>
       <c r="G460" s="1"/>
       <c r="I460" s="0" t="n">
         <f aca="false">IF(ISBLANK(B460),0,IF(D460="N/A",0,1))</f>
@@ -12915,7 +13634,7 @@
       </c>
       <c r="J460" s="0" t="n">
         <f aca="false">IF(ISBLANK(D460),0,I460)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12929,6 +13648,8 @@
       <c r="C461" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D461" s="0"/>
+      <c r="F461" s="0"/>
       <c r="G461" s="1"/>
       <c r="I461" s="0" t="n">
         <f aca="false">IF(ISBLANK(B461),0,IF(D461="N/A",0,1))</f>
@@ -12950,6 +13671,8 @@
       <c r="C462" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D462" s="0"/>
+      <c r="F462" s="0"/>
       <c r="G462" s="1"/>
       <c r="I462" s="0" t="n">
         <f aca="false">IF(ISBLANK(B462),0,IF(D462="N/A",0,1))</f>
@@ -12971,6 +13694,8 @@
       <c r="C463" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D463" s="0"/>
+      <c r="F463" s="0"/>
       <c r="G463" s="1"/>
       <c r="I463" s="0" t="n">
         <f aca="false">IF(ISBLANK(B463),0,IF(D463="N/A",0,1))</f>
@@ -12992,6 +13717,8 @@
       <c r="C464" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D464" s="0"/>
+      <c r="F464" s="0"/>
       <c r="G464" s="1"/>
       <c r="I464" s="0" t="n">
         <f aca="false">IF(ISBLANK(B464),0,IF(D464="N/A",0,1))</f>
@@ -13013,6 +13740,8 @@
       <c r="C465" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D465" s="0"/>
+      <c r="F465" s="0"/>
       <c r="G465" s="1"/>
       <c r="I465" s="0" t="n">
         <f aca="false">IF(ISBLANK(B465),0,IF(D465="N/A",0,1))</f>
@@ -13037,6 +13766,7 @@
       <c r="D466" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F466" s="0"/>
       <c r="G466" s="1"/>
       <c r="I466" s="0" t="n">
         <f aca="false">IF(ISBLANK(B466),0,IF(D466="N/A",0,1))</f>
@@ -13061,6 +13791,7 @@
       <c r="D467" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F467" s="0"/>
       <c r="G467" s="1"/>
       <c r="I467" s="0" t="n">
         <f aca="false">IF(ISBLANK(B467),0,IF(D467="N/A",0,1))</f>
@@ -13082,6 +13813,8 @@
       <c r="C468" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="D468" s="0"/>
+      <c r="F468" s="0"/>
       <c r="G468" s="1"/>
       <c r="I468" s="0" t="n">
         <f aca="false">IF(ISBLANK(B468),0,IF(D468="N/A",0,1))</f>
@@ -13103,6 +13836,8 @@
       <c r="C469" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D469" s="0"/>
+      <c r="F469" s="0"/>
       <c r="G469" s="1"/>
       <c r="I469" s="0" t="n">
         <f aca="false">IF(ISBLANK(B469),0,IF(D469="N/A",0,1))</f>
@@ -13124,6 +13859,8 @@
       <c r="C470" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="D470" s="0"/>
+      <c r="F470" s="0"/>
       <c r="G470" s="1"/>
       <c r="I470" s="0" t="n">
         <f aca="false">IF(ISBLANK(B470),0,IF(D470="N/A",0,1))</f>
@@ -13145,6 +13882,8 @@
       <c r="C471" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D471" s="0"/>
+      <c r="F471" s="0"/>
       <c r="G471" s="1"/>
       <c r="I471" s="0" t="n">
         <f aca="false">IF(ISBLANK(B471),0,IF(D471="N/A",0,1))</f>
@@ -13169,6 +13908,7 @@
       <c r="D472" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F472" s="0"/>
       <c r="G472" s="1"/>
       <c r="I472" s="0" t="n">
         <f aca="false">IF(ISBLANK(B472),0,IF(D472="N/A",0,1))</f>
@@ -13193,6 +13933,7 @@
       <c r="D473" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F473" s="0"/>
       <c r="G473" s="1"/>
       <c r="I473" s="0" t="n">
         <f aca="false">IF(ISBLANK(B473),0,IF(D473="N/A",0,1))</f>
@@ -13217,6 +13958,7 @@
       <c r="D474" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F474" s="0"/>
       <c r="G474" s="1"/>
       <c r="I474" s="0" t="n">
         <f aca="false">IF(ISBLANK(B474),0,IF(D474="N/A",0,1))</f>
@@ -13238,6 +13980,8 @@
       <c r="C475" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D475" s="0"/>
+      <c r="F475" s="0"/>
       <c r="G475" s="1"/>
       <c r="I475" s="0" t="n">
         <f aca="false">IF(ISBLANK(B475),0,IF(D475="N/A",0,1))</f>
@@ -13259,6 +14003,8 @@
       <c r="C476" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D476" s="0"/>
+      <c r="F476" s="0"/>
       <c r="G476" s="1"/>
       <c r="I476" s="0" t="n">
         <f aca="false">IF(ISBLANK(B476),0,IF(D476="N/A",0,1))</f>
@@ -13283,6 +14029,7 @@
       <c r="D477" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F477" s="0"/>
       <c r="G477" s="1"/>
       <c r="I477" s="0" t="n">
         <f aca="false">IF(ISBLANK(B477),0,IF(D477="N/A",0,1))</f>
@@ -13304,6 +14051,8 @@
       <c r="C478" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D478" s="0"/>
+      <c r="F478" s="0"/>
       <c r="G478" s="1"/>
       <c r="I478" s="0" t="n">
         <f aca="false">IF(ISBLANK(B478),0,IF(D478="N/A",0,1))</f>
@@ -13325,6 +14074,8 @@
       <c r="C479" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D479" s="0"/>
+      <c r="F479" s="0"/>
       <c r="G479" s="1"/>
       <c r="I479" s="0" t="n">
         <f aca="false">IF(ISBLANK(B479),0,IF(D479="N/A",0,1))</f>
@@ -13346,6 +14097,8 @@
       <c r="C480" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D480" s="0"/>
+      <c r="F480" s="0"/>
       <c r="G480" s="1"/>
       <c r="I480" s="0" t="n">
         <f aca="false">IF(ISBLANK(B480),0,IF(D480="N/A",0,1))</f>
@@ -13370,6 +14123,7 @@
       <c r="D481" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F481" s="0"/>
       <c r="G481" s="1"/>
       <c r="I481" s="0" t="n">
         <f aca="false">IF(ISBLANK(B481),0,IF(D481="N/A",0,1))</f>
@@ -13391,6 +14145,8 @@
       <c r="C482" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D482" s="0"/>
+      <c r="F482" s="0"/>
       <c r="G482" s="1"/>
       <c r="I482" s="0" t="n">
         <f aca="false">IF(ISBLANK(B482),0,IF(D482="N/A",0,1))</f>
@@ -13412,6 +14168,8 @@
       <c r="C483" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D483" s="0"/>
+      <c r="F483" s="0"/>
       <c r="G483" s="1"/>
       <c r="I483" s="0" t="n">
         <f aca="false">IF(ISBLANK(B483),0,IF(D483="N/A",0,1))</f>
@@ -13433,6 +14191,8 @@
       <c r="C484" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D484" s="0"/>
+      <c r="F484" s="0"/>
       <c r="G484" s="1"/>
       <c r="I484" s="0" t="n">
         <f aca="false">IF(ISBLANK(B484),0,IF(D484="N/A",0,1))</f>
@@ -13454,6 +14214,8 @@
       <c r="C485" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D485" s="0"/>
+      <c r="F485" s="0"/>
       <c r="G485" s="1"/>
       <c r="I485" s="0" t="n">
         <f aca="false">IF(ISBLANK(B485),0,IF(D485="N/A",0,1))</f>
@@ -13475,6 +14237,8 @@
       <c r="C486" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D486" s="0"/>
+      <c r="F486" s="0"/>
       <c r="G486" s="1"/>
       <c r="I486" s="0" t="n">
         <f aca="false">IF(ISBLANK(B486),0,IF(D486="N/A",0,1))</f>
@@ -13499,6 +14263,7 @@
       <c r="D487" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F487" s="0"/>
       <c r="G487" s="1"/>
       <c r="I487" s="0" t="n">
         <f aca="false">IF(ISBLANK(B487),0,IF(D487="N/A",0,1))</f>
@@ -13523,6 +14288,7 @@
       <c r="D488" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F488" s="0"/>
       <c r="G488" s="1"/>
       <c r="I488" s="0" t="n">
         <f aca="false">IF(ISBLANK(B488),0,IF(D488="N/A",0,1))</f>
@@ -13544,6 +14310,8 @@
       <c r="C489" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D489" s="0"/>
+      <c r="F489" s="0"/>
       <c r="G489" s="1"/>
       <c r="I489" s="0" t="n">
         <f aca="false">IF(ISBLANK(B489),0,IF(D489="N/A",0,1))</f>
@@ -13565,6 +14333,8 @@
       <c r="C490" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D490" s="0"/>
+      <c r="F490" s="0"/>
       <c r="G490" s="1"/>
       <c r="I490" s="0" t="n">
         <f aca="false">IF(ISBLANK(B490),0,IF(D490="N/A",0,1))</f>
@@ -13586,6 +14356,8 @@
       <c r="C491" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D491" s="0"/>
+      <c r="F491" s="0"/>
       <c r="G491" s="1"/>
       <c r="I491" s="0" t="n">
         <f aca="false">IF(ISBLANK(B491),0,IF(D491="N/A",0,1))</f>
@@ -13607,6 +14379,8 @@
       <c r="C492" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D492" s="0"/>
+      <c r="F492" s="0"/>
       <c r="G492" s="1"/>
       <c r="I492" s="0" t="n">
         <f aca="false">IF(ISBLANK(B492),0,IF(D492="N/A",0,1))</f>
@@ -13628,6 +14402,8 @@
       <c r="C493" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D493" s="0"/>
+      <c r="F493" s="0"/>
       <c r="G493" s="1"/>
       <c r="I493" s="0" t="n">
         <f aca="false">IF(ISBLANK(B493),0,IF(D493="N/A",0,1))</f>
@@ -13649,6 +14425,8 @@
       <c r="C494" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D494" s="0"/>
+      <c r="F494" s="0"/>
       <c r="G494" s="1"/>
       <c r="I494" s="0" t="n">
         <f aca="false">IF(ISBLANK(B494),0,IF(D494="N/A",0,1))</f>
@@ -13698,6 +14476,7 @@
       <c r="D496" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F496" s="0"/>
       <c r="G496" s="1"/>
       <c r="I496" s="0" t="n">
         <f aca="false">IF(ISBLANK(B496),0,IF(D496="N/A",0,1))</f>
@@ -13719,6 +14498,8 @@
       <c r="C497" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D497" s="0"/>
+      <c r="F497" s="0"/>
       <c r="G497" s="1"/>
       <c r="I497" s="0" t="n">
         <f aca="false">IF(ISBLANK(B497),0,IF(D497="N/A",0,1))</f>
@@ -13740,6 +14521,8 @@
       <c r="C498" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D498" s="0"/>
+      <c r="F498" s="0"/>
       <c r="G498" s="1"/>
       <c r="I498" s="0" t="n">
         <f aca="false">IF(ISBLANK(B498),0,IF(D498="N/A",0,1))</f>
@@ -13761,6 +14544,8 @@
       <c r="C499" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D499" s="0"/>
+      <c r="F499" s="0"/>
       <c r="G499" s="1"/>
       <c r="I499" s="0" t="n">
         <f aca="false">IF(ISBLANK(B499),0,IF(D499="N/A",0,1))</f>
@@ -13782,6 +14567,8 @@
       <c r="C500" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D500" s="0"/>
+      <c r="F500" s="0"/>
       <c r="G500" s="1"/>
       <c r="I500" s="0" t="n">
         <f aca="false">IF(ISBLANK(B500),0,IF(D500="N/A",0,1))</f>
@@ -13803,6 +14590,8 @@
       <c r="C501" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D501" s="0"/>
+      <c r="F501" s="0"/>
       <c r="G501" s="1"/>
       <c r="I501" s="0" t="n">
         <f aca="false">IF(ISBLANK(B501),0,IF(D501="N/A",0,1))</f>
@@ -13827,6 +14616,7 @@
       <c r="D502" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F502" s="0"/>
       <c r="G502" s="1"/>
       <c r="I502" s="0" t="n">
         <f aca="false">IF(ISBLANK(B502),0,IF(D502="N/A",0,1))</f>
@@ -13848,6 +14638,8 @@
       <c r="C503" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D503" s="0"/>
+      <c r="F503" s="0"/>
       <c r="G503" s="1"/>
       <c r="I503" s="0" t="n">
         <f aca="false">IF(ISBLANK(B503),0,IF(D503="N/A",0,1))</f>
@@ -13869,6 +14661,8 @@
       <c r="C504" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D504" s="0"/>
+      <c r="F504" s="0"/>
       <c r="G504" s="1"/>
       <c r="I504" s="0" t="n">
         <f aca="false">IF(ISBLANK(B504),0,IF(D504="N/A",0,1))</f>
@@ -13890,6 +14684,8 @@
       <c r="C505" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D505" s="0"/>
+      <c r="F505" s="0"/>
       <c r="G505" s="1"/>
       <c r="I505" s="0" t="n">
         <f aca="false">IF(ISBLANK(B505),0,IF(D505="N/A",0,1))</f>
@@ -13911,6 +14707,8 @@
       <c r="C506" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D506" s="0"/>
+      <c r="F506" s="0"/>
       <c r="G506" s="1"/>
       <c r="I506" s="0" t="n">
         <f aca="false">IF(ISBLANK(B506),0,IF(D506="N/A",0,1))</f>
@@ -13935,6 +14733,7 @@
       <c r="D507" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F507" s="0"/>
       <c r="G507" s="1"/>
       <c r="I507" s="0" t="n">
         <f aca="false">IF(ISBLANK(B507),0,IF(D507="N/A",0,1))</f>
@@ -13959,6 +14758,7 @@
       <c r="D508" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F508" s="0"/>
       <c r="G508" s="1"/>
       <c r="I508" s="0" t="n">
         <f aca="false">IF(ISBLANK(B508),0,IF(D508="N/A",0,1))</f>
@@ -13983,6 +14783,7 @@
       <c r="D509" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F509" s="0"/>
       <c r="G509" s="1"/>
       <c r="I509" s="0" t="n">
         <f aca="false">IF(ISBLANK(B509),0,IF(D509="N/A",0,1))</f>
@@ -14004,6 +14805,8 @@
       <c r="C510" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D510" s="0"/>
+      <c r="F510" s="0"/>
       <c r="G510" s="1"/>
       <c r="I510" s="0" t="n">
         <f aca="false">IF(ISBLANK(B510),0,IF(D510="N/A",0,1))</f>
@@ -14025,6 +14828,8 @@
       <c r="C511" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D511" s="0"/>
+      <c r="F511" s="0"/>
       <c r="G511" s="1"/>
       <c r="I511" s="0" t="n">
         <f aca="false">IF(ISBLANK(B511),0,IF(D511="N/A",0,1))</f>
@@ -14046,6 +14851,8 @@
       <c r="C512" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D512" s="0"/>
+      <c r="F512" s="0"/>
       <c r="G512" s="1"/>
       <c r="I512" s="0" t="n">
         <f aca="false">IF(ISBLANK(B512),0,IF(D512="N/A",0,1))</f>
@@ -14067,6 +14874,8 @@
       <c r="C513" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D513" s="0"/>
+      <c r="F513" s="0"/>
       <c r="G513" s="1"/>
       <c r="I513" s="0" t="n">
         <f aca="false">IF(ISBLANK(B513),0,IF(D513="N/A",0,1))</f>
@@ -14088,6 +14897,8 @@
       <c r="C514" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="D514" s="0"/>
+      <c r="F514" s="0"/>
       <c r="G514" s="1"/>
       <c r="I514" s="0" t="n">
         <f aca="false">IF(ISBLANK(B514),0,IF(D514="N/A",0,1))</f>
@@ -14112,6 +14923,7 @@
       <c r="D515" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F515" s="0"/>
       <c r="G515" s="1"/>
       <c r="I515" s="0" t="n">
         <f aca="false">IF(ISBLANK(B515),0,IF(D515="N/A",0,1))</f>
@@ -14133,6 +14945,8 @@
       <c r="C516" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D516" s="0"/>
+      <c r="F516" s="0"/>
       <c r="G516" s="1"/>
       <c r="I516" s="0" t="n">
         <f aca="false">IF(ISBLANK(B516),0,IF(D516="N/A",0,1))</f>
@@ -14157,6 +14971,7 @@
       <c r="D517" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F517" s="0"/>
       <c r="G517" s="1"/>
       <c r="I517" s="0" t="n">
         <f aca="false">IF(ISBLANK(B517),0,IF(D517="N/A",0,1))</f>
@@ -14181,6 +14996,7 @@
       <c r="D518" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F518" s="0"/>
       <c r="G518" s="1"/>
       <c r="I518" s="0" t="n">
         <f aca="false">IF(ISBLANK(B518),0,IF(D518="N/A",0,1))</f>
@@ -14202,6 +15018,8 @@
       <c r="C519" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D519" s="0"/>
+      <c r="F519" s="0"/>
       <c r="G519" s="1"/>
       <c r="I519" s="0" t="n">
         <f aca="false">IF(ISBLANK(B519),0,IF(D519="N/A",0,1))</f>
@@ -14226,6 +15044,7 @@
       <c r="D520" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F520" s="0"/>
       <c r="G520" s="1"/>
       <c r="I520" s="0" t="n">
         <f aca="false">IF(ISBLANK(B520),0,IF(D520="N/A",0,1))</f>
@@ -14247,6 +15066,8 @@
       <c r="C521" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D521" s="0"/>
+      <c r="F521" s="0"/>
       <c r="G521" s="1"/>
       <c r="I521" s="0" t="n">
         <f aca="false">IF(ISBLANK(B521),0,IF(D521="N/A",0,1))</f>
@@ -14268,6 +15089,8 @@
       <c r="C522" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D522" s="0"/>
+      <c r="F522" s="0"/>
       <c r="G522" s="1"/>
       <c r="I522" s="0" t="n">
         <f aca="false">IF(ISBLANK(B522),0,IF(D522="N/A",0,1))</f>
@@ -14289,6 +15112,8 @@
       <c r="C523" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D523" s="0"/>
+      <c r="F523" s="0"/>
       <c r="G523" s="1"/>
       <c r="I523" s="0" t="n">
         <f aca="false">IF(ISBLANK(B523),0,IF(D523="N/A",0,1))</f>
@@ -14310,6 +15135,8 @@
       <c r="C524" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D524" s="0"/>
+      <c r="F524" s="0"/>
       <c r="G524" s="1"/>
       <c r="I524" s="0" t="n">
         <f aca="false">IF(ISBLANK(B524),0,IF(D524="N/A",0,1))</f>
@@ -14331,6 +15158,8 @@
       <c r="C525" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D525" s="0"/>
+      <c r="F525" s="0"/>
       <c r="G525" s="1"/>
       <c r="I525" s="0" t="n">
         <f aca="false">IF(ISBLANK(B525),0,IF(D525="N/A",0,1))</f>
@@ -14352,6 +15181,8 @@
       <c r="C526" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D526" s="0"/>
+      <c r="F526" s="0"/>
       <c r="G526" s="1"/>
       <c r="I526" s="0" t="n">
         <f aca="false">IF(ISBLANK(B526),0,IF(D526="N/A",0,1))</f>
@@ -14373,6 +15204,8 @@
       <c r="C527" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D527" s="0"/>
+      <c r="F527" s="0"/>
       <c r="G527" s="1"/>
       <c r="I527" s="0" t="n">
         <f aca="false">IF(ISBLANK(B527),0,IF(D527="N/A",0,1))</f>
@@ -14394,6 +15227,8 @@
       <c r="C528" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D528" s="0"/>
+      <c r="F528" s="0"/>
       <c r="G528" s="1"/>
       <c r="I528" s="0" t="n">
         <f aca="false">IF(ISBLANK(B528),0,IF(D528="N/A",0,1))</f>
@@ -14418,6 +15253,7 @@
       <c r="D529" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F529" s="0"/>
       <c r="G529" s="1"/>
       <c r="I529" s="0" t="n">
         <f aca="false">IF(ISBLANK(B529),0,IF(D529="N/A",0,1))</f>
@@ -14442,6 +15278,7 @@
       <c r="D530" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F530" s="0"/>
       <c r="G530" s="1"/>
       <c r="I530" s="0" t="n">
         <f aca="false">IF(ISBLANK(B530),0,IF(D530="N/A",0,1))</f>
@@ -14463,6 +15300,8 @@
       <c r="C531" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D531" s="0"/>
+      <c r="F531" s="0"/>
       <c r="G531" s="1"/>
       <c r="I531" s="0" t="n">
         <f aca="false">IF(ISBLANK(B531),0,IF(D531="N/A",0,1))</f>
@@ -14487,6 +15326,7 @@
       <c r="D532" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F532" s="0"/>
       <c r="G532" s="1"/>
       <c r="I532" s="0" t="n">
         <f aca="false">IF(ISBLANK(B532),0,IF(D532="N/A",0,1))</f>
@@ -14511,6 +15351,7 @@
       <c r="D533" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F533" s="0"/>
       <c r="G533" s="1"/>
       <c r="I533" s="0" t="n">
         <f aca="false">IF(ISBLANK(B533),0,IF(D533="N/A",0,1))</f>
@@ -14532,6 +15373,8 @@
       <c r="C534" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D534" s="0"/>
+      <c r="F534" s="0"/>
       <c r="G534" s="1"/>
       <c r="I534" s="0" t="n">
         <f aca="false">IF(ISBLANK(B534),0,IF(D534="N/A",0,1))</f>
@@ -14553,6 +15396,8 @@
       <c r="C535" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D535" s="0"/>
+      <c r="F535" s="0"/>
       <c r="G535" s="1"/>
       <c r="I535" s="0" t="n">
         <f aca="false">IF(ISBLANK(B535),0,IF(D535="N/A",0,1))</f>
@@ -14574,6 +15419,8 @@
       <c r="C536" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D536" s="0"/>
+      <c r="F536" s="0"/>
       <c r="G536" s="1"/>
       <c r="I536" s="0" t="n">
         <f aca="false">IF(ISBLANK(B536),0,IF(D536="N/A",0,1))</f>
@@ -14595,6 +15442,8 @@
       <c r="C537" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D537" s="0"/>
+      <c r="F537" s="0"/>
       <c r="G537" s="1"/>
       <c r="I537" s="0" t="n">
         <f aca="false">IF(ISBLANK(B537),0,IF(D537="N/A",0,1))</f>
@@ -14616,6 +15465,8 @@
       <c r="C538" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D538" s="0"/>
+      <c r="F538" s="0"/>
       <c r="G538" s="1"/>
       <c r="I538" s="0" t="n">
         <f aca="false">IF(ISBLANK(B538),0,IF(D538="N/A",0,1))</f>
@@ -14637,6 +15488,8 @@
       <c r="C539" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D539" s="0"/>
+      <c r="F539" s="0"/>
       <c r="G539" s="1"/>
       <c r="I539" s="0" t="n">
         <f aca="false">IF(ISBLANK(B539),0,IF(D539="N/A",0,1))</f>
@@ -14658,6 +15511,8 @@
       <c r="C540" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D540" s="0"/>
+      <c r="F540" s="0"/>
       <c r="G540" s="1"/>
       <c r="I540" s="0" t="n">
         <f aca="false">IF(ISBLANK(B540),0,IF(D540="N/A",0,1))</f>
@@ -14682,6 +15537,7 @@
       <c r="D541" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F541" s="0"/>
       <c r="G541" s="1"/>
       <c r="I541" s="0" t="n">
         <f aca="false">IF(ISBLANK(B541),0,IF(D541="N/A",0,1))</f>
@@ -14703,6 +15559,8 @@
       <c r="C542" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D542" s="0"/>
+      <c r="F542" s="0"/>
       <c r="G542" s="1"/>
       <c r="I542" s="0" t="n">
         <f aca="false">IF(ISBLANK(B542),0,IF(D542="N/A",0,1))</f>
@@ -14724,6 +15582,8 @@
       <c r="C543" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D543" s="0"/>
+      <c r="F543" s="0"/>
       <c r="G543" s="1"/>
       <c r="I543" s="0" t="n">
         <f aca="false">IF(ISBLANK(B543),0,IF(D543="N/A",0,1))</f>
@@ -14745,6 +15605,8 @@
       <c r="C544" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D544" s="0"/>
+      <c r="F544" s="0"/>
       <c r="G544" s="1"/>
       <c r="I544" s="0" t="n">
         <f aca="false">IF(ISBLANK(B544),0,IF(D544="N/A",0,1))</f>
@@ -14766,6 +15628,8 @@
       <c r="C545" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D545" s="0"/>
+      <c r="F545" s="0"/>
       <c r="G545" s="1"/>
       <c r="I545" s="0" t="n">
         <f aca="false">IF(ISBLANK(B545),0,IF(D545="N/A",0,1))</f>
@@ -14787,6 +15651,8 @@
       <c r="C546" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D546" s="0"/>
+      <c r="F546" s="0"/>
       <c r="G546" s="1"/>
       <c r="I546" s="0" t="n">
         <f aca="false">IF(ISBLANK(B546),0,IF(D546="N/A",0,1))</f>
@@ -14808,6 +15674,8 @@
       <c r="C547" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D547" s="0"/>
+      <c r="F547" s="0"/>
       <c r="G547" s="1"/>
       <c r="I547" s="0" t="n">
         <f aca="false">IF(ISBLANK(B547),0,IF(D547="N/A",0,1))</f>
@@ -14832,6 +15700,7 @@
       <c r="D548" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F548" s="0"/>
       <c r="G548" s="1"/>
       <c r="I548" s="0" t="n">
         <f aca="false">IF(ISBLANK(B548),0,IF(D548="N/A",0,1))</f>
@@ -14853,6 +15722,8 @@
       <c r="C549" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D549" s="0"/>
+      <c r="F549" s="0"/>
       <c r="G549" s="1"/>
       <c r="I549" s="0" t="n">
         <f aca="false">IF(ISBLANK(B549),0,IF(D549="N/A",0,1))</f>
@@ -14874,6 +15745,8 @@
       <c r="C550" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D550" s="0"/>
+      <c r="F550" s="0"/>
       <c r="G550" s="1"/>
       <c r="I550" s="0" t="n">
         <f aca="false">IF(ISBLANK(B550),0,IF(D550="N/A",0,1))</f>
@@ -14898,6 +15771,7 @@
       <c r="D551" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F551" s="0"/>
       <c r="G551" s="1"/>
       <c r="I551" s="0" t="n">
         <f aca="false">IF(ISBLANK(B551),0,IF(D551="N/A",0,1))</f>
@@ -14922,6 +15796,7 @@
       <c r="D552" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F552" s="0"/>
       <c r="G552" s="1"/>
       <c r="I552" s="0" t="n">
         <f aca="false">IF(ISBLANK(B552),0,IF(D552="N/A",0,1))</f>
@@ -14943,6 +15818,8 @@
       <c r="C553" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D553" s="0"/>
+      <c r="F553" s="0"/>
       <c r="G553" s="1"/>
       <c r="I553" s="0" t="n">
         <f aca="false">IF(ISBLANK(B553),0,IF(D553="N/A",0,1))</f>
@@ -14967,6 +15844,7 @@
       <c r="D554" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F554" s="0"/>
       <c r="G554" s="1"/>
       <c r="I554" s="0" t="n">
         <f aca="false">IF(ISBLANK(B554),0,IF(D554="N/A",0,1))</f>
@@ -14988,6 +15866,8 @@
       <c r="C555" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D555" s="0"/>
+      <c r="F555" s="0"/>
       <c r="G555" s="1"/>
       <c r="I555" s="0" t="n">
         <f aca="false">IF(ISBLANK(B555),0,IF(D555="N/A",0,1))</f>
@@ -15009,6 +15889,8 @@
       <c r="C556" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D556" s="0"/>
+      <c r="F556" s="0"/>
       <c r="G556" s="1"/>
       <c r="I556" s="0" t="n">
         <f aca="false">IF(ISBLANK(B556),0,IF(D556="N/A",0,1))</f>
@@ -15030,6 +15912,8 @@
       <c r="C557" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D557" s="0"/>
+      <c r="F557" s="0"/>
       <c r="G557" s="1"/>
       <c r="I557" s="0" t="n">
         <f aca="false">IF(ISBLANK(B557),0,IF(D557="N/A",0,1))</f>
@@ -15051,6 +15935,8 @@
       <c r="C558" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D558" s="0"/>
+      <c r="F558" s="0"/>
       <c r="G558" s="1"/>
       <c r="I558" s="0" t="n">
         <f aca="false">IF(ISBLANK(B558),0,IF(D558="N/A",0,1))</f>
@@ -15075,6 +15961,7 @@
       <c r="D559" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F559" s="0"/>
       <c r="G559" s="1"/>
       <c r="I559" s="0" t="n">
         <f aca="false">IF(ISBLANK(B559),0,IF(D559="N/A",0,1))</f>
@@ -15096,6 +15983,8 @@
       <c r="C560" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D560" s="0"/>
+      <c r="F560" s="0"/>
       <c r="G560" s="1"/>
       <c r="I560" s="0" t="n">
         <f aca="false">IF(ISBLANK(B560),0,IF(D560="N/A",0,1))</f>
@@ -15117,6 +16006,8 @@
       <c r="C561" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D561" s="0"/>
+      <c r="F561" s="0"/>
       <c r="G561" s="1"/>
       <c r="I561" s="0" t="n">
         <f aca="false">IF(ISBLANK(B561),0,IF(D561="N/A",0,1))</f>
@@ -15138,6 +16029,8 @@
       <c r="C562" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D562" s="0"/>
+      <c r="F562" s="0"/>
       <c r="G562" s="1"/>
       <c r="I562" s="0" t="n">
         <f aca="false">IF(ISBLANK(B562),0,IF(D562="N/A",0,1))</f>
@@ -15159,6 +16052,8 @@
       <c r="C563" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D563" s="0"/>
+      <c r="F563" s="0"/>
       <c r="G563" s="1"/>
       <c r="I563" s="0" t="n">
         <f aca="false">IF(ISBLANK(B563),0,IF(D563="N/A",0,1))</f>
@@ -15183,6 +16078,7 @@
       <c r="D564" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F564" s="0"/>
       <c r="G564" s="1"/>
       <c r="I564" s="0" t="n">
         <f aca="false">IF(ISBLANK(B564),0,IF(D564="N/A",0,1))</f>
@@ -15204,6 +16100,8 @@
       <c r="C565" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D565" s="0"/>
+      <c r="F565" s="0"/>
       <c r="G565" s="1"/>
       <c r="I565" s="0" t="n">
         <f aca="false">IF(ISBLANK(B565),0,IF(D565="N/A",0,1))</f>
@@ -15225,6 +16123,8 @@
       <c r="C566" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D566" s="0"/>
+      <c r="F566" s="0"/>
       <c r="G566" s="1"/>
       <c r="I566" s="0" t="n">
         <f aca="false">IF(ISBLANK(B566),0,IF(D566="N/A",0,1))</f>
@@ -15246,6 +16146,8 @@
       <c r="C567" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="D567" s="0"/>
+      <c r="F567" s="0"/>
       <c r="G567" s="1"/>
       <c r="I567" s="0" t="n">
         <f aca="false">IF(ISBLANK(B567),0,IF(D567="N/A",0,1))</f>
@@ -15267,6 +16169,8 @@
       <c r="C568" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="D568" s="0"/>
+      <c r="F568" s="0"/>
       <c r="G568" s="1"/>
       <c r="I568" s="0" t="n">
         <f aca="false">IF(ISBLANK(B568),0,IF(D568="N/A",0,1))</f>
@@ -15288,6 +16192,8 @@
       <c r="C569" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="D569" s="0"/>
+      <c r="F569" s="0"/>
       <c r="G569" s="1"/>
       <c r="I569" s="0" t="n">
         <f aca="false">IF(ISBLANK(B569),0,IF(D569="N/A",0,1))</f>
@@ -15309,6 +16215,8 @@
       <c r="C570" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D570" s="0"/>
+      <c r="F570" s="0"/>
       <c r="G570" s="1"/>
       <c r="I570" s="0" t="n">
         <f aca="false">IF(ISBLANK(B570),0,IF(D570="N/A",0,1))</f>
@@ -15330,6 +16238,8 @@
       <c r="C571" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D571" s="0"/>
+      <c r="F571" s="0"/>
       <c r="G571" s="1"/>
       <c r="I571" s="0" t="n">
         <f aca="false">IF(ISBLANK(B571),0,IF(D571="N/A",0,1))</f>
@@ -15351,6 +16261,8 @@
       <c r="C572" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D572" s="0"/>
+      <c r="F572" s="0"/>
       <c r="G572" s="1"/>
       <c r="I572" s="0" t="n">
         <f aca="false">IF(ISBLANK(B572),0,IF(D572="N/A",0,1))</f>
@@ -15372,6 +16284,8 @@
       <c r="C573" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D573" s="0"/>
+      <c r="F573" s="0"/>
       <c r="G573" s="1"/>
       <c r="I573" s="0" t="n">
         <f aca="false">IF(ISBLANK(B573),0,IF(D573="N/A",0,1))</f>
@@ -15396,6 +16310,7 @@
       <c r="D574" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F574" s="0"/>
       <c r="G574" s="1"/>
       <c r="I574" s="0" t="n">
         <f aca="false">IF(ISBLANK(B574),0,IF(D574="N/A",0,1))</f>
@@ -15420,6 +16335,7 @@
       <c r="D575" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F575" s="0"/>
       <c r="G575" s="1"/>
       <c r="I575" s="0" t="n">
         <f aca="false">IF(ISBLANK(B575),0,IF(D575="N/A",0,1))</f>
@@ -15441,6 +16357,8 @@
       <c r="C576" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D576" s="0"/>
+      <c r="F576" s="0"/>
       <c r="G576" s="1"/>
       <c r="I576" s="0" t="n">
         <f aca="false">IF(ISBLANK(B576),0,IF(D576="N/A",0,1))</f>
@@ -15465,6 +16383,7 @@
       <c r="D577" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F577" s="0"/>
       <c r="G577" s="1"/>
       <c r="I577" s="0" t="n">
         <f aca="false">IF(ISBLANK(B577),0,IF(D577="N/A",0,1))</f>
@@ -15489,6 +16408,7 @@
       <c r="D578" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F578" s="0"/>
       <c r="G578" s="1"/>
       <c r="I578" s="0" t="n">
         <f aca="false">IF(ISBLANK(B578),0,IF(D578="N/A",0,1))</f>
@@ -15513,6 +16433,7 @@
       <c r="D579" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F579" s="0"/>
       <c r="G579" s="1"/>
       <c r="I579" s="0" t="n">
         <f aca="false">IF(ISBLANK(B579),0,IF(D579="N/A",0,1))</f>
@@ -15537,6 +16458,7 @@
       <c r="D580" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F580" s="0"/>
       <c r="G580" s="1"/>
       <c r="I580" s="0" t="n">
         <f aca="false">IF(ISBLANK(B580),0,IF(D580="N/A",0,1))</f>
@@ -15561,6 +16483,7 @@
       <c r="D581" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F581" s="0"/>
       <c r="G581" s="1"/>
       <c r="I581" s="0" t="n">
         <f aca="false">IF(ISBLANK(B581),0,IF(D581="N/A",0,1))</f>
@@ -15582,6 +16505,8 @@
       <c r="C582" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D582" s="0"/>
+      <c r="F582" s="0"/>
       <c r="G582" s="1"/>
       <c r="I582" s="0" t="n">
         <f aca="false">IF(ISBLANK(B582),0,IF(D582="N/A",0,1))</f>
@@ -15603,6 +16528,8 @@
       <c r="C583" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D583" s="0"/>
+      <c r="F583" s="0"/>
       <c r="G583" s="1"/>
       <c r="I583" s="0" t="n">
         <f aca="false">IF(ISBLANK(B583),0,IF(D583="N/A",0,1))</f>
@@ -15624,6 +16551,8 @@
       <c r="C584" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D584" s="0"/>
+      <c r="F584" s="0"/>
       <c r="G584" s="1"/>
       <c r="I584" s="0" t="n">
         <f aca="false">IF(ISBLANK(B584),0,IF(D584="N/A",0,1))</f>
@@ -15645,6 +16574,8 @@
       <c r="C585" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D585" s="0"/>
+      <c r="F585" s="0"/>
       <c r="G585" s="1"/>
       <c r="I585" s="0" t="n">
         <f aca="false">IF(ISBLANK(B585),0,IF(D585="N/A",0,1))</f>
@@ -15666,6 +16597,8 @@
       <c r="C586" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="D586" s="0"/>
+      <c r="F586" s="0"/>
       <c r="G586" s="1"/>
       <c r="I586" s="0" t="n">
         <f aca="false">IF(ISBLANK(B586),0,IF(D586="N/A",0,1))</f>
@@ -15687,6 +16620,8 @@
       <c r="C587" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="D587" s="0"/>
+      <c r="F587" s="0"/>
       <c r="G587" s="1"/>
       <c r="I587" s="0" t="n">
         <f aca="false">IF(ISBLANK(B587),0,IF(D587="N/A",0,1))</f>
@@ -15708,6 +16643,8 @@
       <c r="C588" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="D588" s="0"/>
+      <c r="F588" s="0"/>
       <c r="G588" s="1"/>
       <c r="I588" s="0" t="n">
         <f aca="false">IF(ISBLANK(B588),0,IF(D588="N/A",0,1))</f>
@@ -15729,6 +16666,8 @@
       <c r="C589" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D589" s="0"/>
+      <c r="F589" s="0"/>
       <c r="G589" s="1"/>
       <c r="I589" s="0" t="n">
         <f aca="false">IF(ISBLANK(B589),0,IF(D589="N/A",0,1))</f>
@@ -15750,6 +16689,8 @@
       <c r="C590" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D590" s="0"/>
+      <c r="F590" s="0"/>
       <c r="G590" s="1"/>
       <c r="I590" s="0" t="n">
         <f aca="false">IF(ISBLANK(B590),0,IF(D590="N/A",0,1))</f>
@@ -15774,6 +16715,7 @@
       <c r="D591" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F591" s="0"/>
       <c r="G591" s="1"/>
       <c r="I591" s="0" t="n">
         <f aca="false">IF(ISBLANK(B591),0,IF(D591="N/A",0,1))</f>
@@ -15798,6 +16740,7 @@
       <c r="D592" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F592" s="0"/>
       <c r="G592" s="1"/>
       <c r="I592" s="0" t="n">
         <f aca="false">IF(ISBLANK(B592),0,IF(D592="N/A",0,1))</f>
@@ -15822,6 +16765,7 @@
       <c r="D593" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F593" s="0"/>
       <c r="G593" s="1"/>
       <c r="I593" s="0" t="n">
         <f aca="false">IF(ISBLANK(B593),0,IF(D593="N/A",0,1))</f>
@@ -15843,6 +16787,8 @@
       <c r="C594" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D594" s="0"/>
+      <c r="F594" s="0"/>
       <c r="G594" s="1"/>
       <c r="I594" s="0" t="n">
         <f aca="false">IF(ISBLANK(B594),0,IF(D594="N/A",0,1))</f>
@@ -15864,6 +16810,8 @@
       <c r="C595" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D595" s="0"/>
+      <c r="F595" s="0"/>
       <c r="G595" s="1"/>
       <c r="I595" s="0" t="n">
         <f aca="false">IF(ISBLANK(B595),0,IF(D595="N/A",0,1))</f>
@@ -15885,6 +16833,8 @@
       <c r="C596" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D596" s="0"/>
+      <c r="F596" s="0"/>
       <c r="G596" s="1"/>
       <c r="I596" s="0" t="n">
         <f aca="false">IF(ISBLANK(B596),0,IF(D596="N/A",0,1))</f>
@@ -15906,6 +16856,8 @@
       <c r="C597" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D597" s="0"/>
+      <c r="F597" s="0"/>
       <c r="G597" s="1"/>
       <c r="I597" s="0" t="n">
         <f aca="false">IF(ISBLANK(B597),0,IF(D597="N/A",0,1))</f>
@@ -15927,6 +16879,8 @@
       <c r="C598" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D598" s="0"/>
+      <c r="F598" s="0"/>
       <c r="G598" s="1"/>
       <c r="I598" s="0" t="n">
         <f aca="false">IF(ISBLANK(B598),0,IF(D598="N/A",0,1))</f>
@@ -15948,6 +16902,8 @@
       <c r="C599" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D599" s="0"/>
+      <c r="F599" s="0"/>
       <c r="G599" s="1"/>
       <c r="I599" s="0" t="n">
         <f aca="false">IF(ISBLANK(B599),0,IF(D599="N/A",0,1))</f>
@@ -15969,6 +16925,8 @@
       <c r="C600" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D600" s="0"/>
+      <c r="F600" s="0"/>
       <c r="G600" s="1"/>
       <c r="I600" s="0" t="n">
         <f aca="false">IF(ISBLANK(B600),0,IF(D600="N/A",0,1))</f>
@@ -15990,6 +16948,8 @@
       <c r="C601" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D601" s="0"/>
+      <c r="F601" s="0"/>
       <c r="G601" s="1"/>
       <c r="I601" s="0" t="n">
         <f aca="false">IF(ISBLANK(B601),0,IF(D601="N/A",0,1))</f>
@@ -16011,6 +16971,10 @@
       <c r="C602" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D602" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F602" s="0"/>
       <c r="G602" s="1"/>
       <c r="I602" s="0" t="n">
         <f aca="false">IF(ISBLANK(B602),0,IF(D602="N/A",0,1))</f>
@@ -16018,7 +16982,7 @@
       </c>
       <c r="J602" s="0" t="n">
         <f aca="false">IF(ISBLANK(D602),0,I602)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16032,6 +16996,8 @@
       <c r="C603" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D603" s="0"/>
+      <c r="F603" s="0"/>
       <c r="G603" s="1"/>
       <c r="I603" s="0" t="n">
         <f aca="false">IF(ISBLANK(B603),0,IF(D603="N/A",0,1))</f>
@@ -16053,6 +17019,8 @@
       <c r="C604" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D604" s="0"/>
+      <c r="F604" s="0"/>
       <c r="G604" s="1"/>
       <c r="I604" s="0" t="n">
         <f aca="false">IF(ISBLANK(B604),0,IF(D604="N/A",0,1))</f>
@@ -16077,6 +17045,7 @@
       <c r="D605" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F605" s="0"/>
       <c r="G605" s="1"/>
       <c r="I605" s="0" t="n">
         <f aca="false">IF(ISBLANK(B605),0,IF(D605="N/A",0,1))</f>
@@ -16098,6 +17067,8 @@
       <c r="C606" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D606" s="0"/>
+      <c r="F606" s="0"/>
       <c r="G606" s="1"/>
       <c r="I606" s="0" t="n">
         <f aca="false">IF(ISBLANK(B606),0,IF(D606="N/A",0,1))</f>
@@ -16119,6 +17090,8 @@
       <c r="C607" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D607" s="0"/>
+      <c r="F607" s="0"/>
       <c r="G607" s="1"/>
       <c r="I607" s="0" t="n">
         <f aca="false">IF(ISBLANK(B607),0,IF(D607="N/A",0,1))</f>
@@ -16143,6 +17116,7 @@
       <c r="D608" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F608" s="0"/>
       <c r="G608" s="1"/>
       <c r="I608" s="0" t="n">
         <f aca="false">IF(ISBLANK(B608),0,IF(D608="N/A",0,1))</f>
@@ -16164,6 +17138,8 @@
       <c r="C609" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D609" s="0"/>
+      <c r="F609" s="0"/>
       <c r="G609" s="1"/>
       <c r="I609" s="0" t="n">
         <f aca="false">IF(ISBLANK(B609),0,IF(D609="N/A",0,1))</f>
@@ -16188,6 +17164,7 @@
       <c r="D610" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F610" s="0"/>
       <c r="G610" s="1"/>
       <c r="I610" s="0" t="n">
         <f aca="false">IF(ISBLANK(B610),0,IF(D610="N/A",0,1))</f>
@@ -16209,6 +17186,8 @@
       <c r="C611" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D611" s="0"/>
+      <c r="F611" s="0"/>
       <c r="G611" s="1"/>
       <c r="I611" s="0" t="n">
         <f aca="false">IF(ISBLANK(B611),0,IF(D611="N/A",0,1))</f>
@@ -16230,6 +17209,8 @@
       <c r="C612" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D612" s="0"/>
+      <c r="F612" s="0"/>
       <c r="G612" s="1"/>
       <c r="I612" s="0" t="n">
         <f aca="false">IF(ISBLANK(B612),0,IF(D612="N/A",0,1))</f>
@@ -16251,6 +17232,8 @@
       <c r="C613" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D613" s="0"/>
+      <c r="F613" s="0"/>
       <c r="G613" s="1"/>
       <c r="I613" s="0" t="n">
         <f aca="false">IF(ISBLANK(B613),0,IF(D613="N/A",0,1))</f>
@@ -16272,6 +17255,8 @@
       <c r="C614" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D614" s="0"/>
+      <c r="F614" s="0"/>
       <c r="G614" s="1"/>
       <c r="I614" s="0" t="n">
         <f aca="false">IF(ISBLANK(B614),0,IF(D614="N/A",0,1))</f>
@@ -16318,6 +17303,7 @@
       <c r="C616" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D616" s="0"/>
       <c r="G616" s="1"/>
       <c r="I616" s="0" t="n">
         <f aca="false">IF(ISBLANK(B616),0,IF(D616="N/A",0,1))</f>
@@ -16339,6 +17325,7 @@
       <c r="C617" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D617" s="0"/>
       <c r="G617" s="1"/>
       <c r="I617" s="0" t="n">
         <f aca="false">IF(ISBLANK(B617),0,IF(D617="N/A",0,1))</f>
@@ -16360,6 +17347,7 @@
       <c r="C618" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D618" s="0"/>
       <c r="G618" s="1"/>
       <c r="I618" s="0" t="n">
         <f aca="false">IF(ISBLANK(B618),0,IF(D618="N/A",0,1))</f>
@@ -16405,6 +17393,7 @@
       <c r="C620" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D620" s="0"/>
       <c r="G620" s="1"/>
       <c r="I620" s="0" t="n">
         <f aca="false">IF(ISBLANK(B620),0,IF(D620="N/A",0,1))</f>
@@ -16450,6 +17439,9 @@
       <c r="C622" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D622" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G622" s="1"/>
       <c r="I622" s="0" t="n">
         <f aca="false">IF(ISBLANK(B622),0,IF(D622="N/A",0,1))</f>
@@ -16457,7 +17449,7 @@
       </c>
       <c r="J622" s="0" t="n">
         <f aca="false">IF(ISBLANK(D622),0,I622)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16471,6 +17463,7 @@
       <c r="C623" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D623" s="0"/>
       <c r="G623" s="1"/>
       <c r="I623" s="0" t="n">
         <f aca="false">IF(ISBLANK(B623),0,IF(D623="N/A",0,1))</f>
@@ -16518,6 +17511,7 @@
       <c r="C625" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D625" s="0"/>
       <c r="G625" s="1"/>
       <c r="I625" s="0" t="n">
         <f aca="false">IF(ISBLANK(B625),0,IF(D625="N/A",0,1))</f>
@@ -16539,6 +17533,7 @@
       <c r="C626" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D626" s="0"/>
       <c r="G626" s="1"/>
       <c r="I626" s="0" t="n">
         <f aca="false">IF(ISBLANK(B626),0,IF(D626="N/A",0,1))</f>
@@ -16560,6 +17555,9 @@
       <c r="C627" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D627" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G627" s="1"/>
       <c r="I627" s="0" t="n">
         <f aca="false">IF(ISBLANK(B627),0,IF(D627="N/A",0,1))</f>
@@ -16567,7 +17565,7 @@
       </c>
       <c r="J627" s="0" t="n">
         <f aca="false">IF(ISBLANK(D627),0,I627)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16581,6 +17579,7 @@
       <c r="C628" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D628" s="0"/>
       <c r="G628" s="1"/>
       <c r="I628" s="0" t="n">
         <f aca="false">IF(ISBLANK(B628),0,IF(D628="N/A",0,1))</f>
@@ -16602,6 +17601,7 @@
       <c r="C629" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D629" s="0"/>
       <c r="G629" s="1"/>
       <c r="I629" s="0" t="n">
         <f aca="false">IF(ISBLANK(B629),0,IF(D629="N/A",0,1))</f>
@@ -16623,6 +17623,7 @@
       <c r="C630" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="D630" s="0"/>
       <c r="G630" s="1"/>
       <c r="I630" s="0" t="n">
         <f aca="false">IF(ISBLANK(B630),0,IF(D630="N/A",0,1))</f>
@@ -16644,6 +17645,7 @@
       <c r="C631" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D631" s="0"/>
       <c r="G631" s="1"/>
       <c r="I631" s="0" t="n">
         <f aca="false">IF(ISBLANK(B631),0,IF(D631="N/A",0,1))</f>
@@ -16665,6 +17667,7 @@
       <c r="C632" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D632" s="0"/>
       <c r="G632" s="1"/>
       <c r="I632" s="0" t="n">
         <f aca="false">IF(ISBLANK(B632),0,IF(D632="N/A",0,1))</f>
@@ -16710,6 +17713,7 @@
       <c r="C634" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D634" s="0"/>
       <c r="G634" s="1"/>
       <c r="I634" s="0" t="n">
         <f aca="false">IF(ISBLANK(B634),0,IF(D634="N/A",0,1))</f>
@@ -16731,6 +17735,7 @@
       <c r="C635" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D635" s="0"/>
       <c r="G635" s="1"/>
       <c r="I635" s="0" t="n">
         <f aca="false">IF(ISBLANK(B635),0,IF(D635="N/A",0,1))</f>
@@ -16778,6 +17783,7 @@
       <c r="C637" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D637" s="0"/>
       <c r="G637" s="1"/>
       <c r="I637" s="0" t="n">
         <f aca="false">IF(ISBLANK(B637),0,IF(D637="N/A",0,1))</f>
@@ -16799,6 +17805,7 @@
       <c r="C638" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D638" s="0"/>
       <c r="G638" s="1"/>
       <c r="I638" s="0" t="n">
         <f aca="false">IF(ISBLANK(B638),0,IF(D638="N/A",0,1))</f>
@@ -16844,6 +17851,7 @@
       <c r="C640" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D640" s="0"/>
       <c r="G640" s="1"/>
       <c r="I640" s="0" t="n">
         <f aca="false">IF(ISBLANK(B640),0,IF(D640="N/A",0,1))</f>
@@ -16889,6 +17897,7 @@
       <c r="C642" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D642" s="0"/>
       <c r="G642" s="1"/>
       <c r="I642" s="0" t="n">
         <f aca="false">IF(ISBLANK(B642),0,IF(D642="N/A",0,1))</f>
@@ -16934,6 +17943,7 @@
       <c r="C644" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D644" s="0"/>
       <c r="G644" s="1"/>
       <c r="I644" s="0" t="n">
         <f aca="false">IF(ISBLANK(B644),0,IF(D644="N/A",0,1))</f>
@@ -17003,6 +18013,9 @@
       <c r="C647" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D647" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G647" s="1"/>
       <c r="I647" s="0" t="n">
         <f aca="false">IF(ISBLANK(B647),0,IF(D647="N/A",0,1))</f>
@@ -17010,7 +18023,7 @@
       </c>
       <c r="J647" s="0" t="n">
         <f aca="false">IF(ISBLANK(D647),0,I647)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17024,6 +18037,9 @@
       <c r="C648" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D648" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G648" s="1"/>
       <c r="I648" s="0" t="n">
         <f aca="false">IF(ISBLANK(B648),0,IF(D648="N/A",0,1))</f>
@@ -17031,7 +18047,7 @@
       </c>
       <c r="J648" s="0" t="n">
         <f aca="false">IF(ISBLANK(D648),0,I648)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17045,6 +18061,9 @@
       <c r="C649" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D649" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G649" s="1"/>
       <c r="I649" s="0" t="n">
         <f aca="false">IF(ISBLANK(B649),0,IF(D649="N/A",0,1))</f>
@@ -17052,7 +18071,7 @@
       </c>
       <c r="J649" s="0" t="n">
         <f aca="false">IF(ISBLANK(D649),0,I649)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17066,6 +18085,9 @@
       <c r="C650" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D650" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G650" s="1"/>
       <c r="I650" s="0" t="n">
         <f aca="false">IF(ISBLANK(B650),0,IF(D650="N/A",0,1))</f>
@@ -17073,7 +18095,7 @@
       </c>
       <c r="J650" s="0" t="n">
         <f aca="false">IF(ISBLANK(D650),0,I650)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17087,6 +18109,7 @@
       <c r="C651" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D651" s="0"/>
       <c r="G651" s="1"/>
       <c r="I651" s="0" t="n">
         <f aca="false">IF(ISBLANK(B651),0,IF(D651="N/A",0,1))</f>
@@ -17108,6 +18131,7 @@
       <c r="C652" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D652" s="0"/>
       <c r="G652" s="1"/>
       <c r="I652" s="0" t="n">
         <f aca="false">IF(ISBLANK(B652),0,IF(D652="N/A",0,1))</f>
@@ -17129,6 +18153,7 @@
       <c r="C653" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D653" s="0"/>
       <c r="G653" s="1"/>
       <c r="I653" s="0" t="n">
         <f aca="false">IF(ISBLANK(B653),0,IF(D653="N/A",0,1))</f>
@@ -17150,6 +18175,7 @@
       <c r="C654" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D654" s="0"/>
       <c r="G654" s="1"/>
       <c r="I654" s="0" t="n">
         <f aca="false">IF(ISBLANK(B654),0,IF(D654="N/A",0,1))</f>
@@ -17171,6 +18197,7 @@
       <c r="C655" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D655" s="0"/>
       <c r="G655" s="1"/>
       <c r="I655" s="0" t="n">
         <f aca="false">IF(ISBLANK(B655),0,IF(D655="N/A",0,1))</f>
@@ -17192,6 +18219,7 @@
       <c r="C656" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D656" s="0"/>
       <c r="G656" s="1"/>
       <c r="I656" s="0" t="n">
         <f aca="false">IF(ISBLANK(B656),0,IF(D656="N/A",0,1))</f>
@@ -17261,6 +18289,7 @@
       <c r="C659" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D659" s="0"/>
       <c r="G659" s="1"/>
       <c r="I659" s="0" t="n">
         <f aca="false">IF(ISBLANK(B659),0,IF(D659="N/A",0,1))</f>
@@ -17282,6 +18311,7 @@
       <c r="C660" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D660" s="0"/>
       <c r="G660" s="1"/>
       <c r="I660" s="0" t="n">
         <f aca="false">IF(ISBLANK(B660),0,IF(D660="N/A",0,1))</f>
@@ -17327,6 +18357,7 @@
       <c r="C662" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D662" s="0"/>
       <c r="G662" s="1"/>
       <c r="I662" s="0" t="n">
         <f aca="false">IF(ISBLANK(B662),0,IF(D662="N/A",0,1))</f>
@@ -17348,6 +18379,7 @@
       <c r="C663" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D663" s="0"/>
       <c r="G663" s="1"/>
       <c r="I663" s="0" t="n">
         <f aca="false">IF(ISBLANK(B663),0,IF(D663="N/A",0,1))</f>
@@ -17369,6 +18401,7 @@
       <c r="C664" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D664" s="0"/>
       <c r="G664" s="1"/>
       <c r="I664" s="0" t="n">
         <f aca="false">IF(ISBLANK(B664),0,IF(D664="N/A",0,1))</f>
@@ -17390,6 +18423,7 @@
       <c r="C665" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D665" s="0"/>
       <c r="G665" s="1"/>
       <c r="I665" s="0" t="n">
         <f aca="false">IF(ISBLANK(B665),0,IF(D665="N/A",0,1))</f>
@@ -17411,6 +18445,7 @@
       <c r="C666" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D666" s="0"/>
       <c r="G666" s="1"/>
       <c r="I666" s="0" t="n">
         <f aca="false">IF(ISBLANK(B666),0,IF(D666="N/A",0,1))</f>
@@ -17456,6 +18491,7 @@
       <c r="C668" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D668" s="0"/>
       <c r="G668" s="1"/>
       <c r="I668" s="0" t="n">
         <f aca="false">IF(ISBLANK(B668),0,IF(D668="N/A",0,1))</f>
@@ -17501,6 +18537,7 @@
       <c r="C670" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D670" s="0"/>
       <c r="G670" s="1"/>
       <c r="I670" s="0" t="n">
         <f aca="false">IF(ISBLANK(B670),0,IF(D670="N/A",0,1))</f>
@@ -17522,6 +18559,7 @@
       <c r="C671" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D671" s="0"/>
       <c r="G671" s="1"/>
       <c r="I671" s="0" t="n">
         <f aca="false">IF(ISBLANK(B671),0,IF(D671="N/A",0,1))</f>
@@ -17543,6 +18581,7 @@
       <c r="C672" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D672" s="0"/>
       <c r="G672" s="1"/>
       <c r="I672" s="0" t="n">
         <f aca="false">IF(ISBLANK(B672),0,IF(D672="N/A",0,1))</f>
@@ -17612,6 +18651,7 @@
       <c r="C675" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D675" s="0"/>
       <c r="G675" s="1"/>
       <c r="I675" s="0" t="n">
         <f aca="false">IF(ISBLANK(B675),0,IF(D675="N/A",0,1))</f>
@@ -17633,6 +18673,7 @@
       <c r="C676" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D676" s="0"/>
       <c r="G676" s="1"/>
       <c r="I676" s="0" t="n">
         <f aca="false">IF(ISBLANK(B676),0,IF(D676="N/A",0,1))</f>
@@ -17654,6 +18695,7 @@
       <c r="C677" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D677" s="0"/>
       <c r="G677" s="1"/>
       <c r="I677" s="0" t="n">
         <f aca="false">IF(ISBLANK(B677),0,IF(D677="N/A",0,1))</f>
@@ -17699,6 +18741,7 @@
       <c r="C679" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D679" s="0"/>
       <c r="G679" s="1"/>
       <c r="I679" s="0" t="n">
         <f aca="false">IF(ISBLANK(B679),0,IF(D679="N/A",0,1))</f>
@@ -17720,6 +18763,7 @@
       <c r="C680" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D680" s="0"/>
       <c r="G680" s="1"/>
       <c r="I680" s="0" t="n">
         <f aca="false">IF(ISBLANK(B680),0,IF(D680="N/A",0,1))</f>
@@ -17741,6 +18785,7 @@
       <c r="C681" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D681" s="0"/>
       <c r="G681" s="1"/>
       <c r="I681" s="0" t="n">
         <f aca="false">IF(ISBLANK(B681),0,IF(D681="N/A",0,1))</f>
@@ -17762,6 +18807,7 @@
       <c r="C682" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D682" s="0"/>
       <c r="G682" s="1"/>
       <c r="I682" s="0" t="n">
         <f aca="false">IF(ISBLANK(B682),0,IF(D682="N/A",0,1))</f>
@@ -17809,6 +18855,7 @@
       <c r="C684" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D684" s="0"/>
       <c r="G684" s="1"/>
       <c r="I684" s="0" t="n">
         <f aca="false">IF(ISBLANK(B684),0,IF(D684="N/A",0,1))</f>
@@ -17830,6 +18877,7 @@
       <c r="C685" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D685" s="0"/>
       <c r="G685" s="1"/>
       <c r="I685" s="0" t="n">
         <f aca="false">IF(ISBLANK(B685),0,IF(D685="N/A",0,1))</f>
@@ -17851,6 +18899,7 @@
       <c r="C686" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D686" s="0"/>
       <c r="G686" s="1"/>
       <c r="I686" s="0" t="n">
         <f aca="false">IF(ISBLANK(B686),0,IF(D686="N/A",0,1))</f>
@@ -17872,6 +18921,7 @@
       <c r="C687" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D687" s="0"/>
       <c r="G687" s="1"/>
       <c r="I687" s="0" t="n">
         <f aca="false">IF(ISBLANK(B687),0,IF(D687="N/A",0,1))</f>
@@ -17941,6 +18991,7 @@
       <c r="C690" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D690" s="0"/>
       <c r="G690" s="1"/>
       <c r="I690" s="0" t="n">
         <f aca="false">IF(ISBLANK(B690),0,IF(D690="N/A",0,1))</f>
@@ -17988,6 +19039,7 @@
       <c r="C692" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D692" s="0"/>
       <c r="G692" s="1"/>
       <c r="I692" s="0" t="n">
         <f aca="false">IF(ISBLANK(B692),0,IF(D692="N/A",0,1))</f>
@@ -18009,6 +19061,7 @@
       <c r="C693" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D693" s="0"/>
       <c r="G693" s="1"/>
       <c r="I693" s="0" t="n">
         <f aca="false">IF(ISBLANK(B693),0,IF(D693="N/A",0,1))</f>
@@ -18030,6 +19083,7 @@
       <c r="C694" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D694" s="0"/>
       <c r="G694" s="1"/>
       <c r="I694" s="0" t="n">
         <f aca="false">IF(ISBLANK(B694),0,IF(D694="N/A",0,1))</f>
@@ -18051,6 +19105,7 @@
       <c r="C695" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D695" s="0"/>
       <c r="G695" s="1"/>
       <c r="I695" s="0" t="n">
         <f aca="false">IF(ISBLANK(B695),0,IF(D695="N/A",0,1))</f>
@@ -18072,6 +19127,7 @@
       <c r="C696" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D696" s="0"/>
       <c r="G696" s="1"/>
       <c r="I696" s="0" t="n">
         <f aca="false">IF(ISBLANK(B696),0,IF(D696="N/A",0,1))</f>
@@ -18093,6 +19149,7 @@
       <c r="C697" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D697" s="0"/>
       <c r="G697" s="1"/>
       <c r="I697" s="0" t="n">
         <f aca="false">IF(ISBLANK(B697),0,IF(D697="N/A",0,1))</f>
@@ -18138,6 +19195,7 @@
       <c r="C699" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D699" s="0"/>
       <c r="G699" s="1"/>
       <c r="I699" s="0" t="n">
         <f aca="false">IF(ISBLANK(B699),0,IF(D699="N/A",0,1))</f>
@@ -18159,6 +19217,7 @@
       <c r="C700" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D700" s="0"/>
       <c r="G700" s="1"/>
       <c r="I700" s="0" t="n">
         <f aca="false">IF(ISBLANK(B700),0,IF(D700="N/A",0,1))</f>
@@ -18180,6 +19239,7 @@
       <c r="C701" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D701" s="0"/>
       <c r="G701" s="1"/>
       <c r="I701" s="0" t="n">
         <f aca="false">IF(ISBLANK(B701),0,IF(D701="N/A",0,1))</f>
@@ -18201,6 +19261,7 @@
       <c r="C702" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D702" s="0"/>
       <c r="G702" s="1"/>
       <c r="I702" s="0" t="n">
         <f aca="false">IF(ISBLANK(B702),0,IF(D702="N/A",0,1))</f>
@@ -18222,6 +19283,7 @@
       <c r="C703" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D703" s="0"/>
       <c r="G703" s="1"/>
       <c r="I703" s="0" t="n">
         <f aca="false">IF(ISBLANK(B703),0,IF(D703="N/A",0,1))</f>
@@ -18243,6 +19305,7 @@
       <c r="C704" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D704" s="0"/>
       <c r="G704" s="1"/>
       <c r="I704" s="0" t="n">
         <f aca="false">IF(ISBLANK(B704),0,IF(D704="N/A",0,1))</f>
@@ -18264,6 +19327,7 @@
       <c r="C705" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D705" s="0"/>
       <c r="G705" s="1"/>
       <c r="I705" s="0" t="n">
         <f aca="false">IF(ISBLANK(B705),0,IF(D705="N/A",0,1))</f>
@@ -18285,6 +19349,7 @@
       <c r="C706" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D706" s="0"/>
       <c r="G706" s="1"/>
       <c r="I706" s="0" t="n">
         <f aca="false">IF(ISBLANK(B706),0,IF(D706="N/A",0,1))</f>
@@ -18306,6 +19371,7 @@
       <c r="C707" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D707" s="0"/>
       <c r="G707" s="1"/>
       <c r="I707" s="0" t="n">
         <f aca="false">IF(ISBLANK(B707),0,IF(D707="N/A",0,1))</f>
@@ -18327,6 +19393,7 @@
       <c r="C708" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D708" s="0"/>
       <c r="G708" s="1"/>
       <c r="I708" s="0" t="n">
         <f aca="false">IF(ISBLANK(B708),0,IF(D708="N/A",0,1))</f>
@@ -18348,6 +19415,7 @@
       <c r="C709" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D709" s="0"/>
       <c r="G709" s="1"/>
       <c r="I709" s="0" t="n">
         <f aca="false">IF(ISBLANK(B709),0,IF(D709="N/A",0,1))</f>
@@ -18369,6 +19437,7 @@
       <c r="C710" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D710" s="0"/>
       <c r="G710" s="1"/>
       <c r="I710" s="0" t="n">
         <f aca="false">IF(ISBLANK(B710),0,IF(D710="N/A",0,1))</f>
@@ -18390,6 +19459,7 @@
       <c r="C711" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D711" s="0"/>
       <c r="G711" s="1"/>
       <c r="I711" s="0" t="n">
         <f aca="false">IF(ISBLANK(B711),0,IF(D711="N/A",0,1))</f>
@@ -18411,6 +19481,7 @@
       <c r="C712" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D712" s="0"/>
       <c r="G712" s="1"/>
       <c r="I712" s="0" t="n">
         <f aca="false">IF(ISBLANK(B712),0,IF(D712="N/A",0,1))</f>
@@ -18432,6 +19503,7 @@
       <c r="C713" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D713" s="0"/>
       <c r="G713" s="1"/>
       <c r="I713" s="0" t="n">
         <f aca="false">IF(ISBLANK(B713),0,IF(D713="N/A",0,1))</f>
@@ -18453,6 +19525,7 @@
       <c r="C714" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D714" s="0"/>
       <c r="G714" s="1"/>
       <c r="I714" s="0" t="n">
         <f aca="false">IF(ISBLANK(B714),0,IF(D714="N/A",0,1))</f>
@@ -18474,6 +19547,7 @@
       <c r="C715" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D715" s="0"/>
       <c r="G715" s="1"/>
       <c r="I715" s="0" t="n">
         <f aca="false">IF(ISBLANK(B715),0,IF(D715="N/A",0,1))</f>
@@ -18567,6 +19641,7 @@
       <c r="C719" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D719" s="0"/>
       <c r="G719" s="1"/>
       <c r="I719" s="0" t="n">
         <f aca="false">IF(ISBLANK(B719),0,IF(D719="N/A",0,1))</f>
@@ -18588,6 +19663,7 @@
       <c r="C720" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D720" s="0"/>
       <c r="G720" s="1"/>
       <c r="I720" s="0" t="n">
         <f aca="false">IF(ISBLANK(B720),0,IF(D720="N/A",0,1))</f>
@@ -18729,6 +19805,7 @@
       <c r="C726" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D726" s="0"/>
       <c r="G726" s="1"/>
       <c r="I726" s="0" t="n">
         <f aca="false">IF(ISBLANK(B726),0,IF(D726="N/A",0,1))</f>
@@ -18750,6 +19827,7 @@
       <c r="C727" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D727" s="0"/>
       <c r="G727" s="1"/>
       <c r="I727" s="0" t="n">
         <f aca="false">IF(ISBLANK(B727),0,IF(D727="N/A",0,1))</f>
@@ -18771,6 +19849,7 @@
       <c r="C728" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D728" s="0"/>
       <c r="G728" s="1"/>
       <c r="I728" s="0" t="n">
         <f aca="false">IF(ISBLANK(B728),0,IF(D728="N/A",0,1))</f>
@@ -18792,6 +19871,7 @@
       <c r="C729" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D729" s="0"/>
       <c r="G729" s="1"/>
       <c r="I729" s="0" t="n">
         <f aca="false">IF(ISBLANK(B729),0,IF(D729="N/A",0,1))</f>
@@ -18837,6 +19917,7 @@
       <c r="C731" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D731" s="0"/>
       <c r="G731" s="1"/>
       <c r="I731" s="0" t="n">
         <f aca="false">IF(ISBLANK(B731),0,IF(D731="N/A",0,1))</f>
@@ -18858,6 +19939,7 @@
       <c r="C732" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D732" s="0"/>
       <c r="G732" s="1"/>
       <c r="I732" s="0" t="n">
         <f aca="false">IF(ISBLANK(B732),0,IF(D732="N/A",0,1))</f>
@@ -18879,6 +19961,7 @@
       <c r="C733" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D733" s="0"/>
       <c r="G733" s="1"/>
       <c r="I733" s="0" t="n">
         <f aca="false">IF(ISBLANK(B733),0,IF(D733="N/A",0,1))</f>
@@ -18900,6 +19983,9 @@
       <c r="C734" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D734" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G734" s="1"/>
       <c r="I734" s="0" t="n">
         <f aca="false">IF(ISBLANK(B734),0,IF(D734="N/A",0,1))</f>
@@ -18907,7 +19993,7 @@
       </c>
       <c r="J734" s="0" t="n">
         <f aca="false">IF(ISBLANK(D734),0,I734)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18921,6 +20007,7 @@
       <c r="C735" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D735" s="0"/>
       <c r="G735" s="1"/>
       <c r="I735" s="0" t="n">
         <f aca="false">IF(ISBLANK(B735),0,IF(D735="N/A",0,1))</f>
@@ -18942,6 +20029,7 @@
       <c r="C736" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D736" s="0"/>
       <c r="G736" s="1"/>
       <c r="I736" s="0" t="n">
         <f aca="false">IF(ISBLANK(B736),0,IF(D736="N/A",0,1))</f>
@@ -18963,6 +20051,7 @@
       <c r="C737" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D737" s="0"/>
       <c r="G737" s="1"/>
       <c r="I737" s="0" t="n">
         <f aca="false">IF(ISBLANK(B737),0,IF(D737="N/A",0,1))</f>
@@ -18984,6 +20073,7 @@
       <c r="C738" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D738" s="0"/>
       <c r="G738" s="1"/>
       <c r="I738" s="0" t="n">
         <f aca="false">IF(ISBLANK(B738),0,IF(D738="N/A",0,1))</f>
@@ -19005,6 +20095,7 @@
       <c r="C739" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D739" s="0"/>
       <c r="G739" s="1"/>
       <c r="I739" s="0" t="n">
         <f aca="false">IF(ISBLANK(B739),0,IF(D739="N/A",0,1))</f>
@@ -19026,6 +20117,7 @@
       <c r="C740" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D740" s="0"/>
       <c r="G740" s="1"/>
       <c r="I740" s="0" t="n">
         <f aca="false">IF(ISBLANK(B740),0,IF(D740="N/A",0,1))</f>
@@ -19047,6 +20139,7 @@
       <c r="C741" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D741" s="0"/>
       <c r="G741" s="1"/>
       <c r="I741" s="0" t="n">
         <f aca="false">IF(ISBLANK(B741),0,IF(D741="N/A",0,1))</f>
@@ -19092,6 +20185,7 @@
       <c r="C743" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D743" s="0"/>
       <c r="G743" s="1"/>
       <c r="I743" s="0" t="n">
         <f aca="false">IF(ISBLANK(B743),0,IF(D743="N/A",0,1))</f>
@@ -19113,6 +20207,7 @@
       <c r="C744" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D744" s="0"/>
       <c r="G744" s="1"/>
       <c r="I744" s="0" t="n">
         <f aca="false">IF(ISBLANK(B744),0,IF(D744="N/A",0,1))</f>
@@ -19134,6 +20229,7 @@
       <c r="C745" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D745" s="0"/>
       <c r="G745" s="1"/>
       <c r="I745" s="0" t="n">
         <f aca="false">IF(ISBLANK(B745),0,IF(D745="N/A",0,1))</f>
@@ -19203,6 +20299,7 @@
       <c r="C748" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D748" s="0"/>
       <c r="G748" s="1"/>
       <c r="I748" s="0" t="n">
         <f aca="false">IF(ISBLANK(B748),0,IF(D748="N/A",0,1))</f>
@@ -19248,6 +20345,7 @@
       <c r="C750" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D750" s="0"/>
       <c r="G750" s="1"/>
       <c r="I750" s="0" t="n">
         <f aca="false">IF(ISBLANK(B750),0,IF(D750="N/A",0,1))</f>
@@ -19293,6 +20391,7 @@
       <c r="C752" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D752" s="0"/>
       <c r="G752" s="1"/>
       <c r="I752" s="0" t="n">
         <f aca="false">IF(ISBLANK(B752),0,IF(D752="N/A",0,1))</f>
@@ -19338,6 +20437,7 @@
       <c r="C754" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D754" s="0"/>
       <c r="G754" s="1"/>
       <c r="I754" s="0" t="n">
         <f aca="false">IF(ISBLANK(B754),0,IF(D754="N/A",0,1))</f>
@@ -19431,6 +20531,7 @@
       <c r="C758" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D758" s="0"/>
       <c r="G758" s="1"/>
       <c r="I758" s="0" t="n">
         <f aca="false">IF(ISBLANK(B758),0,IF(D758="N/A",0,1))</f>
@@ -19452,6 +20553,7 @@
       <c r="C759" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D759" s="0"/>
       <c r="G759" s="1"/>
       <c r="I759" s="0" t="n">
         <f aca="false">IF(ISBLANK(B759),0,IF(D759="N/A",0,1))</f>
@@ -19473,6 +20575,7 @@
       <c r="C760" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D760" s="0"/>
       <c r="G760" s="1"/>
       <c r="I760" s="0" t="n">
         <f aca="false">IF(ISBLANK(B760),0,IF(D760="N/A",0,1))</f>
@@ -19494,6 +20597,7 @@
       <c r="C761" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D761" s="0"/>
       <c r="G761" s="1"/>
       <c r="I761" s="0" t="n">
         <f aca="false">IF(ISBLANK(B761),0,IF(D761="N/A",0,1))</f>
@@ -19515,6 +20619,7 @@
       <c r="C762" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D762" s="0"/>
       <c r="G762" s="1"/>
       <c r="I762" s="0" t="n">
         <f aca="false">IF(ISBLANK(B762),0,IF(D762="N/A",0,1))</f>
@@ -19536,6 +20641,7 @@
       <c r="C763" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D763" s="0"/>
       <c r="G763" s="1"/>
       <c r="I763" s="0" t="n">
         <f aca="false">IF(ISBLANK(B763),0,IF(D763="N/A",0,1))</f>
@@ -19557,6 +20663,7 @@
       <c r="C764" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D764" s="0"/>
       <c r="G764" s="1"/>
       <c r="I764" s="0" t="n">
         <f aca="false">IF(ISBLANK(B764),0,IF(D764="N/A",0,1))</f>
@@ -19578,6 +20685,7 @@
       <c r="C765" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D765" s="0"/>
       <c r="G765" s="1"/>
       <c r="I765" s="0" t="n">
         <f aca="false">IF(ISBLANK(B765),0,IF(D765="N/A",0,1))</f>
@@ -19599,6 +20707,7 @@
       <c r="C766" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D766" s="0"/>
       <c r="G766" s="1"/>
       <c r="I766" s="0" t="n">
         <f aca="false">IF(ISBLANK(B766),0,IF(D766="N/A",0,1))</f>
@@ -19620,6 +20729,7 @@
       <c r="C767" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D767" s="0"/>
       <c r="G767" s="1"/>
       <c r="I767" s="0" t="n">
         <f aca="false">IF(ISBLANK(B767),0,IF(D767="N/A",0,1))</f>
@@ -19665,6 +20775,7 @@
       <c r="C769" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D769" s="0"/>
       <c r="G769" s="1"/>
       <c r="I769" s="0" t="n">
         <f aca="false">IF(ISBLANK(B769),0,IF(D769="N/A",0,1))</f>
@@ -19712,6 +20823,7 @@
       <c r="C771" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D771" s="0"/>
       <c r="G771" s="1"/>
       <c r="I771" s="0" t="n">
         <f aca="false">IF(ISBLANK(B771),0,IF(D771="N/A",0,1))</f>
@@ -19733,6 +20845,7 @@
       <c r="C772" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D772" s="0"/>
       <c r="G772" s="1"/>
       <c r="I772" s="0" t="n">
         <f aca="false">IF(ISBLANK(B772),0,IF(D772="N/A",0,1))</f>
@@ -19754,6 +20867,7 @@
       <c r="C773" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D773" s="0"/>
       <c r="G773" s="1"/>
       <c r="I773" s="0" t="n">
         <f aca="false">IF(ISBLANK(B773),0,IF(D773="N/A",0,1))</f>
@@ -19775,6 +20889,7 @@
       <c r="C774" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D774" s="0"/>
       <c r="G774" s="1"/>
       <c r="I774" s="0" t="n">
         <f aca="false">IF(ISBLANK(B774),0,IF(D774="N/A",0,1))</f>
@@ -23384,15 +24499,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
-  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -23403,7 +24515,7 @@
       <c r="C4" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -23414,7 +24526,7 @@
       <c r="C5" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -23425,7 +24537,7 @@
       <c r="C6" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -23455,9 +24567,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="836">
   <si>
     <t>Total commands implemented</t>
   </si>
@@ -2811,18 +2812,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D452" activeCellId="0" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2844,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -2859,7 +2862,7 @@
       <c r="C3" s="0"/>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.234463276836158</v>
+        <v>0.235875706214689</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -13435,7 +13438,9 @@
       <c r="C452" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D452" s="0"/>
+      <c r="D452" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="F452" s="0"/>
       <c r="G452" s="1"/>
       <c r="I452" s="0" t="n">
@@ -13444,7 +13449,7 @@
       </c>
       <c r="J452" s="0" t="n">
         <f aca="false">IF(ISBLANK(D452),0,I452)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24499,6 +24504,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
@@ -24567,6 +24575,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="933">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -390,6 +391,9 @@
     <t xml:space="preserve">ASN</t>
   </si>
   <si>
+    <t xml:space="preserve">Renamed to ASNKEY. Diff. Arguments.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASR</t>
   </si>
   <si>
@@ -480,6 +484,9 @@
     <t xml:space="preserve">BYTES</t>
   </si>
   <si>
+    <t xml:space="preserve">In bytes, also CRC-32 for checksum</t>
+  </si>
+  <si>
     <t xml:space="preserve">C→PX</t>
   </si>
   <si>
@@ -699,6 +706,9 @@
     <t xml:space="preserve">DELKEYS</t>
   </si>
   <si>
+    <t xml:space="preserve">Diff. Arguments.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEPND</t>
   </si>
   <si>
@@ -768,6 +778,9 @@
     <t xml:space="preserve">DOERR</t>
   </si>
   <si>
+    <t xml:space="preserve">Error codes are different</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOLIST</t>
   </si>
   <si>
@@ -1386,6 +1399,9 @@
     <t xml:space="preserve">MEM</t>
   </si>
   <si>
+    <t xml:space="preserve">Returns number of bytes, not nibbles</t>
+  </si>
+  <si>
     <t xml:space="preserve">MENU</t>
   </si>
   <si>
@@ -1791,6 +1807,9 @@
     <t xml:space="preserve">RCLKEYS</t>
   </si>
   <si>
+    <t xml:space="preserve">Format of key definition is new.</t>
+  </si>
+  <si>
     <t xml:space="preserve">RCLMENU</t>
   </si>
   <si>
@@ -1818,6 +1837,9 @@
     <t xml:space="preserve">RECT</t>
   </si>
   <si>
+    <t xml:space="preserve">Coord. System is per vector now.</t>
+  </si>
+  <si>
     <t xml:space="preserve">RECV</t>
   </si>
   <si>
@@ -2125,6 +2147,9 @@
   </si>
   <si>
     <t xml:space="preserve">STOKEYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key definition is new.</t>
   </si>
   <si>
     <t xml:space="preserve">STORE</t>
@@ -2886,7 +2911,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2903,6 +2928,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2940,7 +2971,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2982,6 +3013,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3079,17 +3114,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A869" activeCellId="0" sqref="A869"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.2793522267206"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -3102,14 +3137,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +3153,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.348427672955975</v>
+        <v>0.368221941992434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,14 +5205,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="I94" s="0" t="n">
         <f aca="false">IF(ISBLANK(B94),0,IF(D94="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J94" s="0" t="n">
         <f aca="false">IF(ISBLANK(D94),0,I94)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5186,16 +5227,16 @@
         <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">IF(ISBLANK(B95),0,IF(D95="N/A",0,1))</f>
@@ -5212,7 +5253,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>26</v>
@@ -5233,7 +5274,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>86</v>
@@ -5257,7 +5298,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>26</v>
@@ -5278,7 +5319,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>86</v>
@@ -5302,7 +5343,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>54</v>
@@ -5323,7 +5364,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>21</v>
@@ -5344,7 +5385,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>46</v>
@@ -5365,7 +5406,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>54</v>
@@ -5386,7 +5427,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>54</v>
@@ -5407,7 +5448,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>46</v>
@@ -5428,7 +5469,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>46</v>
@@ -5449,7 +5490,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>26</v>
@@ -5470,7 +5511,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>21</v>
@@ -5494,7 +5535,7 @@
         <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>54</v>
@@ -5515,7 +5556,7 @@
         <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>54</v>
@@ -5536,7 +5577,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>46</v>
@@ -5557,7 +5598,7 @@
         <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>83</v>
@@ -5578,7 +5619,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>83</v>
@@ -5599,10 +5640,10 @@
         <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G114" s="1"/>
       <c r="I114" s="0" t="n">
@@ -5620,7 +5661,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>52</v>
@@ -5644,10 +5685,10 @@
         <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>42</v>
@@ -5668,10 +5709,10 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G117" s="1"/>
       <c r="I117" s="0" t="n">
@@ -5689,7 +5730,7 @@
         <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>54</v>
@@ -5710,7 +5751,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>54</v>
@@ -5731,7 +5772,7 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>83</v>
@@ -5752,19 +5793,25 @@
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="I121" s="0" t="n">
         <f aca="false">IF(ISBLANK(B121),0,IF(D121="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J121" s="0" t="n">
         <f aca="false">IF(ISBLANK(D121),0,I121)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5773,7 +5820,7 @@
         <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>54</v>
@@ -5794,7 +5841,7 @@
         <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>106</v>
@@ -5818,10 +5865,10 @@
         <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G124" s="1"/>
       <c r="I124" s="0" t="n">
@@ -5839,7 +5886,7 @@
         <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>26</v>
@@ -5860,7 +5907,7 @@
         <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>108</v>
@@ -5881,10 +5928,10 @@
         <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>12</v>
@@ -5905,10 +5952,10 @@
         <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>12</v>
@@ -5929,7 +5976,7 @@
         <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>54</v>
@@ -5950,7 +5997,7 @@
         <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>21</v>
@@ -5974,7 +6021,7 @@
         <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>26</v>
@@ -5995,7 +6042,7 @@
         <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>46</v>
@@ -6016,7 +6063,7 @@
         <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>108</v>
@@ -6037,16 +6084,16 @@
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I134" s="0" t="n">
         <f aca="false">IF(ISBLANK(B134),0,IF(D134="N/A",0,1))</f>
@@ -6063,10 +6110,10 @@
         <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G135" s="1"/>
       <c r="I135" s="0" t="n">
@@ -6084,7 +6131,7 @@
         <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>83</v>
@@ -6105,7 +6152,7 @@
         <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>100</v>
@@ -6129,7 +6176,7 @@
         <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>83</v>
@@ -6150,7 +6197,7 @@
         <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>54</v>
@@ -6171,7 +6218,7 @@
         <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>83</v>
@@ -6195,10 +6242,10 @@
         <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G141" s="1"/>
       <c r="I141" s="0" t="n">
@@ -6216,10 +6263,10 @@
         <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G142" s="1"/>
       <c r="I142" s="0" t="n">
@@ -6237,7 +6284,7 @@
         <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>108</v>
@@ -6258,7 +6305,7 @@
         <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>46</v>
@@ -6279,7 +6326,7 @@
         <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>46</v>
@@ -6303,7 +6350,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>46</v>
@@ -6327,7 +6374,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>46</v>
@@ -6351,7 +6398,7 @@
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>26</v>
@@ -6372,7 +6419,7 @@
         <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>26</v>
@@ -6393,10 +6440,10 @@
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G150" s="1"/>
       <c r="I150" s="0" t="n">
@@ -6414,10 +6461,10 @@
         <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G151" s="1"/>
       <c r="I151" s="0" t="n">
@@ -6435,7 +6482,7 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>46</v>
@@ -6456,7 +6503,7 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>46</v>
@@ -6477,7 +6524,7 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>54</v>
@@ -6498,7 +6545,7 @@
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>106</v>
@@ -6522,7 +6569,7 @@
         <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>108</v>
@@ -6543,7 +6590,7 @@
         <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>77</v>
@@ -6564,7 +6611,7 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>108</v>
@@ -6585,10 +6632,13 @@
         <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G159" s="1"/>
       <c r="I159" s="0" t="n">
@@ -6597,7 +6647,7 @@
       </c>
       <c r="J159" s="0" t="n">
         <f aca="false">IF(ISBLANK(D159),0,I159)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6606,7 +6656,7 @@
         <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>24</v>
@@ -6630,10 +6680,10 @@
         <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G161" s="1"/>
       <c r="I161" s="0" t="n">
@@ -6651,7 +6701,7 @@
         <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>86</v>
@@ -6675,7 +6725,7 @@
         <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>86</v>
@@ -6699,10 +6749,10 @@
         <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G164" s="1"/>
       <c r="I164" s="0" t="n">
@@ -6720,7 +6770,7 @@
         <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>83</v>
@@ -6744,10 +6794,10 @@
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>12</v>
@@ -6768,7 +6818,7 @@
         <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>52</v>
@@ -6792,7 +6842,7 @@
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>46</v>
@@ -6813,7 +6863,7 @@
         <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>46</v>
@@ -6834,7 +6884,7 @@
         <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>26</v>
@@ -6855,7 +6905,7 @@
         <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>26</v>
@@ -6876,7 +6926,7 @@
         <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>108</v>
@@ -6897,7 +6947,7 @@
         <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>86</v>
@@ -6918,10 +6968,10 @@
         <v>168</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G174" s="1"/>
       <c r="I174" s="0" t="n">
@@ -6939,7 +6989,7 @@
         <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>21</v>
@@ -6960,7 +7010,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>49</v>
@@ -6984,10 +7034,10 @@
         <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G177" s="1"/>
       <c r="I177" s="0" t="n">
@@ -7005,7 +7055,7 @@
         <v>172</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>49</v>
@@ -7026,10 +7076,10 @@
         <v>173</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>42</v>
@@ -7050,7 +7100,7 @@
         <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>41</v>
@@ -7074,7 +7124,7 @@
         <v>175</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>52</v>
@@ -7098,7 +7148,7 @@
         <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>26</v>
@@ -7119,7 +7169,7 @@
         <v>177</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>26</v>
@@ -7140,7 +7190,7 @@
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>21</v>
@@ -7164,7 +7214,7 @@
         <v>179</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -7185,7 +7235,7 @@
         <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>83</v>
@@ -7206,7 +7256,7 @@
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>83</v>
@@ -7227,19 +7277,25 @@
         <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="11"/>
+      <c r="G188" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="I188" s="0" t="n">
         <f aca="false">IF(ISBLANK(B188),0,IF(D188="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J188" s="0" t="n">
         <f aca="false">IF(ISBLANK(D188),0,I188)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7248,7 +7304,7 @@
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>26</v>
@@ -7269,7 +7325,7 @@
         <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>100</v>
@@ -7293,7 +7349,7 @@
         <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>26</v>
@@ -7314,7 +7370,7 @@
         <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>26</v>
@@ -7335,7 +7391,7 @@
         <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>26</v>
@@ -7356,7 +7412,7 @@
         <v>188</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>46</v>
@@ -7377,7 +7433,7 @@
         <v>189</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>52</v>
@@ -7401,7 +7457,7 @@
         <v>190</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>46</v>
@@ -7422,7 +7478,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>46</v>
@@ -7443,7 +7499,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>108</v>
@@ -7464,7 +7520,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>54</v>
@@ -7485,10 +7541,10 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G200" s="1"/>
       <c r="I200" s="0" t="n">
@@ -7506,7 +7562,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>54</v>
@@ -7527,7 +7583,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>54</v>
@@ -7548,7 +7604,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>26</v>
@@ -7569,7 +7625,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>26</v>
@@ -7590,7 +7646,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>26</v>
@@ -7611,7 +7667,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>26</v>
@@ -7632,7 +7688,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>26</v>
@@ -7653,7 +7709,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>26</v>
@@ -7674,7 +7730,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>26</v>
@@ -7695,10 +7751,10 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>12</v>
@@ -7719,19 +7775,25 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G211" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="11"/>
+      <c r="G211" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="I211" s="0" t="n">
         <f aca="false">IF(ISBLANK(B211),0,IF(D211="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J211" s="0" t="n">
         <f aca="false">IF(ISBLANK(D211),0,I211)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7740,7 +7802,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>61</v>
@@ -7749,7 +7811,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I212" s="0" t="n">
         <f aca="false">IF(ISBLANK(B212),0,IF(D212="N/A",0,1))</f>
@@ -7766,7 +7828,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>26</v>
@@ -7787,7 +7849,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>61</v>
@@ -7796,7 +7858,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I214" s="0" t="n">
         <f aca="false">IF(ISBLANK(B214),0,IF(D214="N/A",0,1))</f>
@@ -7813,7 +7875,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>46</v>
@@ -7834,7 +7896,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>54</v>
@@ -7855,7 +7917,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>54</v>
@@ -7876,7 +7938,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>54</v>
@@ -7897,7 +7959,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>26</v>
@@ -7918,7 +7980,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>100</v>
@@ -7942,7 +8004,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>100</v>
@@ -7966,7 +8028,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>100</v>
@@ -7990,7 +8052,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>70</v>
@@ -8011,7 +8073,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>100</v>
@@ -8035,7 +8097,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>100</v>
@@ -8059,7 +8121,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>100</v>
@@ -8083,7 +8145,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>100</v>
@@ -8107,7 +8169,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>77</v>
@@ -8128,7 +8190,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>108</v>
@@ -8149,7 +8211,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>108</v>
@@ -8170,7 +8232,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>26</v>
@@ -8191,7 +8253,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>46</v>
@@ -8212,7 +8274,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>46</v>
@@ -8233,10 +8295,10 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>12</v>
@@ -8257,10 +8319,10 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>12</v>
@@ -8281,7 +8343,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>61</v>
@@ -8305,7 +8367,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>108</v>
@@ -8326,7 +8388,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>26</v>
@@ -8347,7 +8409,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>26</v>
@@ -8368,7 +8430,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>108</v>
@@ -8389,7 +8451,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>108</v>
@@ -8410,7 +8472,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>54</v>
@@ -8431,11 +8493,15 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="10"/>
       <c r="G243" s="1"/>
       <c r="I243" s="0" t="n">
         <f aca="false">IF(ISBLANK(B243),0,IF(D243="N/A",0,1))</f>
@@ -8443,7 +8509,7 @@
       </c>
       <c r="J243" s="0" t="n">
         <f aca="false">IF(ISBLANK(D243),0,I243)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8452,11 +8518,15 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" s="10"/>
       <c r="G244" s="1"/>
       <c r="I244" s="0" t="n">
         <f aca="false">IF(ISBLANK(B244),0,IF(D244="N/A",0,1))</f>
@@ -8464,7 +8534,7 @@
       </c>
       <c r="J244" s="0" t="n">
         <f aca="false">IF(ISBLANK(D244),0,I244)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8473,11 +8543,15 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="10"/>
       <c r="G245" s="1"/>
       <c r="I245" s="0" t="n">
         <f aca="false">IF(ISBLANK(B245),0,IF(D245="N/A",0,1))</f>
@@ -8485,7 +8559,7 @@
       </c>
       <c r="J245" s="0" t="n">
         <f aca="false">IF(ISBLANK(D245),0,I245)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8494,7 +8568,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>15</v>
@@ -8515,7 +8589,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>11</v>
@@ -8539,7 +8613,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>26</v>
@@ -8560,7 +8634,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>86</v>
@@ -8584,7 +8658,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>108</v>
@@ -8605,7 +8679,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>26</v>
@@ -8626,7 +8700,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>26</v>
@@ -8647,7 +8721,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>26</v>
@@ -8668,7 +8742,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>26</v>
@@ -8689,7 +8763,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>26</v>
@@ -8710,10 +8784,10 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G256" s="1"/>
       <c r="I256" s="0" t="n">
@@ -8731,7 +8805,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>26</v>
@@ -8752,7 +8826,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>86</v>
@@ -8773,7 +8847,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>54</v>
@@ -8794,10 +8868,10 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G260" s="1"/>
       <c r="I260" s="0" t="n">
@@ -8815,7 +8889,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>15</v>
@@ -8824,7 +8898,7 @@
         <v>42</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I261" s="0" t="n">
         <f aca="false">IF(ISBLANK(B261),0,IF(D261="N/A",0,1))</f>
@@ -8841,7 +8915,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>26</v>
@@ -8862,7 +8936,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>26</v>
@@ -8883,7 +8957,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>15</v>
@@ -8904,10 +8978,10 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G265" s="1"/>
       <c r="I265" s="0" t="n">
@@ -8925,7 +8999,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>54</v>
@@ -8946,7 +9020,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>21</v>
@@ -8970,7 +9044,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>21</v>
@@ -8994,7 +9068,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>26</v>
@@ -9015,7 +9089,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>26</v>
@@ -9036,7 +9110,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>15</v>
@@ -9057,7 +9131,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>108</v>
@@ -9078,7 +9152,7 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>83</v>
@@ -9099,7 +9173,7 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>83</v>
@@ -9120,7 +9194,7 @@
         <v>269</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>21</v>
@@ -9141,7 +9215,7 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>52</v>
@@ -9165,10 +9239,10 @@
         <v>271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>12</v>
@@ -9189,7 +9263,7 @@
         <v>272</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>108</v>
@@ -9210,7 +9284,7 @@
         <v>273</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>108</v>
@@ -9231,7 +9305,7 @@
         <v>274</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>108</v>
@@ -9252,7 +9326,7 @@
         <v>275</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>108</v>
@@ -9273,10 +9347,10 @@
         <v>276</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>12</v>
@@ -9297,7 +9371,7 @@
         <v>277</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>26</v>
@@ -9318,10 +9392,10 @@
         <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>12</v>
@@ -9342,7 +9416,7 @@
         <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>54</v>
@@ -9363,7 +9437,7 @@
         <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>15</v>
@@ -9384,7 +9458,7 @@
         <v>281</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>21</v>
@@ -9408,7 +9482,7 @@
         <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>21</v>
@@ -9432,7 +9506,7 @@
         <v>283</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>54</v>
@@ -9453,7 +9527,7 @@
         <v>284</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>26</v>
@@ -9474,7 +9548,7 @@
         <v>285</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>15</v>
@@ -9495,7 +9569,7 @@
         <v>286</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>26</v>
@@ -9516,7 +9590,7 @@
         <v>287</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>26</v>
@@ -9537,7 +9611,7 @@
         <v>288</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>15</v>
@@ -9561,7 +9635,7 @@
         <v>289</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>15</v>
@@ -9582,7 +9656,7 @@
         <v>290</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>61</v>
@@ -9606,7 +9680,7 @@
         <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>61</v>
@@ -9630,7 +9704,7 @@
         <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>54</v>
@@ -9651,7 +9725,7 @@
         <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>21</v>
@@ -9675,7 +9749,7 @@
         <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>46</v>
@@ -9696,7 +9770,7 @@
         <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>26</v>
@@ -9717,7 +9791,7 @@
         <v>296</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>54</v>
@@ -9738,7 +9812,7 @@
         <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>54</v>
@@ -9759,7 +9833,7 @@
         <v>298</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>54</v>
@@ -9780,7 +9854,7 @@
         <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>54</v>
@@ -9801,7 +9875,7 @@
         <v>300</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>52</v>
@@ -9825,7 +9899,7 @@
         <v>301</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>52</v>
@@ -9849,7 +9923,7 @@
         <v>302</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>52</v>
@@ -9873,7 +9947,7 @@
         <v>303</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>46</v>
@@ -9894,7 +9968,7 @@
         <v>304</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>26</v>
@@ -9915,11 +9989,15 @@
         <v>305</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" s="10"/>
       <c r="G311" s="1"/>
       <c r="I311" s="0" t="n">
         <f aca="false">IF(ISBLANK(B311),0,IF(D311="N/A",0,1))</f>
@@ -9927,7 +10005,7 @@
       </c>
       <c r="J311" s="0" t="n">
         <f aca="false">IF(ISBLANK(D311),0,I311)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9936,7 +10014,7 @@
         <v>306</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>61</v>
@@ -9960,7 +10038,7 @@
         <v>307</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>54</v>
@@ -9981,7 +10059,7 @@
         <v>308</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>108</v>
@@ -10002,7 +10080,7 @@
         <v>309</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>26</v>
@@ -10023,7 +10101,7 @@
         <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>26</v>
@@ -10044,10 +10122,10 @@
         <v>311</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>42</v>
@@ -10068,7 +10146,7 @@
         <v>312</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>46</v>
@@ -10089,7 +10167,7 @@
         <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>54</v>
@@ -10110,7 +10188,7 @@
         <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>54</v>
@@ -10131,7 +10209,7 @@
         <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>49</v>
@@ -10155,7 +10233,7 @@
         <v>316</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>49</v>
@@ -10179,7 +10257,7 @@
         <v>317</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>49</v>
@@ -10203,10 +10281,10 @@
         <v>318</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>12</v>
@@ -10227,7 +10305,7 @@
         <v>319</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>26</v>
@@ -10248,7 +10326,7 @@
         <v>320</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>77</v>
@@ -10269,7 +10347,7 @@
         <v>321</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>21</v>
@@ -10293,7 +10371,7 @@
         <v>322</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>15</v>
@@ -10314,7 +10392,7 @@
         <v>323</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>46</v>
@@ -10335,7 +10413,7 @@
         <v>324</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>15</v>
@@ -10356,7 +10434,7 @@
         <v>325</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>26</v>
@@ -10377,7 +10455,7 @@
         <v>326</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>15</v>
@@ -10398,7 +10476,7 @@
         <v>327</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>15</v>
@@ -10422,7 +10500,7 @@
         <v>328</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>46</v>
@@ -10443,7 +10521,7 @@
         <v>329</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>15</v>
@@ -10464,10 +10542,10 @@
         <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>12</v>
@@ -10488,10 +10566,10 @@
         <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>12</v>
@@ -10512,7 +10590,7 @@
         <v>332</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>15</v>
@@ -10533,10 +10611,10 @@
         <v>333</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G339" s="1"/>
       <c r="I339" s="0" t="n">
@@ -10554,10 +10632,10 @@
         <v>334</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G340" s="1"/>
       <c r="I340" s="0" t="n">
@@ -10575,7 +10653,7 @@
         <v>335</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>26</v>
@@ -10596,7 +10674,7 @@
         <v>336</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>106</v>
@@ -10620,7 +10698,7 @@
         <v>337</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>46</v>
@@ -10641,7 +10719,7 @@
         <v>338</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>41</v>
@@ -10665,7 +10743,7 @@
         <v>339</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>54</v>
@@ -10686,7 +10764,7 @@
         <v>340</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>108</v>
@@ -10707,7 +10785,7 @@
         <v>341</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>108</v>
@@ -10728,7 +10806,7 @@
         <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>26</v>
@@ -10749,7 +10827,7 @@
         <v>343</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>108</v>
@@ -10770,7 +10848,7 @@
         <v>344</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
@@ -10791,7 +10869,7 @@
         <v>345</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>11</v>
@@ -10815,7 +10893,7 @@
         <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>15</v>
@@ -10836,10 +10914,10 @@
         <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>12</v>
@@ -10860,7 +10938,7 @@
         <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>15</v>
@@ -10884,7 +10962,7 @@
         <v>349</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>15</v>
@@ -10905,7 +10983,7 @@
         <v>350</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>26</v>
@@ -10926,7 +11004,7 @@
         <v>351</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>46</v>
@@ -10947,7 +11025,7 @@
         <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>15</v>
@@ -10957,7 +11035,7 @@
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I358" s="0" t="n">
         <f aca="false">IF(ISBLANK(B358),0,IF(D358="N/A",0,1))</f>
@@ -10974,7 +11052,7 @@
         <v>353</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>46</v>
@@ -10995,7 +11073,7 @@
         <v>354</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>46</v>
@@ -11016,7 +11094,7 @@
         <v>355</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>83</v>
@@ -11037,7 +11115,7 @@
         <v>356</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>83</v>
@@ -11058,7 +11136,7 @@
         <v>357</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>83</v>
@@ -11079,7 +11157,7 @@
         <v>358</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>83</v>
@@ -11100,7 +11178,7 @@
         <v>359</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>83</v>
@@ -11124,11 +11202,15 @@
         <v>360</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F366" s="10"/>
       <c r="G366" s="1"/>
       <c r="I366" s="0" t="n">
         <f aca="false">IF(ISBLANK(B366),0,IF(D366="N/A",0,1))</f>
@@ -11136,7 +11218,7 @@
       </c>
       <c r="J366" s="0" t="n">
         <f aca="false">IF(ISBLANK(D366),0,I366)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11145,7 +11227,7 @@
         <v>361</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>54</v>
@@ -11166,7 +11248,7 @@
         <v>362</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>26</v>
@@ -11187,7 +11269,7 @@
         <v>363</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>21</v>
@@ -11208,7 +11290,7 @@
         <v>364</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>26</v>
@@ -11229,7 +11311,7 @@
         <v>365</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>26</v>
@@ -11250,7 +11332,7 @@
         <v>366</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>21</v>
@@ -11271,7 +11353,7 @@
         <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>21</v>
@@ -11292,7 +11374,7 @@
         <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>54</v>
@@ -11313,7 +11395,7 @@
         <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>15</v>
@@ -11337,7 +11419,7 @@
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>26</v>
@@ -11358,7 +11440,7 @@
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>26</v>
@@ -11379,7 +11461,7 @@
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>26</v>
@@ -11400,7 +11482,7 @@
         <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>15</v>
@@ -11421,7 +11503,7 @@
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>52</v>
@@ -11445,7 +11527,7 @@
         <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>21</v>
@@ -11466,7 +11548,7 @@
         <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>26</v>
@@ -11487,7 +11569,7 @@
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>26</v>
@@ -11508,7 +11590,7 @@
         <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>54</v>
@@ -11529,10 +11611,10 @@
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G385" s="1"/>
       <c r="I385" s="0" t="n">
@@ -11550,7 +11632,7 @@
         <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>26</v>
@@ -11571,7 +11653,7 @@
         <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>26</v>
@@ -11592,7 +11674,7 @@
         <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>61</v>
@@ -11616,7 +11698,7 @@
         <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>86</v>
@@ -11640,7 +11722,7 @@
         <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
@@ -11661,7 +11743,7 @@
         <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
@@ -11682,7 +11764,7 @@
         <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>86</v>
@@ -11703,7 +11785,7 @@
         <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>41</v>
@@ -11727,7 +11809,7 @@
         <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>86</v>
@@ -11748,10 +11830,10 @@
         <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G395" s="1"/>
       <c r="I395" s="0" t="n">
@@ -11769,7 +11851,7 @@
         <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>46</v>
@@ -11790,10 +11872,10 @@
         <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G397" s="1"/>
       <c r="I397" s="0" t="n">
@@ -11811,7 +11893,7 @@
         <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>46</v>
@@ -11832,7 +11914,7 @@
         <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>46</v>
@@ -11853,7 +11935,7 @@
         <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>26</v>
@@ -11874,7 +11956,7 @@
         <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>46</v>
@@ -11895,7 +11977,7 @@
         <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>108</v>
@@ -11916,10 +11998,10 @@
         <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>12</v>
@@ -11940,7 +12022,7 @@
         <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>61</v>
@@ -11964,7 +12046,7 @@
         <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>108</v>
@@ -11985,7 +12067,7 @@
         <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>108</v>
@@ -12006,7 +12088,7 @@
         <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>11</v>
@@ -12027,7 +12109,7 @@
         <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>21</v>
@@ -12048,10 +12130,10 @@
         <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G409" s="1"/>
       <c r="I409" s="0" t="n">
@@ -12069,10 +12151,10 @@
         <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G410" s="1"/>
       <c r="I410" s="0" t="n">
@@ -12090,10 +12172,10 @@
         <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G411" s="1"/>
       <c r="I411" s="0" t="n">
@@ -12111,19 +12193,25 @@
         <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G412" s="1"/>
+      <c r="D412" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F412" s="11"/>
+      <c r="G412" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="I412" s="0" t="n">
         <f aca="false">IF(ISBLANK(B412),0,IF(D412="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J412" s="0" t="n">
         <f aca="false">IF(ISBLANK(D412),0,I412)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12132,7 +12220,7 @@
         <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>108</v>
@@ -12153,7 +12241,7 @@
         <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>108</v>
@@ -12174,7 +12262,7 @@
         <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>11</v>
@@ -12195,7 +12283,7 @@
         <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>52</v>
@@ -12216,7 +12304,7 @@
         <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>52</v>
@@ -12240,10 +12328,10 @@
         <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G418" s="1"/>
       <c r="I418" s="0" t="n">
@@ -12261,7 +12349,7 @@
         <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>21</v>
@@ -12282,10 +12370,10 @@
         <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G420" s="1"/>
       <c r="I420" s="0" t="n">
@@ -12303,10 +12391,10 @@
         <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G421" s="1"/>
       <c r="I421" s="0" t="n">
@@ -12324,7 +12412,7 @@
         <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>46</v>
@@ -12345,7 +12433,7 @@
         <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>15</v>
@@ -12369,7 +12457,7 @@
         <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>15</v>
@@ -12393,7 +12481,7 @@
         <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>108</v>
@@ -12414,10 +12502,10 @@
         <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G426" s="1"/>
       <c r="I426" s="0" t="n">
@@ -12435,10 +12523,10 @@
         <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G427" s="1"/>
       <c r="I427" s="0" t="n">
@@ -12456,7 +12544,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>108</v>
@@ -12477,10 +12565,10 @@
         <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G429" s="1"/>
       <c r="I429" s="0" t="n">
@@ -12498,10 +12586,10 @@
         <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G430" s="1"/>
       <c r="I430" s="0" t="n">
@@ -12519,7 +12607,7 @@
         <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>15</v>
@@ -12543,10 +12631,10 @@
         <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G432" s="1"/>
       <c r="I432" s="0" t="n">
@@ -12564,10 +12652,10 @@
         <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G433" s="1"/>
       <c r="I433" s="0" t="n">
@@ -12585,7 +12673,7 @@
         <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>100</v>
@@ -12609,7 +12697,7 @@
         <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>11</v>
@@ -12633,11 +12721,15 @@
         <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D436" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F436" s="10"/>
       <c r="G436" s="1"/>
       <c r="I436" s="0" t="n">
         <f aca="false">IF(ISBLANK(B436),0,IF(D436="N/A",0,1))</f>
@@ -12645,7 +12737,7 @@
       </c>
       <c r="J436" s="0" t="n">
         <f aca="false">IF(ISBLANK(D436),0,I436)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12654,10 +12746,10 @@
         <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>12</v>
@@ -12678,7 +12770,7 @@
         <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>15</v>
@@ -12703,7 +12795,7 @@
         <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>100</v>
@@ -12727,7 +12819,7 @@
         <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>97</v>
@@ -12751,7 +12843,7 @@
         <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>108</v>
@@ -12772,7 +12864,7 @@
         <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>61</v>
@@ -12796,16 +12888,16 @@
         <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="I443" s="0" t="n">
         <f aca="false">IF(ISBLANK(B443),0,IF(D443="N/A",0,1))</f>
@@ -12822,7 +12914,7 @@
         <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>54</v>
@@ -12843,7 +12935,7 @@
         <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>54</v>
@@ -12864,7 +12956,7 @@
         <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>11</v>
@@ -12885,7 +12977,7 @@
         <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>21</v>
@@ -12909,7 +13001,7 @@
         <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>21</v>
@@ -12930,7 +13022,7 @@
         <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>83</v>
@@ -12954,7 +13046,7 @@
         <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>83</v>
@@ -12978,7 +13070,7 @@
         <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>97</v>
@@ -13002,12 +13094,12 @@
         <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D452" s="11" t="s">
+      <c r="D452" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G452" s="1"/>
@@ -13026,7 +13118,7 @@
         <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>100</v>
@@ -13050,7 +13142,7 @@
         <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>15</v>
@@ -13071,7 +13163,7 @@
         <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>15</v>
@@ -13092,7 +13184,7 @@
         <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>54</v>
@@ -13113,7 +13205,7 @@
         <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>83</v>
@@ -13137,7 +13229,7 @@
         <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>54</v>
@@ -13158,7 +13250,7 @@
         <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>26</v>
@@ -13179,10 +13271,10 @@
         <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>12</v>
@@ -13203,7 +13295,7 @@
         <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>26</v>
@@ -13224,7 +13316,7 @@
         <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>15</v>
@@ -13248,7 +13340,7 @@
         <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>54</v>
@@ -13269,10 +13361,10 @@
         <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G464" s="1"/>
       <c r="I464" s="0" t="n">
@@ -13290,7 +13382,7 @@
         <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>54</v>
@@ -13311,7 +13403,7 @@
         <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>52</v>
@@ -13320,7 +13412,7 @@
         <v>12</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="I466" s="0" t="n">
         <f aca="false">IF(ISBLANK(B466),0,IF(D466="N/A",0,1))</f>
@@ -13337,7 +13429,7 @@
         <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>52</v>
@@ -13361,10 +13453,10 @@
         <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G468" s="1"/>
       <c r="I468" s="0" t="n">
@@ -13382,10 +13474,10 @@
         <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G469" s="1"/>
       <c r="I469" s="0" t="n">
@@ -13403,10 +13495,10 @@
         <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G470" s="1"/>
       <c r="I470" s="0" t="n">
@@ -13424,7 +13516,7 @@
         <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>15</v>
@@ -13448,10 +13540,10 @@
         <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>12</v>
@@ -13472,7 +13564,7 @@
         <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>100</v>
@@ -13496,7 +13588,7 @@
         <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>100</v>
@@ -13520,7 +13612,7 @@
         <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>54</v>
@@ -13541,7 +13633,7 @@
         <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>108</v>
@@ -13562,7 +13654,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>52</v>
@@ -13586,7 +13678,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>54</v>
@@ -13607,7 +13699,7 @@
         <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>54</v>
@@ -13628,7 +13720,7 @@
         <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>54</v>
@@ -13649,7 +13741,7 @@
         <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>83</v>
@@ -13673,7 +13765,7 @@
         <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>54</v>
@@ -13694,7 +13786,7 @@
         <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>54</v>
@@ -13715,7 +13807,7 @@
         <v>478</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>54</v>
@@ -13736,7 +13828,7 @@
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>54</v>
@@ -13757,7 +13849,7 @@
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>46</v>
@@ -13778,7 +13870,7 @@
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>52</v>
@@ -13787,7 +13879,7 @@
         <v>12</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="I487" s="0" t="n">
         <f aca="false">IF(ISBLANK(B487),0,IF(D487="N/A",0,1))</f>
@@ -13804,7 +13896,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>52</v>
@@ -13828,7 +13920,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>54</v>
@@ -13849,7 +13941,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>108</v>
@@ -13870,7 +13962,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>21</v>
@@ -13891,10 +13983,10 @@
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G492" s="1"/>
       <c r="I492" s="0" t="n">
@@ -13912,7 +14004,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>26</v>
@@ -13933,7 +14025,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>26</v>
@@ -13954,7 +14046,7 @@
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>15</v>
@@ -13979,7 +14071,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>83</v>
@@ -14003,10 +14095,10 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G497" s="1"/>
       <c r="I497" s="0" t="n">
@@ -14024,10 +14116,10 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G498" s="1"/>
       <c r="I498" s="0" t="n">
@@ -14045,10 +14137,10 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G499" s="1"/>
       <c r="I499" s="0" t="n">
@@ -14066,7 +14158,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>26</v>
@@ -14087,7 +14179,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>15</v>
@@ -14108,7 +14200,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>83</v>
@@ -14132,7 +14224,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>108</v>
@@ -14153,7 +14245,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>108</v>
@@ -14174,7 +14266,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>15</v>
@@ -14195,7 +14287,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>26</v>
@@ -14216,7 +14308,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>83</v>
@@ -14240,7 +14332,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>83</v>
@@ -14264,7 +14356,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>83</v>
@@ -14288,10 +14380,10 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G510" s="1"/>
       <c r="I510" s="0" t="n">
@@ -14309,7 +14401,7 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>15</v>
@@ -14330,7 +14422,7 @@
         <v>506</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>26</v>
@@ -14351,7 +14443,7 @@
         <v>507</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>26</v>
@@ -14372,10 +14464,10 @@
         <v>508</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G514" s="1"/>
       <c r="I514" s="0" t="n">
@@ -14393,7 +14485,7 @@
         <v>509</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>41</v>
@@ -14417,7 +14509,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>21</v>
@@ -14438,7 +14530,7 @@
         <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>61</v>
@@ -14462,7 +14554,7 @@
         <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>61</v>
@@ -14486,10 +14578,10 @@
         <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G519" s="1"/>
       <c r="I519" s="0" t="n">
@@ -14507,7 +14599,7 @@
         <v>514</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>52</v>
@@ -14531,7 +14623,7 @@
         <v>515</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>54</v>
@@ -14552,10 +14644,10 @@
         <v>516</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G522" s="1"/>
       <c r="I522" s="0" t="n">
@@ -14573,7 +14665,7 @@
         <v>517</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>54</v>
@@ -14594,7 +14686,7 @@
         <v>518</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>46</v>
@@ -14615,10 +14707,10 @@
         <v>519</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G525" s="1"/>
       <c r="I525" s="0" t="n">
@@ -14636,7 +14728,7 @@
         <v>520</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>15</v>
@@ -14657,7 +14749,7 @@
         <v>521</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>26</v>
@@ -14678,7 +14770,7 @@
         <v>522</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>26</v>
@@ -14699,7 +14791,7 @@
         <v>523</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>21</v>
@@ -14723,7 +14815,7 @@
         <v>524</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>106</v>
@@ -14747,7 +14839,7 @@
         <v>525</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>86</v>
@@ -14768,7 +14860,7 @@
         <v>526</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>21</v>
@@ -14792,7 +14884,7 @@
         <v>527</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>21</v>
@@ -14816,10 +14908,10 @@
         <v>528</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G534" s="1"/>
       <c r="I534" s="0" t="n">
@@ -14837,7 +14929,7 @@
         <v>529</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>46</v>
@@ -14858,7 +14950,7 @@
         <v>530</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>46</v>
@@ -14879,7 +14971,7 @@
         <v>531</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>26</v>
@@ -14900,7 +14992,7 @@
         <v>532</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>41</v>
@@ -14921,7 +15013,7 @@
         <v>533</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>46</v>
@@ -14942,7 +15034,7 @@
         <v>534</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>46</v>
@@ -14963,7 +15055,7 @@
         <v>535</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>41</v>
@@ -14987,7 +15079,7 @@
         <v>536</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>83</v>
@@ -15008,7 +15100,7 @@
         <v>537</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>21</v>
@@ -15029,19 +15121,25 @@
         <v>538</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G544" s="1"/>
+      <c r="D544" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F544" s="11"/>
+      <c r="G544" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="I544" s="0" t="n">
         <f aca="false">IF(ISBLANK(B544),0,IF(D544="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J544" s="0" t="n">
         <f aca="false">IF(ISBLANK(D544),0,I544)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15050,7 +15148,7 @@
         <v>539</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>108</v>
@@ -15071,7 +15169,7 @@
         <v>540</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>26</v>
@@ -15092,10 +15190,10 @@
         <v>541</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G547" s="1"/>
       <c r="I547" s="0" t="n">
@@ -15113,10 +15211,10 @@
         <v>542</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>12</v>
@@ -15137,7 +15235,7 @@
         <v>543</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>46</v>
@@ -15158,10 +15256,10 @@
         <v>544</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G550" s="1"/>
       <c r="I550" s="0" t="n">
@@ -15179,7 +15277,7 @@
         <v>545</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>106</v>
@@ -15203,7 +15301,7 @@
         <v>546</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>83</v>
@@ -15227,15 +15325,20 @@
         <v>547</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G553" s="1"/>
+      <c r="D553" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="I553" s="0" t="n">
         <f aca="false">IF(ISBLANK(B553),0,IF(D553="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J553" s="0" t="n">
         <f aca="false">IF(ISBLANK(D553),0,I553)</f>
@@ -15248,7 +15351,7 @@
         <v>548</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>83</v>
@@ -15272,7 +15375,7 @@
         <v>549</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>46</v>
@@ -15293,7 +15396,7 @@
         <v>550</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>26</v>
@@ -15314,7 +15417,7 @@
         <v>551</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>41</v>
@@ -15335,7 +15438,7 @@
         <v>552</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>26</v>
@@ -15356,10 +15459,10 @@
         <v>553</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>12</v>
@@ -15380,10 +15483,10 @@
         <v>554</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G560" s="1"/>
       <c r="I560" s="0" t="n">
@@ -15401,7 +15504,7 @@
         <v>555</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>54</v>
@@ -15422,7 +15525,7 @@
         <v>556</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>21</v>
@@ -15443,7 +15546,7 @@
         <v>557</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>26</v>
@@ -15464,7 +15567,7 @@
         <v>558</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>61</v>
@@ -15488,7 +15591,7 @@
         <v>559</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>108</v>
@@ -15509,7 +15612,7 @@
         <v>560</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>26</v>
@@ -15530,10 +15633,10 @@
         <v>561</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G567" s="1"/>
       <c r="I567" s="0" t="n">
@@ -15551,10 +15654,10 @@
         <v>562</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G568" s="1"/>
       <c r="I568" s="0" t="n">
@@ -15572,10 +15675,10 @@
         <v>563</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G569" s="1"/>
       <c r="I569" s="0" t="n">
@@ -15593,10 +15696,10 @@
         <v>564</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G570" s="1"/>
       <c r="I570" s="0" t="n">
@@ -15614,10 +15717,10 @@
         <v>565</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G571" s="1"/>
       <c r="I571" s="0" t="n">
@@ -15635,10 +15738,10 @@
         <v>566</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G572" s="1"/>
       <c r="I572" s="0" t="n">
@@ -15656,7 +15759,7 @@
         <v>567</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>46</v>
@@ -15677,7 +15780,7 @@
         <v>568</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>100</v>
@@ -15701,7 +15804,7 @@
         <v>569</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>100</v>
@@ -15725,10 +15828,10 @@
         <v>570</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G576" s="1"/>
       <c r="I576" s="0" t="n">
@@ -15746,7 +15849,7 @@
         <v>571</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>100</v>
@@ -15770,7 +15873,7 @@
         <v>572</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>46</v>
@@ -15794,7 +15897,7 @@
         <v>573</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>46</v>
@@ -15818,7 +15921,7 @@
         <v>574</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>46</v>
@@ -15842,7 +15945,7 @@
         <v>575</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>21</v>
@@ -15866,10 +15969,10 @@
         <v>576</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G582" s="1"/>
       <c r="I582" s="0" t="n">
@@ -15887,10 +15990,10 @@
         <v>577</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G583" s="1"/>
       <c r="I583" s="0" t="n">
@@ -15908,7 +16011,7 @@
         <v>578</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>46</v>
@@ -15929,7 +16032,7 @@
         <v>579</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>46</v>
@@ -15950,10 +16053,10 @@
         <v>580</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G586" s="1"/>
       <c r="I586" s="0" t="n">
@@ -15971,10 +16074,10 @@
         <v>581</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G587" s="1"/>
       <c r="I587" s="0" t="n">
@@ -15992,10 +16095,10 @@
         <v>582</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G588" s="1"/>
       <c r="I588" s="0" t="n">
@@ -16013,7 +16116,7 @@
         <v>583</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>46</v>
@@ -16034,7 +16137,7 @@
         <v>584</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>46</v>
@@ -16055,7 +16158,7 @@
         <v>585</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>52</v>
@@ -16079,7 +16182,7 @@
         <v>586</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>11</v>
@@ -16103,7 +16206,7 @@
         <v>587</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>83</v>
@@ -16127,7 +16230,7 @@
         <v>588</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>54</v>
@@ -16148,7 +16251,7 @@
         <v>589</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>54</v>
@@ -16169,7 +16272,7 @@
         <v>590</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>54</v>
@@ -16190,7 +16293,7 @@
         <v>591</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>54</v>
@@ -16211,7 +16314,7 @@
         <v>592</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>54</v>
@@ -16232,7 +16335,7 @@
         <v>593</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>46</v>
@@ -16253,7 +16356,7 @@
         <v>594</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>21</v>
@@ -16274,7 +16377,7 @@
         <v>595</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>54</v>
@@ -16295,12 +16398,12 @@
         <v>596</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D602" s="11" t="s">
+      <c r="D602" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G602" s="1"/>
@@ -16319,7 +16422,7 @@
         <v>597</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>54</v>
@@ -16340,10 +16443,10 @@
         <v>598</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G604" s="1"/>
       <c r="I604" s="0" t="n">
@@ -16361,7 +16464,7 @@
         <v>599</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>83</v>
@@ -16385,7 +16488,7 @@
         <v>600</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>61</v>
@@ -16406,7 +16509,7 @@
         <v>601</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>26</v>
@@ -16427,7 +16530,7 @@
         <v>602</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>83</v>
@@ -16451,7 +16554,7 @@
         <v>603</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>26</v>
@@ -16472,7 +16575,7 @@
         <v>604</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>21</v>
@@ -16496,7 +16599,7 @@
         <v>605</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>26</v>
@@ -16517,10 +16620,10 @@
         <v>606</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G612" s="1"/>
       <c r="I612" s="0" t="n">
@@ -16538,7 +16641,7 @@
         <v>607</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>26</v>
@@ -16559,7 +16662,7 @@
         <v>608</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>26</v>
@@ -16580,7 +16683,7 @@
         <v>609</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>15</v>
@@ -16605,7 +16708,7 @@
         <v>610</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>54</v>
@@ -16626,7 +16729,7 @@
         <v>611</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>26</v>
@@ -16647,7 +16750,7 @@
         <v>612</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>26</v>
@@ -16668,7 +16771,7 @@
         <v>613</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>86</v>
@@ -16692,7 +16795,7 @@
         <v>614</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>26</v>
@@ -16713,7 +16816,7 @@
         <v>615</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>86</v>
@@ -16737,12 +16840,12 @@
         <v>616</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D622" s="11" t="s">
+      <c r="D622" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G622" s="1"/>
@@ -16761,7 +16864,7 @@
         <v>617</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>21</v>
@@ -16782,16 +16885,16 @@
         <v>618</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D624" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="I624" s="0" t="n">
         <f aca="false">IF(ISBLANK(B624),0,IF(D624="N/A",0,1))</f>
@@ -16808,10 +16911,10 @@
         <v>619</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G625" s="1"/>
       <c r="I625" s="0" t="n">
@@ -16829,7 +16932,7 @@
         <v>620</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>54</v>
@@ -16850,12 +16953,12 @@
         <v>621</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D627" s="11" t="s">
+      <c r="D627" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G627" s="1"/>
@@ -16874,7 +16977,7 @@
         <v>622</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>46</v>
@@ -16895,10 +16998,10 @@
         <v>623</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G629" s="1"/>
       <c r="I629" s="0" t="n">
@@ -16916,10 +17019,10 @@
         <v>624</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G630" s="1"/>
       <c r="I630" s="0" t="n">
@@ -16937,7 +17040,7 @@
         <v>625</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>108</v>
@@ -16958,7 +17061,7 @@
         <v>626</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>26</v>
@@ -16979,7 +17082,7 @@
         <v>627</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>61</v>
@@ -17003,15 +17106,20 @@
         <v>628</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G634" s="1"/>
+      <c r="D634" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="I634" s="0" t="n">
         <f aca="false">IF(ISBLANK(B634),0,IF(D634="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J634" s="0" t="n">
         <f aca="false">IF(ISBLANK(D634),0,I634)</f>
@@ -17024,7 +17132,7 @@
         <v>629</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>11</v>
@@ -17048,16 +17156,16 @@
         <v>630</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D636" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="I636" s="0" t="n">
         <f aca="false">IF(ISBLANK(B636),0,IF(D636="N/A",0,1))</f>
@@ -17074,7 +17182,7 @@
         <v>631</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>46</v>
@@ -17095,10 +17203,10 @@
         <v>632</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G638" s="1"/>
       <c r="I638" s="0" t="n">
@@ -17116,7 +17224,7 @@
         <v>633</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>83</v>
@@ -17140,10 +17248,10 @@
         <v>634</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G640" s="1"/>
       <c r="I640" s="0" t="n">
@@ -17161,10 +17269,10 @@
         <v>635</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>12</v>
@@ -17185,7 +17293,7 @@
         <v>636</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>21</v>
@@ -17206,10 +17314,10 @@
         <v>637</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D643" s="1" t="s">
         <v>12</v>
@@ -17230,7 +17338,7 @@
         <v>638</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>41</v>
@@ -17251,7 +17359,7 @@
         <v>639</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>83</v>
@@ -17275,7 +17383,7 @@
         <v>640</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>41</v>
@@ -17299,12 +17407,12 @@
         <v>641</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D647" s="11" t="s">
+      <c r="D647" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G647" s="1"/>
@@ -17323,12 +17431,12 @@
         <v>642</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D648" s="11" t="s">
+      <c r="D648" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G648" s="1"/>
@@ -17347,12 +17455,12 @@
         <v>643</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D649" s="11" t="s">
+      <c r="D649" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G649" s="1"/>
@@ -17371,12 +17479,12 @@
         <v>644</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D650" s="11" t="s">
+      <c r="D650" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G650" s="1"/>
@@ -17395,7 +17503,7 @@
         <v>645</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>83</v>
@@ -17416,7 +17524,7 @@
         <v>646</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>21</v>
@@ -17437,19 +17545,25 @@
         <v>647</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G653" s="1"/>
+      <c r="D653" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F653" s="11"/>
+      <c r="G653" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="I653" s="0" t="n">
         <f aca="false">IF(ISBLANK(B653),0,IF(D653="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J653" s="0" t="n">
         <f aca="false">IF(ISBLANK(D653),0,I653)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17458,7 +17572,7 @@
         <v>648</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>26</v>
@@ -17479,7 +17593,7 @@
         <v>649</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>26</v>
@@ -17500,10 +17614,10 @@
         <v>650</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G656" s="1"/>
       <c r="I656" s="0" t="n">
@@ -17521,7 +17635,7 @@
         <v>651</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>21</v>
@@ -17545,7 +17659,7 @@
         <v>652</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>61</v>
@@ -17569,7 +17683,7 @@
         <v>653</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>26</v>
@@ -17590,7 +17704,7 @@
         <v>654</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>26</v>
@@ -17611,10 +17725,10 @@
         <v>655</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>12</v>
@@ -17635,7 +17749,7 @@
         <v>656</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>11</v>
@@ -17656,7 +17770,7 @@
         <v>657</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>26</v>
@@ -17677,7 +17791,7 @@
         <v>658</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>15</v>
@@ -17701,7 +17815,7 @@
         <v>659</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>46</v>
@@ -17722,7 +17836,7 @@
         <v>660</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>46</v>
@@ -17743,7 +17857,7 @@
         <v>661</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>100</v>
@@ -17767,7 +17881,7 @@
         <v>662</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>46</v>
@@ -17788,7 +17902,7 @@
         <v>663</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>52</v>
@@ -17812,7 +17926,7 @@
         <v>664</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>26</v>
@@ -17833,7 +17947,7 @@
         <v>665</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>26</v>
@@ -17854,7 +17968,7 @@
         <v>666</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>26</v>
@@ -17875,7 +17989,7 @@
         <v>667</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>61</v>
@@ -17899,7 +18013,7 @@
         <v>668</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>86</v>
@@ -17923,7 +18037,7 @@
         <v>669</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>26</v>
@@ -17944,7 +18058,7 @@
         <v>670</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>26</v>
@@ -17965,7 +18079,7 @@
         <v>671</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>26</v>
@@ -17986,7 +18100,7 @@
         <v>672</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>86</v>
@@ -18010,7 +18124,7 @@
         <v>673</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>26</v>
@@ -18031,7 +18145,7 @@
         <v>674</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>26</v>
@@ -18052,7 +18166,7 @@
         <v>675</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>26</v>
@@ -18073,7 +18187,7 @@
         <v>676</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>26</v>
@@ -18094,16 +18208,16 @@
         <v>677</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="I683" s="0" t="n">
         <f aca="false">IF(ISBLANK(B683),0,IF(D683="N/A",0,1))</f>
@@ -18120,7 +18234,7 @@
         <v>678</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>108</v>
@@ -18141,7 +18255,7 @@
         <v>679</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>21</v>
@@ -18162,7 +18276,7 @@
         <v>680</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>26</v>
@@ -18183,7 +18297,7 @@
         <v>681</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>54</v>
@@ -18204,10 +18318,10 @@
         <v>682</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>12</v>
@@ -18228,7 +18342,7 @@
         <v>683</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>21</v>
@@ -18252,7 +18366,7 @@
         <v>684</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>49</v>
@@ -18276,16 +18390,16 @@
         <v>685</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="I691" s="0" t="n">
         <f aca="false">IF(ISBLANK(B691),0,IF(D691="N/A",0,1))</f>
@@ -18302,7 +18416,7 @@
         <v>686</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>26</v>
@@ -18323,7 +18437,7 @@
         <v>687</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>54</v>
@@ -18344,7 +18458,7 @@
         <v>688</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>108</v>
@@ -18365,10 +18479,10 @@
         <v>689</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G695" s="1"/>
       <c r="I695" s="0" t="n">
@@ -18386,7 +18500,7 @@
         <v>690</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>46</v>
@@ -18407,7 +18521,7 @@
         <v>691</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>46</v>
@@ -18428,7 +18542,7 @@
         <v>692</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>83</v>
@@ -18452,7 +18566,7 @@
         <v>693</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>26</v>
@@ -18473,7 +18587,7 @@
         <v>694</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>26</v>
@@ -18494,7 +18608,7 @@
         <v>695</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>108</v>
@@ -18515,7 +18629,7 @@
         <v>696</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>26</v>
@@ -18536,7 +18650,7 @@
         <v>697</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>26</v>
@@ -18557,7 +18671,7 @@
         <v>698</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>46</v>
@@ -18578,10 +18692,10 @@
         <v>699</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G705" s="1"/>
       <c r="I705" s="0" t="n">
@@ -18599,7 +18713,7 @@
         <v>700</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>26</v>
@@ -18620,7 +18734,7 @@
         <v>701</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>54</v>
@@ -18641,7 +18755,7 @@
         <v>702</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>26</v>
@@ -18662,7 +18776,7 @@
         <v>703</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>49</v>
@@ -18683,7 +18797,7 @@
         <v>704</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>41</v>
@@ -18704,7 +18818,7 @@
         <v>705</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>108</v>
@@ -18725,7 +18839,7 @@
         <v>706</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>95</v>
@@ -18746,7 +18860,7 @@
         <v>707</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>95</v>
@@ -18767,7 +18881,7 @@
         <v>708</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>95</v>
@@ -18788,7 +18902,7 @@
         <v>709</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>21</v>
@@ -18809,7 +18923,7 @@
         <v>710</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>24</v>
@@ -18833,7 +18947,7 @@
         <v>711</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>24</v>
@@ -18857,7 +18971,7 @@
         <v>712</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>52</v>
@@ -18881,7 +18995,7 @@
         <v>713</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>41</v>
@@ -18902,7 +19016,7 @@
         <v>714</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>26</v>
@@ -18923,7 +19037,7 @@
         <v>715</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>41</v>
@@ -18947,7 +19061,7 @@
         <v>716</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>100</v>
@@ -18971,7 +19085,7 @@
         <v>717</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>100</v>
@@ -18995,10 +19109,10 @@
         <v>718</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D724" s="1" t="s">
         <v>12</v>
@@ -19019,10 +19133,10 @@
         <v>719</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>12</v>
@@ -19043,10 +19157,10 @@
         <v>720</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G726" s="1"/>
       <c r="I726" s="0" t="n">
@@ -19064,10 +19178,10 @@
         <v>721</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G727" s="1"/>
       <c r="I727" s="0" t="n">
@@ -19085,10 +19199,10 @@
         <v>722</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G728" s="1"/>
       <c r="I728" s="0" t="n">
@@ -19106,10 +19220,10 @@
         <v>723</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G729" s="1"/>
       <c r="I729" s="0" t="n">
@@ -19127,7 +19241,7 @@
         <v>724</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>24</v>
@@ -19151,7 +19265,7 @@
         <v>725</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>46</v>
@@ -19172,7 +19286,7 @@
         <v>726</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>46</v>
@@ -19193,10 +19307,10 @@
         <v>727</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G733" s="1"/>
       <c r="I733" s="0" t="n">
@@ -19214,12 +19328,12 @@
         <v>728</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D734" s="11" t="s">
+      <c r="D734" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G734" s="1"/>
@@ -19238,7 +19352,7 @@
         <v>729</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>21</v>
@@ -19259,10 +19373,13 @@
         <v>730</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G736" s="1"/>
       <c r="I736" s="0" t="n">
@@ -19271,7 +19388,7 @@
       </c>
       <c r="J736" s="0" t="n">
         <f aca="false">IF(ISBLANK(D736),0,I736)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19280,7 +19397,7 @@
         <v>731</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>21</v>
@@ -19301,7 +19418,7 @@
         <v>732</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>21</v>
@@ -19322,7 +19439,7 @@
         <v>733</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>26</v>
@@ -19343,7 +19460,7 @@
         <v>734</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>21</v>
@@ -19364,7 +19481,7 @@
         <v>735</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>108</v>
@@ -19385,10 +19502,10 @@
         <v>736</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>12</v>
@@ -19409,7 +19526,7 @@
         <v>737</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>54</v>
@@ -19430,7 +19547,7 @@
         <v>738</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>52</v>
@@ -19451,10 +19568,10 @@
         <v>739</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G745" s="1"/>
       <c r="I745" s="0" t="n">
@@ -19472,7 +19589,7 @@
         <v>740</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>83</v>
@@ -19496,7 +19613,7 @@
         <v>741</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>83</v>
@@ -19520,7 +19637,7 @@
         <v>742</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>61</v>
@@ -19541,7 +19658,7 @@
         <v>743</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>97</v>
@@ -19565,10 +19682,10 @@
         <v>744</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D750" s="1" t="s">
         <v>12</v>
@@ -19589,7 +19706,7 @@
         <v>745</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>83</v>
@@ -19613,7 +19730,7 @@
         <v>746</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>26</v>
@@ -19634,7 +19751,7 @@
         <v>747</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>83</v>
@@ -19658,7 +19775,7 @@
         <v>748</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>54</v>
@@ -19679,7 +19796,7 @@
         <v>749</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>11</v>
@@ -19703,7 +19820,7 @@
         <v>750</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>83</v>
@@ -19727,7 +19844,7 @@
         <v>751</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>83</v>
@@ -19751,7 +19868,7 @@
         <v>752</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>54</v>
@@ -19772,7 +19889,7 @@
         <v>753</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>54</v>
@@ -19793,10 +19910,10 @@
         <v>754</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G760" s="1"/>
       <c r="I760" s="0" t="n">
@@ -19814,7 +19931,7 @@
         <v>755</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>54</v>
@@ -19835,7 +19952,7 @@
         <v>756</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>54</v>
@@ -19856,7 +19973,7 @@
         <v>757</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>54</v>
@@ -19877,7 +19994,7 @@
         <v>758</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>54</v>
@@ -19898,7 +20015,7 @@
         <v>759</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>26</v>
@@ -19919,10 +20036,10 @@
         <v>760</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G766" s="1"/>
       <c r="I766" s="0" t="n">
@@ -19940,7 +20057,7 @@
         <v>761</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>54</v>
@@ -19961,7 +20078,7 @@
         <v>762</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>61</v>
@@ -19985,7 +20102,7 @@
         <v>763</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>77</v>
@@ -20006,7 +20123,7 @@
         <v>764</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>61</v>
@@ -20015,7 +20132,7 @@
         <v>12</v>
       </c>
       <c r="G770" s="1" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="I770" s="0" t="n">
         <f aca="false">IF(ISBLANK(B770),0,IF(D770="N/A",0,1))</f>
@@ -20032,7 +20149,7 @@
         <v>765</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>26</v>
@@ -20053,7 +20170,7 @@
         <v>766</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>26</v>
@@ -20074,7 +20191,7 @@
         <v>767</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>26</v>
@@ -20095,10 +20212,10 @@
         <v>768</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G774" s="1"/>
       <c r="I774" s="0" t="n">
@@ -20116,7 +20233,7 @@
         <v>769</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>61</v>
@@ -20125,7 +20242,7 @@
         <v>12</v>
       </c>
       <c r="G775" s="1" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="I775" s="0" t="n">
         <f aca="false">IF(ISBLANK(B775),0,IF(D775="N/A",0,1))</f>
@@ -20142,10 +20259,10 @@
         <v>770</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G776" s="1"/>
       <c r="I776" s="0" t="n">
@@ -20163,10 +20280,10 @@
         <v>771</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G777" s="1"/>
       <c r="I777" s="0" t="n">
@@ -20184,10 +20301,10 @@
         <v>772</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G778" s="1"/>
       <c r="I778" s="0" t="n">
@@ -20205,10 +20322,10 @@
         <v>773</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G779" s="1"/>
       <c r="I779" s="0" t="n">
@@ -20226,10 +20343,10 @@
         <v>774</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G780" s="1"/>
       <c r="I780" s="0" t="n">
@@ -20247,10 +20364,10 @@
         <v>775</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G781" s="1"/>
       <c r="I781" s="0" t="n">
@@ -20268,10 +20385,10 @@
         <v>776</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G782" s="1"/>
       <c r="I782" s="0" t="n">
@@ -20289,10 +20406,10 @@
         <v>777</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G783" s="1"/>
       <c r="I783" s="0" t="n">
@@ -20310,13 +20427,13 @@
         <v>778</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G784" s="1"/>
       <c r="I784" s="0" t="n">
@@ -20334,13 +20451,13 @@
         <v>779</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G785" s="1"/>
       <c r="I785" s="0" t="n">
@@ -20358,13 +20475,13 @@
         <v>780</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G786" s="1"/>
       <c r="I786" s="0" t="n">
@@ -20382,13 +20499,13 @@
         <v>781</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G787" s="1"/>
       <c r="I787" s="0" t="n">
@@ -20406,13 +20523,13 @@
         <v>782</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G788" s="1"/>
       <c r="I788" s="0" t="n">
@@ -20430,13 +20547,13 @@
         <v>783</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G789" s="1"/>
       <c r="I789" s="0" t="n">
@@ -20454,13 +20571,13 @@
         <v>784</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G790" s="1"/>
       <c r="I790" s="0" t="n">
@@ -20478,13 +20595,13 @@
         <v>785</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G791" s="1"/>
       <c r="I791" s="0" t="n">
@@ -20502,13 +20619,13 @@
         <v>786</v>
       </c>
       <c r="B792" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D792" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C792" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D792" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="G792" s="1"/>
       <c r="I792" s="0" t="n">
@@ -20526,13 +20643,13 @@
         <v>787</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G793" s="1"/>
       <c r="I793" s="0" t="n">
@@ -20550,13 +20667,13 @@
         <v>788</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G794" s="1"/>
       <c r="I794" s="0" t="n">
@@ -20574,13 +20691,13 @@
         <v>789</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G795" s="1"/>
       <c r="I795" s="0" t="n">
@@ -20598,13 +20715,13 @@
         <v>790</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G796" s="1"/>
       <c r="I796" s="0" t="n">
@@ -20622,13 +20739,13 @@
         <v>791</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G797" s="1"/>
       <c r="I797" s="0" t="n">
@@ -20646,13 +20763,13 @@
         <v>792</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G798" s="1"/>
       <c r="I798" s="0" t="n">
@@ -20670,13 +20787,13 @@
         <v>793</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G799" s="1"/>
       <c r="I799" s="0" t="n">
@@ -20694,13 +20811,13 @@
         <v>794</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G800" s="1"/>
       <c r="I800" s="0" t="n">
@@ -20718,13 +20835,13 @@
         <v>795</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G801" s="1"/>
       <c r="I801" s="0" t="n">
@@ -20742,13 +20859,13 @@
         <v>796</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G802" s="1"/>
       <c r="I802" s="0" t="n">
@@ -20766,13 +20883,13 @@
         <v>797</v>
       </c>
       <c r="B803" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C803" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C803" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="D803" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G803" s="1"/>
       <c r="I803" s="0" t="n">
@@ -20790,13 +20907,13 @@
         <v>798</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G804" s="1"/>
       <c r="I804" s="0" t="n">
@@ -20814,13 +20931,13 @@
         <v>799</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G805" s="1"/>
       <c r="I805" s="0" t="n">
@@ -20838,13 +20955,13 @@
         <v>800</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G806" s="1"/>
       <c r="I806" s="0" t="n">
@@ -20862,13 +20979,13 @@
         <v>801</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G807" s="1"/>
       <c r="I807" s="0" t="n">
@@ -20886,13 +21003,13 @@
         <v>802</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G808" s="1"/>
       <c r="I808" s="0" t="n">
@@ -20910,13 +21027,13 @@
         <v>803</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G809" s="1"/>
       <c r="I809" s="0" t="n">
@@ -20934,13 +21051,13 @@
         <v>804</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G810" s="1"/>
       <c r="I810" s="0" t="n">
@@ -20958,13 +21075,13 @@
         <v>805</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G811" s="1"/>
       <c r="I811" s="0" t="n">
@@ -20982,13 +21099,13 @@
         <v>806</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G812" s="1"/>
       <c r="I812" s="0" t="n">
@@ -21006,13 +21123,13 @@
         <v>807</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G813" s="1"/>
       <c r="I813" s="0" t="n">
@@ -21030,13 +21147,13 @@
         <v>808</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G814" s="1"/>
       <c r="I814" s="0" t="n">
@@ -21054,13 +21171,13 @@
         <v>809</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G815" s="1"/>
       <c r="I815" s="0" t="n">
@@ -21078,13 +21195,13 @@
         <v>810</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G816" s="1"/>
       <c r="I816" s="0" t="n">
@@ -21102,13 +21219,13 @@
         <v>811</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G817" s="1"/>
       <c r="I817" s="0" t="n">
@@ -21126,13 +21243,13 @@
         <v>812</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G818" s="1"/>
       <c r="I818" s="0" t="n">
@@ -21150,13 +21267,13 @@
         <v>813</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G819" s="1"/>
       <c r="I819" s="0" t="n">
@@ -21174,13 +21291,13 @@
         <v>814</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G820" s="1"/>
       <c r="I820" s="0" t="n">
@@ -21198,13 +21315,13 @@
         <v>815</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G821" s="1"/>
       <c r="I821" s="0" t="n">
@@ -21222,13 +21339,13 @@
         <v>816</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G822" s="1"/>
       <c r="I822" s="0" t="n">
@@ -21246,13 +21363,13 @@
         <v>817</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G823" s="1"/>
       <c r="I823" s="0" t="n">
@@ -21270,13 +21387,13 @@
         <v>818</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G824" s="1"/>
       <c r="I824" s="0" t="n">
@@ -21294,13 +21411,13 @@
         <v>819</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G825" s="1"/>
       <c r="I825" s="0" t="n">
@@ -21318,13 +21435,13 @@
         <v>820</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G826" s="1"/>
       <c r="I826" s="0" t="n">
@@ -21342,13 +21459,13 @@
         <v>821</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G827" s="1"/>
       <c r="I827" s="0" t="n">
@@ -21366,13 +21483,13 @@
         <v>822</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G828" s="1"/>
       <c r="I828" s="0" t="n">
@@ -21390,13 +21507,13 @@
         <v>823</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G829" s="1"/>
       <c r="I829" s="0" t="n">
@@ -21414,13 +21531,13 @@
         <v>824</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G830" s="1"/>
       <c r="I830" s="0" t="n">
@@ -21438,13 +21555,13 @@
         <v>825</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G831" s="1"/>
       <c r="I831" s="0" t="n">
@@ -21462,13 +21579,13 @@
         <v>826</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G832" s="1"/>
       <c r="I832" s="0" t="n">
@@ -21486,13 +21603,13 @@
         <v>827</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G833" s="1"/>
       <c r="I833" s="0" t="n">
@@ -21510,13 +21627,13 @@
         <v>828</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G834" s="1"/>
       <c r="I834" s="0" t="n">
@@ -21534,13 +21651,13 @@
         <v>829</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G835" s="1"/>
       <c r="I835" s="0" t="n">
@@ -21558,13 +21675,13 @@
         <v>830</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G836" s="1"/>
       <c r="I836" s="0" t="n">
@@ -21582,13 +21699,13 @@
         <v>831</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G837" s="1"/>
       <c r="I837" s="0" t="n">
@@ -21606,13 +21723,13 @@
         <v>832</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G838" s="1"/>
       <c r="I838" s="0" t="n">
@@ -21630,13 +21747,13 @@
         <v>833</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G839" s="1"/>
       <c r="I839" s="0" t="n">
@@ -21654,13 +21771,13 @@
         <v>834</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G840" s="1"/>
       <c r="I840" s="0" t="n">
@@ -21678,13 +21795,13 @@
         <v>835</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G841" s="1"/>
       <c r="I841" s="0" t="n">
@@ -21702,13 +21819,13 @@
         <v>836</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G842" s="1"/>
       <c r="I842" s="0" t="n">
@@ -21726,13 +21843,13 @@
         <v>837</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G843" s="1"/>
       <c r="I843" s="0" t="n">
@@ -21750,13 +21867,13 @@
         <v>838</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G844" s="1"/>
       <c r="I844" s="0" t="n">
@@ -21774,13 +21891,13 @@
         <v>839</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G845" s="1"/>
       <c r="I845" s="0" t="n">
@@ -21798,13 +21915,13 @@
         <v>840</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G846" s="1"/>
       <c r="I846" s="0" t="n">
@@ -21822,13 +21939,13 @@
         <v>841</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G847" s="1"/>
       <c r="I847" s="0" t="n">
@@ -21846,13 +21963,13 @@
         <v>842</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G848" s="1"/>
       <c r="I848" s="0" t="n">
@@ -21870,13 +21987,13 @@
         <v>843</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G849" s="1"/>
       <c r="I849" s="0" t="n">
@@ -21894,13 +22011,13 @@
         <v>844</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G850" s="1"/>
       <c r="I850" s="0" t="n">
@@ -21918,13 +22035,13 @@
         <v>845</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G851" s="1"/>
       <c r="I851" s="0" t="n">
@@ -21942,13 +22059,13 @@
         <v>846</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G852" s="1"/>
       <c r="I852" s="0" t="n">
@@ -21966,13 +22083,13 @@
         <v>847</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G853" s="1"/>
       <c r="I853" s="0" t="n">
@@ -21990,13 +22107,13 @@
         <v>848</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G854" s="1"/>
       <c r="I854" s="0" t="n">
@@ -22014,13 +22131,13 @@
         <v>849</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G855" s="1"/>
       <c r="I855" s="0" t="n">
@@ -22038,13 +22155,13 @@
         <v>850</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G856" s="1"/>
       <c r="I856" s="0" t="n">
@@ -22062,13 +22179,13 @@
         <v>851</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G857" s="1"/>
       <c r="I857" s="0" t="n">
@@ -22086,13 +22203,13 @@
         <v>852</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G858" s="1"/>
       <c r="I858" s="0" t="n">
@@ -22110,13 +22227,13 @@
         <v>853</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G859" s="1"/>
       <c r="I859" s="0" t="n">
@@ -22134,13 +22251,13 @@
         <v>854</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G860" s="1"/>
       <c r="I860" s="0" t="n">
@@ -22158,13 +22275,13 @@
         <v>855</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G861" s="1"/>
       <c r="I861" s="0" t="n">
@@ -22182,13 +22299,13 @@
         <v>856</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G862" s="1"/>
       <c r="I862" s="0" t="n">
@@ -22206,13 +22323,13 @@
         <v>857</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G863" s="1"/>
       <c r="I863" s="0" t="n">
@@ -22230,13 +22347,13 @@
         <v>858</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G864" s="1"/>
       <c r="I864" s="0" t="n">
@@ -22254,13 +22371,13 @@
         <v>859</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G865" s="1"/>
       <c r="I865" s="0" t="n">
@@ -22278,13 +22395,13 @@
         <v>860</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G866" s="1"/>
       <c r="I866" s="0" t="n">
@@ -22302,13 +22419,13 @@
         <v>861</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G867" s="1"/>
       <c r="I867" s="0" t="n">
@@ -22326,13 +22443,13 @@
         <v>862</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="G868" s="1"/>
       <c r="I868" s="0" t="n">
@@ -25664,7 +25781,7 @@
   <autoFilter ref="A5:G999"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -25691,52 +25808,52 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="D3" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="D4" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="D5" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -25762,7 +25879,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="945">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -400,7 +401,7 @@
     <t xml:space="preserve">Bitwise</t>
   </si>
   <si>
-    <t xml:space="preserve">Renamed to BASR</t>
+    <t xml:space="preserve">Replaced with BASR</t>
   </si>
   <si>
     <t xml:space="preserve">ASSUME</t>
@@ -469,6 +470,9 @@
     <t xml:space="preserve">BIN</t>
   </si>
   <si>
+    <t xml:space="preserve">There’s no system-wide base</t>
+  </si>
+  <si>
     <t xml:space="preserve">BINS</t>
   </si>
   <si>
@@ -745,6 +749,9 @@
     <t xml:space="preserve">DIR</t>
   </si>
   <si>
+    <t xml:space="preserve">Use CRDIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">DISP</t>
   </si>
   <si>
@@ -1894,6 +1901,9 @@
     <t xml:space="preserve">RL</t>
   </si>
   <si>
+    <t xml:space="preserve">Replaced with BRL</t>
+  </si>
+  <si>
     <t xml:space="preserve">RLB</t>
   </si>
   <si>
@@ -1930,6 +1940,9 @@
     <t xml:space="preserve">RR</t>
   </si>
   <si>
+    <t xml:space="preserve">Replaced with BRR</t>
+  </si>
+  <si>
     <t xml:space="preserve">RRB</t>
   </si>
   <si>
@@ -2056,7 +2069,7 @@
     <t xml:space="preserve">SL</t>
   </si>
   <si>
-    <t xml:space="preserve">Renamed to BLSL</t>
+    <t xml:space="preserve">Replaced with BLSL</t>
   </si>
   <si>
     <t xml:space="preserve">SLB</t>
@@ -2095,7 +2108,7 @@
     <t xml:space="preserve">SR</t>
   </si>
   <si>
-    <t xml:space="preserve">Renamed to BLSR</t>
+    <t xml:space="preserve">Replaced with BLSR</t>
   </si>
   <si>
     <t xml:space="preserve">SRAD</t>
@@ -2810,6 +2823,30 @@
   </si>
   <si>
     <t xml:space="preserve">STRIPCOMMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDEVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNHIDEVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCKVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLOCKVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUOTEID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNQUOTEID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETBKPOINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLRBKPOINT</t>
   </si>
   <si>
     <t xml:space="preserve">Num</t>
@@ -3112,21 +3149,21 @@
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A863" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B877" activeCellId="0" sqref="B877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3137,14 +3174,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,7 +3190,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.368221941992434</v>
+        <v>0.376738305941846</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,6 +4966,7 @@
       <c r="D82" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F82" s="10"/>
       <c r="G82" s="1"/>
       <c r="I82" s="0" t="n">
         <f aca="false">IF(ISBLANK(B82),0,IF(D82="N/A",0,1))</f>
@@ -5233,18 +5271,18 @@
         <v>121</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>122</v>
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">IF(ISBLANK(B95),0,IF(D95="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="0" t="n">
         <f aca="false">IF(ISBLANK(D95),0,I95)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5693,7 +5731,9 @@
       <c r="D116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="I116" s="0" t="n">
         <f aca="false">IF(ISBLANK(B116),0,IF(D116="N/A",0,1))</f>
         <v>0</v>
@@ -5709,7 +5749,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>142</v>
@@ -5730,7 +5770,7 @@
         <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>54</v>
@@ -5751,7 +5791,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>54</v>
@@ -5772,7 +5812,7 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>83</v>
@@ -5793,7 +5833,7 @@
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>21</v>
@@ -5803,7 +5843,7 @@
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I121" s="0" t="n">
         <f aca="false">IF(ISBLANK(B121),0,IF(D121="N/A",0,1))</f>
@@ -5820,7 +5860,7 @@
         <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>54</v>
@@ -5841,7 +5881,7 @@
         <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>106</v>
@@ -5849,6 +5889,7 @@
       <c r="D123" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F123" s="10"/>
       <c r="G123" s="1"/>
       <c r="I123" s="0" t="n">
         <f aca="false">IF(ISBLANK(B123),0,IF(D123="N/A",0,1))</f>
@@ -5865,7 +5906,7 @@
         <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>142</v>
@@ -5886,7 +5927,7 @@
         <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>26</v>
@@ -5907,7 +5948,7 @@
         <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>108</v>
@@ -5928,10 +5969,10 @@
         <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>12</v>
@@ -5952,10 +5993,10 @@
         <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>12</v>
@@ -5976,7 +6017,7 @@
         <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>54</v>
@@ -5997,7 +6038,7 @@
         <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>21</v>
@@ -6021,7 +6062,7 @@
         <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>26</v>
@@ -6042,7 +6083,7 @@
         <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>46</v>
@@ -6063,7 +6104,7 @@
         <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>108</v>
@@ -6084,16 +6125,16 @@
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I134" s="0" t="n">
         <f aca="false">IF(ISBLANK(B134),0,IF(D134="N/A",0,1))</f>
@@ -6110,7 +6151,7 @@
         <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>142</v>
@@ -6131,7 +6172,7 @@
         <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>83</v>
@@ -6152,7 +6193,7 @@
         <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>100</v>
@@ -6176,7 +6217,7 @@
         <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>83</v>
@@ -6197,7 +6238,7 @@
         <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>54</v>
@@ -6218,7 +6259,7 @@
         <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>83</v>
@@ -6242,10 +6283,13 @@
         <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G141" s="1"/>
       <c r="I141" s="0" t="n">
@@ -6254,7 +6298,7 @@
       </c>
       <c r="J141" s="0" t="n">
         <f aca="false">IF(ISBLANK(D141),0,I141)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6263,7 +6307,7 @@
         <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>142</v>
@@ -6284,7 +6328,7 @@
         <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>108</v>
@@ -6305,7 +6349,7 @@
         <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>46</v>
@@ -6326,7 +6370,7 @@
         <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>46</v>
@@ -6350,7 +6394,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>46</v>
@@ -6374,7 +6418,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>46</v>
@@ -6398,7 +6442,7 @@
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>26</v>
@@ -6419,7 +6463,7 @@
         <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>26</v>
@@ -6440,7 +6484,7 @@
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>142</v>
@@ -6461,7 +6505,7 @@
         <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>142</v>
@@ -6482,7 +6526,7 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>46</v>
@@ -6503,7 +6547,7 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>46</v>
@@ -6524,7 +6568,7 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>54</v>
@@ -6545,7 +6589,7 @@
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>106</v>
@@ -6553,6 +6597,7 @@
       <c r="D155" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F155" s="10"/>
       <c r="G155" s="1"/>
       <c r="I155" s="0" t="n">
         <f aca="false">IF(ISBLANK(B155),0,IF(D155="N/A",0,1))</f>
@@ -6569,7 +6614,7 @@
         <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>108</v>
@@ -6590,7 +6635,7 @@
         <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>77</v>
@@ -6611,7 +6656,7 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>108</v>
@@ -6632,10 +6677,10 @@
         <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>12</v>
@@ -6656,7 +6701,7 @@
         <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>24</v>
@@ -6680,7 +6725,7 @@
         <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>142</v>
@@ -6701,7 +6746,7 @@
         <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>86</v>
@@ -6725,7 +6770,7 @@
         <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>86</v>
@@ -6749,7 +6794,7 @@
         <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>142</v>
@@ -6770,7 +6815,7 @@
         <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>83</v>
@@ -6794,10 +6839,10 @@
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>12</v>
@@ -6818,7 +6863,7 @@
         <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>52</v>
@@ -6842,7 +6887,7 @@
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>46</v>
@@ -6863,7 +6908,7 @@
         <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>46</v>
@@ -6884,7 +6929,7 @@
         <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>26</v>
@@ -6905,7 +6950,7 @@
         <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>26</v>
@@ -6926,7 +6971,7 @@
         <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>108</v>
@@ -6947,7 +6992,7 @@
         <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>86</v>
@@ -6968,10 +7013,10 @@
         <v>168</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G174" s="1"/>
       <c r="I174" s="0" t="n">
@@ -6989,7 +7034,7 @@
         <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>21</v>
@@ -7010,7 +7055,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>49</v>
@@ -7034,10 +7079,10 @@
         <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G177" s="1"/>
       <c r="I177" s="0" t="n">
@@ -7055,7 +7100,7 @@
         <v>172</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>49</v>
@@ -7076,7 +7121,7 @@
         <v>173</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>121</v>
@@ -7084,7 +7129,9 @@
       <c r="D179" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G179" s="1"/>
+      <c r="G179" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="I179" s="0" t="n">
         <f aca="false">IF(ISBLANK(B179),0,IF(D179="N/A",0,1))</f>
         <v>0</v>
@@ -7100,7 +7147,7 @@
         <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>41</v>
@@ -7124,7 +7171,7 @@
         <v>175</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>52</v>
@@ -7148,7 +7195,7 @@
         <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>26</v>
@@ -7169,7 +7216,7 @@
         <v>177</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>26</v>
@@ -7190,7 +7237,7 @@
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>21</v>
@@ -7214,7 +7261,7 @@
         <v>179</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -7235,7 +7282,7 @@
         <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>83</v>
@@ -7256,7 +7303,7 @@
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>83</v>
@@ -7277,7 +7324,7 @@
         <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>83</v>
@@ -7287,7 +7334,7 @@
       </c>
       <c r="F188" s="11"/>
       <c r="G188" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I188" s="0" t="n">
         <f aca="false">IF(ISBLANK(B188),0,IF(D188="N/A",0,1))</f>
@@ -7304,7 +7351,7 @@
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>26</v>
@@ -7325,7 +7372,7 @@
         <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>100</v>
@@ -7349,7 +7396,7 @@
         <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>26</v>
@@ -7370,7 +7417,7 @@
         <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>26</v>
@@ -7391,7 +7438,7 @@
         <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>26</v>
@@ -7412,7 +7459,7 @@
         <v>188</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>46</v>
@@ -7433,7 +7480,7 @@
         <v>189</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>52</v>
@@ -7457,7 +7504,7 @@
         <v>190</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>46</v>
@@ -7478,7 +7525,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>46</v>
@@ -7499,7 +7546,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>108</v>
@@ -7520,7 +7567,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>54</v>
@@ -7541,15 +7588,20 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G200" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="I200" s="0" t="n">
         <f aca="false">IF(ISBLANK(B200),0,IF(D200="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" s="0" t="n">
         <f aca="false">IF(ISBLANK(D200),0,I200)</f>
@@ -7562,7 +7614,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>54</v>
@@ -7583,7 +7635,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>54</v>
@@ -7604,7 +7656,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>26</v>
@@ -7625,7 +7677,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>26</v>
@@ -7646,7 +7698,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>26</v>
@@ -7667,7 +7719,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>26</v>
@@ -7688,7 +7740,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>26</v>
@@ -7709,7 +7761,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>26</v>
@@ -7730,7 +7782,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>26</v>
@@ -7751,10 +7803,10 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>12</v>
@@ -7775,17 +7827,17 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F211" s="11"/>
       <c r="G211" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I211" s="0" t="n">
         <f aca="false">IF(ISBLANK(B211),0,IF(D211="N/A",0,1))</f>
@@ -7802,7 +7854,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>61</v>
@@ -7811,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I212" s="0" t="n">
         <f aca="false">IF(ISBLANK(B212),0,IF(D212="N/A",0,1))</f>
@@ -7828,7 +7880,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>26</v>
@@ -7849,7 +7901,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>61</v>
@@ -7858,7 +7910,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I214" s="0" t="n">
         <f aca="false">IF(ISBLANK(B214),0,IF(D214="N/A",0,1))</f>
@@ -7875,7 +7927,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>46</v>
@@ -7896,7 +7948,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>54</v>
@@ -7917,7 +7969,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>54</v>
@@ -7938,7 +7990,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>54</v>
@@ -7959,7 +8011,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>26</v>
@@ -7980,7 +8032,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>100</v>
@@ -8004,7 +8056,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>100</v>
@@ -8028,7 +8080,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>100</v>
@@ -8052,7 +8104,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>70</v>
@@ -8073,7 +8125,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>100</v>
@@ -8097,7 +8149,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>100</v>
@@ -8121,7 +8173,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>100</v>
@@ -8145,7 +8197,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>100</v>
@@ -8169,7 +8221,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>77</v>
@@ -8190,7 +8242,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>108</v>
@@ -8211,7 +8263,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>108</v>
@@ -8232,7 +8284,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>26</v>
@@ -8253,7 +8305,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>46</v>
@@ -8274,7 +8326,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>46</v>
@@ -8295,10 +8347,10 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>12</v>
@@ -8319,10 +8371,10 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>12</v>
@@ -8343,7 +8395,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>61</v>
@@ -8367,7 +8419,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>108</v>
@@ -8388,7 +8440,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>26</v>
@@ -8409,7 +8461,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>26</v>
@@ -8430,7 +8482,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>108</v>
@@ -8451,7 +8503,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>108</v>
@@ -8472,7 +8524,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>54</v>
@@ -8493,10 +8545,10 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>12</v>
@@ -8518,10 +8570,10 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>12</v>
@@ -8543,10 +8595,10 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>12</v>
@@ -8568,7 +8620,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>15</v>
@@ -8589,7 +8641,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>11</v>
@@ -8613,7 +8665,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>26</v>
@@ -8634,7 +8686,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>86</v>
@@ -8658,7 +8710,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>108</v>
@@ -8679,7 +8731,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>26</v>
@@ -8700,7 +8752,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>26</v>
@@ -8721,7 +8773,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>26</v>
@@ -8742,7 +8794,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>26</v>
@@ -8763,7 +8815,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>26</v>
@@ -8784,7 +8836,7 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>142</v>
@@ -8805,7 +8857,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>26</v>
@@ -8826,7 +8878,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>86</v>
@@ -8847,7 +8899,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>54</v>
@@ -8868,10 +8920,10 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G260" s="1"/>
       <c r="I260" s="0" t="n">
@@ -8889,7 +8941,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>15</v>
@@ -8898,7 +8950,7 @@
         <v>42</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I261" s="0" t="n">
         <f aca="false">IF(ISBLANK(B261),0,IF(D261="N/A",0,1))</f>
@@ -8915,7 +8967,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>26</v>
@@ -8936,7 +8988,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>26</v>
@@ -8957,7 +9009,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>15</v>
@@ -8978,10 +9030,10 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G265" s="1"/>
       <c r="I265" s="0" t="n">
@@ -8999,7 +9051,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>54</v>
@@ -9020,7 +9072,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>21</v>
@@ -9044,7 +9096,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>21</v>
@@ -9068,7 +9120,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>26</v>
@@ -9089,7 +9141,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>26</v>
@@ -9110,7 +9162,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>15</v>
@@ -9131,7 +9183,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>108</v>
@@ -9152,7 +9204,7 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>83</v>
@@ -9173,7 +9225,7 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>83</v>
@@ -9194,7 +9246,7 @@
         <v>269</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>21</v>
@@ -9215,7 +9267,7 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>52</v>
@@ -9239,10 +9291,10 @@
         <v>271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>12</v>
@@ -9263,7 +9315,7 @@
         <v>272</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>108</v>
@@ -9284,7 +9336,7 @@
         <v>273</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>108</v>
@@ -9305,7 +9357,7 @@
         <v>274</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>108</v>
@@ -9326,7 +9378,7 @@
         <v>275</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>108</v>
@@ -9347,10 +9399,10 @@
         <v>276</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>12</v>
@@ -9371,7 +9423,7 @@
         <v>277</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>26</v>
@@ -9392,10 +9444,10 @@
         <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>12</v>
@@ -9416,7 +9468,7 @@
         <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>54</v>
@@ -9437,7 +9489,7 @@
         <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>15</v>
@@ -9458,7 +9510,7 @@
         <v>281</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>21</v>
@@ -9482,7 +9534,7 @@
         <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>21</v>
@@ -9506,7 +9558,7 @@
         <v>283</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>54</v>
@@ -9527,7 +9579,7 @@
         <v>284</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>26</v>
@@ -9548,7 +9600,7 @@
         <v>285</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>15</v>
@@ -9569,7 +9621,7 @@
         <v>286</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>26</v>
@@ -9590,7 +9642,7 @@
         <v>287</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>26</v>
@@ -9611,7 +9663,7 @@
         <v>288</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>15</v>
@@ -9635,7 +9687,7 @@
         <v>289</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>15</v>
@@ -9656,7 +9708,7 @@
         <v>290</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>61</v>
@@ -9680,7 +9732,7 @@
         <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>61</v>
@@ -9704,7 +9756,7 @@
         <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>54</v>
@@ -9725,7 +9777,7 @@
         <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>21</v>
@@ -9749,7 +9801,7 @@
         <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>46</v>
@@ -9770,7 +9822,7 @@
         <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>26</v>
@@ -9791,7 +9843,7 @@
         <v>296</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>54</v>
@@ -9812,7 +9864,7 @@
         <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>54</v>
@@ -9833,7 +9885,7 @@
         <v>298</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>54</v>
@@ -9854,7 +9906,7 @@
         <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>54</v>
@@ -9875,7 +9927,7 @@
         <v>300</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>52</v>
@@ -9899,7 +9951,7 @@
         <v>301</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>52</v>
@@ -9923,7 +9975,7 @@
         <v>302</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>52</v>
@@ -9947,7 +9999,7 @@
         <v>303</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>46</v>
@@ -9968,7 +10020,7 @@
         <v>304</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>26</v>
@@ -9989,10 +10041,10 @@
         <v>305</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>12</v>
@@ -10014,7 +10066,7 @@
         <v>306</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>61</v>
@@ -10038,7 +10090,7 @@
         <v>307</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>54</v>
@@ -10059,7 +10111,7 @@
         <v>308</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>108</v>
@@ -10080,7 +10132,7 @@
         <v>309</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>26</v>
@@ -10101,7 +10153,7 @@
         <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>26</v>
@@ -10122,7 +10174,7 @@
         <v>311</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>121</v>
@@ -10130,7 +10182,9 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G317" s="1"/>
+      <c r="G317" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="I317" s="0" t="n">
         <f aca="false">IF(ISBLANK(B317),0,IF(D317="N/A",0,1))</f>
         <v>0</v>
@@ -10146,7 +10200,7 @@
         <v>312</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>46</v>
@@ -10167,7 +10221,7 @@
         <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>54</v>
@@ -10188,7 +10242,7 @@
         <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>54</v>
@@ -10209,7 +10263,7 @@
         <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>49</v>
@@ -10233,7 +10287,7 @@
         <v>316</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>49</v>
@@ -10257,7 +10311,7 @@
         <v>317</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>49</v>
@@ -10281,10 +10335,10 @@
         <v>318</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>12</v>
@@ -10305,7 +10359,7 @@
         <v>319</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>26</v>
@@ -10326,7 +10380,7 @@
         <v>320</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>77</v>
@@ -10347,7 +10401,7 @@
         <v>321</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>21</v>
@@ -10371,7 +10425,7 @@
         <v>322</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>15</v>
@@ -10392,7 +10446,7 @@
         <v>323</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>46</v>
@@ -10413,7 +10467,7 @@
         <v>324</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>15</v>
@@ -10434,7 +10488,7 @@
         <v>325</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>26</v>
@@ -10455,7 +10509,7 @@
         <v>326</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>15</v>
@@ -10476,7 +10530,7 @@
         <v>327</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>15</v>
@@ -10500,7 +10554,7 @@
         <v>328</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>46</v>
@@ -10521,7 +10575,7 @@
         <v>329</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>15</v>
@@ -10542,10 +10596,10 @@
         <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>12</v>
@@ -10566,10 +10620,10 @@
         <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>12</v>
@@ -10590,7 +10644,7 @@
         <v>332</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>15</v>
@@ -10611,10 +10665,10 @@
         <v>333</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G339" s="1"/>
       <c r="I339" s="0" t="n">
@@ -10632,10 +10686,10 @@
         <v>334</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G340" s="1"/>
       <c r="I340" s="0" t="n">
@@ -10653,7 +10707,7 @@
         <v>335</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>26</v>
@@ -10674,7 +10728,7 @@
         <v>336</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>106</v>
@@ -10682,6 +10736,7 @@
       <c r="D342" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F342" s="10"/>
       <c r="G342" s="1"/>
       <c r="I342" s="0" t="n">
         <f aca="false">IF(ISBLANK(B342),0,IF(D342="N/A",0,1))</f>
@@ -10698,7 +10753,7 @@
         <v>337</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>46</v>
@@ -10719,7 +10774,7 @@
         <v>338</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>41</v>
@@ -10743,7 +10798,7 @@
         <v>339</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>54</v>
@@ -10764,7 +10819,7 @@
         <v>340</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>108</v>
@@ -10785,7 +10840,7 @@
         <v>341</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>108</v>
@@ -10806,7 +10861,7 @@
         <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>26</v>
@@ -10827,7 +10882,7 @@
         <v>343</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>108</v>
@@ -10848,7 +10903,7 @@
         <v>344</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
@@ -10869,7 +10924,7 @@
         <v>345</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>11</v>
@@ -10893,7 +10948,7 @@
         <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>15</v>
@@ -10914,10 +10969,10 @@
         <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>12</v>
@@ -10938,7 +10993,7 @@
         <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>15</v>
@@ -10962,7 +11017,7 @@
         <v>349</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>15</v>
@@ -10983,7 +11038,7 @@
         <v>350</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>26</v>
@@ -11004,7 +11059,7 @@
         <v>351</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>46</v>
@@ -11025,7 +11080,7 @@
         <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>15</v>
@@ -11035,7 +11090,7 @@
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I358" s="0" t="n">
         <f aca="false">IF(ISBLANK(B358),0,IF(D358="N/A",0,1))</f>
@@ -11052,7 +11107,7 @@
         <v>353</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>46</v>
@@ -11073,7 +11128,7 @@
         <v>354</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>46</v>
@@ -11094,7 +11149,7 @@
         <v>355</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>83</v>
@@ -11115,7 +11170,7 @@
         <v>356</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>83</v>
@@ -11136,7 +11191,7 @@
         <v>357</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>83</v>
@@ -11157,7 +11212,7 @@
         <v>358</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>83</v>
@@ -11178,7 +11233,7 @@
         <v>359</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>83</v>
@@ -11202,10 +11257,10 @@
         <v>360</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>12</v>
@@ -11227,7 +11282,7 @@
         <v>361</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>54</v>
@@ -11248,7 +11303,7 @@
         <v>362</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>26</v>
@@ -11269,7 +11324,7 @@
         <v>363</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>21</v>
@@ -11290,7 +11345,7 @@
         <v>364</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>26</v>
@@ -11311,7 +11366,7 @@
         <v>365</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>26</v>
@@ -11332,7 +11387,7 @@
         <v>366</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>21</v>
@@ -11353,7 +11408,7 @@
         <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>21</v>
@@ -11374,7 +11429,7 @@
         <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>54</v>
@@ -11395,7 +11450,7 @@
         <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>15</v>
@@ -11419,7 +11474,7 @@
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>26</v>
@@ -11440,7 +11495,7 @@
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>26</v>
@@ -11461,7 +11516,7 @@
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>26</v>
@@ -11482,7 +11537,7 @@
         <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>15</v>
@@ -11503,7 +11558,7 @@
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>52</v>
@@ -11527,7 +11582,7 @@
         <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>21</v>
@@ -11548,7 +11603,7 @@
         <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>26</v>
@@ -11569,7 +11624,7 @@
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>26</v>
@@ -11590,7 +11645,7 @@
         <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>54</v>
@@ -11611,7 +11666,7 @@
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>142</v>
@@ -11632,7 +11687,7 @@
         <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>26</v>
@@ -11653,7 +11708,7 @@
         <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>26</v>
@@ -11674,7 +11729,7 @@
         <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>61</v>
@@ -11698,7 +11753,7 @@
         <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>86</v>
@@ -11722,7 +11777,7 @@
         <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
@@ -11743,7 +11798,7 @@
         <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
@@ -11764,7 +11819,7 @@
         <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>86</v>
@@ -11785,7 +11840,7 @@
         <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>41</v>
@@ -11809,7 +11864,7 @@
         <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>86</v>
@@ -11830,7 +11885,7 @@
         <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>142</v>
@@ -11851,7 +11906,7 @@
         <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>46</v>
@@ -11872,7 +11927,7 @@
         <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>142</v>
@@ -11893,7 +11948,7 @@
         <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>46</v>
@@ -11914,7 +11969,7 @@
         <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>46</v>
@@ -11935,7 +11990,7 @@
         <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>26</v>
@@ -11956,7 +12011,7 @@
         <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>46</v>
@@ -11977,7 +12032,7 @@
         <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>108</v>
@@ -11998,10 +12053,10 @@
         <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>12</v>
@@ -12022,7 +12077,7 @@
         <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>61</v>
@@ -12046,7 +12101,7 @@
         <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>108</v>
@@ -12067,7 +12122,7 @@
         <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>108</v>
@@ -12088,7 +12143,7 @@
         <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>11</v>
@@ -12109,7 +12164,7 @@
         <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>21</v>
@@ -12130,7 +12185,7 @@
         <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>142</v>
@@ -12151,10 +12206,10 @@
         <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G410" s="1"/>
       <c r="I410" s="0" t="n">
@@ -12172,7 +12227,7 @@
         <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>142</v>
@@ -12193,7 +12248,7 @@
         <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>21</v>
@@ -12203,7 +12258,7 @@
       </c>
       <c r="F412" s="11"/>
       <c r="G412" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I412" s="0" t="n">
         <f aca="false">IF(ISBLANK(B412),0,IF(D412="N/A",0,1))</f>
@@ -12220,7 +12275,7 @@
         <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>108</v>
@@ -12241,7 +12296,7 @@
         <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>108</v>
@@ -12262,7 +12317,7 @@
         <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>11</v>
@@ -12283,7 +12338,7 @@
         <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>52</v>
@@ -12304,7 +12359,7 @@
         <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>52</v>
@@ -12328,10 +12383,10 @@
         <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G418" s="1"/>
       <c r="I418" s="0" t="n">
@@ -12349,7 +12404,7 @@
         <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>21</v>
@@ -12370,7 +12425,7 @@
         <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>142</v>
@@ -12391,10 +12446,10 @@
         <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G421" s="1"/>
       <c r="I421" s="0" t="n">
@@ -12412,7 +12467,7 @@
         <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>46</v>
@@ -12433,7 +12488,7 @@
         <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>15</v>
@@ -12457,7 +12512,7 @@
         <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>15</v>
@@ -12481,7 +12536,7 @@
         <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>108</v>
@@ -12502,10 +12557,10 @@
         <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G426" s="1"/>
       <c r="I426" s="0" t="n">
@@ -12523,10 +12578,10 @@
         <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G427" s="1"/>
       <c r="I427" s="0" t="n">
@@ -12544,7 +12599,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>108</v>
@@ -12565,10 +12620,10 @@
         <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G429" s="1"/>
       <c r="I429" s="0" t="n">
@@ -12586,10 +12641,10 @@
         <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G430" s="1"/>
       <c r="I430" s="0" t="n">
@@ -12607,7 +12662,7 @@
         <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>15</v>
@@ -12631,10 +12686,10 @@
         <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G432" s="1"/>
       <c r="I432" s="0" t="n">
@@ -12652,7 +12707,7 @@
         <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>142</v>
@@ -12673,7 +12728,7 @@
         <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>100</v>
@@ -12697,7 +12752,7 @@
         <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>11</v>
@@ -12721,7 +12776,7 @@
         <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>21</v>
@@ -12746,10 +12801,10 @@
         <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>12</v>
@@ -12770,7 +12825,7 @@
         <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>15</v>
@@ -12795,7 +12850,7 @@
         <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>100</v>
@@ -12819,7 +12874,7 @@
         <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>97</v>
@@ -12843,7 +12898,7 @@
         <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>108</v>
@@ -12864,7 +12919,7 @@
         <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>61</v>
@@ -12888,16 +12943,16 @@
         <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I443" s="0" t="n">
         <f aca="false">IF(ISBLANK(B443),0,IF(D443="N/A",0,1))</f>
@@ -12914,7 +12969,7 @@
         <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>54</v>
@@ -12935,7 +12990,7 @@
         <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>54</v>
@@ -12956,7 +13011,7 @@
         <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>11</v>
@@ -12977,7 +13032,7 @@
         <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>21</v>
@@ -13001,7 +13056,7 @@
         <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>21</v>
@@ -13022,7 +13077,7 @@
         <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>83</v>
@@ -13046,7 +13101,7 @@
         <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>83</v>
@@ -13070,7 +13125,7 @@
         <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>97</v>
@@ -13094,7 +13149,7 @@
         <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>41</v>
@@ -13118,7 +13173,7 @@
         <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>100</v>
@@ -13142,7 +13197,7 @@
         <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>15</v>
@@ -13163,7 +13218,7 @@
         <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>15</v>
@@ -13184,7 +13239,7 @@
         <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>54</v>
@@ -13205,7 +13260,7 @@
         <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>83</v>
@@ -13229,7 +13284,7 @@
         <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>54</v>
@@ -13250,7 +13305,7 @@
         <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>26</v>
@@ -13271,10 +13326,10 @@
         <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>12</v>
@@ -13295,7 +13350,7 @@
         <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>26</v>
@@ -13316,7 +13371,7 @@
         <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>15</v>
@@ -13340,7 +13395,7 @@
         <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>54</v>
@@ -13361,7 +13416,7 @@
         <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>142</v>
@@ -13382,7 +13437,7 @@
         <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>54</v>
@@ -13403,7 +13458,7 @@
         <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>52</v>
@@ -13412,7 +13467,7 @@
         <v>12</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I466" s="0" t="n">
         <f aca="false">IF(ISBLANK(B466),0,IF(D466="N/A",0,1))</f>
@@ -13429,7 +13484,7 @@
         <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>52</v>
@@ -13453,10 +13508,10 @@
         <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G468" s="1"/>
       <c r="I468" s="0" t="n">
@@ -13474,7 +13529,7 @@
         <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>142</v>
@@ -13495,10 +13550,10 @@
         <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G470" s="1"/>
       <c r="I470" s="0" t="n">
@@ -13516,7 +13571,7 @@
         <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>15</v>
@@ -13540,10 +13595,10 @@
         <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>12</v>
@@ -13564,7 +13619,7 @@
         <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>100</v>
@@ -13588,7 +13643,7 @@
         <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>100</v>
@@ -13612,7 +13667,7 @@
         <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>54</v>
@@ -13633,7 +13688,7 @@
         <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>108</v>
@@ -13654,7 +13709,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>52</v>
@@ -13678,7 +13733,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>54</v>
@@ -13699,7 +13754,7 @@
         <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>54</v>
@@ -13720,7 +13775,7 @@
         <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>54</v>
@@ -13741,7 +13796,7 @@
         <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>83</v>
@@ -13765,7 +13820,7 @@
         <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>54</v>
@@ -13786,7 +13841,7 @@
         <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>54</v>
@@ -13807,7 +13862,7 @@
         <v>478</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>54</v>
@@ -13828,7 +13883,7 @@
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>54</v>
@@ -13849,7 +13904,7 @@
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>46</v>
@@ -13870,7 +13925,7 @@
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>52</v>
@@ -13879,7 +13934,7 @@
         <v>12</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I487" s="0" t="n">
         <f aca="false">IF(ISBLANK(B487),0,IF(D487="N/A",0,1))</f>
@@ -13896,7 +13951,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>52</v>
@@ -13920,7 +13975,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>54</v>
@@ -13941,7 +13996,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>108</v>
@@ -13962,7 +14017,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>21</v>
@@ -13983,10 +14038,10 @@
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G492" s="1"/>
       <c r="I492" s="0" t="n">
@@ -14004,7 +14059,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>26</v>
@@ -14025,7 +14080,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>26</v>
@@ -14046,7 +14101,7 @@
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>15</v>
@@ -14071,7 +14126,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>83</v>
@@ -14095,7 +14150,7 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>142</v>
@@ -14116,7 +14171,7 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>142</v>
@@ -14137,7 +14192,7 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>142</v>
@@ -14158,7 +14213,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>26</v>
@@ -14179,7 +14234,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>15</v>
@@ -14200,7 +14255,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>83</v>
@@ -14224,7 +14279,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>108</v>
@@ -14245,7 +14300,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>108</v>
@@ -14266,7 +14321,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>15</v>
@@ -14287,7 +14342,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>26</v>
@@ -14308,7 +14363,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>83</v>
@@ -14332,7 +14387,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>83</v>
@@ -14356,7 +14411,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>83</v>
@@ -14380,7 +14435,7 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>142</v>
@@ -14401,7 +14456,7 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>15</v>
@@ -14422,7 +14477,7 @@
         <v>506</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>26</v>
@@ -14443,7 +14498,7 @@
         <v>507</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>26</v>
@@ -14464,10 +14519,10 @@
         <v>508</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G514" s="1"/>
       <c r="I514" s="0" t="n">
@@ -14485,7 +14540,7 @@
         <v>509</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>41</v>
@@ -14509,7 +14564,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>21</v>
@@ -14530,7 +14585,7 @@
         <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>61</v>
@@ -14554,7 +14609,7 @@
         <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>61</v>
@@ -14578,7 +14633,7 @@
         <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>142</v>
@@ -14599,7 +14654,7 @@
         <v>514</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>52</v>
@@ -14623,7 +14678,7 @@
         <v>515</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>54</v>
@@ -14644,7 +14699,7 @@
         <v>516</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>142</v>
@@ -14665,7 +14720,7 @@
         <v>517</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>54</v>
@@ -14686,7 +14741,7 @@
         <v>518</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>46</v>
@@ -14707,10 +14762,10 @@
         <v>519</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G525" s="1"/>
       <c r="I525" s="0" t="n">
@@ -14728,7 +14783,7 @@
         <v>520</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>15</v>
@@ -14749,7 +14804,7 @@
         <v>521</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>26</v>
@@ -14770,7 +14825,7 @@
         <v>522</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>26</v>
@@ -14791,7 +14846,7 @@
         <v>523</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>21</v>
@@ -14815,7 +14870,7 @@
         <v>524</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>106</v>
@@ -14823,6 +14878,7 @@
       <c r="D530" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F530" s="10"/>
       <c r="G530" s="1"/>
       <c r="I530" s="0" t="n">
         <f aca="false">IF(ISBLANK(B530),0,IF(D530="N/A",0,1))</f>
@@ -14839,7 +14895,7 @@
         <v>525</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>86</v>
@@ -14860,7 +14916,7 @@
         <v>526</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>21</v>
@@ -14884,7 +14940,7 @@
         <v>527</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>21</v>
@@ -14908,7 +14964,7 @@
         <v>528</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>142</v>
@@ -14929,7 +14985,7 @@
         <v>529</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>46</v>
@@ -14950,7 +15006,7 @@
         <v>530</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>46</v>
@@ -14971,7 +15027,7 @@
         <v>531</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>26</v>
@@ -14992,7 +15048,7 @@
         <v>532</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>41</v>
@@ -15013,7 +15069,7 @@
         <v>533</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>46</v>
@@ -15034,7 +15090,7 @@
         <v>534</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>46</v>
@@ -15055,7 +15111,7 @@
         <v>535</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>41</v>
@@ -15079,7 +15135,7 @@
         <v>536</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>83</v>
@@ -15100,7 +15156,7 @@
         <v>537</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>21</v>
@@ -15121,7 +15177,7 @@
         <v>538</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>21</v>
@@ -15131,7 +15187,7 @@
       </c>
       <c r="F544" s="11"/>
       <c r="G544" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I544" s="0" t="n">
         <f aca="false">IF(ISBLANK(B544),0,IF(D544="N/A",0,1))</f>
@@ -15148,7 +15204,7 @@
         <v>539</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>108</v>
@@ -15169,7 +15225,7 @@
         <v>540</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>26</v>
@@ -15190,7 +15246,7 @@
         <v>541</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>142</v>
@@ -15211,7 +15267,7 @@
         <v>542</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>121</v>
@@ -15219,6 +15275,7 @@
       <c r="D548" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F548" s="10"/>
       <c r="G548" s="1"/>
       <c r="I548" s="0" t="n">
         <f aca="false">IF(ISBLANK(B548),0,IF(D548="N/A",0,1))</f>
@@ -15235,7 +15292,7 @@
         <v>543</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>46</v>
@@ -15256,7 +15313,7 @@
         <v>544</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>142</v>
@@ -15277,7 +15334,7 @@
         <v>545</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>106</v>
@@ -15285,6 +15342,7 @@
       <c r="D551" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F551" s="10"/>
       <c r="G551" s="1"/>
       <c r="I551" s="0" t="n">
         <f aca="false">IF(ISBLANK(B551),0,IF(D551="N/A",0,1))</f>
@@ -15301,7 +15359,7 @@
         <v>546</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>83</v>
@@ -15325,7 +15383,7 @@
         <v>547</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>21</v>
@@ -15334,7 +15392,7 @@
         <v>42</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I553" s="0" t="n">
         <f aca="false">IF(ISBLANK(B553),0,IF(D553="N/A",0,1))</f>
@@ -15351,7 +15409,7 @@
         <v>548</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>83</v>
@@ -15375,7 +15433,7 @@
         <v>549</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>46</v>
@@ -15396,7 +15454,7 @@
         <v>550</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>26</v>
@@ -15417,7 +15475,7 @@
         <v>551</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>41</v>
@@ -15438,7 +15496,7 @@
         <v>552</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>26</v>
@@ -15459,10 +15517,10 @@
         <v>553</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>12</v>
@@ -15483,10 +15541,10 @@
         <v>554</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G560" s="1"/>
       <c r="I560" s="0" t="n">
@@ -15504,7 +15562,7 @@
         <v>555</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>54</v>
@@ -15525,7 +15583,7 @@
         <v>556</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>21</v>
@@ -15546,7 +15604,7 @@
         <v>557</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>26</v>
@@ -15567,7 +15625,7 @@
         <v>558</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>61</v>
@@ -15591,7 +15649,7 @@
         <v>559</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>108</v>
@@ -15612,7 +15670,7 @@
         <v>560</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>26</v>
@@ -15633,10 +15691,10 @@
         <v>561</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G567" s="1"/>
       <c r="I567" s="0" t="n">
@@ -15654,10 +15712,10 @@
         <v>562</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G568" s="1"/>
       <c r="I568" s="0" t="n">
@@ -15675,10 +15733,10 @@
         <v>563</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="G569" s="1"/>
       <c r="I569" s="0" t="n">
@@ -15696,15 +15754,20 @@
         <v>564</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G570" s="1"/>
+      <c r="D570" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="I570" s="0" t="n">
         <f aca="false">IF(ISBLANK(B570),0,IF(D570="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J570" s="0" t="n">
         <f aca="false">IF(ISBLANK(D570),0,I570)</f>
@@ -15717,15 +15780,20 @@
         <v>565</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G571" s="1"/>
+      <c r="D571" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="I571" s="0" t="n">
         <f aca="false">IF(ISBLANK(B571),0,IF(D571="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" s="0" t="n">
         <f aca="false">IF(ISBLANK(D571),0,I571)</f>
@@ -15738,10 +15806,10 @@
         <v>566</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G572" s="1"/>
       <c r="I572" s="0" t="n">
@@ -15759,7 +15827,7 @@
         <v>567</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>46</v>
@@ -15780,7 +15848,7 @@
         <v>568</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>100</v>
@@ -15804,7 +15872,7 @@
         <v>569</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>100</v>
@@ -15828,10 +15896,10 @@
         <v>570</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G576" s="1"/>
       <c r="I576" s="0" t="n">
@@ -15849,7 +15917,7 @@
         <v>571</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>100</v>
@@ -15873,7 +15941,7 @@
         <v>572</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>46</v>
@@ -15897,7 +15965,7 @@
         <v>573</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>46</v>
@@ -15921,7 +15989,7 @@
         <v>574</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>46</v>
@@ -15945,7 +16013,7 @@
         <v>575</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>21</v>
@@ -15969,15 +16037,20 @@
         <v>576</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G582" s="1"/>
+      <c r="D582" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="I582" s="0" t="n">
         <f aca="false">IF(ISBLANK(B582),0,IF(D582="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J582" s="0" t="n">
         <f aca="false">IF(ISBLANK(D582),0,I582)</f>
@@ -15990,15 +16063,20 @@
         <v>577</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G583" s="1"/>
+      <c r="D583" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="I583" s="0" t="n">
         <f aca="false">IF(ISBLANK(B583),0,IF(D583="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J583" s="0" t="n">
         <f aca="false">IF(ISBLANK(D583),0,I583)</f>
@@ -16011,7 +16089,7 @@
         <v>578</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>46</v>
@@ -16032,7 +16110,7 @@
         <v>579</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>46</v>
@@ -16053,10 +16131,10 @@
         <v>580</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G586" s="1"/>
       <c r="I586" s="0" t="n">
@@ -16074,10 +16152,10 @@
         <v>581</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G587" s="1"/>
       <c r="I587" s="0" t="n">
@@ -16095,10 +16173,10 @@
         <v>582</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G588" s="1"/>
       <c r="I588" s="0" t="n">
@@ -16116,7 +16194,7 @@
         <v>583</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>46</v>
@@ -16137,7 +16215,7 @@
         <v>584</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>46</v>
@@ -16158,7 +16236,7 @@
         <v>585</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>52</v>
@@ -16182,7 +16260,7 @@
         <v>586</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>11</v>
@@ -16206,7 +16284,7 @@
         <v>587</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>83</v>
@@ -16230,7 +16308,7 @@
         <v>588</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>54</v>
@@ -16251,7 +16329,7 @@
         <v>589</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>54</v>
@@ -16272,7 +16350,7 @@
         <v>590</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>54</v>
@@ -16293,7 +16371,7 @@
         <v>591</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>54</v>
@@ -16314,7 +16392,7 @@
         <v>592</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>54</v>
@@ -16335,7 +16413,7 @@
         <v>593</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>46</v>
@@ -16356,7 +16434,7 @@
         <v>594</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>21</v>
@@ -16377,7 +16455,7 @@
         <v>595</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>54</v>
@@ -16398,7 +16476,7 @@
         <v>596</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>41</v>
@@ -16422,7 +16500,7 @@
         <v>597</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>54</v>
@@ -16443,7 +16521,7 @@
         <v>598</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>142</v>
@@ -16464,7 +16542,7 @@
         <v>599</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>83</v>
@@ -16488,7 +16566,7 @@
         <v>600</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>61</v>
@@ -16509,7 +16587,7 @@
         <v>601</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>26</v>
@@ -16530,7 +16608,7 @@
         <v>602</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>83</v>
@@ -16554,7 +16632,7 @@
         <v>603</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>26</v>
@@ -16575,7 +16653,7 @@
         <v>604</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>21</v>
@@ -16599,7 +16677,7 @@
         <v>605</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>26</v>
@@ -16620,10 +16698,10 @@
         <v>606</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G612" s="1"/>
       <c r="I612" s="0" t="n">
@@ -16641,7 +16719,7 @@
         <v>607</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>26</v>
@@ -16662,7 +16740,7 @@
         <v>608</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>26</v>
@@ -16683,7 +16761,7 @@
         <v>609</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>15</v>
@@ -16708,7 +16786,7 @@
         <v>610</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>54</v>
@@ -16729,7 +16807,7 @@
         <v>611</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>26</v>
@@ -16750,7 +16828,7 @@
         <v>612</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>26</v>
@@ -16771,7 +16849,7 @@
         <v>613</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>86</v>
@@ -16795,7 +16873,7 @@
         <v>614</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>26</v>
@@ -16816,7 +16894,7 @@
         <v>615</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>86</v>
@@ -16840,7 +16918,7 @@
         <v>616</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>41</v>
@@ -16864,7 +16942,7 @@
         <v>617</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>21</v>
@@ -16885,24 +16963,24 @@
         <v>618</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="I624" s="0" t="n">
         <f aca="false">IF(ISBLANK(B624),0,IF(D624="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J624" s="0" t="n">
         <f aca="false">IF(ISBLANK(D624),0,I624)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16911,15 +16989,20 @@
         <v>619</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G625" s="1"/>
+      <c r="D625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="I625" s="0" t="n">
         <f aca="false">IF(ISBLANK(B625),0,IF(D625="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J625" s="0" t="n">
         <f aca="false">IF(ISBLANK(D625),0,I625)</f>
@@ -16932,7 +17015,7 @@
         <v>620</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>54</v>
@@ -16953,7 +17036,7 @@
         <v>621</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>41</v>
@@ -16977,7 +17060,7 @@
         <v>622</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>46</v>
@@ -16998,10 +17081,10 @@
         <v>623</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G629" s="1"/>
       <c r="I629" s="0" t="n">
@@ -17019,10 +17102,10 @@
         <v>624</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G630" s="1"/>
       <c r="I630" s="0" t="n">
@@ -17040,7 +17123,7 @@
         <v>625</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>108</v>
@@ -17061,7 +17144,7 @@
         <v>626</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>26</v>
@@ -17082,7 +17165,7 @@
         <v>627</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>61</v>
@@ -17106,7 +17189,7 @@
         <v>628</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>21</v>
@@ -17115,7 +17198,7 @@
         <v>42</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I634" s="0" t="n">
         <f aca="false">IF(ISBLANK(B634),0,IF(D634="N/A",0,1))</f>
@@ -17132,7 +17215,7 @@
         <v>629</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>11</v>
@@ -17156,24 +17239,24 @@
         <v>630</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="I636" s="0" t="n">
         <f aca="false">IF(ISBLANK(B636),0,IF(D636="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J636" s="0" t="n">
         <f aca="false">IF(ISBLANK(D636),0,I636)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17182,7 +17265,7 @@
         <v>631</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>46</v>
@@ -17203,15 +17286,20 @@
         <v>632</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G638" s="1"/>
+      <c r="D638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="I638" s="0" t="n">
         <f aca="false">IF(ISBLANK(B638),0,IF(D638="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J638" s="0" t="n">
         <f aca="false">IF(ISBLANK(D638),0,I638)</f>
@@ -17224,7 +17312,7 @@
         <v>633</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>83</v>
@@ -17248,10 +17336,10 @@
         <v>634</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G640" s="1"/>
       <c r="I640" s="0" t="n">
@@ -17269,10 +17357,10 @@
         <v>635</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>12</v>
@@ -17293,7 +17381,7 @@
         <v>636</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>21</v>
@@ -17314,10 +17402,10 @@
         <v>637</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D643" s="1" t="s">
         <v>12</v>
@@ -17338,7 +17426,7 @@
         <v>638</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>41</v>
@@ -17359,7 +17447,7 @@
         <v>639</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>83</v>
@@ -17383,7 +17471,7 @@
         <v>640</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>41</v>
@@ -17407,7 +17495,7 @@
         <v>641</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>41</v>
@@ -17431,7 +17519,7 @@
         <v>642</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>41</v>
@@ -17455,7 +17543,7 @@
         <v>643</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>41</v>
@@ -17479,7 +17567,7 @@
         <v>644</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>41</v>
@@ -17503,7 +17591,7 @@
         <v>645</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>83</v>
@@ -17524,7 +17612,7 @@
         <v>646</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>21</v>
@@ -17545,7 +17633,7 @@
         <v>647</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>21</v>
@@ -17555,7 +17643,7 @@
       </c>
       <c r="F653" s="11"/>
       <c r="G653" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I653" s="0" t="n">
         <f aca="false">IF(ISBLANK(B653),0,IF(D653="N/A",0,1))</f>
@@ -17572,7 +17660,7 @@
         <v>648</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>26</v>
@@ -17593,7 +17681,7 @@
         <v>649</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>26</v>
@@ -17614,7 +17702,7 @@
         <v>650</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>142</v>
@@ -17635,7 +17723,7 @@
         <v>651</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>21</v>
@@ -17659,7 +17747,7 @@
         <v>652</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>61</v>
@@ -17683,7 +17771,7 @@
         <v>653</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>26</v>
@@ -17704,7 +17792,7 @@
         <v>654</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>26</v>
@@ -17725,7 +17813,7 @@
         <v>655</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>121</v>
@@ -17733,6 +17821,7 @@
       <c r="D661" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F661" s="10"/>
       <c r="G661" s="1"/>
       <c r="I661" s="0" t="n">
         <f aca="false">IF(ISBLANK(B661),0,IF(D661="N/A",0,1))</f>
@@ -17749,7 +17838,7 @@
         <v>656</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>11</v>
@@ -17770,7 +17859,7 @@
         <v>657</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>26</v>
@@ -17791,7 +17880,7 @@
         <v>658</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>15</v>
@@ -17815,7 +17904,7 @@
         <v>659</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>46</v>
@@ -17836,7 +17925,7 @@
         <v>660</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>46</v>
@@ -17857,7 +17946,7 @@
         <v>661</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>100</v>
@@ -17881,7 +17970,7 @@
         <v>662</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>46</v>
@@ -17902,7 +17991,7 @@
         <v>663</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>52</v>
@@ -17926,7 +18015,7 @@
         <v>664</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>26</v>
@@ -17947,7 +18036,7 @@
         <v>665</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>26</v>
@@ -17968,7 +18057,7 @@
         <v>666</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>26</v>
@@ -17989,7 +18078,7 @@
         <v>667</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>61</v>
@@ -18013,7 +18102,7 @@
         <v>668</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>86</v>
@@ -18037,7 +18126,7 @@
         <v>669</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>26</v>
@@ -18058,7 +18147,7 @@
         <v>670</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>26</v>
@@ -18079,7 +18168,7 @@
         <v>671</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>26</v>
@@ -18100,7 +18189,7 @@
         <v>672</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>86</v>
@@ -18124,7 +18213,7 @@
         <v>673</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>26</v>
@@ -18145,7 +18234,7 @@
         <v>674</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>26</v>
@@ -18166,7 +18255,7 @@
         <v>675</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>26</v>
@@ -18187,7 +18276,7 @@
         <v>676</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>26</v>
@@ -18208,16 +18297,16 @@
         <v>677</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="I683" s="0" t="n">
         <f aca="false">IF(ISBLANK(B683),0,IF(D683="N/A",0,1))</f>
@@ -18234,7 +18323,7 @@
         <v>678</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>108</v>
@@ -18255,7 +18344,7 @@
         <v>679</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>21</v>
@@ -18276,7 +18365,7 @@
         <v>680</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>26</v>
@@ -18297,7 +18386,7 @@
         <v>681</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>54</v>
@@ -18318,10 +18407,10 @@
         <v>682</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>12</v>
@@ -18342,7 +18431,7 @@
         <v>683</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>21</v>
@@ -18366,7 +18455,7 @@
         <v>684</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>49</v>
@@ -18390,16 +18479,16 @@
         <v>685</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="I691" s="0" t="n">
         <f aca="false">IF(ISBLANK(B691),0,IF(D691="N/A",0,1))</f>
@@ -18416,7 +18505,7 @@
         <v>686</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>26</v>
@@ -18437,7 +18526,7 @@
         <v>687</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>54</v>
@@ -18458,7 +18547,7 @@
         <v>688</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>108</v>
@@ -18479,7 +18568,7 @@
         <v>689</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>142</v>
@@ -18500,7 +18589,7 @@
         <v>690</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>46</v>
@@ -18521,7 +18610,7 @@
         <v>691</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>46</v>
@@ -18542,7 +18631,7 @@
         <v>692</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>83</v>
@@ -18566,7 +18655,7 @@
         <v>693</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>26</v>
@@ -18587,7 +18676,7 @@
         <v>694</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>26</v>
@@ -18608,7 +18697,7 @@
         <v>695</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>108</v>
@@ -18629,7 +18718,7 @@
         <v>696</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>26</v>
@@ -18650,7 +18739,7 @@
         <v>697</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>26</v>
@@ -18671,7 +18760,7 @@
         <v>698</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>46</v>
@@ -18692,10 +18781,10 @@
         <v>699</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G705" s="1"/>
       <c r="I705" s="0" t="n">
@@ -18713,7 +18802,7 @@
         <v>700</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>26</v>
@@ -18734,7 +18823,7 @@
         <v>701</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>54</v>
@@ -18755,7 +18844,7 @@
         <v>702</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>26</v>
@@ -18776,7 +18865,7 @@
         <v>703</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>49</v>
@@ -18797,7 +18886,7 @@
         <v>704</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>41</v>
@@ -18818,7 +18907,7 @@
         <v>705</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>108</v>
@@ -18839,7 +18928,7 @@
         <v>706</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>95</v>
@@ -18860,7 +18949,7 @@
         <v>707</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>95</v>
@@ -18881,7 +18970,7 @@
         <v>708</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>95</v>
@@ -18902,7 +18991,7 @@
         <v>709</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>21</v>
@@ -18923,7 +19012,7 @@
         <v>710</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>24</v>
@@ -18947,7 +19036,7 @@
         <v>711</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>24</v>
@@ -18971,7 +19060,7 @@
         <v>712</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>52</v>
@@ -18995,7 +19084,7 @@
         <v>713</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>41</v>
@@ -19016,7 +19105,7 @@
         <v>714</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>26</v>
@@ -19037,7 +19126,7 @@
         <v>715</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>41</v>
@@ -19061,7 +19150,7 @@
         <v>716</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>100</v>
@@ -19085,7 +19174,7 @@
         <v>717</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>100</v>
@@ -19109,10 +19198,10 @@
         <v>718</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D724" s="1" t="s">
         <v>12</v>
@@ -19133,10 +19222,10 @@
         <v>719</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>12</v>
@@ -19157,7 +19246,7 @@
         <v>720</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>142</v>
@@ -19178,7 +19267,7 @@
         <v>721</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>142</v>
@@ -19199,7 +19288,7 @@
         <v>722</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>142</v>
@@ -19220,7 +19309,7 @@
         <v>723</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>142</v>
@@ -19241,7 +19330,7 @@
         <v>724</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>24</v>
@@ -19265,7 +19354,7 @@
         <v>725</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>46</v>
@@ -19286,7 +19375,7 @@
         <v>726</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>46</v>
@@ -19307,7 +19396,7 @@
         <v>727</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>142</v>
@@ -19328,7 +19417,7 @@
         <v>728</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>41</v>
@@ -19352,7 +19441,7 @@
         <v>729</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>21</v>
@@ -19373,7 +19462,7 @@
         <v>730</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>21</v>
@@ -19397,7 +19486,7 @@
         <v>731</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>21</v>
@@ -19418,7 +19507,7 @@
         <v>732</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>21</v>
@@ -19439,7 +19528,7 @@
         <v>733</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>26</v>
@@ -19460,7 +19549,7 @@
         <v>734</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>21</v>
@@ -19481,7 +19570,7 @@
         <v>735</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>108</v>
@@ -19502,10 +19591,10 @@
         <v>736</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>12</v>
@@ -19526,7 +19615,7 @@
         <v>737</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>54</v>
@@ -19547,7 +19636,7 @@
         <v>738</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>52</v>
@@ -19568,7 +19657,7 @@
         <v>739</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>142</v>
@@ -19589,7 +19678,7 @@
         <v>740</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>83</v>
@@ -19613,7 +19702,7 @@
         <v>741</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>83</v>
@@ -19637,7 +19726,7 @@
         <v>742</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>61</v>
@@ -19658,7 +19747,7 @@
         <v>743</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>97</v>
@@ -19682,10 +19771,10 @@
         <v>744</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D750" s="1" t="s">
         <v>12</v>
@@ -19706,7 +19795,7 @@
         <v>745</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>83</v>
@@ -19730,7 +19819,7 @@
         <v>746</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>26</v>
@@ -19751,7 +19840,7 @@
         <v>747</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>83</v>
@@ -19775,7 +19864,7 @@
         <v>748</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>54</v>
@@ -19796,7 +19885,7 @@
         <v>749</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>11</v>
@@ -19820,7 +19909,7 @@
         <v>750</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>83</v>
@@ -19844,7 +19933,7 @@
         <v>751</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>83</v>
@@ -19868,7 +19957,7 @@
         <v>752</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>54</v>
@@ -19889,7 +19978,7 @@
         <v>753</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>54</v>
@@ -19910,7 +19999,7 @@
         <v>754</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>142</v>
@@ -19931,7 +20020,7 @@
         <v>755</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>54</v>
@@ -19952,7 +20041,7 @@
         <v>756</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>54</v>
@@ -19973,7 +20062,7 @@
         <v>757</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>54</v>
@@ -19994,7 +20083,7 @@
         <v>758</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>54</v>
@@ -20015,7 +20104,7 @@
         <v>759</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>26</v>
@@ -20036,10 +20125,10 @@
         <v>760</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G766" s="1"/>
       <c r="I766" s="0" t="n">
@@ -20057,7 +20146,7 @@
         <v>761</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>54</v>
@@ -20078,7 +20167,7 @@
         <v>762</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>61</v>
@@ -20102,7 +20191,7 @@
         <v>763</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>77</v>
@@ -20123,7 +20212,7 @@
         <v>764</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>61</v>
@@ -20132,7 +20221,7 @@
         <v>12</v>
       </c>
       <c r="G770" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="I770" s="0" t="n">
         <f aca="false">IF(ISBLANK(B770),0,IF(D770="N/A",0,1))</f>
@@ -20149,7 +20238,7 @@
         <v>765</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>26</v>
@@ -20170,7 +20259,7 @@
         <v>766</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>26</v>
@@ -20191,7 +20280,7 @@
         <v>767</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>26</v>
@@ -20212,7 +20301,7 @@
         <v>768</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>142</v>
@@ -20233,7 +20322,7 @@
         <v>769</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>61</v>
@@ -20242,7 +20331,7 @@
         <v>12</v>
       </c>
       <c r="G775" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="I775" s="0" t="n">
         <f aca="false">IF(ISBLANK(B775),0,IF(D775="N/A",0,1))</f>
@@ -20259,7 +20348,7 @@
         <v>770</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>142</v>
@@ -20280,7 +20369,7 @@
         <v>771</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>142</v>
@@ -20301,7 +20390,7 @@
         <v>772</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>142</v>
@@ -20322,7 +20411,7 @@
         <v>773</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>142</v>
@@ -20343,7 +20432,7 @@
         <v>774</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>142</v>
@@ -20364,7 +20453,7 @@
         <v>775</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>142</v>
@@ -20385,7 +20474,7 @@
         <v>776</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>142</v>
@@ -20406,7 +20495,7 @@
         <v>777</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>142</v>
@@ -20427,13 +20516,13 @@
         <v>778</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G784" s="1"/>
       <c r="I784" s="0" t="n">
@@ -20451,13 +20540,13 @@
         <v>779</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G785" s="1"/>
       <c r="I785" s="0" t="n">
@@ -20475,13 +20564,13 @@
         <v>780</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G786" s="1"/>
       <c r="I786" s="0" t="n">
@@ -20499,13 +20588,13 @@
         <v>781</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G787" s="1"/>
       <c r="I787" s="0" t="n">
@@ -20523,13 +20612,13 @@
         <v>782</v>
       </c>
       <c r="B788" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D788" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C788" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D788" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="G788" s="1"/>
       <c r="I788" s="0" t="n">
@@ -20547,13 +20636,13 @@
         <v>783</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G789" s="1"/>
       <c r="I789" s="0" t="n">
@@ -20571,13 +20660,13 @@
         <v>784</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G790" s="1"/>
       <c r="I790" s="0" t="n">
@@ -20595,13 +20684,13 @@
         <v>785</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G791" s="1"/>
       <c r="I791" s="0" t="n">
@@ -20619,13 +20708,13 @@
         <v>786</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G792" s="1"/>
       <c r="I792" s="0" t="n">
@@ -20643,13 +20732,13 @@
         <v>787</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G793" s="1"/>
       <c r="I793" s="0" t="n">
@@ -20667,13 +20756,13 @@
         <v>788</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G794" s="1"/>
       <c r="I794" s="0" t="n">
@@ -20691,13 +20780,13 @@
         <v>789</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G795" s="1"/>
       <c r="I795" s="0" t="n">
@@ -20715,13 +20804,13 @@
         <v>790</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G796" s="1"/>
       <c r="I796" s="0" t="n">
@@ -20739,13 +20828,13 @@
         <v>791</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G797" s="1"/>
       <c r="I797" s="0" t="n">
@@ -20763,13 +20852,13 @@
         <v>792</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G798" s="1"/>
       <c r="I798" s="0" t="n">
@@ -20787,13 +20876,13 @@
         <v>793</v>
       </c>
       <c r="B799" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C799" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C799" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="D799" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G799" s="1"/>
       <c r="I799" s="0" t="n">
@@ -20811,13 +20900,13 @@
         <v>794</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G800" s="1"/>
       <c r="I800" s="0" t="n">
@@ -20835,13 +20924,13 @@
         <v>795</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G801" s="1"/>
       <c r="I801" s="0" t="n">
@@ -20859,13 +20948,13 @@
         <v>796</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G802" s="1"/>
       <c r="I802" s="0" t="n">
@@ -20883,13 +20972,13 @@
         <v>797</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G803" s="1"/>
       <c r="I803" s="0" t="n">
@@ -20907,13 +20996,13 @@
         <v>798</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G804" s="1"/>
       <c r="I804" s="0" t="n">
@@ -20931,13 +21020,13 @@
         <v>799</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G805" s="1"/>
       <c r="I805" s="0" t="n">
@@ -20955,13 +21044,13 @@
         <v>800</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G806" s="1"/>
       <c r="I806" s="0" t="n">
@@ -20979,13 +21068,13 @@
         <v>801</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G807" s="1"/>
       <c r="I807" s="0" t="n">
@@ -21003,13 +21092,13 @@
         <v>802</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G808" s="1"/>
       <c r="I808" s="0" t="n">
@@ -21027,13 +21116,13 @@
         <v>803</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G809" s="1"/>
       <c r="I809" s="0" t="n">
@@ -21051,13 +21140,13 @@
         <v>804</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G810" s="1"/>
       <c r="I810" s="0" t="n">
@@ -21075,13 +21164,13 @@
         <v>805</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G811" s="1"/>
       <c r="I811" s="0" t="n">
@@ -21099,13 +21188,13 @@
         <v>806</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G812" s="1"/>
       <c r="I812" s="0" t="n">
@@ -21123,13 +21212,13 @@
         <v>807</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G813" s="1"/>
       <c r="I813" s="0" t="n">
@@ -21147,13 +21236,13 @@
         <v>808</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G814" s="1"/>
       <c r="I814" s="0" t="n">
@@ -21171,13 +21260,13 @@
         <v>809</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G815" s="1"/>
       <c r="I815" s="0" t="n">
@@ -21195,13 +21284,13 @@
         <v>810</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G816" s="1"/>
       <c r="I816" s="0" t="n">
@@ -21219,13 +21308,13 @@
         <v>811</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G817" s="1"/>
       <c r="I817" s="0" t="n">
@@ -21243,13 +21332,13 @@
         <v>812</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G818" s="1"/>
       <c r="I818" s="0" t="n">
@@ -21267,13 +21356,13 @@
         <v>813</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G819" s="1"/>
       <c r="I819" s="0" t="n">
@@ -21291,13 +21380,13 @@
         <v>814</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G820" s="1"/>
       <c r="I820" s="0" t="n">
@@ -21315,13 +21404,13 @@
         <v>815</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G821" s="1"/>
       <c r="I821" s="0" t="n">
@@ -21339,13 +21428,13 @@
         <v>816</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G822" s="1"/>
       <c r="I822" s="0" t="n">
@@ -21363,13 +21452,13 @@
         <v>817</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G823" s="1"/>
       <c r="I823" s="0" t="n">
@@ -21387,13 +21476,13 @@
         <v>818</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G824" s="1"/>
       <c r="I824" s="0" t="n">
@@ -21411,13 +21500,13 @@
         <v>819</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G825" s="1"/>
       <c r="I825" s="0" t="n">
@@ -21435,13 +21524,13 @@
         <v>820</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G826" s="1"/>
       <c r="I826" s="0" t="n">
@@ -21459,13 +21548,13 @@
         <v>821</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G827" s="1"/>
       <c r="I827" s="0" t="n">
@@ -21483,13 +21572,13 @@
         <v>822</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G828" s="1"/>
       <c r="I828" s="0" t="n">
@@ -21507,13 +21596,13 @@
         <v>823</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G829" s="1"/>
       <c r="I829" s="0" t="n">
@@ -21531,13 +21620,13 @@
         <v>824</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G830" s="1"/>
       <c r="I830" s="0" t="n">
@@ -21555,13 +21644,13 @@
         <v>825</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G831" s="1"/>
       <c r="I831" s="0" t="n">
@@ -21579,13 +21668,13 @@
         <v>826</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G832" s="1"/>
       <c r="I832" s="0" t="n">
@@ -21603,13 +21692,13 @@
         <v>827</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G833" s="1"/>
       <c r="I833" s="0" t="n">
@@ -21627,13 +21716,13 @@
         <v>828</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G834" s="1"/>
       <c r="I834" s="0" t="n">
@@ -21651,13 +21740,13 @@
         <v>829</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G835" s="1"/>
       <c r="I835" s="0" t="n">
@@ -21675,13 +21764,13 @@
         <v>830</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G836" s="1"/>
       <c r="I836" s="0" t="n">
@@ -21699,13 +21788,13 @@
         <v>831</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G837" s="1"/>
       <c r="I837" s="0" t="n">
@@ -21723,13 +21812,13 @@
         <v>832</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G838" s="1"/>
       <c r="I838" s="0" t="n">
@@ -21747,13 +21836,13 @@
         <v>833</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G839" s="1"/>
       <c r="I839" s="0" t="n">
@@ -21771,13 +21860,13 @@
         <v>834</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G840" s="1"/>
       <c r="I840" s="0" t="n">
@@ -21795,13 +21884,13 @@
         <v>835</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G841" s="1"/>
       <c r="I841" s="0" t="n">
@@ -21819,13 +21908,13 @@
         <v>836</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G842" s="1"/>
       <c r="I842" s="0" t="n">
@@ -21843,13 +21932,13 @@
         <v>837</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G843" s="1"/>
       <c r="I843" s="0" t="n">
@@ -21867,13 +21956,13 @@
         <v>838</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G844" s="1"/>
       <c r="I844" s="0" t="n">
@@ -21891,13 +21980,13 @@
         <v>839</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G845" s="1"/>
       <c r="I845" s="0" t="n">
@@ -21915,13 +22004,13 @@
         <v>840</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G846" s="1"/>
       <c r="I846" s="0" t="n">
@@ -21939,13 +22028,13 @@
         <v>841</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G847" s="1"/>
       <c r="I847" s="0" t="n">
@@ -21963,13 +22052,13 @@
         <v>842</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G848" s="1"/>
       <c r="I848" s="0" t="n">
@@ -21987,13 +22076,13 @@
         <v>843</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G849" s="1"/>
       <c r="I849" s="0" t="n">
@@ -22011,13 +22100,13 @@
         <v>844</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G850" s="1"/>
       <c r="I850" s="0" t="n">
@@ -22035,13 +22124,13 @@
         <v>845</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G851" s="1"/>
       <c r="I851" s="0" t="n">
@@ -22059,13 +22148,13 @@
         <v>846</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G852" s="1"/>
       <c r="I852" s="0" t="n">
@@ -22083,13 +22172,13 @@
         <v>847</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G853" s="1"/>
       <c r="I853" s="0" t="n">
@@ -22107,13 +22196,13 @@
         <v>848</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G854" s="1"/>
       <c r="I854" s="0" t="n">
@@ -22131,13 +22220,13 @@
         <v>849</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G855" s="1"/>
       <c r="I855" s="0" t="n">
@@ -22155,13 +22244,13 @@
         <v>850</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G856" s="1"/>
       <c r="I856" s="0" t="n">
@@ -22179,13 +22268,13 @@
         <v>851</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G857" s="1"/>
       <c r="I857" s="0" t="n">
@@ -22203,13 +22292,13 @@
         <v>852</v>
       </c>
       <c r="B858" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C858" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C858" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="D858" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G858" s="1"/>
       <c r="I858" s="0" t="n">
@@ -22227,13 +22316,13 @@
         <v>853</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G859" s="1"/>
       <c r="I859" s="0" t="n">
@@ -22251,13 +22340,13 @@
         <v>854</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G860" s="1"/>
       <c r="I860" s="0" t="n">
@@ -22275,13 +22364,13 @@
         <v>855</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G861" s="1"/>
       <c r="I861" s="0" t="n">
@@ -22299,13 +22388,13 @@
         <v>856</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G862" s="1"/>
       <c r="I862" s="0" t="n">
@@ -22323,13 +22412,13 @@
         <v>857</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G863" s="1"/>
       <c r="I863" s="0" t="n">
@@ -22347,13 +22436,13 @@
         <v>858</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G864" s="1"/>
       <c r="I864" s="0" t="n">
@@ -22371,13 +22460,13 @@
         <v>859</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G865" s="1"/>
       <c r="I865" s="0" t="n">
@@ -22395,13 +22484,13 @@
         <v>860</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G866" s="1"/>
       <c r="I866" s="0" t="n">
@@ -22419,13 +22508,13 @@
         <v>861</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G867" s="1"/>
       <c r="I867" s="0" t="n">
@@ -22443,13 +22532,13 @@
         <v>862</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G868" s="1"/>
       <c r="I868" s="0" t="n">
@@ -22466,15 +22555,23 @@
         <f aca="false">A868+1</f>
         <v>863</v>
       </c>
-      <c r="B869" s="1"/>
+      <c r="B869" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G869" s="1"/>
       <c r="I869" s="0" t="n">
         <f aca="false">IF(ISBLANK(B869),0,IF(D869="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J869" s="0" t="n">
         <f aca="false">IF(ISBLANK(D869),0,I869)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22482,15 +22579,23 @@
         <f aca="false">A869+1</f>
         <v>864</v>
       </c>
-      <c r="B870" s="1"/>
+      <c r="B870" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G870" s="1"/>
       <c r="I870" s="0" t="n">
         <f aca="false">IF(ISBLANK(B870),0,IF(D870="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J870" s="0" t="n">
         <f aca="false">IF(ISBLANK(D870),0,I870)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22498,15 +22603,23 @@
         <f aca="false">A870+1</f>
         <v>865</v>
       </c>
-      <c r="B871" s="1"/>
+      <c r="B871" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G871" s="1"/>
       <c r="I871" s="0" t="n">
         <f aca="false">IF(ISBLANK(B871),0,IF(D871="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J871" s="0" t="n">
         <f aca="false">IF(ISBLANK(D871),0,I871)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22514,15 +22627,23 @@
         <f aca="false">A871+1</f>
         <v>866</v>
       </c>
-      <c r="B872" s="1"/>
+      <c r="B872" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G872" s="1"/>
       <c r="I872" s="0" t="n">
         <f aca="false">IF(ISBLANK(B872),0,IF(D872="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J872" s="0" t="n">
         <f aca="false">IF(ISBLANK(D872),0,I872)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22530,15 +22651,23 @@
         <f aca="false">A872+1</f>
         <v>867</v>
       </c>
-      <c r="B873" s="1"/>
+      <c r="B873" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G873" s="1"/>
       <c r="I873" s="0" t="n">
         <f aca="false">IF(ISBLANK(B873),0,IF(D873="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J873" s="0" t="n">
         <f aca="false">IF(ISBLANK(D873),0,I873)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22546,15 +22675,23 @@
         <f aca="false">A873+1</f>
         <v>868</v>
       </c>
-      <c r="B874" s="1"/>
+      <c r="B874" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G874" s="1"/>
       <c r="I874" s="0" t="n">
         <f aca="false">IF(ISBLANK(B874),0,IF(D874="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J874" s="0" t="n">
         <f aca="false">IF(ISBLANK(D874),0,I874)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22562,15 +22699,23 @@
         <f aca="false">A874+1</f>
         <v>869</v>
       </c>
-      <c r="B875" s="1"/>
+      <c r="B875" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G875" s="1"/>
       <c r="I875" s="0" t="n">
         <f aca="false">IF(ISBLANK(B875),0,IF(D875="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J875" s="0" t="n">
         <f aca="false">IF(ISBLANK(D875),0,I875)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22578,15 +22723,23 @@
         <f aca="false">A875+1</f>
         <v>870</v>
       </c>
-      <c r="B876" s="1"/>
+      <c r="B876" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G876" s="1"/>
       <c r="I876" s="0" t="n">
         <f aca="false">IF(ISBLANK(B876),0,IF(D876="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J876" s="0" t="n">
         <f aca="false">IF(ISBLANK(D876),0,I876)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25808,35 +25961,35 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25847,7 +26000,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="969">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -552,6 +553,9 @@
     <t xml:space="preserve">CKSM</t>
   </si>
   <si>
+    <t xml:space="preserve">Will not implement Kermit</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLEAR</t>
   </si>
   <si>
@@ -711,6 +715,9 @@
     <t xml:space="preserve">DELAY</t>
   </si>
   <si>
+    <t xml:space="preserve">Will not implement printer support</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELKEYS</t>
   </si>
   <si>
@@ -1255,6 +1262,9 @@
   </si>
   <si>
     <t xml:space="preserve">KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns key names like WAIT</t>
   </si>
   <si>
     <t xml:space="preserve">KEYEVAL</t>
@@ -3428,9 +3438,9 @@
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D416" activeCellId="0" sqref="D416"/>
+      <selection pane="bottomLeft" activeCell="G363" activeCellId="0" sqref="G363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3453,14 +3463,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3479,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.398505603985056</v>
+        <v>0.411027568922306</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="false">A45+1</f>
         <v>40</v>
@@ -4835,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+1</f>
         <v>58</v>
@@ -4846,6 +4856,9 @@
       <c r="C64" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="I64" s="0" t="n">
         <f aca="false">IF(ISBLANK(B64),0,IF(D64="N/A",0,1))</f>
@@ -4853,10 +4866,10 @@
       </c>
       <c r="J64" s="0" t="n">
         <f aca="false">IF(ISBLANK(D64),0,I64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+1</f>
         <v>59</v>
@@ -4867,6 +4880,9 @@
       <c r="C65" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="I65" s="0" t="n">
         <f aca="false">IF(ISBLANK(B65),0,IF(D65="N/A",0,1))</f>
@@ -4874,7 +4890,7 @@
       </c>
       <c r="J65" s="0" t="n">
         <f aca="false">IF(ISBLANK(D65),0,I65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5912,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">A111+1</f>
         <v>106</v>
@@ -5933,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+1</f>
         <v>107</v>
@@ -6088,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">A119+1</f>
         <v>114</v>
@@ -6448,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="false">A135+1</f>
         <v>130</v>
@@ -6459,10 +6475,15 @@
       <c r="C136" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="I136" s="0" t="n">
         <f aca="false">IF(ISBLANK(B136),0,IF(D136="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" s="0" t="n">
         <f aca="false">IF(ISBLANK(D136),0,I136)</f>
@@ -6475,7 +6496,7 @@
         <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>101</v>
@@ -6493,13 +6514,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">A137+1</f>
         <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>83</v>
@@ -6520,7 +6541,7 @@
         <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>54</v>
@@ -6541,7 +6562,7 @@
         <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>83</v>
@@ -6565,10 +6586,10 @@
         <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>12</v>
@@ -6589,7 +6610,7 @@
         <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>143</v>
@@ -6610,7 +6631,7 @@
         <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>109</v>
@@ -6631,7 +6652,7 @@
         <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>46</v>
@@ -6652,7 +6673,7 @@
         <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>46</v>
@@ -6676,7 +6697,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>46</v>
@@ -6700,7 +6721,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>46</v>
@@ -6724,7 +6745,7 @@
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>26</v>
@@ -6745,7 +6766,7 @@
         <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>26</v>
@@ -6766,7 +6787,7 @@
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>143</v>
@@ -6787,7 +6808,7 @@
         <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>143</v>
@@ -6808,7 +6829,7 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>46</v>
@@ -6829,7 +6850,7 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>46</v>
@@ -6850,7 +6871,7 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>54</v>
@@ -6871,7 +6892,7 @@
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>107</v>
@@ -6896,7 +6917,7 @@
         <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>109</v>
@@ -6917,7 +6938,7 @@
         <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>77</v>
@@ -6938,7 +6959,7 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>109</v>
@@ -6959,7 +6980,7 @@
         <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>159</v>
@@ -6983,7 +7004,7 @@
         <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>24</v>
@@ -7008,7 +7029,7 @@
         <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>143</v>
@@ -7029,7 +7050,7 @@
         <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>86</v>
@@ -7053,7 +7074,7 @@
         <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>86</v>
@@ -7077,7 +7098,7 @@
         <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>143</v>
@@ -7098,7 +7119,7 @@
         <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>83</v>
@@ -7122,10 +7143,10 @@
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>12</v>
@@ -7146,7 +7167,7 @@
         <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>52</v>
@@ -7170,7 +7191,7 @@
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>46</v>
@@ -7191,7 +7212,7 @@
         <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>46</v>
@@ -7212,7 +7233,7 @@
         <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>26</v>
@@ -7233,7 +7254,7 @@
         <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>26</v>
@@ -7254,7 +7275,7 @@
         <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>109</v>
@@ -7275,7 +7296,7 @@
         <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>86</v>
@@ -7296,10 +7317,10 @@
         <v>168</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G174" s="1"/>
       <c r="I174" s="0" t="n">
@@ -7317,7 +7338,7 @@
         <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>49</v>
@@ -7341,7 +7362,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>49</v>
@@ -7365,7 +7386,7 @@
         <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>159</v>
@@ -7390,7 +7411,7 @@
         <v>172</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>49</v>
@@ -7411,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>122</v>
@@ -7437,7 +7458,7 @@
         <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>41</v>
@@ -7461,7 +7482,7 @@
         <v>175</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>52</v>
@@ -7485,7 +7506,7 @@
         <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>26</v>
@@ -7506,7 +7527,7 @@
         <v>177</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>26</v>
@@ -7527,7 +7548,7 @@
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>21</v>
@@ -7551,7 +7572,7 @@
         <v>179</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -7566,16 +7587,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <f aca="false">A185+1</f>
         <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G186" s="1"/>
       <c r="I186" s="0" t="n">
@@ -7584,24 +7608,29 @@
       </c>
       <c r="J186" s="0" t="n">
         <f aca="false">IF(ISBLANK(D186),0,I186)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <f aca="false">A186+1</f>
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I187" s="0" t="n">
         <f aca="false">IF(ISBLANK(B187),0,IF(D187="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="0" t="n">
         <f aca="false">IF(ISBLANK(D187),0,I187)</f>
@@ -7614,7 +7643,7 @@
         <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>83</v>
@@ -7624,7 +7653,7 @@
       </c>
       <c r="F188" s="11"/>
       <c r="G188" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I188" s="0" t="n">
         <f aca="false">IF(ISBLANK(B188),0,IF(D188="N/A",0,1))</f>
@@ -7641,7 +7670,7 @@
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>26</v>
@@ -7662,7 +7691,7 @@
         <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>101</v>
@@ -7686,7 +7715,7 @@
         <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>26</v>
@@ -7707,7 +7736,7 @@
         <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>26</v>
@@ -7728,7 +7757,7 @@
         <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>26</v>
@@ -7749,7 +7778,7 @@
         <v>188</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>46</v>
@@ -7770,7 +7799,7 @@
         <v>189</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>52</v>
@@ -7794,7 +7823,7 @@
         <v>190</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>46</v>
@@ -7815,7 +7844,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>46</v>
@@ -7836,7 +7865,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>109</v>
@@ -7857,7 +7886,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>54</v>
@@ -7878,16 +7907,16 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I200" s="0" t="n">
         <f aca="false">IF(ISBLANK(B200),0,IF(D200="N/A",0,1))</f>
@@ -7904,7 +7933,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>54</v>
@@ -7925,7 +7954,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>54</v>
@@ -7946,7 +7975,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>26</v>
@@ -7967,7 +7996,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>26</v>
@@ -7988,7 +8017,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>26</v>
@@ -8009,7 +8038,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>26</v>
@@ -8030,7 +8059,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>26</v>
@@ -8051,7 +8080,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>26</v>
@@ -8072,7 +8101,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>26</v>
@@ -8093,7 +8122,7 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>159</v>
@@ -8117,7 +8146,7 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>159</v>
@@ -8127,7 +8156,7 @@
       </c>
       <c r="F211" s="11"/>
       <c r="G211" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I211" s="0" t="n">
         <f aca="false">IF(ISBLANK(B211),0,IF(D211="N/A",0,1))</f>
@@ -8144,7 +8173,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>61</v>
@@ -8154,7 +8183,7 @@
       </c>
       <c r="F212" s="11"/>
       <c r="G212" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I212" s="0" t="n">
         <f aca="false">IF(ISBLANK(B212),0,IF(D212="N/A",0,1))</f>
@@ -8171,7 +8200,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>26</v>
@@ -8192,7 +8221,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>61</v>
@@ -8202,7 +8231,7 @@
       </c>
       <c r="F214" s="11"/>
       <c r="G214" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I214" s="0" t="n">
         <f aca="false">IF(ISBLANK(B214),0,IF(D214="N/A",0,1))</f>
@@ -8219,7 +8248,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>46</v>
@@ -8240,7 +8269,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>54</v>
@@ -8261,7 +8290,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>54</v>
@@ -8282,7 +8311,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>54</v>
@@ -8303,7 +8332,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>26</v>
@@ -8324,7 +8353,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>101</v>
@@ -8348,7 +8377,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>101</v>
@@ -8372,7 +8401,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>101</v>
@@ -8396,7 +8425,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>70</v>
@@ -8417,7 +8446,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>101</v>
@@ -8441,7 +8470,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>101</v>
@@ -8465,7 +8494,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>101</v>
@@ -8489,7 +8518,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>101</v>
@@ -8513,7 +8542,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>77</v>
@@ -8534,7 +8563,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>109</v>
@@ -8555,7 +8584,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>109</v>
@@ -8576,7 +8605,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>26</v>
@@ -8597,7 +8626,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>46</v>
@@ -8618,7 +8647,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>46</v>
@@ -8639,7 +8668,7 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>159</v>
@@ -8663,7 +8692,7 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>159</v>
@@ -8687,7 +8716,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>61</v>
@@ -8711,7 +8740,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>109</v>
@@ -8732,7 +8761,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>26</v>
@@ -8753,7 +8782,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>26</v>
@@ -8774,7 +8803,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>109</v>
@@ -8795,7 +8824,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>109</v>
@@ -8816,7 +8845,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>54</v>
@@ -8837,7 +8866,7 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>159</v>
@@ -8862,7 +8891,7 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>159</v>
@@ -8887,7 +8916,7 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>159</v>
@@ -8912,7 +8941,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>15</v>
@@ -8933,7 +8962,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>11</v>
@@ -8957,7 +8986,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>26</v>
@@ -8978,7 +9007,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>86</v>
@@ -9002,7 +9031,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>109</v>
@@ -9023,7 +9052,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>26</v>
@@ -9044,7 +9073,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>26</v>
@@ -9065,7 +9094,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>26</v>
@@ -9086,7 +9115,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>26</v>
@@ -9107,7 +9136,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>26</v>
@@ -9128,7 +9157,7 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>143</v>
@@ -9149,7 +9178,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>26</v>
@@ -9170,7 +9199,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>86</v>
@@ -9191,7 +9220,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>54</v>
@@ -9212,10 +9241,10 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G260" s="1"/>
       <c r="I260" s="0" t="n">
@@ -9233,7 +9262,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>15</v>
@@ -9242,7 +9271,7 @@
         <v>42</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I261" s="0" t="n">
         <f aca="false">IF(ISBLANK(B261),0,IF(D261="N/A",0,1))</f>
@@ -9259,7 +9288,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>26</v>
@@ -9280,7 +9309,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>26</v>
@@ -9301,7 +9330,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>15</v>
@@ -9322,10 +9351,10 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G265" s="1"/>
       <c r="I265" s="0" t="n">
@@ -9343,7 +9372,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>54</v>
@@ -9364,7 +9393,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>21</v>
@@ -9388,7 +9417,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>21</v>
@@ -9412,7 +9441,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>26</v>
@@ -9433,7 +9462,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>26</v>
@@ -9454,7 +9483,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>15</v>
@@ -9475,7 +9504,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>109</v>
@@ -9490,16 +9519,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <f aca="false">A272+1</f>
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G273" s="1"/>
       <c r="I273" s="0" t="n">
@@ -9508,24 +9540,29 @@
       </c>
       <c r="J273" s="0" t="n">
         <f aca="false">IF(ISBLANK(D273),0,I273)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <f aca="false">A273+1</f>
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="I274" s="0" t="n">
         <f aca="false">IF(ISBLANK(B274),0,IF(D274="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" s="0" t="n">
         <f aca="false">IF(ISBLANK(D274),0,I274)</f>
@@ -9538,7 +9575,7 @@
         <v>269</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>21</v>
@@ -9562,7 +9599,7 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>52</v>
@@ -9586,7 +9623,7 @@
         <v>271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>161</v>
@@ -9610,7 +9647,7 @@
         <v>272</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>109</v>
@@ -9631,7 +9668,7 @@
         <v>273</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>109</v>
@@ -9652,7 +9689,7 @@
         <v>274</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>109</v>
@@ -9673,7 +9710,7 @@
         <v>275</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>109</v>
@@ -9694,7 +9731,7 @@
         <v>276</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>159</v>
@@ -9718,7 +9755,7 @@
         <v>277</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>26</v>
@@ -9739,7 +9776,7 @@
         <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>161</v>
@@ -9763,7 +9800,7 @@
         <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>54</v>
@@ -9784,7 +9821,7 @@
         <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>15</v>
@@ -9805,7 +9842,7 @@
         <v>281</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>21</v>
@@ -9829,7 +9866,7 @@
         <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>21</v>
@@ -9853,7 +9890,7 @@
         <v>283</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>54</v>
@@ -9874,7 +9911,7 @@
         <v>284</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>26</v>
@@ -9895,7 +9932,7 @@
         <v>285</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>15</v>
@@ -9916,7 +9953,7 @@
         <v>286</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>26</v>
@@ -9937,7 +9974,7 @@
         <v>287</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>26</v>
@@ -9958,7 +9995,7 @@
         <v>288</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>15</v>
@@ -9982,7 +10019,7 @@
         <v>289</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>15</v>
@@ -10003,7 +10040,7 @@
         <v>290</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>61</v>
@@ -10027,7 +10064,7 @@
         <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>61</v>
@@ -10051,7 +10088,7 @@
         <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>54</v>
@@ -10072,7 +10109,7 @@
         <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>21</v>
@@ -10096,7 +10133,7 @@
         <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>46</v>
@@ -10117,7 +10154,7 @@
         <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>26</v>
@@ -10138,7 +10175,7 @@
         <v>296</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>54</v>
@@ -10159,7 +10196,7 @@
         <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>54</v>
@@ -10180,7 +10217,7 @@
         <v>298</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>54</v>
@@ -10201,7 +10238,7 @@
         <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>54</v>
@@ -10222,7 +10259,7 @@
         <v>300</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>52</v>
@@ -10246,7 +10283,7 @@
         <v>301</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>52</v>
@@ -10270,7 +10307,7 @@
         <v>302</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>52</v>
@@ -10294,7 +10331,7 @@
         <v>303</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>46</v>
@@ -10315,7 +10352,7 @@
         <v>304</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>26</v>
@@ -10336,7 +10373,7 @@
         <v>305</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>159</v>
@@ -10361,7 +10398,7 @@
         <v>306</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>61</v>
@@ -10385,7 +10422,7 @@
         <v>307</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>54</v>
@@ -10406,7 +10443,7 @@
         <v>308</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>109</v>
@@ -10427,7 +10464,7 @@
         <v>309</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>26</v>
@@ -10448,7 +10485,7 @@
         <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>26</v>
@@ -10469,7 +10506,7 @@
         <v>311</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C317" s="12" t="s">
         <v>122</v>
@@ -10495,7 +10532,7 @@
         <v>312</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>46</v>
@@ -10516,7 +10553,7 @@
         <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>54</v>
@@ -10537,7 +10574,7 @@
         <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>54</v>
@@ -10558,7 +10595,7 @@
         <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>49</v>
@@ -10582,7 +10619,7 @@
         <v>316</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>49</v>
@@ -10606,7 +10643,7 @@
         <v>317</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>49</v>
@@ -10630,10 +10667,10 @@
         <v>318</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>12</v>
@@ -10654,7 +10691,7 @@
         <v>319</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>26</v>
@@ -10675,7 +10712,7 @@
         <v>320</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>77</v>
@@ -10696,7 +10733,7 @@
         <v>321</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>21</v>
@@ -10720,7 +10757,7 @@
         <v>322</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>15</v>
@@ -10741,7 +10778,7 @@
         <v>323</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>46</v>
@@ -10762,7 +10799,7 @@
         <v>324</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>15</v>
@@ -10783,7 +10820,7 @@
         <v>325</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>26</v>
@@ -10804,7 +10841,7 @@
         <v>326</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>15</v>
@@ -10825,7 +10862,7 @@
         <v>327</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>15</v>
@@ -10849,7 +10886,7 @@
         <v>328</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>46</v>
@@ -10870,7 +10907,7 @@
         <v>329</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>15</v>
@@ -10891,7 +10928,7 @@
         <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>159</v>
@@ -10915,7 +10952,7 @@
         <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>159</v>
@@ -10939,7 +10976,7 @@
         <v>332</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>15</v>
@@ -10960,7 +10997,7 @@
         <v>333</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>159</v>
@@ -10981,7 +11018,7 @@
         <v>334</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>159</v>
@@ -11002,7 +11039,7 @@
         <v>335</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>26</v>
@@ -11023,7 +11060,7 @@
         <v>336</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C342" s="12" t="s">
         <v>107</v>
@@ -11048,7 +11085,7 @@
         <v>337</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>46</v>
@@ -11069,7 +11106,7 @@
         <v>338</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>41</v>
@@ -11093,7 +11130,7 @@
         <v>339</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>54</v>
@@ -11114,7 +11151,7 @@
         <v>340</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>109</v>
@@ -11135,7 +11172,7 @@
         <v>341</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>109</v>
@@ -11156,7 +11193,7 @@
         <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>26</v>
@@ -11177,7 +11214,7 @@
         <v>343</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>109</v>
@@ -11198,7 +11235,7 @@
         <v>344</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
@@ -11219,7 +11256,7 @@
         <v>345</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>11</v>
@@ -11243,7 +11280,7 @@
         <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>15</v>
@@ -11264,7 +11301,7 @@
         <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>161</v>
@@ -11288,7 +11325,7 @@
         <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>15</v>
@@ -11312,7 +11349,7 @@
         <v>349</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>15</v>
@@ -11333,7 +11370,7 @@
         <v>350</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>26</v>
@@ -11354,7 +11391,7 @@
         <v>351</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>46</v>
@@ -11375,7 +11412,7 @@
         <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>15</v>
@@ -11385,7 +11422,7 @@
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I358" s="0" t="n">
         <f aca="false">IF(ISBLANK(B358),0,IF(D358="N/A",0,1))</f>
@@ -11402,7 +11439,7 @@
         <v>353</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>46</v>
@@ -11423,7 +11460,7 @@
         <v>354</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>46</v>
@@ -11438,58 +11475,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <f aca="false">A360+1</f>
         <v>355</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G361" s="1"/>
+      <c r="D361" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="I361" s="0" t="n">
         <f aca="false">IF(ISBLANK(B361),0,IF(D361="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361" s="0" t="n">
         <f aca="false">IF(ISBLANK(D361),0,I361)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <f aca="false">A361+1</f>
         <v>356</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G362" s="1"/>
+      <c r="D362" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="I362" s="0" t="n">
         <f aca="false">IF(ISBLANK(B362),0,IF(D362="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J362" s="0" t="n">
         <f aca="false">IF(ISBLANK(D362),0,I362)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <f aca="false">A362+1</f>
         <v>357</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G363" s="1"/>
       <c r="I363" s="0" t="n">
@@ -11498,24 +11548,27 @@
       </c>
       <c r="J363" s="0" t="n">
         <f aca="false">IF(ISBLANK(D363),0,I363)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <f aca="false">A363+1</f>
         <v>358</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G364" s="1"/>
       <c r="I364" s="0" t="n">
         <f aca="false">IF(ISBLANK(B364),0,IF(D364="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" s="0" t="n">
         <f aca="false">IF(ISBLANK(D364),0,I364)</f>
@@ -11528,7 +11581,7 @@
         <v>359</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>83</v>
@@ -11552,7 +11605,7 @@
         <v>360</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>159</v>
@@ -11577,7 +11630,7 @@
         <v>361</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>54</v>
@@ -11598,7 +11651,7 @@
         <v>362</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>26</v>
@@ -11619,7 +11672,7 @@
         <v>363</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>21</v>
@@ -11640,7 +11693,7 @@
         <v>364</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>26</v>
@@ -11661,7 +11714,7 @@
         <v>365</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>26</v>
@@ -11682,7 +11735,7 @@
         <v>366</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>21</v>
@@ -11703,7 +11756,7 @@
         <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>21</v>
@@ -11724,7 +11777,7 @@
         <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>54</v>
@@ -11745,7 +11798,7 @@
         <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>15</v>
@@ -11769,7 +11822,7 @@
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>26</v>
@@ -11790,7 +11843,7 @@
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>26</v>
@@ -11811,7 +11864,7 @@
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>26</v>
@@ -11832,7 +11885,7 @@
         <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>15</v>
@@ -11853,7 +11906,7 @@
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>52</v>
@@ -11877,7 +11930,7 @@
         <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>21</v>
@@ -11898,7 +11951,7 @@
         <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>26</v>
@@ -11919,7 +11972,7 @@
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>26</v>
@@ -11940,7 +11993,7 @@
         <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>54</v>
@@ -11961,7 +12014,7 @@
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>143</v>
@@ -11982,7 +12035,7 @@
         <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>26</v>
@@ -12003,7 +12056,7 @@
         <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>26</v>
@@ -12024,7 +12077,7 @@
         <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>61</v>
@@ -12048,7 +12101,7 @@
         <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>86</v>
@@ -12072,7 +12125,7 @@
         <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
@@ -12093,7 +12146,7 @@
         <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
@@ -12114,7 +12167,7 @@
         <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>86</v>
@@ -12135,7 +12188,7 @@
         <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>41</v>
@@ -12159,7 +12212,7 @@
         <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>86</v>
@@ -12180,7 +12233,7 @@
         <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>143</v>
@@ -12201,7 +12254,7 @@
         <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>46</v>
@@ -12222,7 +12275,7 @@
         <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>143</v>
@@ -12243,7 +12296,7 @@
         <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>46</v>
@@ -12264,7 +12317,7 @@
         <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>46</v>
@@ -12285,7 +12338,7 @@
         <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>26</v>
@@ -12306,7 +12359,7 @@
         <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>46</v>
@@ -12327,7 +12380,7 @@
         <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>109</v>
@@ -12348,7 +12401,7 @@
         <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>161</v>
@@ -12372,7 +12425,7 @@
         <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>61</v>
@@ -12396,7 +12449,7 @@
         <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>109</v>
@@ -12417,7 +12470,7 @@
         <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>109</v>
@@ -12438,7 +12491,7 @@
         <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>15</v>
@@ -12462,7 +12515,7 @@
         <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>21</v>
@@ -12483,7 +12536,7 @@
         <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>143</v>
@@ -12504,10 +12557,10 @@
         <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G410" s="1"/>
       <c r="I410" s="0" t="n">
@@ -12525,7 +12578,7 @@
         <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>143</v>
@@ -12546,7 +12599,7 @@
         <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>21</v>
@@ -12556,7 +12609,7 @@
       </c>
       <c r="F412" s="11"/>
       <c r="G412" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I412" s="0" t="n">
         <f aca="false">IF(ISBLANK(B412),0,IF(D412="N/A",0,1))</f>
@@ -12573,7 +12626,7 @@
         <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>109</v>
@@ -12594,7 +12647,7 @@
         <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>109</v>
@@ -12609,13 +12662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <f aca="false">A414+1</f>
         <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>15</v>
@@ -12633,13 +12686,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <f aca="false">A415+1</f>
         <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>52</v>
@@ -12654,13 +12707,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <f aca="false">A416+1</f>
         <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>52</v>
@@ -12678,16 +12731,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
         <f aca="false">A417+1</f>
         <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G418" s="1"/>
       <c r="I418" s="0" t="n">
@@ -12699,13 +12752,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <f aca="false">A418+1</f>
         <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>21</v>
@@ -12720,13 +12773,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
         <f aca="false">A419+1</f>
         <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>143</v>
@@ -12747,10 +12800,10 @@
         <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G421" s="1"/>
       <c r="I421" s="0" t="n">
@@ -12768,7 +12821,7 @@
         <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>46</v>
@@ -12789,7 +12842,7 @@
         <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>15</v>
@@ -12813,7 +12866,7 @@
         <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>15</v>
@@ -12837,7 +12890,7 @@
         <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>109</v>
@@ -12858,10 +12911,10 @@
         <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G426" s="1"/>
       <c r="I426" s="0" t="n">
@@ -12879,10 +12932,10 @@
         <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G427" s="1"/>
       <c r="I427" s="0" t="n">
@@ -12900,7 +12953,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>109</v>
@@ -12921,10 +12974,10 @@
         <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G429" s="1"/>
       <c r="I429" s="0" t="n">
@@ -12942,10 +12995,10 @@
         <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G430" s="1"/>
       <c r="I430" s="0" t="n">
@@ -12963,7 +13016,7 @@
         <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>15</v>
@@ -12987,10 +13040,10 @@
         <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G432" s="1"/>
       <c r="I432" s="0" t="n">
@@ -13008,7 +13061,7 @@
         <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>143</v>
@@ -13029,7 +13082,7 @@
         <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>101</v>
@@ -13053,7 +13106,7 @@
         <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>11</v>
@@ -13077,7 +13130,7 @@
         <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>21</v>
@@ -13102,7 +13155,7 @@
         <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>159</v>
@@ -13126,7 +13179,7 @@
         <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>15</v>
@@ -13151,7 +13204,7 @@
         <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>101</v>
@@ -13175,7 +13228,7 @@
         <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C440" s="12" t="s">
         <v>98</v>
@@ -13199,7 +13252,7 @@
         <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>109</v>
@@ -13220,7 +13273,7 @@
         <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>61</v>
@@ -13244,7 +13297,7 @@
         <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>168</v>
@@ -13253,7 +13306,7 @@
         <v>42</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I443" s="0" t="n">
         <f aca="false">IF(ISBLANK(B443),0,IF(D443="N/A",0,1))</f>
@@ -13270,7 +13323,7 @@
         <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>54</v>
@@ -13291,7 +13344,7 @@
         <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>54</v>
@@ -13312,10 +13365,10 @@
         <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G446" s="1"/>
       <c r="I446" s="0" t="n">
@@ -13333,7 +13386,7 @@
         <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>21</v>
@@ -13357,7 +13410,7 @@
         <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>21</v>
@@ -13378,7 +13431,7 @@
         <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>83</v>
@@ -13402,7 +13455,7 @@
         <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>83</v>
@@ -13426,7 +13479,7 @@
         <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C451" s="12" t="s">
         <v>98</v>
@@ -13450,7 +13503,7 @@
         <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>41</v>
@@ -13474,7 +13527,7 @@
         <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>101</v>
@@ -13498,7 +13551,7 @@
         <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>15</v>
@@ -13519,7 +13572,7 @@
         <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>15</v>
@@ -13540,7 +13593,7 @@
         <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>54</v>
@@ -13561,7 +13614,7 @@
         <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>83</v>
@@ -13585,7 +13638,7 @@
         <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>54</v>
@@ -13606,7 +13659,7 @@
         <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>26</v>
@@ -13627,10 +13680,10 @@
         <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>12</v>
@@ -13651,7 +13704,7 @@
         <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>26</v>
@@ -13672,7 +13725,7 @@
         <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>15</v>
@@ -13696,7 +13749,7 @@
         <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>54</v>
@@ -13717,7 +13770,7 @@
         <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>143</v>
@@ -13738,7 +13791,7 @@
         <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>54</v>
@@ -13759,7 +13812,7 @@
         <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>52</v>
@@ -13768,7 +13821,7 @@
         <v>12</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I466" s="0" t="n">
         <f aca="false">IF(ISBLANK(B466),0,IF(D466="N/A",0,1))</f>
@@ -13785,7 +13838,7 @@
         <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>52</v>
@@ -13809,10 +13862,10 @@
         <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G468" s="1"/>
       <c r="I468" s="0" t="n">
@@ -13830,7 +13883,7 @@
         <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>143</v>
@@ -13851,10 +13904,10 @@
         <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G470" s="1"/>
       <c r="I470" s="0" t="n">
@@ -13872,7 +13925,7 @@
         <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>15</v>
@@ -13896,10 +13949,10 @@
         <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>12</v>
@@ -13920,7 +13973,7 @@
         <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>101</v>
@@ -13944,7 +13997,7 @@
         <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>101</v>
@@ -13968,7 +14021,7 @@
         <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>54</v>
@@ -13989,7 +14042,7 @@
         <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>109</v>
@@ -14010,7 +14063,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>52</v>
@@ -14034,7 +14087,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>54</v>
@@ -14055,7 +14108,7 @@
         <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>54</v>
@@ -14076,7 +14129,7 @@
         <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>54</v>
@@ -14097,7 +14150,7 @@
         <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>83</v>
@@ -14121,7 +14174,7 @@
         <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>54</v>
@@ -14142,7 +14195,7 @@
         <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>54</v>
@@ -14163,7 +14216,7 @@
         <v>478</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>54</v>
@@ -14178,13 +14231,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
         <f aca="false">A484+1</f>
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>54</v>
@@ -14199,13 +14252,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
         <f aca="false">A485+1</f>
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>46</v>
@@ -14226,7 +14279,7 @@
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>52</v>
@@ -14235,7 +14288,7 @@
         <v>12</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I487" s="0" t="n">
         <f aca="false">IF(ISBLANK(B487),0,IF(D487="N/A",0,1))</f>
@@ -14252,7 +14305,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>52</v>
@@ -14276,7 +14329,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>54</v>
@@ -14297,7 +14350,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>109</v>
@@ -14318,7 +14371,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>21</v>
@@ -14339,7 +14392,7 @@
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>168</v>
@@ -14360,7 +14413,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>26</v>
@@ -14381,7 +14434,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>26</v>
@@ -14402,7 +14455,7 @@
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>15</v>
@@ -14427,7 +14480,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>83</v>
@@ -14451,7 +14504,7 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>143</v>
@@ -14472,7 +14525,7 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>143</v>
@@ -14493,7 +14546,7 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>143</v>
@@ -14514,7 +14567,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>26</v>
@@ -14535,7 +14588,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>15</v>
@@ -14556,7 +14609,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>83</v>
@@ -14580,7 +14633,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>109</v>
@@ -14601,7 +14654,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>109</v>
@@ -14622,7 +14675,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>15</v>
@@ -14643,7 +14696,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>26</v>
@@ -14664,7 +14717,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>83</v>
@@ -14688,7 +14741,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>83</v>
@@ -14712,7 +14765,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>83</v>
@@ -14736,7 +14789,7 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>143</v>
@@ -14757,7 +14810,7 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>15</v>
@@ -14778,7 +14831,7 @@
         <v>506</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>26</v>
@@ -14799,7 +14852,7 @@
         <v>507</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>26</v>
@@ -14820,10 +14873,10 @@
         <v>508</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G514" s="1"/>
       <c r="I514" s="0" t="n">
@@ -14841,7 +14894,7 @@
         <v>509</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>41</v>
@@ -14865,7 +14918,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>21</v>
@@ -14886,7 +14939,7 @@
         <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>61</v>
@@ -14910,7 +14963,7 @@
         <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>61</v>
@@ -14934,7 +14987,7 @@
         <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>143</v>
@@ -14955,7 +15008,7 @@
         <v>514</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>52</v>
@@ -14979,7 +15032,7 @@
         <v>515</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>54</v>
@@ -15000,7 +15053,7 @@
         <v>516</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>143</v>
@@ -15021,7 +15074,7 @@
         <v>517</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>54</v>
@@ -15042,7 +15095,7 @@
         <v>518</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>46</v>
@@ -15063,10 +15116,10 @@
         <v>519</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G525" s="1"/>
       <c r="I525" s="0" t="n">
@@ -15084,7 +15137,7 @@
         <v>520</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>15</v>
@@ -15105,7 +15158,7 @@
         <v>521</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>26</v>
@@ -15126,7 +15179,7 @@
         <v>522</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>26</v>
@@ -15147,7 +15200,7 @@
         <v>523</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>21</v>
@@ -15171,7 +15224,7 @@
         <v>524</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C530" s="12" t="s">
         <v>107</v>
@@ -15196,7 +15249,7 @@
         <v>525</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>86</v>
@@ -15217,7 +15270,7 @@
         <v>526</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>21</v>
@@ -15241,7 +15294,7 @@
         <v>527</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>21</v>
@@ -15265,7 +15318,7 @@
         <v>528</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>143</v>
@@ -15286,7 +15339,7 @@
         <v>529</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>46</v>
@@ -15307,7 +15360,7 @@
         <v>530</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>46</v>
@@ -15328,7 +15381,7 @@
         <v>531</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>26</v>
@@ -15349,7 +15402,7 @@
         <v>532</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>41</v>
@@ -15370,7 +15423,7 @@
         <v>533</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>46</v>
@@ -15391,7 +15444,7 @@
         <v>534</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>46</v>
@@ -15412,7 +15465,7 @@
         <v>535</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>41</v>
@@ -15430,16 +15483,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
         <f aca="false">A541+1</f>
         <v>536</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G542" s="1"/>
       <c r="I542" s="0" t="n">
@@ -15448,7 +15504,7 @@
       </c>
       <c r="J542" s="0" t="n">
         <f aca="false">IF(ISBLANK(D542),0,I542)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15457,7 +15513,7 @@
         <v>537</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>21</v>
@@ -15478,7 +15534,7 @@
         <v>538</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>21</v>
@@ -15488,7 +15544,7 @@
       </c>
       <c r="F544" s="11"/>
       <c r="G544" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I544" s="0" t="n">
         <f aca="false">IF(ISBLANK(B544),0,IF(D544="N/A",0,1))</f>
@@ -15505,7 +15561,7 @@
         <v>539</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>109</v>
@@ -15515,7 +15571,7 @@
       </c>
       <c r="F545" s="11"/>
       <c r="G545" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I545" s="0" t="n">
         <f aca="false">IF(ISBLANK(B545),0,IF(D545="N/A",0,1))</f>
@@ -15532,7 +15588,7 @@
         <v>540</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>26</v>
@@ -15553,7 +15609,7 @@
         <v>541</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>143</v>
@@ -15574,7 +15630,7 @@
         <v>542</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C548" s="12" t="s">
         <v>122</v>
@@ -15599,7 +15655,7 @@
         <v>543</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>46</v>
@@ -15620,7 +15676,7 @@
         <v>544</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>143</v>
@@ -15641,7 +15697,7 @@
         <v>545</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C551" s="12" t="s">
         <v>107</v>
@@ -15666,7 +15722,7 @@
         <v>546</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>83</v>
@@ -15690,7 +15746,7 @@
         <v>547</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>21</v>
@@ -15699,7 +15755,7 @@
         <v>42</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="I553" s="0" t="n">
         <f aca="false">IF(ISBLANK(B553),0,IF(D553="N/A",0,1))</f>
@@ -15716,7 +15772,7 @@
         <v>548</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>83</v>
@@ -15740,7 +15796,7 @@
         <v>549</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>46</v>
@@ -15761,7 +15817,7 @@
         <v>550</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>26</v>
@@ -15782,7 +15838,7 @@
         <v>551</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>41</v>
@@ -15803,7 +15859,7 @@
         <v>552</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>26</v>
@@ -15824,7 +15880,7 @@
         <v>553</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>159</v>
@@ -15848,7 +15904,7 @@
         <v>554</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>168</v>
@@ -15869,7 +15925,7 @@
         <v>555</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>54</v>
@@ -15890,7 +15946,7 @@
         <v>556</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>21</v>
@@ -15911,7 +15967,7 @@
         <v>557</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>26</v>
@@ -15932,7 +15988,7 @@
         <v>558</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>61</v>
@@ -15956,7 +16012,7 @@
         <v>559</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>109</v>
@@ -15977,7 +16033,7 @@
         <v>560</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>26</v>
@@ -15998,10 +16054,10 @@
         <v>561</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G567" s="1"/>
       <c r="I567" s="0" t="n">
@@ -16019,10 +16075,10 @@
         <v>562</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G568" s="1"/>
       <c r="I568" s="0" t="n">
@@ -16040,10 +16096,10 @@
         <v>563</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G569" s="1"/>
       <c r="I569" s="0" t="n">
@@ -16061,7 +16117,7 @@
         <v>564</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C570" s="12" t="s">
         <v>122</v>
@@ -16070,7 +16126,7 @@
         <v>42</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="I570" s="0" t="n">
         <f aca="false">IF(ISBLANK(B570),0,IF(D570="N/A",0,1))</f>
@@ -16087,7 +16143,7 @@
         <v>565</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C571" s="12" t="s">
         <v>122</v>
@@ -16096,7 +16152,7 @@
         <v>42</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="I571" s="0" t="n">
         <f aca="false">IF(ISBLANK(B571),0,IF(D571="N/A",0,1))</f>
@@ -16113,7 +16169,7 @@
         <v>566</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>161</v>
@@ -16134,7 +16190,7 @@
         <v>567</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>46</v>
@@ -16155,7 +16211,7 @@
         <v>568</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>101</v>
@@ -16179,7 +16235,7 @@
         <v>569</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>101</v>
@@ -16203,10 +16259,10 @@
         <v>570</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G576" s="1"/>
       <c r="I576" s="0" t="n">
@@ -16224,7 +16280,7 @@
         <v>571</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>101</v>
@@ -16248,7 +16304,7 @@
         <v>572</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>46</v>
@@ -16272,7 +16328,7 @@
         <v>573</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>46</v>
@@ -16296,7 +16352,7 @@
         <v>574</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>46</v>
@@ -16320,7 +16376,7 @@
         <v>575</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>21</v>
@@ -16344,7 +16400,7 @@
         <v>576</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C582" s="12" t="s">
         <v>122</v>
@@ -16353,7 +16409,7 @@
         <v>42</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I582" s="0" t="n">
         <f aca="false">IF(ISBLANK(B582),0,IF(D582="N/A",0,1))</f>
@@ -16370,7 +16426,7 @@
         <v>577</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C583" s="12" t="s">
         <v>122</v>
@@ -16379,7 +16435,7 @@
         <v>42</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I583" s="0" t="n">
         <f aca="false">IF(ISBLANK(B583),0,IF(D583="N/A",0,1))</f>
@@ -16396,7 +16452,7 @@
         <v>578</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>46</v>
@@ -16417,7 +16473,7 @@
         <v>579</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>46</v>
@@ -16438,10 +16494,10 @@
         <v>580</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G586" s="1"/>
       <c r="I586" s="0" t="n">
@@ -16459,10 +16515,10 @@
         <v>581</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G587" s="1"/>
       <c r="I587" s="0" t="n">
@@ -16480,10 +16536,10 @@
         <v>582</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G588" s="1"/>
       <c r="I588" s="0" t="n">
@@ -16501,7 +16557,7 @@
         <v>583</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>46</v>
@@ -16522,7 +16578,7 @@
         <v>584</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>46</v>
@@ -16543,7 +16599,7 @@
         <v>585</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>52</v>
@@ -16567,7 +16623,7 @@
         <v>586</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>11</v>
@@ -16591,7 +16647,7 @@
         <v>587</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>83</v>
@@ -16615,7 +16671,7 @@
         <v>588</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>54</v>
@@ -16636,7 +16692,7 @@
         <v>589</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>54</v>
@@ -16657,7 +16713,7 @@
         <v>590</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>54</v>
@@ -16678,7 +16734,7 @@
         <v>591</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>54</v>
@@ -16699,7 +16755,7 @@
         <v>592</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>54</v>
@@ -16720,7 +16776,7 @@
         <v>593</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>46</v>
@@ -16741,7 +16797,7 @@
         <v>594</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>21</v>
@@ -16765,7 +16821,7 @@
         <v>595</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>54</v>
@@ -16786,7 +16842,7 @@
         <v>596</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>41</v>
@@ -16810,7 +16866,7 @@
         <v>597</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>54</v>
@@ -16831,7 +16887,7 @@
         <v>598</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>143</v>
@@ -16852,7 +16908,7 @@
         <v>599</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>83</v>
@@ -16876,7 +16932,7 @@
         <v>600</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>61</v>
@@ -16897,7 +16953,7 @@
         <v>601</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>26</v>
@@ -16918,7 +16974,7 @@
         <v>602</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>83</v>
@@ -16942,7 +16998,7 @@
         <v>603</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>26</v>
@@ -16963,7 +17019,7 @@
         <v>604</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>21</v>
@@ -16987,7 +17043,7 @@
         <v>605</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>26</v>
@@ -17008,10 +17064,10 @@
         <v>606</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G612" s="1"/>
       <c r="I612" s="0" t="n">
@@ -17029,7 +17085,7 @@
         <v>607</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>26</v>
@@ -17050,7 +17106,7 @@
         <v>608</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>26</v>
@@ -17071,7 +17127,7 @@
         <v>609</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>15</v>
@@ -17096,7 +17152,7 @@
         <v>610</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>54</v>
@@ -17117,7 +17173,7 @@
         <v>611</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>26</v>
@@ -17138,7 +17194,7 @@
         <v>612</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>26</v>
@@ -17159,7 +17215,7 @@
         <v>613</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>86</v>
@@ -17183,7 +17239,7 @@
         <v>614</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>26</v>
@@ -17204,7 +17260,7 @@
         <v>615</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>86</v>
@@ -17228,7 +17284,7 @@
         <v>616</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>41</v>
@@ -17252,7 +17308,7 @@
         <v>617</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>21</v>
@@ -17273,7 +17329,7 @@
         <v>618</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C624" s="12" t="s">
         <v>122</v>
@@ -17282,7 +17338,7 @@
         <v>42</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="I624" s="0" t="n">
         <f aca="false">IF(ISBLANK(B624),0,IF(D624="N/A",0,1))</f>
@@ -17299,7 +17355,7 @@
         <v>619</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C625" s="12" t="s">
         <v>122</v>
@@ -17308,7 +17364,7 @@
         <v>42</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="I625" s="0" t="n">
         <f aca="false">IF(ISBLANK(B625),0,IF(D625="N/A",0,1))</f>
@@ -17325,7 +17381,7 @@
         <v>620</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>54</v>
@@ -17346,7 +17402,7 @@
         <v>621</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>41</v>
@@ -17370,7 +17426,7 @@
         <v>622</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>46</v>
@@ -17391,10 +17447,10 @@
         <v>623</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G629" s="1"/>
       <c r="I629" s="0" t="n">
@@ -17412,10 +17468,10 @@
         <v>624</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G630" s="1"/>
       <c r="I630" s="0" t="n">
@@ -17433,7 +17489,7 @@
         <v>625</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>109</v>
@@ -17454,7 +17510,7 @@
         <v>626</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>26</v>
@@ -17475,7 +17531,7 @@
         <v>627</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>61</v>
@@ -17499,7 +17555,7 @@
         <v>628</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>21</v>
@@ -17508,7 +17564,7 @@
         <v>42</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="I634" s="0" t="n">
         <f aca="false">IF(ISBLANK(B634),0,IF(D634="N/A",0,1))</f>
@@ -17525,7 +17581,7 @@
         <v>629</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>11</v>
@@ -17549,7 +17605,7 @@
         <v>630</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C636" s="12" t="s">
         <v>122</v>
@@ -17558,7 +17614,7 @@
         <v>42</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="I636" s="0" t="n">
         <f aca="false">IF(ISBLANK(B636),0,IF(D636="N/A",0,1))</f>
@@ -17575,7 +17631,7 @@
         <v>631</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>46</v>
@@ -17596,7 +17652,7 @@
         <v>632</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C638" s="12" t="s">
         <v>122</v>
@@ -17605,7 +17661,7 @@
         <v>42</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="I638" s="0" t="n">
         <f aca="false">IF(ISBLANK(B638),0,IF(D638="N/A",0,1))</f>
@@ -17622,7 +17678,7 @@
         <v>633</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>83</v>
@@ -17646,7 +17702,7 @@
         <v>634</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>168</v>
@@ -17667,7 +17723,7 @@
         <v>635</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>159</v>
@@ -17691,7 +17747,7 @@
         <v>636</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>21</v>
@@ -17715,7 +17771,7 @@
         <v>637</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>159</v>
@@ -17739,7 +17795,7 @@
         <v>638</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>41</v>
@@ -17760,7 +17816,7 @@
         <v>639</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>83</v>
@@ -17784,7 +17840,7 @@
         <v>640</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>41</v>
@@ -17808,7 +17864,7 @@
         <v>641</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>41</v>
@@ -17832,7 +17888,7 @@
         <v>642</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>41</v>
@@ -17856,7 +17912,7 @@
         <v>643</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>41</v>
@@ -17880,7 +17936,7 @@
         <v>644</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>41</v>
@@ -17898,16 +17954,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="n">
         <f aca="false">A650+1</f>
         <v>645</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G651" s="1"/>
       <c r="I651" s="0" t="n">
@@ -17916,7 +17975,7 @@
       </c>
       <c r="J651" s="0" t="n">
         <f aca="false">IF(ISBLANK(D651),0,I651)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17925,7 +17984,7 @@
         <v>646</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>21</v>
@@ -17946,7 +18005,7 @@
         <v>647</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>21</v>
@@ -17956,7 +18015,7 @@
       </c>
       <c r="F653" s="11"/>
       <c r="G653" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I653" s="0" t="n">
         <f aca="false">IF(ISBLANK(B653),0,IF(D653="N/A",0,1))</f>
@@ -17973,7 +18032,7 @@
         <v>648</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>26</v>
@@ -17994,7 +18053,7 @@
         <v>649</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>26</v>
@@ -18015,7 +18074,7 @@
         <v>650</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>143</v>
@@ -18036,7 +18095,7 @@
         <v>651</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>21</v>
@@ -18061,7 +18120,7 @@
         <v>652</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>61</v>
@@ -18085,7 +18144,7 @@
         <v>653</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>26</v>
@@ -18106,7 +18165,7 @@
         <v>654</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>26</v>
@@ -18127,7 +18186,7 @@
         <v>655</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C661" s="12" t="s">
         <v>122</v>
@@ -18152,10 +18211,10 @@
         <v>656</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G662" s="1"/>
       <c r="I662" s="0" t="n">
@@ -18173,7 +18232,7 @@
         <v>657</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>26</v>
@@ -18194,7 +18253,7 @@
         <v>658</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>15</v>
@@ -18218,7 +18277,7 @@
         <v>659</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>46</v>
@@ -18239,7 +18298,7 @@
         <v>660</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>46</v>
@@ -18260,7 +18319,7 @@
         <v>661</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>101</v>
@@ -18284,7 +18343,7 @@
         <v>662</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>46</v>
@@ -18305,7 +18364,7 @@
         <v>663</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>52</v>
@@ -18329,7 +18388,7 @@
         <v>664</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>26</v>
@@ -18350,7 +18409,7 @@
         <v>665</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>26</v>
@@ -18371,7 +18430,7 @@
         <v>666</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>26</v>
@@ -18392,7 +18451,7 @@
         <v>667</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>61</v>
@@ -18416,7 +18475,7 @@
         <v>668</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>86</v>
@@ -18440,7 +18499,7 @@
         <v>669</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>26</v>
@@ -18461,7 +18520,7 @@
         <v>670</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>26</v>
@@ -18482,7 +18541,7 @@
         <v>671</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>26</v>
@@ -18503,7 +18562,7 @@
         <v>672</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>86</v>
@@ -18527,7 +18586,7 @@
         <v>673</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>26</v>
@@ -18548,7 +18607,7 @@
         <v>674</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>26</v>
@@ -18569,7 +18628,7 @@
         <v>675</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>26</v>
@@ -18590,7 +18649,7 @@
         <v>676</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>26</v>
@@ -18611,16 +18670,16 @@
         <v>677</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="I683" s="0" t="n">
         <f aca="false">IF(ISBLANK(B683),0,IF(D683="N/A",0,1))</f>
@@ -18637,7 +18696,7 @@
         <v>678</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>109</v>
@@ -18658,7 +18717,7 @@
         <v>679</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>21</v>
@@ -18679,7 +18738,7 @@
         <v>680</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>26</v>
@@ -18700,7 +18759,7 @@
         <v>681</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>54</v>
@@ -18721,7 +18780,7 @@
         <v>682</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>159</v>
@@ -18745,7 +18804,7 @@
         <v>683</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>21</v>
@@ -18769,7 +18828,7 @@
         <v>684</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>49</v>
@@ -18793,16 +18852,16 @@
         <v>685</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="I691" s="0" t="n">
         <f aca="false">IF(ISBLANK(B691),0,IF(D691="N/A",0,1))</f>
@@ -18819,7 +18878,7 @@
         <v>686</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>26</v>
@@ -18840,7 +18899,7 @@
         <v>687</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>54</v>
@@ -18861,7 +18920,7 @@
         <v>688</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>109</v>
@@ -18871,7 +18930,7 @@
       </c>
       <c r="F694" s="11"/>
       <c r="G694" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I694" s="0" t="n">
         <f aca="false">IF(ISBLANK(B694),0,IF(D694="N/A",0,1))</f>
@@ -18888,7 +18947,7 @@
         <v>689</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>143</v>
@@ -18909,7 +18968,7 @@
         <v>690</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>46</v>
@@ -18930,7 +18989,7 @@
         <v>691</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>46</v>
@@ -18951,7 +19010,7 @@
         <v>692</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>83</v>
@@ -18975,7 +19034,7 @@
         <v>693</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>26</v>
@@ -18996,7 +19055,7 @@
         <v>694</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>26</v>
@@ -19017,7 +19076,7 @@
         <v>695</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>109</v>
@@ -19038,7 +19097,7 @@
         <v>696</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>26</v>
@@ -19059,7 +19118,7 @@
         <v>697</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>26</v>
@@ -19080,7 +19139,7 @@
         <v>698</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>46</v>
@@ -19101,7 +19160,7 @@
         <v>699</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>161</v>
@@ -19122,7 +19181,7 @@
         <v>700</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>26</v>
@@ -19143,7 +19202,7 @@
         <v>701</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>54</v>
@@ -19164,7 +19223,7 @@
         <v>702</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>26</v>
@@ -19185,7 +19244,7 @@
         <v>703</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>49</v>
@@ -19206,7 +19265,7 @@
         <v>704</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>41</v>
@@ -19227,7 +19286,7 @@
         <v>705</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>109</v>
@@ -19248,7 +19307,7 @@
         <v>706</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>96</v>
@@ -19269,7 +19328,7 @@
         <v>707</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>96</v>
@@ -19290,7 +19349,7 @@
         <v>708</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>96</v>
@@ -19311,7 +19370,7 @@
         <v>709</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>21</v>
@@ -19321,7 +19380,7 @@
       </c>
       <c r="F715" s="11"/>
       <c r="G715" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="I715" s="0" t="n">
         <f aca="false">IF(ISBLANK(B715),0,IF(D715="N/A",0,1))</f>
@@ -19338,7 +19397,7 @@
         <v>710</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>24</v>
@@ -19363,7 +19422,7 @@
         <v>711</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>24</v>
@@ -19382,13 +19441,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="n">
         <f aca="false">A717+1</f>
         <v>712</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>52</v>
@@ -19412,7 +19471,7 @@
         <v>713</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>41</v>
@@ -19433,7 +19492,7 @@
         <v>714</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>26</v>
@@ -19454,7 +19513,7 @@
         <v>715</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>41</v>
@@ -19478,7 +19537,7 @@
         <v>716</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>101</v>
@@ -19502,7 +19561,7 @@
         <v>717</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>101</v>
@@ -19526,7 +19585,7 @@
         <v>718</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>159</v>
@@ -19550,10 +19609,10 @@
         <v>719</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C725" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>12</v>
@@ -19574,7 +19633,7 @@
         <v>720</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>143</v>
@@ -19595,7 +19654,7 @@
         <v>721</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>143</v>
@@ -19616,7 +19675,7 @@
         <v>722</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>143</v>
@@ -19637,7 +19696,7 @@
         <v>723</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>143</v>
@@ -19658,7 +19717,7 @@
         <v>724</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>24</v>
@@ -19683,7 +19742,7 @@
         <v>725</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>46</v>
@@ -19704,7 +19763,7 @@
         <v>726</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>46</v>
@@ -19725,7 +19784,7 @@
         <v>727</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>143</v>
@@ -19746,7 +19805,7 @@
         <v>728</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>41</v>
@@ -19770,7 +19829,7 @@
         <v>729</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>21</v>
@@ -19791,7 +19850,7 @@
         <v>730</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>21</v>
@@ -19815,7 +19874,7 @@
         <v>731</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>21</v>
@@ -19836,7 +19895,7 @@
         <v>732</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>21</v>
@@ -19857,7 +19916,7 @@
         <v>733</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>26</v>
@@ -19878,7 +19937,7 @@
         <v>734</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>21</v>
@@ -19899,7 +19958,7 @@
         <v>735</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>109</v>
@@ -19920,7 +19979,7 @@
         <v>736</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>159</v>
@@ -19944,7 +20003,7 @@
         <v>737</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>54</v>
@@ -19965,7 +20024,7 @@
         <v>738</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>52</v>
@@ -19986,7 +20045,7 @@
         <v>739</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>143</v>
@@ -20007,7 +20066,7 @@
         <v>740</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>83</v>
@@ -20031,7 +20090,7 @@
         <v>741</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>83</v>
@@ -20055,7 +20114,7 @@
         <v>742</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>61</v>
@@ -20076,7 +20135,7 @@
         <v>743</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C749" s="12" t="s">
         <v>98</v>
@@ -20100,7 +20159,7 @@
         <v>744</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>161</v>
@@ -20124,7 +20183,7 @@
         <v>745</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>83</v>
@@ -20148,7 +20207,7 @@
         <v>746</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>26</v>
@@ -20169,7 +20228,7 @@
         <v>747</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>83</v>
@@ -20193,7 +20252,7 @@
         <v>748</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>54</v>
@@ -20214,7 +20273,7 @@
         <v>749</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>11</v>
@@ -20238,7 +20297,7 @@
         <v>750</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>83</v>
@@ -20262,7 +20321,7 @@
         <v>751</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>83</v>
@@ -20286,7 +20345,7 @@
         <v>752</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>54</v>
@@ -20307,7 +20366,7 @@
         <v>753</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>54</v>
@@ -20328,7 +20387,7 @@
         <v>754</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>143</v>
@@ -20349,7 +20408,7 @@
         <v>755</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>54</v>
@@ -20370,7 +20429,7 @@
         <v>756</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>54</v>
@@ -20391,7 +20450,7 @@
         <v>757</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>54</v>
@@ -20412,7 +20471,7 @@
         <v>758</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>54</v>
@@ -20433,7 +20492,7 @@
         <v>759</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>26</v>
@@ -20454,10 +20513,10 @@
         <v>760</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G766" s="1"/>
       <c r="I766" s="0" t="n">
@@ -20475,7 +20534,7 @@
         <v>761</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>54</v>
@@ -20496,7 +20555,7 @@
         <v>762</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>61</v>
@@ -20520,7 +20579,7 @@
         <v>763</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>77</v>
@@ -20541,7 +20600,7 @@
         <v>764</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>61</v>
@@ -20551,7 +20610,7 @@
       </c>
       <c r="F770" s="11"/>
       <c r="G770" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="I770" s="0" t="n">
         <f aca="false">IF(ISBLANK(B770),0,IF(D770="N/A",0,1))</f>
@@ -20568,7 +20627,7 @@
         <v>765</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>26</v>
@@ -20589,7 +20648,7 @@
         <v>766</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>26</v>
@@ -20610,7 +20669,7 @@
         <v>767</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>26</v>
@@ -20631,7 +20690,7 @@
         <v>768</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>143</v>
@@ -20652,7 +20711,7 @@
         <v>769</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>61</v>
@@ -20662,7 +20721,7 @@
       </c>
       <c r="F775" s="11"/>
       <c r="G775" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="I775" s="0" t="n">
         <f aca="false">IF(ISBLANK(B775),0,IF(D775="N/A",0,1))</f>
@@ -20679,7 +20738,7 @@
         <v>770</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>143</v>
@@ -20700,7 +20759,7 @@
         <v>771</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>143</v>
@@ -20721,7 +20780,7 @@
         <v>772</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>143</v>
@@ -20742,7 +20801,7 @@
         <v>773</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>143</v>
@@ -20763,7 +20822,7 @@
         <v>774</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>143</v>
@@ -20784,7 +20843,7 @@
         <v>775</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>143</v>
@@ -20805,7 +20864,7 @@
         <v>776</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>143</v>
@@ -20826,7 +20885,7 @@
         <v>777</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>143</v>
@@ -20847,13 +20906,13 @@
         <v>778</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G784" s="1"/>
       <c r="I784" s="0" t="n">
@@ -20871,13 +20930,13 @@
         <v>779</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G785" s="1"/>
       <c r="I785" s="0" t="n">
@@ -20895,13 +20954,13 @@
         <v>780</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G786" s="1"/>
       <c r="I786" s="0" t="n">
@@ -20919,13 +20978,13 @@
         <v>781</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G787" s="1"/>
       <c r="I787" s="0" t="n">
@@ -20943,13 +21002,13 @@
         <v>782</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G788" s="1"/>
       <c r="I788" s="0" t="n">
@@ -20967,13 +21026,13 @@
         <v>783</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G789" s="1"/>
       <c r="I789" s="0" t="n">
@@ -20991,13 +21050,13 @@
         <v>784</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G790" s="1"/>
       <c r="I790" s="0" t="n">
@@ -21015,13 +21074,13 @@
         <v>785</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G791" s="1"/>
       <c r="I791" s="0" t="n">
@@ -21039,13 +21098,13 @@
         <v>786</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G792" s="1"/>
       <c r="I792" s="0" t="n">
@@ -21063,13 +21122,13 @@
         <v>787</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G793" s="1"/>
       <c r="I793" s="0" t="n">
@@ -21087,13 +21146,13 @@
         <v>788</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G794" s="1"/>
       <c r="I794" s="0" t="n">
@@ -21111,13 +21170,13 @@
         <v>789</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G795" s="1"/>
       <c r="I795" s="0" t="n">
@@ -21135,13 +21194,13 @@
         <v>790</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G796" s="1"/>
       <c r="I796" s="0" t="n">
@@ -21159,13 +21218,13 @@
         <v>791</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G797" s="1"/>
       <c r="I797" s="0" t="n">
@@ -21183,13 +21242,13 @@
         <v>792</v>
       </c>
       <c r="B798" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C798" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C798" s="1" t="s">
-        <v>859</v>
-      </c>
       <c r="D798" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G798" s="1"/>
       <c r="I798" s="0" t="n">
@@ -21207,13 +21266,13 @@
         <v>793</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G799" s="1"/>
       <c r="I799" s="0" t="n">
@@ -21231,13 +21290,13 @@
         <v>794</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G800" s="1"/>
       <c r="I800" s="0" t="n">
@@ -21255,13 +21314,13 @@
         <v>795</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G801" s="1"/>
       <c r="I801" s="0" t="n">
@@ -21279,13 +21338,13 @@
         <v>796</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G802" s="1"/>
       <c r="I802" s="0" t="n">
@@ -21303,13 +21362,13 @@
         <v>797</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G803" s="1"/>
       <c r="I803" s="0" t="n">
@@ -21327,13 +21386,13 @@
         <v>798</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G804" s="1"/>
       <c r="I804" s="0" t="n">
@@ -21351,13 +21410,13 @@
         <v>799</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G805" s="1"/>
       <c r="I805" s="0" t="n">
@@ -21375,13 +21434,13 @@
         <v>800</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G806" s="1"/>
       <c r="I806" s="0" t="n">
@@ -21399,13 +21458,13 @@
         <v>801</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G807" s="1"/>
       <c r="I807" s="0" t="n">
@@ -21423,13 +21482,13 @@
         <v>802</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G808" s="1"/>
       <c r="I808" s="0" t="n">
@@ -21447,13 +21506,13 @@
         <v>803</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G809" s="1"/>
       <c r="I809" s="0" t="n">
@@ -21471,13 +21530,13 @@
         <v>804</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G810" s="1"/>
       <c r="I810" s="0" t="n">
@@ -21495,13 +21554,13 @@
         <v>805</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G811" s="1"/>
       <c r="I811" s="0" t="n">
@@ -21519,13 +21578,13 @@
         <v>806</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G812" s="1"/>
       <c r="I812" s="0" t="n">
@@ -21543,13 +21602,13 @@
         <v>807</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G813" s="1"/>
       <c r="I813" s="0" t="n">
@@ -21567,13 +21626,13 @@
         <v>808</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G814" s="1"/>
       <c r="I814" s="0" t="n">
@@ -21591,13 +21650,13 @@
         <v>809</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G815" s="1"/>
       <c r="I815" s="0" t="n">
@@ -21615,13 +21674,13 @@
         <v>810</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G816" s="1"/>
       <c r="I816" s="0" t="n">
@@ -21639,13 +21698,13 @@
         <v>811</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G817" s="1"/>
       <c r="I817" s="0" t="n">
@@ -21663,13 +21722,13 @@
         <v>812</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G818" s="1"/>
       <c r="I818" s="0" t="n">
@@ -21687,13 +21746,13 @@
         <v>813</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G819" s="1"/>
       <c r="I819" s="0" t="n">
@@ -21711,13 +21770,13 @@
         <v>814</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G820" s="1"/>
       <c r="I820" s="0" t="n">
@@ -21735,13 +21794,13 @@
         <v>815</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G821" s="1"/>
       <c r="I821" s="0" t="n">
@@ -21759,13 +21818,13 @@
         <v>816</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G822" s="1"/>
       <c r="I822" s="0" t="n">
@@ -21783,13 +21842,13 @@
         <v>817</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G823" s="1"/>
       <c r="I823" s="0" t="n">
@@ -21807,13 +21866,13 @@
         <v>818</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G824" s="1"/>
       <c r="I824" s="0" t="n">
@@ -21831,13 +21890,13 @@
         <v>819</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G825" s="1"/>
       <c r="I825" s="0" t="n">
@@ -21855,13 +21914,13 @@
         <v>820</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G826" s="1"/>
       <c r="I826" s="0" t="n">
@@ -21879,13 +21938,13 @@
         <v>821</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C827" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G827" s="1"/>
       <c r="I827" s="0" t="n">
@@ -21903,13 +21962,13 @@
         <v>822</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C828" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G828" s="1"/>
       <c r="I828" s="0" t="n">
@@ -21927,13 +21986,13 @@
         <v>823</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C829" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G829" s="1"/>
       <c r="I829" s="0" t="n">
@@ -21951,13 +22010,13 @@
         <v>824</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C830" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G830" s="1"/>
       <c r="I830" s="0" t="n">
@@ -21975,13 +22034,13 @@
         <v>825</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C831" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G831" s="1"/>
       <c r="I831" s="0" t="n">
@@ -21999,13 +22058,13 @@
         <v>826</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C832" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G832" s="1"/>
       <c r="I832" s="0" t="n">
@@ -22023,13 +22082,13 @@
         <v>827</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C833" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G833" s="1"/>
       <c r="I833" s="0" t="n">
@@ -22047,13 +22106,13 @@
         <v>828</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C834" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G834" s="1"/>
       <c r="I834" s="0" t="n">
@@ -22071,13 +22130,13 @@
         <v>829</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C835" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G835" s="1"/>
       <c r="I835" s="0" t="n">
@@ -22095,13 +22154,13 @@
         <v>830</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C836" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G836" s="1"/>
       <c r="I836" s="0" t="n">
@@ -22119,13 +22178,13 @@
         <v>831</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C837" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G837" s="1"/>
       <c r="I837" s="0" t="n">
@@ -22143,13 +22202,13 @@
         <v>832</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C838" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G838" s="1"/>
       <c r="I838" s="0" t="n">
@@ -22167,13 +22226,13 @@
         <v>833</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C839" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G839" s="1"/>
       <c r="I839" s="0" t="n">
@@ -22191,13 +22250,13 @@
         <v>834</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G840" s="1"/>
       <c r="I840" s="0" t="n">
@@ -22215,13 +22274,13 @@
         <v>835</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G841" s="1"/>
       <c r="I841" s="0" t="n">
@@ -22239,13 +22298,13 @@
         <v>836</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G842" s="1"/>
       <c r="I842" s="0" t="n">
@@ -22263,13 +22322,13 @@
         <v>837</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G843" s="1"/>
       <c r="I843" s="0" t="n">
@@ -22287,13 +22346,13 @@
         <v>838</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G844" s="1"/>
       <c r="I844" s="0" t="n">
@@ -22311,13 +22370,13 @@
         <v>839</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G845" s="1"/>
       <c r="I845" s="0" t="n">
@@ -22335,13 +22394,13 @@
         <v>840</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G846" s="1"/>
       <c r="I846" s="0" t="n">
@@ -22359,13 +22418,13 @@
         <v>841</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G847" s="1"/>
       <c r="I847" s="0" t="n">
@@ -22383,13 +22442,13 @@
         <v>842</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G848" s="1"/>
       <c r="I848" s="0" t="n">
@@ -22407,13 +22466,13 @@
         <v>843</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G849" s="1"/>
       <c r="I849" s="0" t="n">
@@ -22431,13 +22490,13 @@
         <v>844</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G850" s="1"/>
       <c r="I850" s="0" t="n">
@@ -22455,13 +22514,13 @@
         <v>845</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G851" s="1"/>
       <c r="I851" s="0" t="n">
@@ -22479,13 +22538,13 @@
         <v>846</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G852" s="1"/>
       <c r="I852" s="0" t="n">
@@ -22503,13 +22562,13 @@
         <v>847</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G853" s="1"/>
       <c r="I853" s="0" t="n">
@@ -22527,13 +22586,13 @@
         <v>848</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G854" s="1"/>
       <c r="I854" s="0" t="n">
@@ -22551,13 +22610,13 @@
         <v>849</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G855" s="1"/>
       <c r="I855" s="0" t="n">
@@ -22575,13 +22634,13 @@
         <v>850</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G856" s="1"/>
       <c r="I856" s="0" t="n">
@@ -22599,13 +22658,13 @@
         <v>851</v>
       </c>
       <c r="B857" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C857" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C857" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="D857" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G857" s="1"/>
       <c r="I857" s="0" t="n">
@@ -22623,13 +22682,13 @@
         <v>852</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G858" s="1"/>
       <c r="I858" s="0" t="n">
@@ -22647,13 +22706,13 @@
         <v>853</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G859" s="1"/>
       <c r="I859" s="0" t="n">
@@ -22671,13 +22730,13 @@
         <v>854</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G860" s="1"/>
       <c r="I860" s="0" t="n">
@@ -22695,13 +22754,13 @@
         <v>855</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G861" s="1"/>
       <c r="I861" s="0" t="n">
@@ -22719,13 +22778,13 @@
         <v>856</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G862" s="1"/>
       <c r="I862" s="0" t="n">
@@ -22743,13 +22802,13 @@
         <v>857</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G863" s="1"/>
       <c r="I863" s="0" t="n">
@@ -22767,13 +22826,13 @@
         <v>858</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G864" s="1"/>
       <c r="I864" s="0" t="n">
@@ -22791,13 +22850,13 @@
         <v>859</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G865" s="1"/>
       <c r="I865" s="0" t="n">
@@ -22815,13 +22874,13 @@
         <v>860</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G866" s="1"/>
       <c r="I866" s="0" t="n">
@@ -22839,13 +22898,13 @@
         <v>861</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G867" s="1"/>
       <c r="I867" s="0" t="n">
@@ -22863,13 +22922,13 @@
         <v>862</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G868" s="1"/>
       <c r="I868" s="0" t="n">
@@ -22887,13 +22946,13 @@
         <v>863</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G869" s="1"/>
       <c r="I869" s="0" t="n">
@@ -22911,13 +22970,13 @@
         <v>864</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G870" s="1"/>
       <c r="I870" s="0" t="n">
@@ -22935,13 +22994,13 @@
         <v>865</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G871" s="1"/>
       <c r="I871" s="0" t="n">
@@ -22959,13 +23018,13 @@
         <v>866</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G872" s="1"/>
       <c r="I872" s="0" t="n">
@@ -22983,13 +23042,13 @@
         <v>867</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G873" s="1"/>
       <c r="I873" s="0" t="n">
@@ -23007,13 +23066,13 @@
         <v>868</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G874" s="1"/>
       <c r="I874" s="0" t="n">
@@ -23031,13 +23090,13 @@
         <v>869</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G875" s="1"/>
       <c r="I875" s="0" t="n">
@@ -23055,13 +23114,13 @@
         <v>870</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G876" s="1"/>
       <c r="I876" s="0" t="n">
@@ -23079,13 +23138,13 @@
         <v>871</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G877" s="1"/>
       <c r="I877" s="0" t="n">
@@ -23103,13 +23162,13 @@
         <v>872</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G878" s="1"/>
       <c r="I878" s="0" t="n">
@@ -23127,13 +23186,13 @@
         <v>873</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G879" s="1"/>
       <c r="I879" s="0" t="n">
@@ -23151,13 +23210,13 @@
         <v>874</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G880" s="1"/>
       <c r="I880" s="0" t="n">
@@ -23175,13 +23234,13 @@
         <v>875</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G881" s="1"/>
       <c r="I881" s="0" t="n">
@@ -23199,13 +23258,13 @@
         <v>876</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G882" s="1"/>
       <c r="I882" s="0" t="n">
@@ -23223,13 +23282,13 @@
         <v>877</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G883" s="1"/>
       <c r="I883" s="0" t="n">
@@ -23247,13 +23306,13 @@
         <v>878</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G884" s="1"/>
       <c r="I884" s="0" t="n">
@@ -23271,13 +23330,13 @@
         <v>879</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G885" s="1"/>
       <c r="I885" s="0" t="n">
@@ -23295,13 +23354,13 @@
         <v>880</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G886" s="1"/>
       <c r="I886" s="0" t="n">
@@ -23319,13 +23378,13 @@
         <v>881</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G887" s="1"/>
       <c r="I887" s="0" t="n">
@@ -23343,13 +23402,13 @@
         <v>882</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G888" s="1"/>
       <c r="I888" s="0" t="n">
@@ -23367,13 +23426,13 @@
         <v>883</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G889" s="1"/>
       <c r="I889" s="0" t="n">
@@ -23391,13 +23450,13 @@
         <v>884</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G890" s="1"/>
       <c r="I890" s="0" t="n">
@@ -23415,13 +23474,13 @@
         <v>885</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G891" s="1"/>
       <c r="I891" s="0" t="n">
@@ -23439,13 +23498,13 @@
         <v>886</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G892" s="1"/>
       <c r="I892" s="0" t="n">
@@ -23463,13 +23522,13 @@
         <v>887</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G893" s="1"/>
       <c r="I893" s="0" t="n">
@@ -26399,19 +26458,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G999">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PMIN"/>
-        <filter val="MINΣ"/>
-        <filter val="UFL1→MINIF"/>
-        <filter val="→MINIFONT"/>
-        <filter val="MINIFONT→"/>
-        <filter val="MINEHUNT"/>
-        <filter val="MINIT"/>
-        <filter val="MINR"/>
-        <filter val="MIN"/>
-        <filter val="PMINI"/>
-      </filters>
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="0"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Hardware"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -26443,35 +26498,35 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26482,7 +26537,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -21,9 +21,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$5:$G$999</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$5:$H$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="975">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -1073,6 +1075,9 @@
     <t xml:space="preserve">GET</t>
   </si>
   <si>
+    <t xml:space="preserve">Composites</t>
+  </si>
+  <si>
     <t xml:space="preserve">GETI</t>
   </si>
   <si>
@@ -1202,9 +1207,15 @@
     <t xml:space="preserve">IFT</t>
   </si>
   <si>
+    <t xml:space="preserve">Does XEQ on the true clause</t>
+  </si>
+  <si>
     <t xml:space="preserve">IFTE</t>
   </si>
   <si>
+    <t xml:space="preserve">Does XEQ on the true/false  clause</t>
+  </si>
+  <si>
     <t xml:space="preserve">ILAP</t>
   </si>
   <si>
@@ -1541,9 +1552,6 @@
     <t xml:space="preserve">OBJ→</t>
   </si>
   <si>
-    <t xml:space="preserve">Composites</t>
-  </si>
-  <si>
     <t xml:space="preserve">OCT</t>
   </si>
   <si>
@@ -2484,6 +2492,9 @@
   </si>
   <si>
     <t xml:space="preserve">XNUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbolic</t>
   </si>
   <si>
     <t xml:space="preserve">XOR</t>
@@ -2968,6 +2979,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2990,24 +3002,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3015,24 +3031,28 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3040,6 +3060,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3047,12 +3068,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3060,12 +3083,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3073,6 +3098,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3080,6 +3106,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3087,9 +3114,10 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3165,6 +3193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF33"/>
+        <bgColor rgb="FF66FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF66FF00"/>
       </patternFill>
     </fill>
@@ -3266,7 +3300,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3327,6 +3361,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3365,7 +3403,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF66FF33"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -3403,7 +3441,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66FF33"/>
       <rgbColor rgb="FF66FF00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -3437,7 +3475,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F673" activeCellId="0" sqref="F673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3460,7 +3498,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -3476,7 +3514,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.415094339622642</v>
+        <v>0.417610062893082</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,7 +3549,7 @@
     <row r="6" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>1</v>
@@ -3536,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>2</v>
@@ -3561,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>3</v>
@@ -3585,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>4</v>
@@ -3609,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>5</v>
@@ -3633,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>6</v>
@@ -3658,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>7</v>
@@ -3683,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>8</v>
@@ -3708,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>9</v>
@@ -3733,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>10</v>
@@ -3779,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>12</v>
@@ -3804,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>13</v>
@@ -3850,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">A20+1</f>
         <v>15</v>
@@ -3875,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="false">A21+1</f>
         <v>16</v>
@@ -3900,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="false">A22+1</f>
         <v>17</v>
@@ -3925,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <f aca="false">A23+1</f>
         <v>18</v>
@@ -3950,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="false">A24+1</f>
         <v>19</v>
@@ -3996,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="false">A26+1</f>
         <v>21</v>
@@ -4042,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">A28+1</f>
         <v>23</v>
@@ -4067,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="false">A29+1</f>
         <v>24</v>
@@ -4137,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">A32+1</f>
         <v>27</v>
@@ -4162,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">A33+1</f>
         <v>28</v>
@@ -4187,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">A34+1</f>
         <v>29</v>
@@ -4212,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="false">A35+1</f>
         <v>30</v>
@@ -4323,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">A40+1</f>
         <v>35</v>
@@ -4410,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="false">A44+1</f>
         <v>39</v>
@@ -4480,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="false">A47+1</f>
         <v>42</v>
@@ -4505,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">A48+1</f>
         <v>43</v>
@@ -4574,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <f aca="false">A51+1</f>
         <v>46</v>
@@ -4620,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="false">A53+1</f>
         <v>48</v>
@@ -4644,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">A54+1</f>
         <v>49</v>
@@ -4738,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="false">A58+1</f>
         <v>53</v>
@@ -4832,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+1</f>
         <v>57</v>
@@ -4857,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+1</f>
         <v>58</v>
@@ -4881,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+1</f>
         <v>59</v>
@@ -4905,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+1</f>
         <v>60</v>
@@ -4950,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+1</f>
         <v>62</v>
@@ -4974,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+1</f>
         <v>63</v>
@@ -5001,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+1</f>
         <v>64</v>
@@ -5109,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <f aca="false">A74+1</f>
         <v>69</v>
@@ -5267,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <f aca="false">A81+1</f>
         <v>76</v>
@@ -5337,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <f aca="false">A84+1</f>
         <v>79</v>
@@ -5361,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="false">A85+1</f>
         <v>80</v>
@@ -5427,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <f aca="false">A88+1</f>
         <v>83</v>
@@ -5547,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="false">A93+1</f>
         <v>88</v>
@@ -5621,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+1</f>
         <v>91</v>
@@ -5666,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">A98+1</f>
         <v>93</v>
@@ -6154,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">A120+1</f>
         <v>115</v>
@@ -6202,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">A122+1</f>
         <v>117</v>
@@ -6290,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="false">A126+1</f>
         <v>121</v>
@@ -6314,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="false">A127+1</f>
         <v>122</v>
@@ -6359,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">A129+1</f>
         <v>124</v>
@@ -6522,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <f aca="false">A136+1</f>
         <v>131</v>
@@ -6612,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <f aca="false">A140+1</f>
         <v>135</v>
@@ -6702,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">A144+1</f>
         <v>139</v>
@@ -6726,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="false">A145+1</f>
         <v>140</v>
@@ -6750,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="false">A146+1</f>
         <v>141</v>
@@ -6927,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+1</f>
         <v>149</v>
@@ -7018,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <f aca="false">A158+1</f>
         <v>153</v>
@@ -7042,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <f aca="false">A159+1</f>
         <v>154</v>
@@ -7088,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <f aca="false">A161+1</f>
         <v>156</v>
@@ -7112,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <f aca="false">A162+1</f>
         <v>157</v>
@@ -7181,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="false">A165+1</f>
         <v>160</v>
@@ -7387,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <f aca="false">A174+1</f>
         <v>169</v>
@@ -7411,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <f aca="false">A175+1</f>
         <v>170</v>
@@ -7435,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <f aca="false">A176+1</f>
         <v>171</v>
@@ -7507,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <f aca="false">A179+1</f>
         <v>174</v>
@@ -7597,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <f aca="false">A183+1</f>
         <v>178</v>
@@ -7642,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <f aca="false">A185+1</f>
         <v>180</v>
@@ -7692,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <f aca="false">A187+1</f>
         <v>182</v>
@@ -7740,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <f aca="false">A189+1</f>
         <v>184</v>
@@ -8180,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <f aca="false">A209+1</f>
         <v>204</v>
@@ -8204,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <f aca="false">A210+1</f>
         <v>205</v>
@@ -8231,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <f aca="false">A211+1</f>
         <v>206</v>
@@ -8279,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <f aca="false">A213+1</f>
         <v>208</v>
@@ -8414,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <f aca="false">A219+1</f>
         <v>214</v>
@@ -8438,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <f aca="false">A220+1</f>
         <v>215</v>
@@ -8462,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <f aca="false">A221+1</f>
         <v>216</v>
@@ -8507,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <f aca="false">A223+1</f>
         <v>218</v>
@@ -8531,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <f aca="false">A224+1</f>
         <v>219</v>
@@ -8555,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <f aca="false">A225+1</f>
         <v>220</v>
@@ -8579,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <f aca="false">A226+1</f>
         <v>221</v>
@@ -8738,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <f aca="false">A233+1</f>
         <v>228</v>
@@ -8762,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <f aca="false">A234+1</f>
         <v>229</v>
@@ -8786,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <f aca="false">A235+1</f>
         <v>230</v>
@@ -8936,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <f aca="false">A242+1</f>
         <v>237</v>
@@ -8961,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <f aca="false">A243+1</f>
         <v>238</v>
@@ -8986,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <f aca="false">A244+1</f>
         <v>239</v>
@@ -9032,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <f aca="false">A246+1</f>
         <v>241</v>
@@ -9077,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <f aca="false">A248+1</f>
         <v>243</v>
@@ -9463,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <f aca="false">A266+1</f>
         <v>261</v>
@@ -9487,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <f aca="false">A267+1</f>
         <v>262</v>
@@ -9595,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <f aca="false">A272+1</f>
         <v>267</v>
@@ -9693,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <f aca="false">A276+1</f>
         <v>271</v>
@@ -9801,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <f aca="false">A281+1</f>
         <v>276</v>
@@ -9846,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <f aca="false">A283+1</f>
         <v>278</v>
@@ -9912,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <f aca="false">A286+1</f>
         <v>281</v>
@@ -9936,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <f aca="false">A287+1</f>
         <v>282</v>
@@ -10065,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <f aca="false">A293+1</f>
         <v>288</v>
@@ -10119,11 +10157,12 @@
         <v>344</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F296" s="12"/>
       <c r="G296" s="1"/>
       <c r="I296" s="0" t="n">
         <f aca="false">IF(ISBLANK(B296),0,IF(D296="N/A",0,1))</f>
@@ -10140,14 +10179,15 @@
         <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F297" s="12"/>
       <c r="G297" s="1"/>
       <c r="I297" s="0" t="n">
         <f aca="false">IF(ISBLANK(B297),0,IF(D297="N/A",0,1))</f>
@@ -10164,7 +10204,7 @@
         <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>55</v>
@@ -10179,13 +10219,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <f aca="false">A298+1</f>
         <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>22</v>
@@ -10209,7 +10249,7 @@
         <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>47</v>
@@ -10233,7 +10273,7 @@
         <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>27</v>
@@ -10254,7 +10294,7 @@
         <v>296</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>55</v>
@@ -10275,7 +10315,7 @@
         <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>55</v>
@@ -10296,7 +10336,7 @@
         <v>298</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>55</v>
@@ -10317,7 +10357,7 @@
         <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>55</v>
@@ -10338,7 +10378,7 @@
         <v>300</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>53</v>
@@ -10362,7 +10402,7 @@
         <v>301</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>53</v>
@@ -10386,7 +10426,7 @@
         <v>302</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>53</v>
@@ -10410,7 +10450,7 @@
         <v>303</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>47</v>
@@ -10434,7 +10474,7 @@
         <v>304</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>27</v>
@@ -10449,13 +10489,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <f aca="false">A310+1</f>
         <v>305</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>161</v>
@@ -10480,14 +10520,15 @@
         <v>306</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F312" s="12"/>
       <c r="G312" s="1"/>
       <c r="I312" s="0" t="n">
         <f aca="false">IF(ISBLANK(B312),0,IF(D312="N/A",0,1))</f>
@@ -10504,7 +10545,7 @@
         <v>307</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>55</v>
@@ -10525,7 +10566,7 @@
         <v>308</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>111</v>
@@ -10546,7 +10587,7 @@
         <v>309</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>27</v>
@@ -10567,7 +10608,7 @@
         <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>27</v>
@@ -10588,7 +10629,7 @@
         <v>311</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>124</v>
@@ -10614,7 +10655,7 @@
         <v>312</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>47</v>
@@ -10638,7 +10679,7 @@
         <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>55</v>
@@ -10659,7 +10700,7 @@
         <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>55</v>
@@ -10674,13 +10715,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <f aca="false">A320+1</f>
         <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>50</v>
@@ -10698,13 +10739,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <f aca="false">A321+1</f>
         <v>316</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>50</v>
@@ -10722,13 +10763,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <f aca="false">A322+1</f>
         <v>317</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>50</v>
@@ -10746,13 +10787,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <f aca="false">A323+1</f>
         <v>318</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>180</v>
@@ -10776,7 +10817,7 @@
         <v>319</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>27</v>
@@ -10797,7 +10838,7 @@
         <v>320</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>78</v>
@@ -10821,7 +10862,7 @@
         <v>321</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>22</v>
@@ -10845,7 +10886,7 @@
         <v>322</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>16</v>
@@ -10869,7 +10910,7 @@
         <v>323</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>47</v>
@@ -10893,7 +10934,7 @@
         <v>324</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>16</v>
@@ -10917,7 +10958,7 @@
         <v>325</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>27</v>
@@ -10938,7 +10979,7 @@
         <v>326</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>16</v>
@@ -10956,13 +10997,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <f aca="false">A332+1</f>
         <v>327</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>16</v>
@@ -10986,7 +11027,7 @@
         <v>328</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>47</v>
@@ -11010,7 +11051,7 @@
         <v>329</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>16</v>
@@ -11028,13 +11069,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <f aca="false">A335+1</f>
         <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>161</v>
@@ -11052,13 +11093,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <f aca="false">A336+1</f>
         <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>161</v>
@@ -11082,7 +11123,7 @@
         <v>332</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>16</v>
@@ -11106,14 +11147,17 @@
         <v>333</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G339" s="1"/>
-      <c r="H339" s="0" t="n">
-        <v>150</v>
+      <c r="D339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F339" s="15"/>
+      <c r="G339" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="I339" s="0" t="n">
         <f aca="false">IF(ISBLANK(B339),0,IF(D339="N/A",0,1))</f>
@@ -11121,7 +11165,7 @@
       </c>
       <c r="J339" s="0" t="n">
         <f aca="false">IF(ISBLANK(D339),0,I339)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11130,14 +11174,17 @@
         <v>334</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G340" s="1"/>
-      <c r="H340" s="0" t="n">
-        <v>150</v>
+      <c r="D340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F340" s="15"/>
+      <c r="G340" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="I340" s="0" t="n">
         <f aca="false">IF(ISBLANK(B340),0,IF(D340="N/A",0,1))</f>
@@ -11145,7 +11192,7 @@
       </c>
       <c r="J340" s="0" t="n">
         <f aca="false">IF(ISBLANK(D340),0,I340)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11154,7 +11201,7 @@
         <v>335</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>27</v>
@@ -11169,13 +11216,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <f aca="false">A341+1</f>
         <v>336</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>109</v>
@@ -11200,7 +11247,7 @@
         <v>337</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>47</v>
@@ -11218,13 +11265,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <f aca="false">A343+1</f>
         <v>338</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>42</v>
@@ -11248,7 +11295,7 @@
         <v>339</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>55</v>
@@ -11269,7 +11316,7 @@
         <v>340</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>111</v>
@@ -11290,7 +11337,7 @@
         <v>341</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>111</v>
@@ -11311,7 +11358,7 @@
         <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>27</v>
@@ -11332,7 +11379,7 @@
         <v>343</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>111</v>
@@ -11353,7 +11400,7 @@
         <v>344</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>27</v>
@@ -11368,13 +11415,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <f aca="false">A350+1</f>
         <v>345</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>12</v>
@@ -11398,7 +11445,7 @@
         <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>16</v>
@@ -11416,13 +11463,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <f aca="false">A352+1</f>
         <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>163</v>
@@ -11440,13 +11487,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <f aca="false">A353+1</f>
         <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>16</v>
@@ -11470,7 +11517,7 @@
         <v>349</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>16</v>
@@ -11494,7 +11541,7 @@
         <v>350</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>27</v>
@@ -11515,7 +11562,7 @@
         <v>351</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>47</v>
@@ -11533,13 +11580,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <f aca="false">A357+1</f>
         <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>16</v>
@@ -11549,7 +11596,7 @@
       </c>
       <c r="F358" s="11"/>
       <c r="G358" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I358" s="0" t="n">
         <f aca="false">IF(ISBLANK(B358),0,IF(D358="N/A",0,1))</f>
@@ -11566,7 +11613,7 @@
         <v>353</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>47</v>
@@ -11590,7 +11637,7 @@
         <v>354</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>47</v>
@@ -11614,7 +11661,7 @@
         <v>355</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>84</v>
@@ -11634,13 +11681,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <f aca="false">A361+1</f>
         <v>356</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>84</v>
@@ -11649,7 +11696,7 @@
         <v>13</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="I362" s="0" t="n">
         <f aca="false">IF(ISBLANK(B362),0,IF(D362="N/A",0,1))</f>
@@ -11660,13 +11707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <f aca="false">A362+1</f>
         <v>357</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>84</v>
@@ -11690,7 +11737,7 @@
         <v>358</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>84</v>
@@ -11714,7 +11761,7 @@
         <v>359</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>84</v>
@@ -11732,13 +11779,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <f aca="false">A365+1</f>
         <v>360</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>161</v>
@@ -11763,7 +11810,7 @@
         <v>361</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>55</v>
@@ -11784,7 +11831,7 @@
         <v>362</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>27</v>
@@ -11805,7 +11852,7 @@
         <v>363</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>22</v>
@@ -11826,7 +11873,7 @@
         <v>364</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>27</v>
@@ -11847,7 +11894,7 @@
         <v>365</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>27</v>
@@ -11868,7 +11915,7 @@
         <v>366</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>22</v>
@@ -11889,7 +11936,7 @@
         <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>22</v>
@@ -11910,7 +11957,7 @@
         <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>55</v>
@@ -11925,13 +11972,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <f aca="false">A374+1</f>
         <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>16</v>
@@ -11955,7 +12002,7 @@
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>27</v>
@@ -11976,7 +12023,7 @@
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>27</v>
@@ -11997,7 +12044,7 @@
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>27</v>
@@ -12018,7 +12065,7 @@
         <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>16</v>
@@ -12042,7 +12089,7 @@
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>53</v>
@@ -12066,7 +12113,7 @@
         <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>22</v>
@@ -12087,7 +12134,7 @@
         <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>27</v>
@@ -12108,7 +12155,7 @@
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>27</v>
@@ -12129,7 +12176,7 @@
         <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>55</v>
@@ -12150,7 +12197,7 @@
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>145</v>
@@ -12171,7 +12218,7 @@
         <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>27</v>
@@ -12192,7 +12239,7 @@
         <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>27</v>
@@ -12207,13 +12254,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
         <f aca="false">A387+1</f>
         <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>62</v>
@@ -12231,13 +12278,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
         <f aca="false">A388+1</f>
         <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>87</v>
@@ -12261,7 +12308,7 @@
         <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>27</v>
@@ -12282,7 +12329,7 @@
         <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>27</v>
@@ -12303,7 +12350,7 @@
         <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>87</v>
@@ -12324,7 +12371,7 @@
         <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>42</v>
@@ -12342,13 +12389,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
         <f aca="false">A393+1</f>
         <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>87</v>
@@ -12372,7 +12419,7 @@
         <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>145</v>
@@ -12393,7 +12440,7 @@
         <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>47</v>
@@ -12417,7 +12464,7 @@
         <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>145</v>
@@ -12438,7 +12485,7 @@
         <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>47</v>
@@ -12462,7 +12509,7 @@
         <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>47</v>
@@ -12486,7 +12533,7 @@
         <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>27</v>
@@ -12507,7 +12554,7 @@
         <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>47</v>
@@ -12531,7 +12578,7 @@
         <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>111</v>
@@ -12546,13 +12593,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
         <f aca="false">A402+1</f>
         <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>163</v>
@@ -12570,13 +12617,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
         <f aca="false">A403+1</f>
         <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>62</v>
@@ -12600,7 +12647,7 @@
         <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>111</v>
@@ -12621,7 +12668,7 @@
         <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>111</v>
@@ -12636,13 +12683,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
         <f aca="false">A406+1</f>
         <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>16</v>
@@ -12666,7 +12713,7 @@
         <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>22</v>
@@ -12687,7 +12734,7 @@
         <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>145</v>
@@ -12708,10 +12755,10 @@
         <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G410" s="1"/>
       <c r="H410" s="0" t="n">
@@ -12732,7 +12779,7 @@
         <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>145</v>
@@ -12747,13 +12794,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <f aca="false">A411+1</f>
         <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>22</v>
@@ -12763,7 +12810,7 @@
       </c>
       <c r="F412" s="12"/>
       <c r="G412" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I412" s="0" t="n">
         <f aca="false">IF(ISBLANK(B412),0,IF(D412="N/A",0,1))</f>
@@ -12780,7 +12827,7 @@
         <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>111</v>
@@ -12801,7 +12848,7 @@
         <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>111</v>
@@ -12816,13 +12863,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <f aca="false">A414+1</f>
         <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>16</v>
@@ -12846,7 +12893,7 @@
         <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>53</v>
@@ -12867,7 +12914,7 @@
         <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>53</v>
@@ -12891,10 +12938,10 @@
         <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G418" s="1"/>
       <c r="H418" s="0" t="n">
@@ -12915,7 +12962,7 @@
         <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>22</v>
@@ -12936,7 +12983,7 @@
         <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>145</v>
@@ -12957,10 +13004,10 @@
         <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="0" t="n">
@@ -12981,7 +13028,7 @@
         <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>47</v>
@@ -12999,13 +13046,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
         <f aca="false">A422+1</f>
         <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>16</v>
@@ -13023,13 +13070,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
         <f aca="false">A423+1</f>
         <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>16</v>
@@ -13053,7 +13100,7 @@
         <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>111</v>
@@ -13074,10 +13121,10 @@
         <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G426" s="1"/>
       <c r="I426" s="0" t="n">
@@ -13095,10 +13142,10 @@
         <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G427" s="1"/>
       <c r="H427" s="0" t="n">
@@ -13119,7 +13166,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>111</v>
@@ -13140,10 +13187,10 @@
         <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G429" s="1"/>
       <c r="H429" s="0" t="n">
@@ -13164,10 +13211,10 @@
         <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G430" s="1"/>
       <c r="H430" s="0" t="n">
@@ -13182,13 +13229,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
         <f aca="false">A430+1</f>
         <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>16</v>
@@ -13212,10 +13259,10 @@
         <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G432" s="1"/>
       <c r="H432" s="0" t="n">
@@ -13236,7 +13283,7 @@
         <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>145</v>
@@ -13251,13 +13298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
         <f aca="false">A433+1</f>
         <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>102</v>
@@ -13275,13 +13322,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
         <f aca="false">A434+1</f>
         <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>12</v>
@@ -13299,13 +13346,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
         <f aca="false">A435+1</f>
         <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>22</v>
@@ -13324,13 +13371,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
         <f aca="false">A436+1</f>
         <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>161</v>
@@ -13348,13 +13395,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
         <f aca="false">A437+1</f>
         <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>16</v>
@@ -13373,13 +13420,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
         <f aca="false">A438+1</f>
         <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>102</v>
@@ -13397,13 +13444,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
         <f aca="false">A439+1</f>
         <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C440" s="13" t="s">
         <v>99</v>
@@ -13427,7 +13474,7 @@
         <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>111</v>
@@ -13442,13 +13489,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
         <f aca="false">A441+1</f>
         <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>62</v>
@@ -13472,7 +13519,7 @@
         <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>170</v>
@@ -13481,7 +13528,7 @@
         <v>43</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I443" s="0" t="n">
         <f aca="false">IF(ISBLANK(B443),0,IF(D443="N/A",0,1))</f>
@@ -13498,7 +13545,7 @@
         <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>55</v>
@@ -13519,7 +13566,7 @@
         <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>55</v>
@@ -13534,16 +13581,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
         <f aca="false">A445+1</f>
         <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="0" t="n">
@@ -13564,7 +13611,7 @@
         <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>22</v>
@@ -13582,13 +13629,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
         <f aca="false">A447+1</f>
         <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>22</v>
@@ -13612,7 +13659,7 @@
         <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>84</v>
@@ -13636,7 +13683,7 @@
         <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>84</v>
@@ -13654,13 +13701,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
         <f aca="false">A450+1</f>
         <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C451" s="13" t="s">
         <v>99</v>
@@ -13678,18 +13725,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
         <f aca="false">A451+1</f>
         <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D452" s="15" t="s">
+      <c r="D452" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G452" s="1"/>
@@ -13702,13 +13749,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
         <f aca="false">A452+1</f>
         <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>102</v>
@@ -13732,7 +13779,7 @@
         <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>16</v>
@@ -13756,7 +13803,7 @@
         <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>16</v>
@@ -13780,7 +13827,7 @@
         <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>55</v>
@@ -13801,7 +13848,7 @@
         <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>84</v>
@@ -13825,7 +13872,7 @@
         <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>55</v>
@@ -13846,7 +13893,7 @@
         <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>27</v>
@@ -13861,13 +13908,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
         <f aca="false">A459+1</f>
         <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C460" s="13" t="s">
         <v>180</v>
@@ -13891,7 +13938,7 @@
         <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>27</v>
@@ -13906,13 +13953,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
         <f aca="false">A461+1</f>
         <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>16</v>
@@ -13936,7 +13983,7 @@
         <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>55</v>
@@ -13957,7 +14004,7 @@
         <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>145</v>
@@ -13978,7 +14025,7 @@
         <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>55</v>
@@ -13993,13 +14040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
         <f aca="false">A465+1</f>
         <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>53</v>
@@ -14008,7 +14055,7 @@
         <v>13</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I466" s="0" t="n">
         <f aca="false">IF(ISBLANK(B466),0,IF(D466="N/A",0,1))</f>
@@ -14025,7 +14072,7 @@
         <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>53</v>
@@ -14049,10 +14096,10 @@
         <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G468" s="1"/>
       <c r="I468" s="0" t="n">
@@ -14070,7 +14117,7 @@
         <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>145</v>
@@ -14091,10 +14138,10 @@
         <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G470" s="1"/>
       <c r="I470" s="0" t="n">
@@ -14106,13 +14153,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
         <f aca="false">A470+1</f>
         <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>16</v>
@@ -14130,13 +14177,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
         <f aca="false">A471+1</f>
         <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C472" s="13" t="s">
         <v>180</v>
@@ -14154,13 +14201,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
         <f aca="false">A472+1</f>
         <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>102</v>
@@ -14178,13 +14225,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
         <f aca="false">A473+1</f>
         <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>102</v>
@@ -14208,7 +14255,7 @@
         <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>55</v>
@@ -14229,7 +14276,7 @@
         <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>111</v>
@@ -14250,7 +14297,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>53</v>
@@ -14274,7 +14321,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>55</v>
@@ -14295,7 +14342,7 @@
         <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>55</v>
@@ -14316,7 +14363,7 @@
         <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>55</v>
@@ -14337,7 +14384,7 @@
         <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>84</v>
@@ -14361,7 +14408,7 @@
         <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>55</v>
@@ -14382,7 +14429,7 @@
         <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>55</v>
@@ -14403,7 +14450,7 @@
         <v>478</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>55</v>
@@ -14424,7 +14471,7 @@
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>55</v>
@@ -14445,7 +14492,7 @@
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>47</v>
@@ -14463,13 +14510,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
         <f aca="false">A486+1</f>
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>53</v>
@@ -14478,7 +14525,7 @@
         <v>13</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I487" s="0" t="n">
         <f aca="false">IF(ISBLANK(B487),0,IF(D487="N/A",0,1))</f>
@@ -14495,7 +14542,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>53</v>
@@ -14519,7 +14566,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>55</v>
@@ -14540,7 +14587,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>111</v>
@@ -14561,7 +14608,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>22</v>
@@ -14576,16 +14623,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="n">
         <f aca="false">A491+1</f>
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="G492" s="1"/>
       <c r="H492" s="0" t="n">
@@ -14606,7 +14653,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>27</v>
@@ -14627,7 +14674,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>27</v>
@@ -14642,13 +14689,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="n">
         <f aca="false">A494+1</f>
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>16</v>
@@ -14673,7 +14720,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>84</v>
@@ -14697,7 +14744,7 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>145</v>
@@ -14718,7 +14765,7 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>145</v>
@@ -14739,7 +14786,7 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>145</v>
@@ -14760,7 +14807,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>27</v>
@@ -14781,7 +14828,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>16</v>
@@ -14805,7 +14852,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>84</v>
@@ -14829,7 +14876,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>111</v>
@@ -14850,7 +14897,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>111</v>
@@ -14871,7 +14918,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>16</v>
@@ -14895,7 +14942,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>27</v>
@@ -14916,7 +14963,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>84</v>
@@ -14940,7 +14987,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>84</v>
@@ -14964,7 +15011,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>84</v>
@@ -14988,7 +15035,7 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>145</v>
@@ -15009,7 +15056,7 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>16</v>
@@ -15033,7 +15080,7 @@
         <v>506</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>27</v>
@@ -15054,7 +15101,7 @@
         <v>507</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>27</v>
@@ -15075,10 +15122,10 @@
         <v>508</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G514" s="1"/>
       <c r="I514" s="0" t="n">
@@ -15090,13 +15137,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="n">
         <f aca="false">A514+1</f>
         <v>509</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>42</v>
@@ -15120,7 +15167,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>22</v>
@@ -15141,14 +15188,15 @@
         <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F517" s="15"/>
       <c r="G517" s="1"/>
       <c r="I517" s="0" t="n">
         <f aca="false">IF(ISBLANK(B517),0,IF(D517="N/A",0,1))</f>
@@ -15165,14 +15213,15 @@
         <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F518" s="12"/>
       <c r="G518" s="1"/>
       <c r="I518" s="0" t="n">
         <f aca="false">IF(ISBLANK(B518),0,IF(D518="N/A",0,1))</f>
@@ -15189,7 +15238,7 @@
         <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>145</v>
@@ -15210,7 +15259,7 @@
         <v>514</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>53</v>
@@ -15234,7 +15283,7 @@
         <v>515</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>55</v>
@@ -15255,7 +15304,7 @@
         <v>516</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>145</v>
@@ -15276,7 +15325,7 @@
         <v>517</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>55</v>
@@ -15297,7 +15346,7 @@
         <v>518</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>47</v>
@@ -15321,10 +15370,10 @@
         <v>519</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G525" s="1"/>
       <c r="H525" s="0" t="n">
@@ -15345,7 +15394,7 @@
         <v>520</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>16</v>
@@ -15369,7 +15418,7 @@
         <v>521</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>27</v>
@@ -15390,7 +15439,7 @@
         <v>522</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>27</v>
@@ -15411,7 +15460,7 @@
         <v>523</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>22</v>
@@ -15429,13 +15478,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
         <f aca="false">A529+1</f>
         <v>524</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C530" s="13" t="s">
         <v>109</v>
@@ -15460,7 +15509,7 @@
         <v>525</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>87</v>
@@ -15486,7 +15535,7 @@
         <v>526</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>22</v>
@@ -15504,13 +15553,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
         <f aca="false">A532+1</f>
         <v>527</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>22</v>
@@ -15534,7 +15583,7 @@
         <v>528</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>145</v>
@@ -15555,7 +15604,7 @@
         <v>529</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>47</v>
@@ -15579,7 +15628,7 @@
         <v>530</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>47</v>
@@ -15603,7 +15652,7 @@
         <v>531</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>27</v>
@@ -15624,7 +15673,7 @@
         <v>532</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>42</v>
@@ -15645,7 +15694,7 @@
         <v>533</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>47</v>
@@ -15669,7 +15718,7 @@
         <v>534</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>47</v>
@@ -15687,13 +15736,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
         <f aca="false">A540+1</f>
         <v>535</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>42</v>
@@ -15711,13 +15760,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
         <f aca="false">A541+1</f>
         <v>536</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>84</v>
@@ -15741,7 +15790,7 @@
         <v>537</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>22</v>
@@ -15756,13 +15805,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
         <f aca="false">A543+1</f>
         <v>538</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>22</v>
@@ -15772,7 +15821,7 @@
       </c>
       <c r="F544" s="12"/>
       <c r="G544" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I544" s="0" t="n">
         <f aca="false">IF(ISBLANK(B544),0,IF(D544="N/A",0,1))</f>
@@ -15783,13 +15832,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
         <f aca="false">A544+1</f>
         <v>539</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>111</v>
@@ -15799,7 +15848,7 @@
       </c>
       <c r="F545" s="12"/>
       <c r="G545" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I545" s="0" t="n">
         <f aca="false">IF(ISBLANK(B545),0,IF(D545="N/A",0,1))</f>
@@ -15816,7 +15865,7 @@
         <v>540</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>27</v>
@@ -15837,7 +15886,7 @@
         <v>541</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>145</v>
@@ -15852,13 +15901,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
         <f aca="false">A547+1</f>
         <v>542</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C548" s="13" t="s">
         <v>124</v>
@@ -15883,7 +15932,7 @@
         <v>543</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>47</v>
@@ -15907,7 +15956,7 @@
         <v>544</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>145</v>
@@ -15922,13 +15971,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
         <f aca="false">A550+1</f>
         <v>545</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C551" s="13" t="s">
         <v>109</v>
@@ -15953,7 +16002,7 @@
         <v>546</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>84</v>
@@ -15977,7 +16026,7 @@
         <v>547</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>22</v>
@@ -15986,7 +16035,7 @@
         <v>43</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I553" s="0" t="n">
         <f aca="false">IF(ISBLANK(B553),0,IF(D553="N/A",0,1))</f>
@@ -16003,7 +16052,7 @@
         <v>548</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>84</v>
@@ -16027,7 +16076,7 @@
         <v>549</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>47</v>
@@ -16051,7 +16100,7 @@
         <v>550</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>27</v>
@@ -16072,7 +16121,7 @@
         <v>551</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>42</v>
@@ -16093,7 +16142,7 @@
         <v>552</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>27</v>
@@ -16108,13 +16157,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
         <f aca="false">A558+1</f>
         <v>553</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>161</v>
@@ -16132,16 +16181,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
         <f aca="false">A559+1</f>
         <v>554</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="G560" s="1"/>
       <c r="H560" s="0" t="n">
@@ -16162,7 +16211,7 @@
         <v>555</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>55</v>
@@ -16183,7 +16232,7 @@
         <v>556</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>22</v>
@@ -16204,7 +16253,7 @@
         <v>557</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>27</v>
@@ -16219,13 +16268,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
         <f aca="false">A563+1</f>
         <v>558</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>62</v>
@@ -16249,7 +16298,7 @@
         <v>559</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>111</v>
@@ -16270,7 +16319,7 @@
         <v>560</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>27</v>
@@ -16291,10 +16340,10 @@
         <v>561</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G567" s="1"/>
       <c r="H567" s="0" t="n">
@@ -16315,10 +16364,10 @@
         <v>562</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G568" s="1"/>
       <c r="H568" s="0" t="n">
@@ -16339,10 +16388,10 @@
         <v>563</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="G569" s="1"/>
       <c r="H569" s="0" t="n">
@@ -16363,7 +16412,7 @@
         <v>564</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C570" s="13" t="s">
         <v>124</v>
@@ -16372,7 +16421,7 @@
         <v>43</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I570" s="0" t="n">
         <f aca="false">IF(ISBLANK(B570),0,IF(D570="N/A",0,1))</f>
@@ -16389,7 +16438,7 @@
         <v>565</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C571" s="13" t="s">
         <v>124</v>
@@ -16398,7 +16447,7 @@
         <v>43</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I571" s="0" t="n">
         <f aca="false">IF(ISBLANK(B571),0,IF(D571="N/A",0,1))</f>
@@ -16415,7 +16464,7 @@
         <v>566</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>163</v>
@@ -16439,7 +16488,7 @@
         <v>567</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>47</v>
@@ -16457,13 +16506,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
         <f aca="false">A573+1</f>
         <v>568</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>102</v>
@@ -16481,13 +16530,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
         <f aca="false">A574+1</f>
         <v>569</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>102</v>
@@ -16511,10 +16560,10 @@
         <v>570</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G576" s="1"/>
       <c r="H576" s="0" t="n">
@@ -16529,13 +16578,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="n">
         <f aca="false">A576+1</f>
         <v>571</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>102</v>
@@ -16553,13 +16602,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="n">
         <f aca="false">A577+1</f>
         <v>572</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>47</v>
@@ -16577,13 +16626,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
         <f aca="false">A578+1</f>
         <v>573</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>47</v>
@@ -16601,13 +16650,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
         <f aca="false">A579+1</f>
         <v>574</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>47</v>
@@ -16631,7 +16680,7 @@
         <v>575</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>22</v>
@@ -16655,7 +16704,7 @@
         <v>576</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C582" s="13" t="s">
         <v>124</v>
@@ -16664,7 +16713,7 @@
         <v>43</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I582" s="0" t="n">
         <f aca="false">IF(ISBLANK(B582),0,IF(D582="N/A",0,1))</f>
@@ -16681,7 +16730,7 @@
         <v>577</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C583" s="13" t="s">
         <v>124</v>
@@ -16690,7 +16739,7 @@
         <v>43</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I583" s="0" t="n">
         <f aca="false">IF(ISBLANK(B583),0,IF(D583="N/A",0,1))</f>
@@ -16707,7 +16756,7 @@
         <v>578</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>47</v>
@@ -16731,7 +16780,7 @@
         <v>579</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>47</v>
@@ -16755,10 +16804,10 @@
         <v>580</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G586" s="1"/>
       <c r="H586" s="0" t="n">
@@ -16779,10 +16828,10 @@
         <v>581</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G587" s="1"/>
       <c r="H587" s="0" t="n">
@@ -16803,10 +16852,10 @@
         <v>582</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G588" s="1"/>
       <c r="H588" s="0" t="n">
@@ -16827,7 +16876,7 @@
         <v>583</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>47</v>
@@ -16851,7 +16900,7 @@
         <v>584</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>47</v>
@@ -16875,7 +16924,7 @@
         <v>585</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>53</v>
@@ -16893,13 +16942,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="n">
         <f aca="false">A591+1</f>
         <v>586</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>12</v>
@@ -16923,7 +16972,7 @@
         <v>587</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>84</v>
@@ -16947,7 +16996,7 @@
         <v>588</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>55</v>
@@ -16968,7 +17017,7 @@
         <v>589</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>55</v>
@@ -16989,7 +17038,7 @@
         <v>590</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>55</v>
@@ -17010,7 +17059,7 @@
         <v>591</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>55</v>
@@ -17031,7 +17080,7 @@
         <v>592</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>55</v>
@@ -17052,7 +17101,7 @@
         <v>593</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>47</v>
@@ -17076,7 +17125,7 @@
         <v>594</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>22</v>
@@ -17100,7 +17149,7 @@
         <v>595</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>55</v>
@@ -17115,18 +17164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
         <f aca="false">A601+1</f>
         <v>596</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D602" s="15" t="s">
+      <c r="D602" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G602" s="1"/>
@@ -17145,7 +17194,7 @@
         <v>597</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>55</v>
@@ -17166,7 +17215,7 @@
         <v>598</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>145</v>
@@ -17187,7 +17236,7 @@
         <v>599</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>84</v>
@@ -17211,7 +17260,7 @@
         <v>600</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>62</v>
@@ -17232,7 +17281,7 @@
         <v>601</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>27</v>
@@ -17253,7 +17302,7 @@
         <v>602</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>84</v>
@@ -17277,7 +17326,7 @@
         <v>603</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>27</v>
@@ -17292,13 +17341,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="n">
         <f aca="false">A609+1</f>
         <v>604</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>22</v>
@@ -17322,7 +17371,7 @@
         <v>605</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>27</v>
@@ -17343,7 +17392,7 @@
         <v>606</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>215</v>
@@ -17364,7 +17413,7 @@
         <v>607</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>27</v>
@@ -17385,7 +17434,7 @@
         <v>608</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>27</v>
@@ -17400,13 +17449,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="n">
         <f aca="false">A614+1</f>
         <v>609</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>16</v>
@@ -17431,7 +17480,7 @@
         <v>610</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>55</v>
@@ -17452,7 +17501,7 @@
         <v>611</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>27</v>
@@ -17473,7 +17522,7 @@
         <v>612</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>27</v>
@@ -17488,13 +17537,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="n">
         <f aca="false">A618+1</f>
         <v>613</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>87</v>
@@ -17518,7 +17567,7 @@
         <v>614</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>27</v>
@@ -17533,13 +17582,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
         <f aca="false">A620+1</f>
         <v>615</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>87</v>
@@ -17557,18 +17606,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="n">
         <f aca="false">A621+1</f>
         <v>616</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D622" s="15" t="s">
+      <c r="D622" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G622" s="1"/>
@@ -17587,7 +17636,7 @@
         <v>617</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>22</v>
@@ -17608,7 +17657,7 @@
         <v>618</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C624" s="13" t="s">
         <v>124</v>
@@ -17617,7 +17666,7 @@
         <v>43</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I624" s="0" t="n">
         <f aca="false">IF(ISBLANK(B624),0,IF(D624="N/A",0,1))</f>
@@ -17634,7 +17683,7 @@
         <v>619</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C625" s="13" t="s">
         <v>124</v>
@@ -17643,7 +17692,7 @@
         <v>43</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I625" s="0" t="n">
         <f aca="false">IF(ISBLANK(B625),0,IF(D625="N/A",0,1))</f>
@@ -17660,7 +17709,7 @@
         <v>620</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>55</v>
@@ -17675,18 +17724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="n">
         <f aca="false">A626+1</f>
         <v>621</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D627" s="15" t="s">
+      <c r="D627" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G627" s="1"/>
@@ -17705,7 +17754,7 @@
         <v>622</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>47</v>
@@ -17729,10 +17778,10 @@
         <v>623</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G629" s="1"/>
       <c r="H629" s="0" t="n">
@@ -17753,10 +17802,10 @@
         <v>624</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G630" s="1"/>
       <c r="H630" s="0" t="n">
@@ -17777,7 +17826,7 @@
         <v>625</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>111</v>
@@ -17798,7 +17847,7 @@
         <v>626</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>27</v>
@@ -17813,13 +17862,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="n">
         <f aca="false">A632+1</f>
         <v>627</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>62</v>
@@ -17843,7 +17892,7 @@
         <v>628</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>22</v>
@@ -17852,7 +17901,7 @@
         <v>43</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I634" s="0" t="n">
         <f aca="false">IF(ISBLANK(B634),0,IF(D634="N/A",0,1))</f>
@@ -17863,13 +17912,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="n">
         <f aca="false">A634+1</f>
         <v>629</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>12</v>
@@ -17893,7 +17942,7 @@
         <v>630</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C636" s="13" t="s">
         <v>124</v>
@@ -17902,7 +17951,7 @@
         <v>43</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I636" s="0" t="n">
         <f aca="false">IF(ISBLANK(B636),0,IF(D636="N/A",0,1))</f>
@@ -17919,7 +17968,7 @@
         <v>631</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>47</v>
@@ -17943,7 +17992,7 @@
         <v>632</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C638" s="13" t="s">
         <v>124</v>
@@ -17952,7 +18001,7 @@
         <v>43</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I638" s="0" t="n">
         <f aca="false">IF(ISBLANK(B638),0,IF(D638="N/A",0,1))</f>
@@ -17969,7 +18018,7 @@
         <v>633</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>84</v>
@@ -17993,7 +18042,7 @@
         <v>634</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>170</v>
@@ -18011,13 +18060,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="n">
         <f aca="false">A640+1</f>
         <v>635</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>161</v>
@@ -18041,7 +18090,7 @@
         <v>636</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>22</v>
@@ -18059,13 +18108,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="n">
         <f aca="false">A642+1</f>
         <v>637</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>161</v>
@@ -18089,7 +18138,7 @@
         <v>638</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>42</v>
@@ -18110,7 +18159,7 @@
         <v>639</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>84</v>
@@ -18128,13 +18177,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="n">
         <f aca="false">A645+1</f>
         <v>640</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>42</v>
@@ -18152,18 +18201,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="n">
         <f aca="false">A646+1</f>
         <v>641</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D647" s="15" t="s">
+      <c r="D647" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G647" s="1"/>
@@ -18176,18 +18225,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="n">
         <f aca="false">A647+1</f>
         <v>642</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D648" s="15" t="s">
+      <c r="D648" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G648" s="1"/>
@@ -18200,18 +18249,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="n">
         <f aca="false">A648+1</f>
         <v>643</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D649" s="15" t="s">
+      <c r="D649" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G649" s="1"/>
@@ -18224,18 +18273,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="n">
         <f aca="false">A649+1</f>
         <v>644</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D650" s="15" t="s">
+      <c r="D650" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G650" s="1"/>
@@ -18248,13 +18297,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="n">
         <f aca="false">A650+1</f>
         <v>645</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>84</v>
@@ -18278,7 +18327,7 @@
         <v>646</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>22</v>
@@ -18293,13 +18342,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="n">
         <f aca="false">A652+1</f>
         <v>647</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>22</v>
@@ -18309,7 +18358,7 @@
       </c>
       <c r="F653" s="12"/>
       <c r="G653" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I653" s="0" t="n">
         <f aca="false">IF(ISBLANK(B653),0,IF(D653="N/A",0,1))</f>
@@ -18326,7 +18375,7 @@
         <v>648</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>27</v>
@@ -18347,7 +18396,7 @@
         <v>649</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>27</v>
@@ -18368,7 +18417,7 @@
         <v>650</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>145</v>
@@ -18383,13 +18432,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="n">
         <f aca="false">A656+1</f>
         <v>651</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>22</v>
@@ -18408,13 +18457,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="n">
         <f aca="false">A657+1</f>
         <v>652</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>62</v>
@@ -18438,7 +18487,7 @@
         <v>653</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>27</v>
@@ -18459,7 +18508,7 @@
         <v>654</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>27</v>
@@ -18474,13 +18523,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="n">
         <f aca="false">A660+1</f>
         <v>655</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C661" s="13" t="s">
         <v>124</v>
@@ -18499,16 +18548,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="n">
         <f aca="false">A661+1</f>
         <v>656</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="G662" s="1"/>
       <c r="H662" s="0" t="n">
@@ -18529,7 +18578,7 @@
         <v>657</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>27</v>
@@ -18544,13 +18593,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="n">
         <f aca="false">A663+1</f>
         <v>658</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>16</v>
@@ -18574,7 +18623,7 @@
         <v>659</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>47</v>
@@ -18598,7 +18647,7 @@
         <v>660</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>47</v>
@@ -18616,13 +18665,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="n">
         <f aca="false">A666+1</f>
         <v>661</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>102</v>
@@ -18646,7 +18695,7 @@
         <v>662</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>47</v>
@@ -18670,7 +18719,7 @@
         <v>663</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>53</v>
@@ -18694,7 +18743,7 @@
         <v>664</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>27</v>
@@ -18715,7 +18764,7 @@
         <v>665</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>27</v>
@@ -18736,7 +18785,7 @@
         <v>666</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>27</v>
@@ -18757,14 +18806,15 @@
         <v>667</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F673" s="12"/>
       <c r="G673" s="1"/>
       <c r="I673" s="0" t="n">
         <f aca="false">IF(ISBLANK(B673),0,IF(D673="N/A",0,1))</f>
@@ -18775,13 +18825,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="n">
         <f aca="false">A673+1</f>
         <v>668</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>87</v>
@@ -18805,7 +18855,7 @@
         <v>669</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>27</v>
@@ -18826,7 +18876,7 @@
         <v>670</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>27</v>
@@ -18847,7 +18897,7 @@
         <v>671</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>27</v>
@@ -18862,13 +18912,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
         <f aca="false">A677+1</f>
         <v>672</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>87</v>
@@ -18892,7 +18942,7 @@
         <v>673</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>27</v>
@@ -18913,7 +18963,7 @@
         <v>674</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>27</v>
@@ -18934,7 +18984,7 @@
         <v>675</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>27</v>
@@ -18955,7 +19005,7 @@
         <v>676</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>27</v>
@@ -18976,7 +19026,7 @@
         <v>677</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>215</v>
@@ -18985,7 +19035,7 @@
         <v>43</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="I683" s="0" t="n">
         <f aca="false">IF(ISBLANK(B683),0,IF(D683="N/A",0,1))</f>
@@ -19002,7 +19052,7 @@
         <v>678</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>111</v>
@@ -19023,7 +19073,7 @@
         <v>679</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>22</v>
@@ -19044,7 +19094,7 @@
         <v>680</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>27</v>
@@ -19065,7 +19115,7 @@
         <v>681</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>55</v>
@@ -19080,13 +19130,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="n">
         <f aca="false">A687+1</f>
         <v>682</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>161</v>
@@ -19104,13 +19154,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="n">
         <f aca="false">A688+1</f>
         <v>683</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>22</v>
@@ -19128,13 +19178,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="n">
         <f aca="false">A689+1</f>
         <v>684</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>50</v>
@@ -19158,7 +19208,7 @@
         <v>685</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>215</v>
@@ -19167,7 +19217,7 @@
         <v>43</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="I691" s="0" t="n">
         <f aca="false">IF(ISBLANK(B691),0,IF(D691="N/A",0,1))</f>
@@ -19184,7 +19234,7 @@
         <v>686</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>27</v>
@@ -19205,7 +19255,7 @@
         <v>687</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>55</v>
@@ -19220,13 +19270,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="n">
         <f aca="false">A693+1</f>
         <v>688</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>111</v>
@@ -19236,7 +19286,7 @@
       </c>
       <c r="F694" s="12"/>
       <c r="G694" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I694" s="0" t="n">
         <f aca="false">IF(ISBLANK(B694),0,IF(D694="N/A",0,1))</f>
@@ -19253,7 +19303,7 @@
         <v>689</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>145</v>
@@ -19274,7 +19324,7 @@
         <v>690</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>47</v>
@@ -19298,7 +19348,7 @@
         <v>691</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>47</v>
@@ -19322,7 +19372,7 @@
         <v>692</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>84</v>
@@ -19346,7 +19396,7 @@
         <v>693</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>27</v>
@@ -19367,7 +19417,7 @@
         <v>694</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>27</v>
@@ -19388,7 +19438,7 @@
         <v>695</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>111</v>
@@ -19409,7 +19459,7 @@
         <v>696</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>27</v>
@@ -19430,7 +19480,7 @@
         <v>697</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>27</v>
@@ -19451,7 +19501,7 @@
         <v>698</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>47</v>
@@ -19475,7 +19525,7 @@
         <v>699</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>163</v>
@@ -19499,7 +19549,7 @@
         <v>700</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>27</v>
@@ -19520,7 +19570,7 @@
         <v>701</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>55</v>
@@ -19541,7 +19591,7 @@
         <v>702</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>27</v>
@@ -19562,7 +19612,7 @@
         <v>703</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>50</v>
@@ -19583,7 +19633,7 @@
         <v>704</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>42</v>
@@ -19604,7 +19654,7 @@
         <v>705</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>111</v>
@@ -19625,7 +19675,7 @@
         <v>706</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>97</v>
@@ -19646,7 +19696,7 @@
         <v>707</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>97</v>
@@ -19667,7 +19717,7 @@
         <v>708</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>97</v>
@@ -19682,13 +19732,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="n">
         <f aca="false">A714+1</f>
         <v>709</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>22</v>
@@ -19698,7 +19748,7 @@
       </c>
       <c r="F715" s="12"/>
       <c r="G715" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I715" s="0" t="n">
         <f aca="false">IF(ISBLANK(B715),0,IF(D715="N/A",0,1))</f>
@@ -19709,13 +19759,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="n">
         <f aca="false">A715+1</f>
         <v>710</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>25</v>
@@ -19734,13 +19784,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="n">
         <f aca="false">A716+1</f>
         <v>711</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>25</v>
@@ -19765,7 +19815,7 @@
         <v>712</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>53</v>
@@ -19789,7 +19839,7 @@
         <v>713</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>42</v>
@@ -19810,7 +19860,7 @@
         <v>714</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>27</v>
@@ -19831,7 +19881,7 @@
         <v>715</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>42</v>
@@ -19849,13 +19899,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="n">
         <f aca="false">A721+1</f>
         <v>716</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>102</v>
@@ -19873,13 +19923,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="n">
         <f aca="false">A722+1</f>
         <v>717</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>102</v>
@@ -19897,13 +19947,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="n">
         <f aca="false">A723+1</f>
         <v>718</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>161</v>
@@ -19921,13 +19971,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="n">
         <f aca="false">A724+1</f>
         <v>719</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C725" s="13" t="s">
         <v>180</v>
@@ -19951,7 +20001,7 @@
         <v>720</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>145</v>
@@ -19972,7 +20022,7 @@
         <v>721</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>145</v>
@@ -19993,7 +20043,7 @@
         <v>722</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>145</v>
@@ -20014,7 +20064,7 @@
         <v>723</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>145</v>
@@ -20029,13 +20079,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="n">
         <f aca="false">A729+1</f>
         <v>724</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>25</v>
@@ -20060,7 +20110,7 @@
         <v>725</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>47</v>
@@ -20084,7 +20134,7 @@
         <v>726</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>47</v>
@@ -20108,7 +20158,7 @@
         <v>727</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>145</v>
@@ -20123,18 +20173,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="n">
         <f aca="false">A733+1</f>
         <v>728</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D734" s="15" t="s">
+      <c r="D734" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G734" s="1"/>
@@ -20153,7 +20203,7 @@
         <v>729</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>22</v>
@@ -20168,13 +20218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="n">
         <f aca="false">A735+1</f>
         <v>730</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>22</v>
@@ -20198,7 +20248,7 @@
         <v>731</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>22</v>
@@ -20219,7 +20269,7 @@
         <v>732</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>22</v>
@@ -20240,7 +20290,7 @@
         <v>733</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>27</v>
@@ -20261,7 +20311,7 @@
         <v>734</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>22</v>
@@ -20282,7 +20332,7 @@
         <v>735</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>111</v>
@@ -20297,13 +20347,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="n">
         <f aca="false">A741+1</f>
         <v>736</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>161</v>
@@ -20327,7 +20377,7 @@
         <v>737</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>55</v>
@@ -20348,7 +20398,7 @@
         <v>738</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>53</v>
@@ -20369,7 +20419,7 @@
         <v>739</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>145</v>
@@ -20390,7 +20440,7 @@
         <v>740</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>84</v>
@@ -20414,7 +20464,7 @@
         <v>741</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>84</v>
@@ -20438,10 +20488,10 @@
         <v>742</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>62</v>
+        <v>818</v>
       </c>
       <c r="G748" s="1"/>
       <c r="I748" s="0" t="n">
@@ -20453,13 +20503,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="n">
         <f aca="false">A748+1</f>
         <v>743</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C749" s="13" t="s">
         <v>99</v>
@@ -20477,13 +20527,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="n">
         <f aca="false">A749+1</f>
         <v>744</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>163</v>
@@ -20507,7 +20557,7 @@
         <v>745</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>84</v>
@@ -20531,7 +20581,7 @@
         <v>746</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>27</v>
@@ -20552,7 +20602,7 @@
         <v>747</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>84</v>
@@ -20576,7 +20626,7 @@
         <v>748</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>55</v>
@@ -20591,13 +20641,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="n">
         <f aca="false">A754+1</f>
         <v>749</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>12</v>
@@ -20621,7 +20671,7 @@
         <v>750</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>84</v>
@@ -20645,7 +20695,7 @@
         <v>751</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>84</v>
@@ -20669,7 +20719,7 @@
         <v>752</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>55</v>
@@ -20690,7 +20740,7 @@
         <v>753</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>55</v>
@@ -20711,7 +20761,7 @@
         <v>754</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>145</v>
@@ -20732,7 +20782,7 @@
         <v>755</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>55</v>
@@ -20753,7 +20803,7 @@
         <v>756</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>55</v>
@@ -20774,7 +20824,7 @@
         <v>757</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>55</v>
@@ -20795,7 +20845,7 @@
         <v>758</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>55</v>
@@ -20816,7 +20866,7 @@
         <v>759</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>27</v>
@@ -20837,7 +20887,7 @@
         <v>760</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>215</v>
@@ -20858,7 +20908,7 @@
         <v>761</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>55</v>
@@ -20873,13 +20923,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="n">
         <f aca="false">A767+1</f>
         <v>762</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>62</v>
@@ -20903,7 +20953,7 @@
         <v>763</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>78</v>
@@ -20921,13 +20971,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="n">
         <f aca="false">A769+1</f>
         <v>764</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>62</v>
@@ -20937,7 +20987,7 @@
       </c>
       <c r="F770" s="12"/>
       <c r="G770" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="I770" s="0" t="n">
         <f aca="false">IF(ISBLANK(B770),0,IF(D770="N/A",0,1))</f>
@@ -20954,7 +21004,7 @@
         <v>765</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>27</v>
@@ -20975,7 +21025,7 @@
         <v>766</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>27</v>
@@ -20996,7 +21046,7 @@
         <v>767</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>27</v>
@@ -21017,7 +21067,7 @@
         <v>768</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>145</v>
@@ -21032,13 +21082,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="n">
         <f aca="false">A774+1</f>
         <v>769</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>62</v>
@@ -21048,7 +21098,7 @@
       </c>
       <c r="F775" s="12"/>
       <c r="G775" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="I775" s="0" t="n">
         <f aca="false">IF(ISBLANK(B775),0,IF(D775="N/A",0,1))</f>
@@ -21065,7 +21115,7 @@
         <v>770</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>145</v>
@@ -21086,7 +21136,7 @@
         <v>771</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>145</v>
@@ -21107,7 +21157,7 @@
         <v>772</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>145</v>
@@ -21128,7 +21178,7 @@
         <v>773</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>145</v>
@@ -21149,7 +21199,7 @@
         <v>774</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>145</v>
@@ -21170,7 +21220,7 @@
         <v>775</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>145</v>
@@ -21191,7 +21241,7 @@
         <v>776</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>145</v>
@@ -21212,7 +21262,7 @@
         <v>777</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>145</v>
@@ -21233,13 +21283,13 @@
         <v>778</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G784" s="1"/>
       <c r="I784" s="0" t="n">
@@ -21257,13 +21307,13 @@
         <v>779</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G785" s="1"/>
       <c r="I785" s="0" t="n">
@@ -21281,13 +21331,13 @@
         <v>780</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G786" s="1"/>
       <c r="I786" s="0" t="n">
@@ -21305,13 +21355,13 @@
         <v>781</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G787" s="1"/>
       <c r="I787" s="0" t="n">
@@ -21329,13 +21379,13 @@
         <v>782</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G788" s="1"/>
       <c r="I788" s="0" t="n">
@@ -21353,13 +21403,13 @@
         <v>783</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G789" s="1"/>
       <c r="I789" s="0" t="n">
@@ -21377,13 +21427,13 @@
         <v>784</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G790" s="1"/>
       <c r="I790" s="0" t="n">
@@ -21401,13 +21451,13 @@
         <v>785</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G791" s="1"/>
       <c r="I791" s="0" t="n">
@@ -21425,13 +21475,13 @@
         <v>786</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G792" s="1"/>
       <c r="I792" s="0" t="n">
@@ -21449,13 +21499,13 @@
         <v>787</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G793" s="1"/>
       <c r="I793" s="0" t="n">
@@ -21473,13 +21523,13 @@
         <v>788</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G794" s="1"/>
       <c r="I794" s="0" t="n">
@@ -21497,13 +21547,13 @@
         <v>789</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G795" s="1"/>
       <c r="I795" s="0" t="n">
@@ -21521,13 +21571,13 @@
         <v>790</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G796" s="1"/>
       <c r="I796" s="0" t="n">
@@ -21545,13 +21595,13 @@
         <v>791</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G797" s="1"/>
       <c r="I797" s="0" t="n">
@@ -21569,13 +21619,13 @@
         <v>792</v>
       </c>
       <c r="B798" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C798" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C798" s="1" t="s">
-        <v>865</v>
-      </c>
       <c r="D798" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G798" s="1"/>
       <c r="I798" s="0" t="n">
@@ -21593,13 +21643,13 @@
         <v>793</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G799" s="1"/>
       <c r="I799" s="0" t="n">
@@ -21617,13 +21667,13 @@
         <v>794</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G800" s="1"/>
       <c r="I800" s="0" t="n">
@@ -21641,13 +21691,13 @@
         <v>795</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G801" s="1"/>
       <c r="I801" s="0" t="n">
@@ -21665,13 +21715,13 @@
         <v>796</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G802" s="1"/>
       <c r="I802" s="0" t="n">
@@ -21689,13 +21739,13 @@
         <v>797</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G803" s="1"/>
       <c r="I803" s="0" t="n">
@@ -21713,13 +21763,13 @@
         <v>798</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G804" s="1"/>
       <c r="I804" s="0" t="n">
@@ -21737,13 +21787,13 @@
         <v>799</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G805" s="1"/>
       <c r="I805" s="0" t="n">
@@ -21761,13 +21811,13 @@
         <v>800</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G806" s="1"/>
       <c r="I806" s="0" t="n">
@@ -21785,13 +21835,13 @@
         <v>801</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G807" s="1"/>
       <c r="I807" s="0" t="n">
@@ -21809,13 +21859,13 @@
         <v>802</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G808" s="1"/>
       <c r="I808" s="0" t="n">
@@ -21833,13 +21883,13 @@
         <v>803</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G809" s="1"/>
       <c r="I809" s="0" t="n">
@@ -21857,13 +21907,13 @@
         <v>804</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G810" s="1"/>
       <c r="I810" s="0" t="n">
@@ -21881,13 +21931,13 @@
         <v>805</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G811" s="1"/>
       <c r="I811" s="0" t="n">
@@ -21905,13 +21955,13 @@
         <v>806</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G812" s="1"/>
       <c r="I812" s="0" t="n">
@@ -21929,13 +21979,13 @@
         <v>807</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G813" s="1"/>
       <c r="I813" s="0" t="n">
@@ -21953,13 +22003,13 @@
         <v>808</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G814" s="1"/>
       <c r="I814" s="0" t="n">
@@ -21977,13 +22027,13 @@
         <v>809</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G815" s="1"/>
       <c r="I815" s="0" t="n">
@@ -22001,13 +22051,13 @@
         <v>810</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G816" s="1"/>
       <c r="I816" s="0" t="n">
@@ -22025,13 +22075,13 @@
         <v>811</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G817" s="1"/>
       <c r="I817" s="0" t="n">
@@ -22049,13 +22099,13 @@
         <v>812</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G818" s="1"/>
       <c r="I818" s="0" t="n">
@@ -22073,13 +22123,13 @@
         <v>813</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G819" s="1"/>
       <c r="I819" s="0" t="n">
@@ -22097,13 +22147,13 @@
         <v>814</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G820" s="1"/>
       <c r="I820" s="0" t="n">
@@ -22121,13 +22171,13 @@
         <v>815</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G821" s="1"/>
       <c r="I821" s="0" t="n">
@@ -22145,13 +22195,13 @@
         <v>816</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G822" s="1"/>
       <c r="I822" s="0" t="n">
@@ -22169,13 +22219,13 @@
         <v>817</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G823" s="1"/>
       <c r="I823" s="0" t="n">
@@ -22193,13 +22243,13 @@
         <v>818</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G824" s="1"/>
       <c r="I824" s="0" t="n">
@@ -22217,13 +22267,13 @@
         <v>819</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G825" s="1"/>
       <c r="I825" s="0" t="n">
@@ -22241,13 +22291,13 @@
         <v>820</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G826" s="1"/>
       <c r="I826" s="0" t="n">
@@ -22265,13 +22315,13 @@
         <v>821</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C827" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G827" s="1"/>
       <c r="I827" s="0" t="n">
@@ -22289,13 +22339,13 @@
         <v>822</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C828" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G828" s="1"/>
       <c r="I828" s="0" t="n">
@@ -22313,13 +22363,13 @@
         <v>823</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C829" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G829" s="1"/>
       <c r="I829" s="0" t="n">
@@ -22337,13 +22387,13 @@
         <v>824</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C830" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G830" s="1"/>
       <c r="I830" s="0" t="n">
@@ -22361,13 +22411,13 @@
         <v>825</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C831" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G831" s="1"/>
       <c r="I831" s="0" t="n">
@@ -22385,13 +22435,13 @@
         <v>826</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C832" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G832" s="1"/>
       <c r="I832" s="0" t="n">
@@ -22409,13 +22459,13 @@
         <v>827</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C833" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G833" s="1"/>
       <c r="I833" s="0" t="n">
@@ -22433,13 +22483,13 @@
         <v>828</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C834" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G834" s="1"/>
       <c r="I834" s="0" t="n">
@@ -22457,13 +22507,13 @@
         <v>829</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C835" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G835" s="1"/>
       <c r="I835" s="0" t="n">
@@ -22481,13 +22531,13 @@
         <v>830</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C836" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G836" s="1"/>
       <c r="I836" s="0" t="n">
@@ -22505,13 +22555,13 @@
         <v>831</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C837" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G837" s="1"/>
       <c r="I837" s="0" t="n">
@@ -22529,13 +22579,13 @@
         <v>832</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C838" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G838" s="1"/>
       <c r="I838" s="0" t="n">
@@ -22553,13 +22603,13 @@
         <v>833</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C839" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G839" s="1"/>
       <c r="I839" s="0" t="n">
@@ -22577,13 +22627,13 @@
         <v>834</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G840" s="1"/>
       <c r="I840" s="0" t="n">
@@ -22601,13 +22651,13 @@
         <v>835</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G841" s="1"/>
       <c r="I841" s="0" t="n">
@@ -22625,13 +22675,13 @@
         <v>836</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G842" s="1"/>
       <c r="I842" s="0" t="n">
@@ -22649,13 +22699,13 @@
         <v>837</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G843" s="1"/>
       <c r="I843" s="0" t="n">
@@ -22673,13 +22723,13 @@
         <v>838</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G844" s="1"/>
       <c r="I844" s="0" t="n">
@@ -22697,13 +22747,13 @@
         <v>839</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G845" s="1"/>
       <c r="I845" s="0" t="n">
@@ -22721,13 +22771,13 @@
         <v>840</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G846" s="1"/>
       <c r="I846" s="0" t="n">
@@ -22745,13 +22795,13 @@
         <v>841</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G847" s="1"/>
       <c r="I847" s="0" t="n">
@@ -22769,13 +22819,13 @@
         <v>842</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G848" s="1"/>
       <c r="I848" s="0" t="n">
@@ -22793,13 +22843,13 @@
         <v>843</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G849" s="1"/>
       <c r="I849" s="0" t="n">
@@ -22817,13 +22867,13 @@
         <v>844</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G850" s="1"/>
       <c r="I850" s="0" t="n">
@@ -22841,13 +22891,13 @@
         <v>845</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G851" s="1"/>
       <c r="I851" s="0" t="n">
@@ -22865,13 +22915,13 @@
         <v>846</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G852" s="1"/>
       <c r="I852" s="0" t="n">
@@ -22889,13 +22939,13 @@
         <v>847</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G853" s="1"/>
       <c r="I853" s="0" t="n">
@@ -22913,13 +22963,13 @@
         <v>848</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G854" s="1"/>
       <c r="I854" s="0" t="n">
@@ -22937,13 +22987,13 @@
         <v>849</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G855" s="1"/>
       <c r="I855" s="0" t="n">
@@ -22961,13 +23011,13 @@
         <v>850</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G856" s="1"/>
       <c r="I856" s="0" t="n">
@@ -22985,13 +23035,13 @@
         <v>851</v>
       </c>
       <c r="B857" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C857" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C857" s="1" t="s">
-        <v>925</v>
-      </c>
       <c r="D857" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G857" s="1"/>
       <c r="I857" s="0" t="n">
@@ -23009,13 +23059,13 @@
         <v>852</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G858" s="1"/>
       <c r="I858" s="0" t="n">
@@ -23033,13 +23083,13 @@
         <v>853</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G859" s="1"/>
       <c r="I859" s="0" t="n">
@@ -23057,13 +23107,13 @@
         <v>854</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G860" s="1"/>
       <c r="I860" s="0" t="n">
@@ -23081,13 +23131,13 @@
         <v>855</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G861" s="1"/>
       <c r="I861" s="0" t="n">
@@ -23105,13 +23155,13 @@
         <v>856</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G862" s="1"/>
       <c r="I862" s="0" t="n">
@@ -23129,13 +23179,13 @@
         <v>857</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G863" s="1"/>
       <c r="I863" s="0" t="n">
@@ -23153,13 +23203,13 @@
         <v>858</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G864" s="1"/>
       <c r="I864" s="0" t="n">
@@ -23177,13 +23227,13 @@
         <v>859</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G865" s="1"/>
       <c r="I865" s="0" t="n">
@@ -23201,13 +23251,13 @@
         <v>860</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G866" s="1"/>
       <c r="I866" s="0" t="n">
@@ -23225,13 +23275,13 @@
         <v>861</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G867" s="1"/>
       <c r="I867" s="0" t="n">
@@ -23249,13 +23299,13 @@
         <v>862</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G868" s="1"/>
       <c r="I868" s="0" t="n">
@@ -23273,13 +23323,13 @@
         <v>863</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G869" s="1"/>
       <c r="I869" s="0" t="n">
@@ -23297,13 +23347,13 @@
         <v>864</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G870" s="1"/>
       <c r="I870" s="0" t="n">
@@ -23321,13 +23371,13 @@
         <v>865</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G871" s="1"/>
       <c r="I871" s="0" t="n">
@@ -23345,13 +23395,13 @@
         <v>866</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G872" s="1"/>
       <c r="I872" s="0" t="n">
@@ -23369,13 +23419,13 @@
         <v>867</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G873" s="1"/>
       <c r="I873" s="0" t="n">
@@ -23393,13 +23443,13 @@
         <v>868</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G874" s="1"/>
       <c r="I874" s="0" t="n">
@@ -23417,13 +23467,13 @@
         <v>869</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G875" s="1"/>
       <c r="I875" s="0" t="n">
@@ -23441,13 +23491,13 @@
         <v>870</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G876" s="1"/>
       <c r="I876" s="0" t="n">
@@ -23465,13 +23515,13 @@
         <v>871</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G877" s="1"/>
       <c r="I877" s="0" t="n">
@@ -23489,13 +23539,13 @@
         <v>872</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G878" s="1"/>
       <c r="I878" s="0" t="n">
@@ -23513,13 +23563,13 @@
         <v>873</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G879" s="1"/>
       <c r="I879" s="0" t="n">
@@ -23537,13 +23587,13 @@
         <v>874</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G880" s="1"/>
       <c r="I880" s="0" t="n">
@@ -23561,13 +23611,13 @@
         <v>875</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G881" s="1"/>
       <c r="I881" s="0" t="n">
@@ -23585,13 +23635,13 @@
         <v>876</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G882" s="1"/>
       <c r="I882" s="0" t="n">
@@ -23609,13 +23659,13 @@
         <v>877</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G883" s="1"/>
       <c r="I883" s="0" t="n">
@@ -23633,13 +23683,13 @@
         <v>878</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G884" s="1"/>
       <c r="I884" s="0" t="n">
@@ -23657,13 +23707,13 @@
         <v>879</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G885" s="1"/>
       <c r="I885" s="0" t="n">
@@ -23681,13 +23731,13 @@
         <v>880</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G886" s="1"/>
       <c r="I886" s="0" t="n">
@@ -23705,13 +23755,13 @@
         <v>881</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G887" s="1"/>
       <c r="I887" s="0" t="n">
@@ -23729,13 +23779,13 @@
         <v>882</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G888" s="1"/>
       <c r="I888" s="0" t="n">
@@ -23753,13 +23803,13 @@
         <v>883</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G889" s="1"/>
       <c r="I889" s="0" t="n">
@@ -23777,13 +23827,13 @@
         <v>884</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G890" s="1"/>
       <c r="I890" s="0" t="n">
@@ -23801,13 +23851,13 @@
         <v>885</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G891" s="1"/>
       <c r="I891" s="0" t="n">
@@ -23825,13 +23875,13 @@
         <v>886</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G892" s="1"/>
       <c r="I892" s="0" t="n">
@@ -23849,13 +23899,13 @@
         <v>887</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G893" s="1"/>
       <c r="I893" s="0" t="n">
@@ -26785,9 +26835,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:H999">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
       <customFilters and="true">
-        <customFilter operator="equal" val="Yes"/>
+        <customFilter operator="equal" val="Composites"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -26820,46 +26870,46 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="D3" s="16" t="s">
+        <v>968</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="D4" s="16" t="s">
+        <v>970</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -23,9 +23,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$783</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="977">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -2942,6 +2943,12 @@
   </si>
   <si>
     <t xml:space="preserve">TYPEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDELOCALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNHIDELOCALS</t>
   </si>
   <si>
     <t xml:space="preserve">Num</t>
@@ -3467,15 +3474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A887" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F673" activeCellId="0" sqref="F673"/>
+      <selection pane="bottomLeft" activeCell="G894" activeCellId="0" sqref="G894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3498,14 +3505,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,7 +3521,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.417610062893082</v>
+        <v>0.419071518193225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3553,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>1</v>
@@ -3574,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>2</v>
@@ -3599,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>3</v>
@@ -3623,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>4</v>
@@ -3647,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>5</v>
@@ -3671,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>6</v>
@@ -3696,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>7</v>
@@ -3721,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>8</v>
@@ -3746,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>9</v>
@@ -3771,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>10</v>
@@ -3796,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="false">A16+1</f>
         <v>11</v>
@@ -3817,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>12</v>
@@ -3842,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>13</v>
@@ -3867,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <f aca="false">A19+1</f>
         <v>14</v>
@@ -3888,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">A20+1</f>
         <v>15</v>
@@ -3913,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="false">A21+1</f>
         <v>16</v>
@@ -3938,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="false">A22+1</f>
         <v>17</v>
@@ -3963,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <f aca="false">A23+1</f>
         <v>18</v>
@@ -3988,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="false">A24+1</f>
         <v>19</v>
@@ -4013,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <f aca="false">A25+1</f>
         <v>20</v>
@@ -4034,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="false">A26+1</f>
         <v>21</v>
@@ -4059,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <f aca="false">A27+1</f>
         <v>22</v>
@@ -4080,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">A28+1</f>
         <v>23</v>
@@ -4105,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="false">A29+1</f>
         <v>24</v>
@@ -4130,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="false">A30+1</f>
         <v>25</v>
@@ -4154,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">A31+1</f>
         <v>26</v>
@@ -4175,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">A32+1</f>
         <v>27</v>
@@ -4200,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">A33+1</f>
         <v>28</v>
@@ -4225,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">A34+1</f>
         <v>29</v>
@@ -4250,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="false">A35+1</f>
         <v>30</v>
@@ -4274,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">A36+1</f>
         <v>31</v>
@@ -4298,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">A37+1</f>
         <v>32</v>
@@ -4319,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">A38+1</f>
         <v>33</v>
@@ -4340,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="false">A39+1</f>
         <v>34</v>
@@ -4361,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">A40+1</f>
         <v>35</v>
@@ -4385,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <f aca="false">A41+1</f>
         <v>36</v>
@@ -4406,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <f aca="false">A42+1</f>
         <v>37</v>
@@ -4427,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="false">A43+1</f>
         <v>38</v>
@@ -4448,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="false">A44+1</f>
         <v>39</v>
@@ -4473,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="false">A45+1</f>
         <v>40</v>
@@ -4497,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <f aca="false">A46+1</f>
         <v>41</v>
@@ -4518,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="false">A47+1</f>
         <v>42</v>
@@ -4543,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">A48+1</f>
         <v>43</v>
@@ -4567,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <f aca="false">A49+1</f>
         <v>44</v>
@@ -4588,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <f aca="false">A50+1</f>
         <v>45</v>
@@ -4612,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <f aca="false">A51+1</f>
         <v>46</v>
@@ -4637,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <f aca="false">A52+1</f>
         <v>47</v>
@@ -4658,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="false">A53+1</f>
         <v>48</v>
@@ -4682,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">A54+1</f>
         <v>49</v>
@@ -4707,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <f aca="false">A55+1</f>
         <v>50</v>
@@ -4731,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">A56+1</f>
         <v>51</v>
@@ -4755,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="false">A57+1</f>
         <v>52</v>
@@ -4776,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="false">A58+1</f>
         <v>53</v>
@@ -4801,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="false">A59+1</f>
         <v>54</v>
@@ -4825,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="false">A60+1</f>
         <v>55</v>
@@ -4849,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <f aca="false">A61+1</f>
         <v>56</v>
@@ -4870,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+1</f>
         <v>57</v>
@@ -4895,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+1</f>
         <v>58</v>
@@ -4919,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+1</f>
         <v>59</v>
@@ -4943,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+1</f>
         <v>60</v>
@@ -4967,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <f aca="false">A66+1</f>
         <v>61</v>
@@ -4988,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+1</f>
         <v>62</v>
@@ -5012,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+1</f>
         <v>63</v>
@@ -5039,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+1</f>
         <v>64</v>
@@ -5063,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <f aca="false">A70+1</f>
         <v>65</v>
@@ -5084,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <f aca="false">A71+1</f>
         <v>66</v>
@@ -5105,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <f aca="false">A72+1</f>
         <v>67</v>
@@ -5126,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <f aca="false">A73+1</f>
         <v>68</v>
@@ -5147,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <f aca="false">A74+1</f>
         <v>69</v>
@@ -5171,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <f aca="false">A75+1</f>
         <v>70</v>
@@ -5192,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="false">A76+1</f>
         <v>71</v>
@@ -5218,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <f aca="false">A77+1</f>
         <v>72</v>
@@ -5242,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <f aca="false">A78+1</f>
         <v>73</v>
@@ -5263,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <f aca="false">A79+1</f>
         <v>74</v>
@@ -5284,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <f aca="false">A80+1</f>
         <v>75</v>
@@ -5305,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <f aca="false">A81+1</f>
         <v>76</v>
@@ -5330,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <f aca="false">A82+1</f>
         <v>77</v>
@@ -5351,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <f aca="false">A83+1</f>
         <v>78</v>
@@ -5375,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <f aca="false">A84+1</f>
         <v>79</v>
@@ -5399,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="false">A85+1</f>
         <v>80</v>
@@ -5423,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <f aca="false">A86+1</f>
         <v>81</v>
@@ -5444,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <f aca="false">A87+1</f>
         <v>82</v>
@@ -5465,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <f aca="false">A88+1</f>
         <v>83</v>
@@ -5489,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <f aca="false">A89+1</f>
         <v>84</v>
@@ -5513,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="false">A90+1</f>
         <v>85</v>
@@ -5537,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <f aca="false">A91+1</f>
         <v>86</v>
@@ -5561,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <f aca="false">A92+1</f>
         <v>87</v>
@@ -5585,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="false">A93+1</f>
         <v>88</v>
@@ -5612,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <f aca="false">A94+1</f>
         <v>89</v>
@@ -5638,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <f aca="false">A95+1</f>
         <v>90</v>
@@ -5659,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+1</f>
         <v>91</v>
@@ -5683,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <f aca="false">A97+1</f>
         <v>92</v>
@@ -5704,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">A98+1</f>
         <v>93</v>
@@ -5728,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="false">A99+1</f>
         <v>94</v>
@@ -5749,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <f aca="false">A100+1</f>
         <v>95</v>
@@ -5770,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="false">A101+1</f>
         <v>96</v>
@@ -5794,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <f aca="false">A102+1</f>
         <v>97</v>
@@ -5815,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <f aca="false">A103+1</f>
         <v>98</v>
@@ -5836,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <f aca="false">A104+1</f>
         <v>99</v>
@@ -5860,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <f aca="false">A105+1</f>
         <v>100</v>
@@ -5884,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <f aca="false">A106+1</f>
         <v>101</v>
@@ -5905,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <f aca="false">A107+1</f>
         <v>102</v>
@@ -5929,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <f aca="false">A108+1</f>
         <v>103</v>
@@ -5950,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <f aca="false">A109+1</f>
         <v>104</v>
@@ -5971,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <f aca="false">A110+1</f>
         <v>105</v>
@@ -5995,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">A111+1</f>
         <v>106</v>
@@ -6016,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+1</f>
         <v>107</v>
@@ -6037,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="false">A113+1</f>
         <v>108</v>
@@ -6058,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="false">A114+1</f>
         <v>109</v>
@@ -6082,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">A115+1</f>
         <v>110</v>
@@ -6108,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">A116+1</f>
         <v>111</v>
@@ -6129,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="false">A117+1</f>
         <v>112</v>
@@ -6150,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+1</f>
         <v>113</v>
@@ -6171,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">A119+1</f>
         <v>114</v>
@@ -6192,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">A120+1</f>
         <v>115</v>
@@ -6219,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">A121+1</f>
         <v>116</v>
@@ -6240,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">A122+1</f>
         <v>117</v>
@@ -6265,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">A123+1</f>
         <v>118</v>
@@ -6286,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">A124+1</f>
         <v>119</v>
@@ -6307,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">A125+1</f>
         <v>120</v>
@@ -6328,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="false">A126+1</f>
         <v>121</v>
@@ -6352,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="false">A127+1</f>
         <v>122</v>
@@ -6376,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <f aca="false">A128+1</f>
         <v>123</v>
@@ -6397,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">A129+1</f>
         <v>124</v>
@@ -6421,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+1</f>
         <v>125</v>
@@ -6442,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="false">A131+1</f>
         <v>126</v>
@@ -6466,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <f aca="false">A132+1</f>
         <v>127</v>
@@ -6487,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <f aca="false">A133+1</f>
         <v>128</v>
@@ -6513,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="false">A134+1</f>
         <v>129</v>
@@ -6534,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="false">A135+1</f>
         <v>130</v>
@@ -6560,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <f aca="false">A136+1</f>
         <v>131</v>
@@ -6584,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">A137+1</f>
         <v>132</v>
@@ -6605,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="false">A138+1</f>
         <v>133</v>
@@ -6626,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <f aca="false">A139+1</f>
         <v>134</v>
@@ -6650,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <f aca="false">A140+1</f>
         <v>135</v>
@@ -6674,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <f aca="false">A141+1</f>
         <v>136</v>
@@ -6695,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <f aca="false">A142+1</f>
         <v>137</v>
@@ -6716,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <f aca="false">A143+1</f>
         <v>138</v>
@@ -6740,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">A144+1</f>
         <v>139</v>
@@ -6764,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="false">A145+1</f>
         <v>140</v>
@@ -6788,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="false">A146+1</f>
         <v>141</v>
@@ -6812,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <f aca="false">A147+1</f>
         <v>142</v>
@@ -6833,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">A148+1</f>
         <v>143</v>
@@ -6854,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="false">A149+1</f>
         <v>144</v>
@@ -6875,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <f aca="false">A150+1</f>
         <v>145</v>
@@ -6896,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">A151+1</f>
         <v>146</v>
@@ -6920,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <f aca="false">A152+1</f>
         <v>147</v>
@@ -6944,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <f aca="false">A153+1</f>
         <v>148</v>
@@ -6965,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+1</f>
         <v>149</v>
@@ -6990,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <f aca="false">A155+1</f>
         <v>150</v>
@@ -7011,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <f aca="false">A156+1</f>
         <v>151</v>
@@ -7035,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <f aca="false">A157+1</f>
         <v>152</v>
@@ -7056,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <f aca="false">A158+1</f>
         <v>153</v>
@@ -7080,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <f aca="false">A159+1</f>
         <v>154</v>
@@ -7105,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <f aca="false">A160+1</f>
         <v>155</v>
@@ -7126,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <f aca="false">A161+1</f>
         <v>156</v>
@@ -7150,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <f aca="false">A162+1</f>
         <v>157</v>
@@ -7174,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <f aca="false">A163+1</f>
         <v>158</v>
@@ -7195,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <f aca="false">A164+1</f>
         <v>159</v>
@@ -7219,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="false">A165+1</f>
         <v>160</v>
@@ -7243,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <f aca="false">A166+1</f>
         <v>161</v>
@@ -7267,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <f aca="false">A167+1</f>
         <v>162</v>
@@ -7291,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <f aca="false">A168+1</f>
         <v>163</v>
@@ -7315,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <f aca="false">A169+1</f>
         <v>164</v>
@@ -7336,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <f aca="false">A170+1</f>
         <v>165</v>
@@ -7357,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <f aca="false">A171+1</f>
         <v>166</v>
@@ -7378,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="false">A172+1</f>
         <v>167</v>
@@ -7404,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <f aca="false">A173+1</f>
         <v>168</v>
@@ -7425,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <f aca="false">A174+1</f>
         <v>169</v>
@@ -7449,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <f aca="false">A175+1</f>
         <v>170</v>
@@ -7473,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <f aca="false">A176+1</f>
         <v>171</v>
@@ -7498,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <f aca="false">A177+1</f>
         <v>172</v>
@@ -7519,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <f aca="false">A178+1</f>
         <v>173</v>
@@ -7545,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <f aca="false">A179+1</f>
         <v>174</v>
@@ -7569,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <f aca="false">A180+1</f>
         <v>175</v>
@@ -7593,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <f aca="false">A181+1</f>
         <v>176</v>
@@ -7614,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <f aca="false">A182+1</f>
         <v>177</v>
@@ -7635,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <f aca="false">A183+1</f>
         <v>178</v>
@@ -7659,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <f aca="false">A184+1</f>
         <v>179</v>
@@ -7680,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <f aca="false">A185+1</f>
         <v>180</v>
@@ -7704,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <f aca="false">A186+1</f>
         <v>181</v>
@@ -7730,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <f aca="false">A187+1</f>
         <v>182</v>
@@ -7757,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <f aca="false">A188+1</f>
         <v>183</v>
@@ -7778,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <f aca="false">A189+1</f>
         <v>184</v>
@@ -7802,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <f aca="false">A190+1</f>
         <v>185</v>
@@ -7823,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <f aca="false">A191+1</f>
         <v>186</v>
@@ -7844,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <f aca="false">A192+1</f>
         <v>187</v>
@@ -7865,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <f aca="false">A193+1</f>
         <v>188</v>
@@ -7889,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <f aca="false">A194+1</f>
         <v>189</v>
@@ -7913,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <f aca="false">A195+1</f>
         <v>190</v>
@@ -7937,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <f aca="false">A196+1</f>
         <v>191</v>
@@ -7961,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <f aca="false">A197+1</f>
         <v>192</v>
@@ -7982,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <f aca="false">A198+1</f>
         <v>193</v>
@@ -8003,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <f aca="false">A199+1</f>
         <v>194</v>
@@ -8029,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <f aca="false">A200+1</f>
         <v>195</v>
@@ -8050,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <f aca="false">A201+1</f>
         <v>196</v>
@@ -8071,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <f aca="false">A202+1</f>
         <v>197</v>
@@ -8092,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <f aca="false">A203+1</f>
         <v>198</v>
@@ -8113,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <f aca="false">A204+1</f>
         <v>199</v>
@@ -8134,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <f aca="false">A205+1</f>
         <v>200</v>
@@ -8155,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <f aca="false">A206+1</f>
         <v>201</v>
@@ -8176,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <f aca="false">A207+1</f>
         <v>202</v>
@@ -8197,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <f aca="false">A208+1</f>
         <v>203</v>
@@ -8218,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <f aca="false">A209+1</f>
         <v>204</v>
@@ -8242,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <f aca="false">A210+1</f>
         <v>205</v>
@@ -8269,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <f aca="false">A211+1</f>
         <v>206</v>
@@ -8296,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <f aca="false">A212+1</f>
         <v>207</v>
@@ -8317,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <f aca="false">A213+1</f>
         <v>208</v>
@@ -8344,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <f aca="false">A214+1</f>
         <v>209</v>
@@ -8368,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <f aca="false">A215+1</f>
         <v>210</v>
@@ -8389,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <f aca="false">A216+1</f>
         <v>211</v>
@@ -8410,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <f aca="false">A217+1</f>
         <v>212</v>
@@ -8431,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <f aca="false">A218+1</f>
         <v>213</v>
@@ -8452,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <f aca="false">A219+1</f>
         <v>214</v>
@@ -8476,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <f aca="false">A220+1</f>
         <v>215</v>
@@ -8500,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <f aca="false">A221+1</f>
         <v>216</v>
@@ -8524,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <f aca="false">A222+1</f>
         <v>217</v>
@@ -8545,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <f aca="false">A223+1</f>
         <v>218</v>
@@ -8569,7 +8576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <f aca="false">A224+1</f>
         <v>219</v>
@@ -8593,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <f aca="false">A225+1</f>
         <v>220</v>
@@ -8617,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <f aca="false">A226+1</f>
         <v>221</v>
@@ -8641,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <f aca="false">A227+1</f>
         <v>222</v>
@@ -8665,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <f aca="false">A228+1</f>
         <v>223</v>
@@ -8686,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <f aca="false">A229+1</f>
         <v>224</v>
@@ -8707,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <f aca="false">A230+1</f>
         <v>225</v>
@@ -8728,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <f aca="false">A231+1</f>
         <v>226</v>
@@ -8752,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <f aca="false">A232+1</f>
         <v>227</v>
@@ -8776,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <f aca="false">A233+1</f>
         <v>228</v>
@@ -8800,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <f aca="false">A234+1</f>
         <v>229</v>
@@ -8824,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <f aca="false">A235+1</f>
         <v>230</v>
@@ -8848,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <f aca="false">A236+1</f>
         <v>231</v>
@@ -8869,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <f aca="false">A237+1</f>
         <v>232</v>
@@ -8890,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <f aca="false">A238+1</f>
         <v>233</v>
@@ -8911,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <f aca="false">A239+1</f>
         <v>234</v>
@@ -8932,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <f aca="false">A240+1</f>
         <v>235</v>
@@ -8953,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <f aca="false">A241+1</f>
         <v>236</v>
@@ -8974,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <f aca="false">A242+1</f>
         <v>237</v>
@@ -8999,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <f aca="false">A243+1</f>
         <v>238</v>
@@ -9024,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <f aca="false">A244+1</f>
         <v>239</v>
@@ -9049,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <f aca="false">A245+1</f>
         <v>240</v>
@@ -9070,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <f aca="false">A246+1</f>
         <v>241</v>
@@ -9094,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <f aca="false">A247+1</f>
         <v>242</v>
@@ -9115,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <f aca="false">A248+1</f>
         <v>243</v>
@@ -9139,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <f aca="false">A249+1</f>
         <v>244</v>
@@ -9160,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <f aca="false">A250+1</f>
         <v>245</v>
@@ -9181,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <f aca="false">A251+1</f>
         <v>246</v>
@@ -9202,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <f aca="false">A252+1</f>
         <v>247</v>
@@ -9223,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <f aca="false">A253+1</f>
         <v>248</v>
@@ -9244,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <f aca="false">A254+1</f>
         <v>249</v>
@@ -9265,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <f aca="false">A255+1</f>
         <v>250</v>
@@ -9286,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <f aca="false">A256+1</f>
         <v>251</v>
@@ -9307,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <f aca="false">A257+1</f>
         <v>252</v>
@@ -9328,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <f aca="false">A258+1</f>
         <v>253</v>
@@ -9349,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <f aca="false">A259+1</f>
         <v>254</v>
@@ -9370,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <f aca="false">A260+1</f>
         <v>255</v>
@@ -9396,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <f aca="false">A261+1</f>
         <v>256</v>
@@ -9417,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <f aca="false">A262+1</f>
         <v>257</v>
@@ -9438,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <f aca="false">A263+1</f>
         <v>258</v>
@@ -9459,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <f aca="false">A264+1</f>
         <v>259</v>
@@ -9480,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <f aca="false">A265+1</f>
         <v>260</v>
@@ -9501,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <f aca="false">A266+1</f>
         <v>261</v>
@@ -9525,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <f aca="false">A267+1</f>
         <v>262</v>
@@ -9549,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <f aca="false">A268+1</f>
         <v>263</v>
@@ -9570,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <f aca="false">A269+1</f>
         <v>264</v>
@@ -9591,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <f aca="false">A270+1</f>
         <v>265</v>
@@ -9612,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <f aca="false">A271+1</f>
         <v>266</v>
@@ -9633,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <f aca="false">A272+1</f>
         <v>267</v>
@@ -9657,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <f aca="false">A273+1</f>
         <v>268</v>
@@ -9683,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <f aca="false">A274+1</f>
         <v>269</v>
@@ -9707,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <f aca="false">A275+1</f>
         <v>270</v>
@@ -9731,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <f aca="false">A276+1</f>
         <v>271</v>
@@ -9755,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <f aca="false">A277+1</f>
         <v>272</v>
@@ -9776,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <f aca="false">A278+1</f>
         <v>273</v>
@@ -9797,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <f aca="false">A279+1</f>
         <v>274</v>
@@ -9818,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <f aca="false">A280+1</f>
         <v>275</v>
@@ -9839,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <f aca="false">A281+1</f>
         <v>276</v>
@@ -9863,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <f aca="false">A282+1</f>
         <v>277</v>
@@ -9884,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <f aca="false">A283+1</f>
         <v>278</v>
@@ -9908,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <f aca="false">A284+1</f>
         <v>279</v>
@@ -9929,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <f aca="false">A285+1</f>
         <v>280</v>
@@ -9950,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <f aca="false">A286+1</f>
         <v>281</v>
@@ -9974,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <f aca="false">A287+1</f>
         <v>282</v>
@@ -9998,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <f aca="false">A288+1</f>
         <v>283</v>
@@ -10019,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <f aca="false">A289+1</f>
         <v>284</v>
@@ -10040,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <f aca="false">A290+1</f>
         <v>285</v>
@@ -10061,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <f aca="false">A291+1</f>
         <v>286</v>
@@ -10082,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <f aca="false">A292+1</f>
         <v>287</v>
@@ -10103,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <f aca="false">A293+1</f>
         <v>288</v>
@@ -10127,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <f aca="false">A294+1</f>
         <v>289</v>
@@ -10198,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <f aca="false">A297+1</f>
         <v>292</v>
@@ -10219,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <f aca="false">A298+1</f>
         <v>293</v>
@@ -10243,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <f aca="false">A299+1</f>
         <v>294</v>
@@ -10267,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <f aca="false">A300+1</f>
         <v>295</v>
@@ -10288,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <f aca="false">A301+1</f>
         <v>296</v>
@@ -10309,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <f aca="false">A302+1</f>
         <v>297</v>
@@ -10330,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <f aca="false">A303+1</f>
         <v>298</v>
@@ -10351,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <f aca="false">A304+1</f>
         <v>299</v>
@@ -10372,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <f aca="false">A305+1</f>
         <v>300</v>
@@ -10396,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <f aca="false">A306+1</f>
         <v>301</v>
@@ -10420,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <f aca="false">A307+1</f>
         <v>302</v>
@@ -10444,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <f aca="false">A308+1</f>
         <v>303</v>
@@ -10468,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <f aca="false">A309+1</f>
         <v>304</v>
@@ -10489,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <f aca="false">A310+1</f>
         <v>305</v>
@@ -10539,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <f aca="false">A312+1</f>
         <v>307</v>
@@ -10560,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <f aca="false">A313+1</f>
         <v>308</v>
@@ -10581,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <f aca="false">A314+1</f>
         <v>309</v>
@@ -10602,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <f aca="false">A315+1</f>
         <v>310</v>
@@ -10623,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <f aca="false">A316+1</f>
         <v>311</v>
@@ -10649,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <f aca="false">A317+1</f>
         <v>312</v>
@@ -10673,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <f aca="false">A318+1</f>
         <v>313</v>
@@ -10694,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <f aca="false">A319+1</f>
         <v>314</v>
@@ -10715,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <f aca="false">A320+1</f>
         <v>315</v>
@@ -10739,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <f aca="false">A321+1</f>
         <v>316</v>
@@ -10763,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <f aca="false">A322+1</f>
         <v>317</v>
@@ -10787,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <f aca="false">A323+1</f>
         <v>318</v>
@@ -10811,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <f aca="false">A324+1</f>
         <v>319</v>
@@ -10832,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <f aca="false">A325+1</f>
         <v>320</v>
@@ -10856,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <f aca="false">A326+1</f>
         <v>321</v>
@@ -10880,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <f aca="false">A327+1</f>
         <v>322</v>
@@ -10904,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <f aca="false">A328+1</f>
         <v>323</v>
@@ -10928,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <f aca="false">A329+1</f>
         <v>324</v>
@@ -10952,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <f aca="false">A330+1</f>
         <v>325</v>
@@ -10973,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <f aca="false">A331+1</f>
         <v>326</v>
@@ -10997,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <f aca="false">A332+1</f>
         <v>327</v>
@@ -11021,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <f aca="false">A333+1</f>
         <v>328</v>
@@ -11045,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <f aca="false">A334+1</f>
         <v>329</v>
@@ -11069,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <f aca="false">A335+1</f>
         <v>330</v>
@@ -11093,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <f aca="false">A336+1</f>
         <v>331</v>
@@ -11117,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <f aca="false">A337+1</f>
         <v>332</v>
@@ -11141,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <f aca="false">A338+1</f>
         <v>333</v>
@@ -11168,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <f aca="false">A339+1</f>
         <v>334</v>
@@ -11195,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <f aca="false">A340+1</f>
         <v>335</v>
@@ -11216,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <f aca="false">A341+1</f>
         <v>336</v>
@@ -11241,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <f aca="false">A342+1</f>
         <v>337</v>
@@ -11265,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <f aca="false">A343+1</f>
         <v>338</v>
@@ -11289,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <f aca="false">A344+1</f>
         <v>339</v>
@@ -11310,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <f aca="false">A345+1</f>
         <v>340</v>
@@ -11331,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <f aca="false">A346+1</f>
         <v>341</v>
@@ -11352,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <f aca="false">A347+1</f>
         <v>342</v>
@@ -11373,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <f aca="false">A348+1</f>
         <v>343</v>
@@ -11394,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <f aca="false">A349+1</f>
         <v>344</v>
@@ -11415,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <f aca="false">A350+1</f>
         <v>345</v>
@@ -11439,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <f aca="false">A351+1</f>
         <v>346</v>
@@ -11463,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <f aca="false">A352+1</f>
         <v>347</v>
@@ -11487,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <f aca="false">A353+1</f>
         <v>348</v>
@@ -11511,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <f aca="false">A354+1</f>
         <v>349</v>
@@ -11535,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <f aca="false">A355+1</f>
         <v>350</v>
@@ -11556,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <f aca="false">A356+1</f>
         <v>351</v>
@@ -11580,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <f aca="false">A357+1</f>
         <v>352</v>
@@ -11607,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <f aca="false">A358+1</f>
         <v>353</v>
@@ -11631,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <f aca="false">A359+1</f>
         <v>354</v>
@@ -11655,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <f aca="false">A360+1</f>
         <v>355</v>
@@ -11681,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <f aca="false">A361+1</f>
         <v>356</v>
@@ -11707,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <f aca="false">A362+1</f>
         <v>357</v>
@@ -11731,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <f aca="false">A363+1</f>
         <v>358</v>
@@ -11755,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
         <f aca="false">A364+1</f>
         <v>359</v>
@@ -11779,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <f aca="false">A365+1</f>
         <v>360</v>
@@ -11804,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <f aca="false">A366+1</f>
         <v>361</v>
@@ -11825,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <f aca="false">A367+1</f>
         <v>362</v>
@@ -11846,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <f aca="false">A368+1</f>
         <v>363</v>
@@ -11867,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <f aca="false">A369+1</f>
         <v>364</v>
@@ -11888,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <f aca="false">A370+1</f>
         <v>365</v>
@@ -11909,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <f aca="false">A371+1</f>
         <v>366</v>
@@ -11930,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
         <f aca="false">A372+1</f>
         <v>367</v>
@@ -11951,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <f aca="false">A373+1</f>
         <v>368</v>
@@ -11972,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <f aca="false">A374+1</f>
         <v>369</v>
@@ -11996,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
         <f aca="false">A375+1</f>
         <v>370</v>
@@ -12017,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <f aca="false">A376+1</f>
         <v>371</v>
@@ -12038,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <f aca="false">A377+1</f>
         <v>372</v>
@@ -12059,7 +12066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
         <f aca="false">A378+1</f>
         <v>373</v>
@@ -12083,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <f aca="false">A379+1</f>
         <v>374</v>
@@ -12107,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <f aca="false">A380+1</f>
         <v>375</v>
@@ -12128,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
         <f aca="false">A381+1</f>
         <v>376</v>
@@ -12149,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
         <f aca="false">A382+1</f>
         <v>377</v>
@@ -12170,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
         <f aca="false">A383+1</f>
         <v>378</v>
@@ -12191,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
         <f aca="false">A384+1</f>
         <v>379</v>
@@ -12212,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
         <f aca="false">A385+1</f>
         <v>380</v>
@@ -12233,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
         <f aca="false">A386+1</f>
         <v>381</v>
@@ -12254,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
         <f aca="false">A387+1</f>
         <v>382</v>
@@ -12278,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
         <f aca="false">A388+1</f>
         <v>383</v>
@@ -12302,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
         <f aca="false">A389+1</f>
         <v>384</v>
@@ -12323,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
         <f aca="false">A390+1</f>
         <v>385</v>
@@ -12344,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
         <f aca="false">A391+1</f>
         <v>386</v>
@@ -12365,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
         <f aca="false">A392+1</f>
         <v>387</v>
@@ -12389,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
         <f aca="false">A393+1</f>
         <v>388</v>
@@ -12413,7 +12420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
         <f aca="false">A394+1</f>
         <v>389</v>
@@ -12434,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
         <f aca="false">A395+1</f>
         <v>390</v>
@@ -12458,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
         <f aca="false">A396+1</f>
         <v>391</v>
@@ -12479,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
         <f aca="false">A397+1</f>
         <v>392</v>
@@ -12503,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
         <f aca="false">A398+1</f>
         <v>393</v>
@@ -12527,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
         <f aca="false">A399+1</f>
         <v>394</v>
@@ -12548,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
         <f aca="false">A400+1</f>
         <v>395</v>
@@ -12572,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
         <f aca="false">A401+1</f>
         <v>396</v>
@@ -12593,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
         <f aca="false">A402+1</f>
         <v>397</v>
@@ -12617,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
         <f aca="false">A403+1</f>
         <v>398</v>
@@ -12641,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
         <f aca="false">A404+1</f>
         <v>399</v>
@@ -12662,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
         <f aca="false">A405+1</f>
         <v>400</v>
@@ -12683,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
         <f aca="false">A406+1</f>
         <v>401</v>
@@ -12707,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
         <f aca="false">A407+1</f>
         <v>402</v>
@@ -12728,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
         <f aca="false">A408+1</f>
         <v>403</v>
@@ -12749,7 +12756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
         <f aca="false">A409+1</f>
         <v>404</v>
@@ -12773,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
         <f aca="false">A410+1</f>
         <v>405</v>
@@ -12794,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <f aca="false">A411+1</f>
         <v>406</v>
@@ -12821,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
         <f aca="false">A412+1</f>
         <v>407</v>
@@ -12842,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
         <f aca="false">A413+1</f>
         <v>408</v>
@@ -12863,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <f aca="false">A414+1</f>
         <v>409</v>
@@ -12887,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <f aca="false">A415+1</f>
         <v>410</v>
@@ -12908,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <f aca="false">A416+1</f>
         <v>411</v>
@@ -12932,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
         <f aca="false">A417+1</f>
         <v>412</v>
@@ -12956,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <f aca="false">A418+1</f>
         <v>413</v>
@@ -12977,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
         <f aca="false">A419+1</f>
         <v>414</v>
@@ -12998,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <f aca="false">A420+1</f>
         <v>415</v>
@@ -13022,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
         <f aca="false">A421+1</f>
         <v>416</v>
@@ -13046,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
         <f aca="false">A422+1</f>
         <v>417</v>
@@ -13070,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
         <f aca="false">A423+1</f>
         <v>418</v>
@@ -13094,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
         <f aca="false">A424+1</f>
         <v>419</v>
@@ -13115,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
         <f aca="false">A425+1</f>
         <v>420</v>
@@ -13136,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
         <f aca="false">A426+1</f>
         <v>421</v>
@@ -13160,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
         <f aca="false">A427+1</f>
         <v>422</v>
@@ -13181,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
         <f aca="false">A428+1</f>
         <v>423</v>
@@ -13205,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
         <f aca="false">A429+1</f>
         <v>424</v>
@@ -13229,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
         <f aca="false">A430+1</f>
         <v>425</v>
@@ -13253,7 +13260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
         <f aca="false">A431+1</f>
         <v>426</v>
@@ -13277,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
         <f aca="false">A432+1</f>
         <v>427</v>
@@ -13298,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
         <f aca="false">A433+1</f>
         <v>428</v>
@@ -13322,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
         <f aca="false">A434+1</f>
         <v>429</v>
@@ -13346,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
         <f aca="false">A435+1</f>
         <v>430</v>
@@ -13371,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
         <f aca="false">A436+1</f>
         <v>431</v>
@@ -13395,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
         <f aca="false">A437+1</f>
         <v>432</v>
@@ -13420,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
         <f aca="false">A438+1</f>
         <v>433</v>
@@ -13444,7 +13451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
         <f aca="false">A439+1</f>
         <v>434</v>
@@ -13468,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
         <f aca="false">A440+1</f>
         <v>435</v>
@@ -13489,7 +13496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
         <f aca="false">A441+1</f>
         <v>436</v>
@@ -13513,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
         <f aca="false">A442+1</f>
         <v>437</v>
@@ -13539,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
         <f aca="false">A443+1</f>
         <v>438</v>
@@ -13560,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
         <f aca="false">A444+1</f>
         <v>439</v>
@@ -13605,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
         <f aca="false">A446+1</f>
         <v>441</v>
@@ -13629,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
         <f aca="false">A447+1</f>
         <v>442</v>
@@ -13653,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
         <f aca="false">A448+1</f>
         <v>443</v>
@@ -13677,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
         <f aca="false">A449+1</f>
         <v>444</v>
@@ -13701,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
         <f aca="false">A450+1</f>
         <v>445</v>
@@ -13725,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
         <f aca="false">A451+1</f>
         <v>446</v>
@@ -13749,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
         <f aca="false">A452+1</f>
         <v>447</v>
@@ -13773,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
         <f aca="false">A453+1</f>
         <v>448</v>
@@ -13797,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
         <f aca="false">A454+1</f>
         <v>449</v>
@@ -13821,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
         <f aca="false">A455+1</f>
         <v>450</v>
@@ -13842,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
         <f aca="false">A456+1</f>
         <v>451</v>
@@ -13866,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
         <f aca="false">A457+1</f>
         <v>452</v>
@@ -13887,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
         <f aca="false">A458+1</f>
         <v>453</v>
@@ -13908,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
         <f aca="false">A459+1</f>
         <v>454</v>
@@ -13932,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
         <f aca="false">A460+1</f>
         <v>455</v>
@@ -13953,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
         <f aca="false">A461+1</f>
         <v>456</v>
@@ -13977,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
         <f aca="false">A462+1</f>
         <v>457</v>
@@ -13998,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
         <f aca="false">A463+1</f>
         <v>458</v>
@@ -14019,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
         <f aca="false">A464+1</f>
         <v>459</v>
@@ -14040,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
         <f aca="false">A465+1</f>
         <v>460</v>
@@ -14066,7 +14073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
         <f aca="false">A466+1</f>
         <v>461</v>
@@ -14090,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
         <f aca="false">A467+1</f>
         <v>462</v>
@@ -14111,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
         <f aca="false">A468+1</f>
         <v>463</v>
@@ -14132,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
         <f aca="false">A469+1</f>
         <v>464</v>
@@ -14153,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
         <f aca="false">A470+1</f>
         <v>465</v>
@@ -14177,7 +14184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
         <f aca="false">A471+1</f>
         <v>466</v>
@@ -14201,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
         <f aca="false">A472+1</f>
         <v>467</v>
@@ -14225,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
         <f aca="false">A473+1</f>
         <v>468</v>
@@ -14249,7 +14256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
         <f aca="false">A474+1</f>
         <v>469</v>
@@ -14270,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
         <f aca="false">A475+1</f>
         <v>470</v>
@@ -14291,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
         <f aca="false">A476+1</f>
         <v>471</v>
@@ -14315,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
         <f aca="false">A477+1</f>
         <v>472</v>
@@ -14336,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
         <f aca="false">A478+1</f>
         <v>473</v>
@@ -14357,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
         <f aca="false">A479+1</f>
         <v>474</v>
@@ -14378,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
         <f aca="false">A480+1</f>
         <v>475</v>
@@ -14402,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
         <f aca="false">A481+1</f>
         <v>476</v>
@@ -14423,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
         <f aca="false">A482+1</f>
         <v>477</v>
@@ -14444,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
         <f aca="false">A483+1</f>
         <v>478</v>
@@ -14465,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
         <f aca="false">A484+1</f>
         <v>479</v>
@@ -14486,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
         <f aca="false">A485+1</f>
         <v>480</v>
@@ -14510,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
         <f aca="false">A486+1</f>
         <v>481</v>
@@ -14536,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
         <f aca="false">A487+1</f>
         <v>482</v>
@@ -14560,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
         <f aca="false">A488+1</f>
         <v>483</v>
@@ -14581,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
         <f aca="false">A489+1</f>
         <v>484</v>
@@ -14602,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
         <f aca="false">A490+1</f>
         <v>485</v>
@@ -14647,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="n">
         <f aca="false">A492+1</f>
         <v>487</v>
@@ -14668,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="n">
         <f aca="false">A493+1</f>
         <v>488</v>
@@ -14689,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="n">
         <f aca="false">A494+1</f>
         <v>489</v>
@@ -14714,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="n">
         <f aca="false">A495+1</f>
         <v>490</v>
@@ -14738,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="n">
         <f aca="false">A496+1</f>
         <v>491</v>
@@ -14759,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="n">
         <f aca="false">A497+1</f>
         <v>492</v>
@@ -14780,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="n">
         <f aca="false">A498+1</f>
         <v>493</v>
@@ -14801,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="n">
         <f aca="false">A499+1</f>
         <v>494</v>
@@ -14822,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="n">
         <f aca="false">A500+1</f>
         <v>495</v>
@@ -14846,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="n">
         <f aca="false">A501+1</f>
         <v>496</v>
@@ -14870,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="n">
         <f aca="false">A502+1</f>
         <v>497</v>
@@ -14891,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="n">
         <f aca="false">A503+1</f>
         <v>498</v>
@@ -14912,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="n">
         <f aca="false">A504+1</f>
         <v>499</v>
@@ -14936,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
         <f aca="false">A505+1</f>
         <v>500</v>
@@ -14957,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
         <f aca="false">A506+1</f>
         <v>501</v>
@@ -14981,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="n">
         <f aca="false">A507+1</f>
         <v>502</v>
@@ -15005,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="n">
         <f aca="false">A508+1</f>
         <v>503</v>
@@ -15029,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="n">
         <f aca="false">A509+1</f>
         <v>504</v>
@@ -15050,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
         <f aca="false">A510+1</f>
         <v>505</v>
@@ -15074,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="n">
         <f aca="false">A511+1</f>
         <v>506</v>
@@ -15095,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="n">
         <f aca="false">A512+1</f>
         <v>507</v>
@@ -15116,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="n">
         <f aca="false">A513+1</f>
         <v>508</v>
@@ -15137,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="n">
         <f aca="false">A514+1</f>
         <v>509</v>
@@ -15161,7 +15168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="n">
         <f aca="false">A515+1</f>
         <v>510</v>
@@ -15232,7 +15239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
         <f aca="false">A518+1</f>
         <v>513</v>
@@ -15253,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="n">
         <f aca="false">A519+1</f>
         <v>514</v>
@@ -15277,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="n">
         <f aca="false">A520+1</f>
         <v>515</v>
@@ -15298,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
         <f aca="false">A521+1</f>
         <v>516</v>
@@ -15319,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
         <f aca="false">A522+1</f>
         <v>517</v>
@@ -15340,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
         <f aca="false">A523+1</f>
         <v>518</v>
@@ -15364,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="n">
         <f aca="false">A524+1</f>
         <v>519</v>
@@ -15388,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="n">
         <f aca="false">A525+1</f>
         <v>520</v>
@@ -15412,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="n">
         <f aca="false">A526+1</f>
         <v>521</v>
@@ -15433,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
         <f aca="false">A527+1</f>
         <v>522</v>
@@ -15454,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
         <f aca="false">A528+1</f>
         <v>523</v>
@@ -15478,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
         <f aca="false">A529+1</f>
         <v>524</v>
@@ -15503,7 +15510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="n">
         <f aca="false">A530+1</f>
         <v>525</v>
@@ -15529,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
         <f aca="false">A531+1</f>
         <v>526</v>
@@ -15553,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
         <f aca="false">A532+1</f>
         <v>527</v>
@@ -15577,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="n">
         <f aca="false">A533+1</f>
         <v>528</v>
@@ -15598,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="n">
         <f aca="false">A534+1</f>
         <v>529</v>
@@ -15622,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="n">
         <f aca="false">A535+1</f>
         <v>530</v>
@@ -15646,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
         <f aca="false">A536+1</f>
         <v>531</v>
@@ -15667,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="n">
         <f aca="false">A537+1</f>
         <v>532</v>
@@ -15688,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
         <f aca="false">A538+1</f>
         <v>533</v>
@@ -15712,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
         <f aca="false">A539+1</f>
         <v>534</v>
@@ -15736,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
         <f aca="false">A540+1</f>
         <v>535</v>
@@ -15760,7 +15767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
         <f aca="false">A541+1</f>
         <v>536</v>
@@ -15784,7 +15791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
         <f aca="false">A542+1</f>
         <v>537</v>
@@ -15805,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
         <f aca="false">A543+1</f>
         <v>538</v>
@@ -15832,7 +15839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
         <f aca="false">A544+1</f>
         <v>539</v>
@@ -15859,7 +15866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
         <f aca="false">A545+1</f>
         <v>540</v>
@@ -15880,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
         <f aca="false">A546+1</f>
         <v>541</v>
@@ -15901,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
         <f aca="false">A547+1</f>
         <v>542</v>
@@ -15926,7 +15933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
         <f aca="false">A548+1</f>
         <v>543</v>
@@ -15950,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
         <f aca="false">A549+1</f>
         <v>544</v>
@@ -15971,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
         <f aca="false">A550+1</f>
         <v>545</v>
@@ -15996,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="n">
         <f aca="false">A551+1</f>
         <v>546</v>
@@ -16020,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
         <f aca="false">A552+1</f>
         <v>547</v>
@@ -16046,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
         <f aca="false">A553+1</f>
         <v>548</v>
@@ -16070,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
         <f aca="false">A554+1</f>
         <v>549</v>
@@ -16094,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
         <f aca="false">A555+1</f>
         <v>550</v>
@@ -16115,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="n">
         <f aca="false">A556+1</f>
         <v>551</v>
@@ -16136,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="n">
         <f aca="false">A557+1</f>
         <v>552</v>
@@ -16157,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
         <f aca="false">A558+1</f>
         <v>553</v>
@@ -16205,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
         <f aca="false">A560+1</f>
         <v>555</v>
@@ -16226,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
         <f aca="false">A561+1</f>
         <v>556</v>
@@ -16247,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
         <f aca="false">A562+1</f>
         <v>557</v>
@@ -16268,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
         <f aca="false">A563+1</f>
         <v>558</v>
@@ -16292,7 +16299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
         <f aca="false">A564+1</f>
         <v>559</v>
@@ -16313,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
         <f aca="false">A565+1</f>
         <v>560</v>
@@ -16334,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="n">
         <f aca="false">A566+1</f>
         <v>561</v>
@@ -16358,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="n">
         <f aca="false">A567+1</f>
         <v>562</v>
@@ -16382,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
         <f aca="false">A568+1</f>
         <v>563</v>
@@ -16406,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
         <f aca="false">A569+1</f>
         <v>564</v>
@@ -16432,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="n">
         <f aca="false">A570+1</f>
         <v>565</v>
@@ -16458,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="n">
         <f aca="false">A571+1</f>
         <v>566</v>
@@ -16482,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
         <f aca="false">A572+1</f>
         <v>567</v>
@@ -16506,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
         <f aca="false">A573+1</f>
         <v>568</v>
@@ -16530,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
         <f aca="false">A574+1</f>
         <v>569</v>
@@ -16554,7 +16561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="n">
         <f aca="false">A575+1</f>
         <v>570</v>
@@ -16578,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="n">
         <f aca="false">A576+1</f>
         <v>571</v>
@@ -16602,7 +16609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="n">
         <f aca="false">A577+1</f>
         <v>572</v>
@@ -16626,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
         <f aca="false">A578+1</f>
         <v>573</v>
@@ -16650,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
         <f aca="false">A579+1</f>
         <v>574</v>
@@ -16674,7 +16681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="n">
         <f aca="false">A580+1</f>
         <v>575</v>
@@ -16698,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="n">
         <f aca="false">A581+1</f>
         <v>576</v>
@@ -16724,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
         <f aca="false">A582+1</f>
         <v>577</v>
@@ -16750,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
         <f aca="false">A583+1</f>
         <v>578</v>
@@ -16774,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
         <f aca="false">A584+1</f>
         <v>579</v>
@@ -16798,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="n">
         <f aca="false">A585+1</f>
         <v>580</v>
@@ -16822,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
         <f aca="false">A586+1</f>
         <v>581</v>
@@ -16846,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="n">
         <f aca="false">A587+1</f>
         <v>582</v>
@@ -16870,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="n">
         <f aca="false">A588+1</f>
         <v>583</v>
@@ -16894,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="n">
         <f aca="false">A589+1</f>
         <v>584</v>
@@ -16918,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="n">
         <f aca="false">A590+1</f>
         <v>585</v>
@@ -16942,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="n">
         <f aca="false">A591+1</f>
         <v>586</v>
@@ -16966,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="n">
         <f aca="false">A592+1</f>
         <v>587</v>
@@ -16990,7 +16997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="n">
         <f aca="false">A593+1</f>
         <v>588</v>
@@ -17011,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="n">
         <f aca="false">A594+1</f>
         <v>589</v>
@@ -17032,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="n">
         <f aca="false">A595+1</f>
         <v>590</v>
@@ -17053,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="n">
         <f aca="false">A596+1</f>
         <v>591</v>
@@ -17074,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="n">
         <f aca="false">A597+1</f>
         <v>592</v>
@@ -17095,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="n">
         <f aca="false">A598+1</f>
         <v>593</v>
@@ -17119,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="n">
         <f aca="false">A599+1</f>
         <v>594</v>
@@ -17143,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="n">
         <f aca="false">A600+1</f>
         <v>595</v>
@@ -17164,7 +17171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
         <f aca="false">A601+1</f>
         <v>596</v>
@@ -17188,7 +17195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="n">
         <f aca="false">A602+1</f>
         <v>597</v>
@@ -17209,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="n">
         <f aca="false">A603+1</f>
         <v>598</v>
@@ -17230,7 +17237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="n">
         <f aca="false">A604+1</f>
         <v>599</v>
@@ -17254,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="n">
         <f aca="false">A605+1</f>
         <v>600</v>
@@ -17275,7 +17282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="n">
         <f aca="false">A606+1</f>
         <v>601</v>
@@ -17296,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="n">
         <f aca="false">A607+1</f>
         <v>602</v>
@@ -17320,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="n">
         <f aca="false">A608+1</f>
         <v>603</v>
@@ -17341,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="n">
         <f aca="false">A609+1</f>
         <v>604</v>
@@ -17365,7 +17372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="n">
         <f aca="false">A610+1</f>
         <v>605</v>
@@ -17386,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="n">
         <f aca="false">A611+1</f>
         <v>606</v>
@@ -17407,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="n">
         <f aca="false">A612+1</f>
         <v>607</v>
@@ -17428,7 +17435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="n">
         <f aca="false">A613+1</f>
         <v>608</v>
@@ -17449,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="n">
         <f aca="false">A614+1</f>
         <v>609</v>
@@ -17474,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="n">
         <f aca="false">A615+1</f>
         <v>610</v>
@@ -17495,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="n">
         <f aca="false">A616+1</f>
         <v>611</v>
@@ -17516,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="n">
         <f aca="false">A617+1</f>
         <v>612</v>
@@ -17537,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="n">
         <f aca="false">A618+1</f>
         <v>613</v>
@@ -17561,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="n">
         <f aca="false">A619+1</f>
         <v>614</v>
@@ -17582,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
         <f aca="false">A620+1</f>
         <v>615</v>
@@ -17606,7 +17613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="n">
         <f aca="false">A621+1</f>
         <v>616</v>
@@ -17630,7 +17637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="n">
         <f aca="false">A622+1</f>
         <v>617</v>
@@ -17651,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="n">
         <f aca="false">A623+1</f>
         <v>618</v>
@@ -17677,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="n">
         <f aca="false">A624+1</f>
         <v>619</v>
@@ -17703,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="n">
         <f aca="false">A625+1</f>
         <v>620</v>
@@ -17724,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="n">
         <f aca="false">A626+1</f>
         <v>621</v>
@@ -17748,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="n">
         <f aca="false">A627+1</f>
         <v>622</v>
@@ -17772,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="n">
         <f aca="false">A628+1</f>
         <v>623</v>
@@ -17796,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="n">
         <f aca="false">A629+1</f>
         <v>624</v>
@@ -17820,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="n">
         <f aca="false">A630+1</f>
         <v>625</v>
@@ -17841,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="n">
         <f aca="false">A631+1</f>
         <v>626</v>
@@ -17862,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="n">
         <f aca="false">A632+1</f>
         <v>627</v>
@@ -17886,7 +17893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="n">
         <f aca="false">A633+1</f>
         <v>628</v>
@@ -17912,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="n">
         <f aca="false">A634+1</f>
         <v>629</v>
@@ -17936,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="n">
         <f aca="false">A635+1</f>
         <v>630</v>
@@ -17962,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="n">
         <f aca="false">A636+1</f>
         <v>631</v>
@@ -17986,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="n">
         <f aca="false">A637+1</f>
         <v>632</v>
@@ -18012,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="n">
         <f aca="false">A638+1</f>
         <v>633</v>
@@ -18036,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="n">
         <f aca="false">A639+1</f>
         <v>634</v>
@@ -18060,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="n">
         <f aca="false">A640+1</f>
         <v>635</v>
@@ -18084,7 +18091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="n">
         <f aca="false">A641+1</f>
         <v>636</v>
@@ -18108,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="n">
         <f aca="false">A642+1</f>
         <v>637</v>
@@ -18132,7 +18139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="n">
         <f aca="false">A643+1</f>
         <v>638</v>
@@ -18153,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="n">
         <f aca="false">A644+1</f>
         <v>639</v>
@@ -18177,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="n">
         <f aca="false">A645+1</f>
         <v>640</v>
@@ -18201,7 +18208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="n">
         <f aca="false">A646+1</f>
         <v>641</v>
@@ -18225,7 +18232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="n">
         <f aca="false">A647+1</f>
         <v>642</v>
@@ -18249,7 +18256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="n">
         <f aca="false">A648+1</f>
         <v>643</v>
@@ -18273,7 +18280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="n">
         <f aca="false">A649+1</f>
         <v>644</v>
@@ -18297,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="n">
         <f aca="false">A650+1</f>
         <v>645</v>
@@ -18321,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="n">
         <f aca="false">A651+1</f>
         <v>646</v>
@@ -18342,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="n">
         <f aca="false">A652+1</f>
         <v>647</v>
@@ -18369,7 +18376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="n">
         <f aca="false">A653+1</f>
         <v>648</v>
@@ -18390,7 +18397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="n">
         <f aca="false">A654+1</f>
         <v>649</v>
@@ -18411,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="n">
         <f aca="false">A655+1</f>
         <v>650</v>
@@ -18432,7 +18439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="n">
         <f aca="false">A656+1</f>
         <v>651</v>
@@ -18457,7 +18464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="n">
         <f aca="false">A657+1</f>
         <v>652</v>
@@ -18481,7 +18488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="n">
         <f aca="false">A658+1</f>
         <v>653</v>
@@ -18502,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="n">
         <f aca="false">A659+1</f>
         <v>654</v>
@@ -18523,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="n">
         <f aca="false">A660+1</f>
         <v>655</v>
@@ -18572,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="n">
         <f aca="false">A662+1</f>
         <v>657</v>
@@ -18593,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="n">
         <f aca="false">A663+1</f>
         <v>658</v>
@@ -18617,7 +18624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="n">
         <f aca="false">A664+1</f>
         <v>659</v>
@@ -18641,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="n">
         <f aca="false">A665+1</f>
         <v>660</v>
@@ -18665,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="n">
         <f aca="false">A666+1</f>
         <v>661</v>
@@ -18689,7 +18696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="n">
         <f aca="false">A667+1</f>
         <v>662</v>
@@ -18713,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="n">
         <f aca="false">A668+1</f>
         <v>663</v>
@@ -18737,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="n">
         <f aca="false">A669+1</f>
         <v>664</v>
@@ -18758,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="n">
         <f aca="false">A670+1</f>
         <v>665</v>
@@ -18779,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="n">
         <f aca="false">A671+1</f>
         <v>666</v>
@@ -18825,7 +18832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="n">
         <f aca="false">A673+1</f>
         <v>668</v>
@@ -18849,7 +18856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="n">
         <f aca="false">A674+1</f>
         <v>669</v>
@@ -18870,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="n">
         <f aca="false">A675+1</f>
         <v>670</v>
@@ -18891,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="n">
         <f aca="false">A676+1</f>
         <v>671</v>
@@ -18912,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
         <f aca="false">A677+1</f>
         <v>672</v>
@@ -18936,7 +18943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
         <f aca="false">A678+1</f>
         <v>673</v>
@@ -18957,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="n">
         <f aca="false">A679+1</f>
         <v>674</v>
@@ -18978,7 +18985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="n">
         <f aca="false">A680+1</f>
         <v>675</v>
@@ -18999,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
         <f aca="false">A681+1</f>
         <v>676</v>
@@ -19020,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="n">
         <f aca="false">A682+1</f>
         <v>677</v>
@@ -19046,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="n">
         <f aca="false">A683+1</f>
         <v>678</v>
@@ -19067,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="n">
         <f aca="false">A684+1</f>
         <v>679</v>
@@ -19088,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="n">
         <f aca="false">A685+1</f>
         <v>680</v>
@@ -19109,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="n">
         <f aca="false">A686+1</f>
         <v>681</v>
@@ -19130,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="n">
         <f aca="false">A687+1</f>
         <v>682</v>
@@ -19154,7 +19161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="n">
         <f aca="false">A688+1</f>
         <v>683</v>
@@ -19178,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="n">
         <f aca="false">A689+1</f>
         <v>684</v>
@@ -19202,7 +19209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="n">
         <f aca="false">A690+1</f>
         <v>685</v>
@@ -19228,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="n">
         <f aca="false">A691+1</f>
         <v>686</v>
@@ -19249,7 +19256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="n">
         <f aca="false">A692+1</f>
         <v>687</v>
@@ -19270,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="n">
         <f aca="false">A693+1</f>
         <v>688</v>
@@ -19297,7 +19304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="n">
         <f aca="false">A694+1</f>
         <v>689</v>
@@ -19318,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="n">
         <f aca="false">A695+1</f>
         <v>690</v>
@@ -19342,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="n">
         <f aca="false">A696+1</f>
         <v>691</v>
@@ -19366,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="n">
         <f aca="false">A697+1</f>
         <v>692</v>
@@ -19390,7 +19397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="n">
         <f aca="false">A698+1</f>
         <v>693</v>
@@ -19411,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="n">
         <f aca="false">A699+1</f>
         <v>694</v>
@@ -19432,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="n">
         <f aca="false">A700+1</f>
         <v>695</v>
@@ -19453,7 +19460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="n">
         <f aca="false">A701+1</f>
         <v>696</v>
@@ -19474,7 +19481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="n">
         <f aca="false">A702+1</f>
         <v>697</v>
@@ -19495,7 +19502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="n">
         <f aca="false">A703+1</f>
         <v>698</v>
@@ -19519,7 +19526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="n">
         <f aca="false">A704+1</f>
         <v>699</v>
@@ -19543,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="n">
         <f aca="false">A705+1</f>
         <v>700</v>
@@ -19564,7 +19571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="n">
         <f aca="false">A706+1</f>
         <v>701</v>
@@ -19585,7 +19592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="n">
         <f aca="false">A707+1</f>
         <v>702</v>
@@ -19606,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="n">
         <f aca="false">A708+1</f>
         <v>703</v>
@@ -19627,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="n">
         <f aca="false">A709+1</f>
         <v>704</v>
@@ -19648,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="n">
         <f aca="false">A710+1</f>
         <v>705</v>
@@ -19669,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="n">
         <f aca="false">A711+1</f>
         <v>706</v>
@@ -19690,7 +19697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="n">
         <f aca="false">A712+1</f>
         <v>707</v>
@@ -19711,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="n">
         <f aca="false">A713+1</f>
         <v>708</v>
@@ -19732,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="n">
         <f aca="false">A714+1</f>
         <v>709</v>
@@ -19759,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="n">
         <f aca="false">A715+1</f>
         <v>710</v>
@@ -19784,7 +19791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="n">
         <f aca="false">A716+1</f>
         <v>711</v>
@@ -19809,7 +19816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="n">
         <f aca="false">A717+1</f>
         <v>712</v>
@@ -19833,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="n">
         <f aca="false">A718+1</f>
         <v>713</v>
@@ -19854,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="n">
         <f aca="false">A719+1</f>
         <v>714</v>
@@ -19875,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="n">
         <f aca="false">A720+1</f>
         <v>715</v>
@@ -19899,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="n">
         <f aca="false">A721+1</f>
         <v>716</v>
@@ -19923,7 +19930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="n">
         <f aca="false">A722+1</f>
         <v>717</v>
@@ -19947,7 +19954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="n">
         <f aca="false">A723+1</f>
         <v>718</v>
@@ -19971,7 +19978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="n">
         <f aca="false">A724+1</f>
         <v>719</v>
@@ -19995,7 +20002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="n">
         <f aca="false">A725+1</f>
         <v>720</v>
@@ -20016,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="n">
         <f aca="false">A726+1</f>
         <v>721</v>
@@ -20037,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="n">
         <f aca="false">A727+1</f>
         <v>722</v>
@@ -20058,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="n">
         <f aca="false">A728+1</f>
         <v>723</v>
@@ -20079,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="n">
         <f aca="false">A729+1</f>
         <v>724</v>
@@ -20104,7 +20111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="n">
         <f aca="false">A730+1</f>
         <v>725</v>
@@ -20128,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="n">
         <f aca="false">A731+1</f>
         <v>726</v>
@@ -20152,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="n">
         <f aca="false">A732+1</f>
         <v>727</v>
@@ -20173,7 +20180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="n">
         <f aca="false">A733+1</f>
         <v>728</v>
@@ -20197,7 +20204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="n">
         <f aca="false">A734+1</f>
         <v>729</v>
@@ -20218,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="n">
         <f aca="false">A735+1</f>
         <v>730</v>
@@ -20242,7 +20249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="n">
         <f aca="false">A736+1</f>
         <v>731</v>
@@ -20263,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="n">
         <f aca="false">A737+1</f>
         <v>732</v>
@@ -20284,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="n">
         <f aca="false">A738+1</f>
         <v>733</v>
@@ -20305,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="n">
         <f aca="false">A739+1</f>
         <v>734</v>
@@ -20326,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="n">
         <f aca="false">A740+1</f>
         <v>735</v>
@@ -20347,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="n">
         <f aca="false">A741+1</f>
         <v>736</v>
@@ -20371,7 +20378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="n">
         <f aca="false">A742+1</f>
         <v>737</v>
@@ -20392,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="n">
         <f aca="false">A743+1</f>
         <v>738</v>
@@ -20413,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="n">
         <f aca="false">A744+1</f>
         <v>739</v>
@@ -20434,7 +20441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="n">
         <f aca="false">A745+1</f>
         <v>740</v>
@@ -20458,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="n">
         <f aca="false">A746+1</f>
         <v>741</v>
@@ -20482,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="n">
         <f aca="false">A747+1</f>
         <v>742</v>
@@ -20503,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="n">
         <f aca="false">A748+1</f>
         <v>743</v>
@@ -20527,7 +20534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="n">
         <f aca="false">A749+1</f>
         <v>744</v>
@@ -20551,7 +20558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="n">
         <f aca="false">A750+1</f>
         <v>745</v>
@@ -20575,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="n">
         <f aca="false">A751+1</f>
         <v>746</v>
@@ -20596,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="n">
         <f aca="false">A752+1</f>
         <v>747</v>
@@ -20620,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="n">
         <f aca="false">A753+1</f>
         <v>748</v>
@@ -20641,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="n">
         <f aca="false">A754+1</f>
         <v>749</v>
@@ -20665,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="n">
         <f aca="false">A755+1</f>
         <v>750</v>
@@ -20689,7 +20696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="n">
         <f aca="false">A756+1</f>
         <v>751</v>
@@ -20713,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="n">
         <f aca="false">A757+1</f>
         <v>752</v>
@@ -20734,7 +20741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="n">
         <f aca="false">A758+1</f>
         <v>753</v>
@@ -20755,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="n">
         <f aca="false">A759+1</f>
         <v>754</v>
@@ -20776,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="n">
         <f aca="false">A760+1</f>
         <v>755</v>
@@ -20797,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="n">
         <f aca="false">A761+1</f>
         <v>756</v>
@@ -20818,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="n">
         <f aca="false">A762+1</f>
         <v>757</v>
@@ -20839,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="n">
         <f aca="false">A763+1</f>
         <v>758</v>
@@ -20860,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="n">
         <f aca="false">A764+1</f>
         <v>759</v>
@@ -20881,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="n">
         <f aca="false">A765+1</f>
         <v>760</v>
@@ -20902,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="n">
         <f aca="false">A766+1</f>
         <v>761</v>
@@ -20923,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="n">
         <f aca="false">A767+1</f>
         <v>762</v>
@@ -20947,7 +20954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="n">
         <f aca="false">A768+1</f>
         <v>763</v>
@@ -20971,7 +20978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="n">
         <f aca="false">A769+1</f>
         <v>764</v>
@@ -20998,7 +21005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="n">
         <f aca="false">A770+1</f>
         <v>765</v>
@@ -21019,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="n">
         <f aca="false">A771+1</f>
         <v>766</v>
@@ -21040,7 +21047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="n">
         <f aca="false">A772+1</f>
         <v>767</v>
@@ -21061,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="n">
         <f aca="false">A773+1</f>
         <v>768</v>
@@ -21082,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="n">
         <f aca="false">A774+1</f>
         <v>769</v>
@@ -21109,7 +21116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="n">
         <f aca="false">A775+1</f>
         <v>770</v>
@@ -21130,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="n">
         <f aca="false">A776+1</f>
         <v>771</v>
@@ -21151,7 +21158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="n">
         <f aca="false">A777+1</f>
         <v>772</v>
@@ -21172,7 +21179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="n">
         <f aca="false">A778+1</f>
         <v>773</v>
@@ -21193,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="n">
         <f aca="false">A779+1</f>
         <v>774</v>
@@ -21214,7 +21221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="n">
         <f aca="false">A780+1</f>
         <v>775</v>
@@ -21235,7 +21242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="n">
         <f aca="false">A781+1</f>
         <v>776</v>
@@ -21256,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="n">
         <f aca="false">A782+1</f>
         <v>777</v>
@@ -21277,7 +21284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="n">
         <f aca="false">A783+1</f>
         <v>778</v>
@@ -21301,7 +21308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="n">
         <f aca="false">A784+1</f>
         <v>779</v>
@@ -21325,7 +21332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="n">
         <f aca="false">A785+1</f>
         <v>780</v>
@@ -21349,7 +21356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="n">
         <f aca="false">A786+1</f>
         <v>781</v>
@@ -21373,7 +21380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="n">
         <f aca="false">A787+1</f>
         <v>782</v>
@@ -21397,7 +21404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="n">
         <f aca="false">A788+1</f>
         <v>783</v>
@@ -21421,7 +21428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="n">
         <f aca="false">A789+1</f>
         <v>784</v>
@@ -21445,7 +21452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="n">
         <f aca="false">A790+1</f>
         <v>785</v>
@@ -21469,7 +21476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="n">
         <f aca="false">A791+1</f>
         <v>786</v>
@@ -21493,7 +21500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="n">
         <f aca="false">A792+1</f>
         <v>787</v>
@@ -21517,7 +21524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="n">
         <f aca="false">A793+1</f>
         <v>788</v>
@@ -21541,7 +21548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="n">
         <f aca="false">A794+1</f>
         <v>789</v>
@@ -21565,7 +21572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="n">
         <f aca="false">A795+1</f>
         <v>790</v>
@@ -21589,7 +21596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="1" t="n">
         <f aca="false">A796+1</f>
         <v>791</v>
@@ -21613,7 +21620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="n">
         <f aca="false">A797+1</f>
         <v>792</v>
@@ -21637,7 +21644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="n">
         <f aca="false">A798+1</f>
         <v>793</v>
@@ -21661,7 +21668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="n">
         <f aca="false">A799+1</f>
         <v>794</v>
@@ -21685,7 +21692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="n">
         <f aca="false">A800+1</f>
         <v>795</v>
@@ -21709,7 +21716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="1" t="n">
         <f aca="false">A801+1</f>
         <v>796</v>
@@ -21733,7 +21740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="1" t="n">
         <f aca="false">A802+1</f>
         <v>797</v>
@@ -21757,7 +21764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="1" t="n">
         <f aca="false">A803+1</f>
         <v>798</v>
@@ -21781,7 +21788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="1" t="n">
         <f aca="false">A804+1</f>
         <v>799</v>
@@ -21805,7 +21812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="n">
         <f aca="false">A805+1</f>
         <v>800</v>
@@ -21829,7 +21836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="n">
         <f aca="false">A806+1</f>
         <v>801</v>
@@ -21853,7 +21860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="n">
         <f aca="false">A807+1</f>
         <v>802</v>
@@ -21877,7 +21884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="n">
         <f aca="false">A808+1</f>
         <v>803</v>
@@ -21901,7 +21908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="n">
         <f aca="false">A809+1</f>
         <v>804</v>
@@ -21925,7 +21932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="n">
         <f aca="false">A810+1</f>
         <v>805</v>
@@ -21949,7 +21956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="n">
         <f aca="false">A811+1</f>
         <v>806</v>
@@ -21973,7 +21980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="n">
         <f aca="false">A812+1</f>
         <v>807</v>
@@ -21997,7 +22004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="n">
         <f aca="false">A813+1</f>
         <v>808</v>
@@ -22021,7 +22028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="n">
         <f aca="false">A814+1</f>
         <v>809</v>
@@ -22045,7 +22052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="n">
         <f aca="false">A815+1</f>
         <v>810</v>
@@ -22069,7 +22076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="n">
         <f aca="false">A816+1</f>
         <v>811</v>
@@ -22093,7 +22100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="n">
         <f aca="false">A817+1</f>
         <v>812</v>
@@ -22117,7 +22124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="1" t="n">
         <f aca="false">A818+1</f>
         <v>813</v>
@@ -22141,7 +22148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="n">
         <f aca="false">A819+1</f>
         <v>814</v>
@@ -22165,7 +22172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="n">
         <f aca="false">A820+1</f>
         <v>815</v>
@@ -22189,7 +22196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="n">
         <f aca="false">A821+1</f>
         <v>816</v>
@@ -22213,7 +22220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="n">
         <f aca="false">A822+1</f>
         <v>817</v>
@@ -22237,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="n">
         <f aca="false">A823+1</f>
         <v>818</v>
@@ -22261,7 +22268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="n">
         <f aca="false">A824+1</f>
         <v>819</v>
@@ -22285,7 +22292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="n">
         <f aca="false">A825+1</f>
         <v>820</v>
@@ -22309,7 +22316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="n">
         <f aca="false">A826+1</f>
         <v>821</v>
@@ -22333,7 +22340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="n">
         <f aca="false">A827+1</f>
         <v>822</v>
@@ -22357,7 +22364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="1" t="n">
         <f aca="false">A828+1</f>
         <v>823</v>
@@ -22381,7 +22388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="1" t="n">
         <f aca="false">A829+1</f>
         <v>824</v>
@@ -22405,7 +22412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="1" t="n">
         <f aca="false">A830+1</f>
         <v>825</v>
@@ -22429,7 +22436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="1" t="n">
         <f aca="false">A831+1</f>
         <v>826</v>
@@ -22453,7 +22460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="n">
         <f aca="false">A832+1</f>
         <v>827</v>
@@ -22477,7 +22484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="n">
         <f aca="false">A833+1</f>
         <v>828</v>
@@ -22501,7 +22508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="n">
         <f aca="false">A834+1</f>
         <v>829</v>
@@ -22525,7 +22532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="n">
         <f aca="false">A835+1</f>
         <v>830</v>
@@ -22549,7 +22556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="n">
         <f aca="false">A836+1</f>
         <v>831</v>
@@ -22573,7 +22580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="n">
         <f aca="false">A837+1</f>
         <v>832</v>
@@ -22597,7 +22604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="n">
         <f aca="false">A838+1</f>
         <v>833</v>
@@ -22621,7 +22628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="n">
         <f aca="false">A839+1</f>
         <v>834</v>
@@ -22645,7 +22652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="n">
         <f aca="false">A840+1</f>
         <v>835</v>
@@ -22669,7 +22676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="n">
         <f aca="false">A841+1</f>
         <v>836</v>
@@ -22693,7 +22700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="n">
         <f aca="false">A842+1</f>
         <v>837</v>
@@ -22717,7 +22724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="n">
         <f aca="false">A843+1</f>
         <v>838</v>
@@ -22741,7 +22748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="n">
         <f aca="false">A844+1</f>
         <v>839</v>
@@ -22765,7 +22772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="n">
         <f aca="false">A845+1</f>
         <v>840</v>
@@ -22789,7 +22796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="n">
         <f aca="false">A846+1</f>
         <v>841</v>
@@ -22813,7 +22820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="n">
         <f aca="false">A847+1</f>
         <v>842</v>
@@ -22837,7 +22844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="n">
         <f aca="false">A848+1</f>
         <v>843</v>
@@ -22861,7 +22868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="1" t="n">
         <f aca="false">A849+1</f>
         <v>844</v>
@@ -22885,7 +22892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="n">
         <f aca="false">A850+1</f>
         <v>845</v>
@@ -22909,7 +22916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="n">
         <f aca="false">A851+1</f>
         <v>846</v>
@@ -22933,7 +22940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="n">
         <f aca="false">A852+1</f>
         <v>847</v>
@@ -22957,7 +22964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="n">
         <f aca="false">A853+1</f>
         <v>848</v>
@@ -22981,7 +22988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="1" t="n">
         <f aca="false">A854+1</f>
         <v>849</v>
@@ -23005,7 +23012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="n">
         <f aca="false">A855+1</f>
         <v>850</v>
@@ -23029,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="n">
         <f aca="false">A856+1</f>
         <v>851</v>
@@ -23053,7 +23060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="n">
         <f aca="false">A857+1</f>
         <v>852</v>
@@ -23077,7 +23084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="n">
         <f aca="false">A858+1</f>
         <v>853</v>
@@ -23101,7 +23108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="n">
         <f aca="false">A859+1</f>
         <v>854</v>
@@ -23125,7 +23132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="n">
         <f aca="false">A860+1</f>
         <v>855</v>
@@ -23149,7 +23156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="n">
         <f aca="false">A861+1</f>
         <v>856</v>
@@ -23173,7 +23180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="1" t="n">
         <f aca="false">A862+1</f>
         <v>857</v>
@@ -23197,7 +23204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="n">
         <f aca="false">A863+1</f>
         <v>858</v>
@@ -23221,7 +23228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="n">
         <f aca="false">A864+1</f>
         <v>859</v>
@@ -23245,7 +23252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="n">
         <f aca="false">A865+1</f>
         <v>860</v>
@@ -23269,7 +23276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="n">
         <f aca="false">A866+1</f>
         <v>861</v>
@@ -23293,7 +23300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="1" t="n">
         <f aca="false">A867+1</f>
         <v>862</v>
@@ -23317,7 +23324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="n">
         <f aca="false">A868+1</f>
         <v>863</v>
@@ -23341,7 +23348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="n">
         <f aca="false">A869+1</f>
         <v>864</v>
@@ -23365,7 +23372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="n">
         <f aca="false">A870+1</f>
         <v>865</v>
@@ -23389,7 +23396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="n">
         <f aca="false">A871+1</f>
         <v>866</v>
@@ -23413,7 +23420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="n">
         <f aca="false">A872+1</f>
         <v>867</v>
@@ -23437,7 +23444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="1" t="n">
         <f aca="false">A873+1</f>
         <v>868</v>
@@ -23461,7 +23468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="n">
         <f aca="false">A874+1</f>
         <v>869</v>
@@ -23485,7 +23492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="n">
         <f aca="false">A875+1</f>
         <v>870</v>
@@ -23509,7 +23516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="n">
         <f aca="false">A876+1</f>
         <v>871</v>
@@ -23533,7 +23540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="n">
         <f aca="false">A877+1</f>
         <v>872</v>
@@ -23557,7 +23564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="1" t="n">
         <f aca="false">A878+1</f>
         <v>873</v>
@@ -23581,7 +23588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="n">
         <f aca="false">A879+1</f>
         <v>874</v>
@@ -23605,7 +23612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="n">
         <f aca="false">A880+1</f>
         <v>875</v>
@@ -23629,7 +23636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="n">
         <f aca="false">A881+1</f>
         <v>876</v>
@@ -23653,7 +23660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="n">
         <f aca="false">A882+1</f>
         <v>877</v>
@@ -23677,7 +23684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="n">
         <f aca="false">A883+1</f>
         <v>878</v>
@@ -23701,7 +23708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="n">
         <f aca="false">A884+1</f>
         <v>879</v>
@@ -23725,7 +23732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="n">
         <f aca="false">A885+1</f>
         <v>880</v>
@@ -23749,7 +23756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="n">
         <f aca="false">A886+1</f>
         <v>881</v>
@@ -23773,7 +23780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="n">
         <f aca="false">A887+1</f>
         <v>882</v>
@@ -23797,7 +23804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="n">
         <f aca="false">A888+1</f>
         <v>883</v>
@@ -23821,7 +23828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="n">
         <f aca="false">A889+1</f>
         <v>884</v>
@@ -23845,7 +23852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="n">
         <f aca="false">A890+1</f>
         <v>885</v>
@@ -23869,7 +23876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="n">
         <f aca="false">A891+1</f>
         <v>886</v>
@@ -23893,7 +23900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="n">
         <f aca="false">A892+1</f>
         <v>887</v>
@@ -23917,39 +23924,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="n">
         <f aca="false">A893+1</f>
         <v>888</v>
       </c>
-      <c r="B894" s="1"/>
+      <c r="B894" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="G894" s="1"/>
       <c r="I894" s="0" t="n">
         <f aca="false">IF(ISBLANK(B894),0,IF(D894="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J894" s="0" t="n">
         <f aca="false">IF(ISBLANK(D894),0,I894)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="895" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="n">
         <f aca="false">A894+1</f>
         <v>889</v>
       </c>
-      <c r="B895" s="1"/>
+      <c r="B895" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="G895" s="1"/>
       <c r="I895" s="0" t="n">
         <f aca="false">IF(ISBLANK(B895),0,IF(D895="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J895" s="0" t="n">
         <f aca="false">IF(ISBLANK(D895),0,I895)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="896" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="n">
         <f aca="false">A895+1</f>
         <v>890</v>
@@ -23965,7 +23988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="n">
         <f aca="false">A896+1</f>
         <v>891</v>
@@ -23981,7 +24004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="n">
         <f aca="false">A897+1</f>
         <v>892</v>
@@ -23997,7 +24020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="n">
         <f aca="false">A898+1</f>
         <v>893</v>
@@ -24013,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="n">
         <f aca="false">A899+1</f>
         <v>894</v>
@@ -24029,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="n">
         <f aca="false">A900+1</f>
         <v>895</v>
@@ -24045,7 +24068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="n">
         <f aca="false">A901+1</f>
         <v>896</v>
@@ -24061,7 +24084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="n">
         <f aca="false">A902+1</f>
         <v>897</v>
@@ -24077,7 +24100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="n">
         <f aca="false">A903+1</f>
         <v>898</v>
@@ -24093,7 +24116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="n">
         <f aca="false">A904+1</f>
         <v>899</v>
@@ -24109,7 +24132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="n">
         <f aca="false">A905+1</f>
         <v>900</v>
@@ -24125,7 +24148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="n">
         <f aca="false">A906+1</f>
         <v>901</v>
@@ -24141,7 +24164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="n">
         <f aca="false">A907+1</f>
         <v>902</v>
@@ -24157,7 +24180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="n">
         <f aca="false">A908+1</f>
         <v>903</v>
@@ -24173,7 +24196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="n">
         <f aca="false">A909+1</f>
         <v>904</v>
@@ -24189,7 +24212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="n">
         <f aca="false">A910+1</f>
         <v>905</v>
@@ -24205,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="n">
         <f aca="false">A911+1</f>
         <v>906</v>
@@ -24221,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="n">
         <f aca="false">A912+1</f>
         <v>907</v>
@@ -24237,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="n">
         <f aca="false">A913+1</f>
         <v>908</v>
@@ -24253,7 +24276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="n">
         <f aca="false">A914+1</f>
         <v>909</v>
@@ -24269,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="n">
         <f aca="false">A915+1</f>
         <v>910</v>
@@ -24285,7 +24308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="n">
         <f aca="false">A916+1</f>
         <v>911</v>
@@ -24301,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="n">
         <f aca="false">A917+1</f>
         <v>912</v>
@@ -24317,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="n">
         <f aca="false">A918+1</f>
         <v>913</v>
@@ -24333,7 +24356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="n">
         <f aca="false">A919+1</f>
         <v>914</v>
@@ -24349,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="n">
         <f aca="false">A920+1</f>
         <v>915</v>
@@ -24365,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="n">
         <f aca="false">A921+1</f>
         <v>916</v>
@@ -24381,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="n">
         <f aca="false">A922+1</f>
         <v>917</v>
@@ -24397,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="n">
         <f aca="false">A923+1</f>
         <v>918</v>
@@ -24413,7 +24436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="n">
         <f aca="false">A924+1</f>
         <v>919</v>
@@ -24429,7 +24452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="n">
         <f aca="false">A925+1</f>
         <v>920</v>
@@ -24445,7 +24468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="n">
         <f aca="false">A926+1</f>
         <v>921</v>
@@ -24461,7 +24484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="n">
         <f aca="false">A927+1</f>
         <v>922</v>
@@ -24477,7 +24500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="n">
         <f aca="false">A928+1</f>
         <v>923</v>
@@ -24493,7 +24516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="n">
         <f aca="false">A929+1</f>
         <v>924</v>
@@ -24509,7 +24532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="n">
         <f aca="false">A930+1</f>
         <v>925</v>
@@ -24525,7 +24548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="n">
         <f aca="false">A931+1</f>
         <v>926</v>
@@ -24541,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="n">
         <f aca="false">A932+1</f>
         <v>927</v>
@@ -24557,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="n">
         <f aca="false">A933+1</f>
         <v>928</v>
@@ -24573,7 +24596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="n">
         <f aca="false">A934+1</f>
         <v>929</v>
@@ -24589,7 +24612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="n">
         <f aca="false">A935+1</f>
         <v>930</v>
@@ -24605,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="n">
         <f aca="false">A936+1</f>
         <v>931</v>
@@ -24621,7 +24644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="n">
         <f aca="false">A937+1</f>
         <v>932</v>
@@ -24637,7 +24660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="n">
         <f aca="false">A938+1</f>
         <v>933</v>
@@ -24653,7 +24676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="n">
         <f aca="false">A939+1</f>
         <v>934</v>
@@ -24669,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="n">
         <f aca="false">A940+1</f>
         <v>935</v>
@@ -24685,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="n">
         <f aca="false">A941+1</f>
         <v>936</v>
@@ -24701,7 +24724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="n">
         <f aca="false">A942+1</f>
         <v>937</v>
@@ -24717,7 +24740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="n">
         <f aca="false">A943+1</f>
         <v>938</v>
@@ -24733,7 +24756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="n">
         <f aca="false">A944+1</f>
         <v>939</v>
@@ -24749,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="n">
         <f aca="false">A945+1</f>
         <v>940</v>
@@ -24765,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="n">
         <f aca="false">A946+1</f>
         <v>941</v>
@@ -24781,7 +24804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="n">
         <f aca="false">A947+1</f>
         <v>942</v>
@@ -24797,7 +24820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="n">
         <f aca="false">A948+1</f>
         <v>943</v>
@@ -24813,7 +24836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="n">
         <f aca="false">A949+1</f>
         <v>944</v>
@@ -24829,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="n">
         <f aca="false">A950+1</f>
         <v>945</v>
@@ -24845,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="n">
         <f aca="false">A951+1</f>
         <v>946</v>
@@ -24861,7 +24884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="n">
         <f aca="false">A952+1</f>
         <v>947</v>
@@ -24877,7 +24900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="n">
         <f aca="false">A953+1</f>
         <v>948</v>
@@ -24893,7 +24916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="n">
         <f aca="false">A954+1</f>
         <v>949</v>
@@ -24909,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="n">
         <f aca="false">A955+1</f>
         <v>950</v>
@@ -24925,7 +24948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="n">
         <f aca="false">A956+1</f>
         <v>951</v>
@@ -24941,7 +24964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="n">
         <f aca="false">A957+1</f>
         <v>952</v>
@@ -24957,7 +24980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="n">
         <f aca="false">A958+1</f>
         <v>953</v>
@@ -24973,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="n">
         <f aca="false">A959+1</f>
         <v>954</v>
@@ -24989,7 +25012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="n">
         <f aca="false">A960+1</f>
         <v>955</v>
@@ -25005,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="n">
         <f aca="false">A961+1</f>
         <v>956</v>
@@ -25021,7 +25044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="n">
         <f aca="false">A962+1</f>
         <v>957</v>
@@ -25037,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="n">
         <f aca="false">A963+1</f>
         <v>958</v>
@@ -25053,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="n">
         <f aca="false">A964+1</f>
         <v>959</v>
@@ -25069,7 +25092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="n">
         <f aca="false">A965+1</f>
         <v>960</v>
@@ -25085,7 +25108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="n">
         <f aca="false">A966+1</f>
         <v>961</v>
@@ -25101,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="n">
         <f aca="false">A967+1</f>
         <v>962</v>
@@ -25117,7 +25140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="n">
         <f aca="false">A968+1</f>
         <v>963</v>
@@ -25133,7 +25156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="n">
         <f aca="false">A969+1</f>
         <v>964</v>
@@ -25149,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="n">
         <f aca="false">A970+1</f>
         <v>965</v>
@@ -25165,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="n">
         <f aca="false">A971+1</f>
         <v>966</v>
@@ -25181,7 +25204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="n">
         <f aca="false">A972+1</f>
         <v>967</v>
@@ -25197,7 +25220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="n">
         <f aca="false">A973+1</f>
         <v>968</v>
@@ -25213,7 +25236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="n">
         <f aca="false">A974+1</f>
         <v>969</v>
@@ -25229,7 +25252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="n">
         <f aca="false">A975+1</f>
         <v>970</v>
@@ -25245,7 +25268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="n">
         <f aca="false">A976+1</f>
         <v>971</v>
@@ -25261,7 +25284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="n">
         <f aca="false">A977+1</f>
         <v>972</v>
@@ -25277,7 +25300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="n">
         <f aca="false">A978+1</f>
         <v>973</v>
@@ -25293,7 +25316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="n">
         <f aca="false">A979+1</f>
         <v>974</v>
@@ -25309,7 +25332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="n">
         <f aca="false">A980+1</f>
         <v>975</v>
@@ -25325,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="n">
         <f aca="false">A981+1</f>
         <v>976</v>
@@ -25341,7 +25364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="n">
         <f aca="false">A982+1</f>
         <v>977</v>
@@ -25357,7 +25380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="n">
         <f aca="false">A983+1</f>
         <v>978</v>
@@ -25373,7 +25396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="n">
         <f aca="false">A984+1</f>
         <v>979</v>
@@ -25389,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="n">
         <f aca="false">A985+1</f>
         <v>980</v>
@@ -25405,7 +25428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="n">
         <f aca="false">A986+1</f>
         <v>981</v>
@@ -25421,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="n">
         <f aca="false">A987+1</f>
         <v>982</v>
@@ -25437,7 +25460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="n">
         <f aca="false">A988+1</f>
         <v>983</v>
@@ -25453,7 +25476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="n">
         <f aca="false">A989+1</f>
         <v>984</v>
@@ -25469,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="n">
         <f aca="false">A990+1</f>
         <v>985</v>
@@ -25485,7 +25508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="n">
         <f aca="false">A991+1</f>
         <v>986</v>
@@ -25501,7 +25524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="n">
         <f aca="false">A992+1</f>
         <v>987</v>
@@ -25517,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="n">
         <f aca="false">A993+1</f>
         <v>988</v>
@@ -25533,7 +25556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="n">
         <f aca="false">A994+1</f>
         <v>989</v>
@@ -25549,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="n">
         <f aca="false">A995+1</f>
         <v>990</v>
@@ -25565,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="n">
         <f aca="false">A996+1</f>
         <v>991</v>
@@ -25581,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="n">
         <f aca="false">A997+1</f>
         <v>992</v>
@@ -25597,7 +25620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="n">
         <f aca="false">A998+1</f>
         <v>993</v>
@@ -26834,13 +26857,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:H999">
-    <filterColumn colId="2">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Composites"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:H999"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -26870,35 +26887,35 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26909,7 +26926,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -26,9 +26,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="979">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -2954,6 +2955,9 @@
   </si>
   <si>
     <t xml:space="preserve">UNHIDELOCALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→NFC</t>
   </si>
   <si>
     <t xml:space="preserve">Num</t>
@@ -3493,15 +3497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A888" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H446" activeCellId="0" sqref="H446"/>
+      <selection pane="bottomLeft" activeCell="F1005" activeCellId="0" sqref="F1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3512,26 +3516,26 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,7 +3544,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.420326223337516</v>
+        <v>0.422305764411028</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,10 +3576,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>1</v>
@@ -3600,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>2</v>
@@ -3625,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>3</v>
@@ -3649,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>4</v>
@@ -3673,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>5</v>
@@ -3697,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>6</v>
@@ -3722,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>7</v>
@@ -3747,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>8</v>
@@ -3772,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>9</v>
@@ -3797,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>10</v>
@@ -3822,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="false">A16+1</f>
         <v>11</v>
@@ -3843,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>12</v>
@@ -3868,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>13</v>
@@ -3893,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <f aca="false">A19+1</f>
         <v>14</v>
@@ -3914,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">A20+1</f>
         <v>15</v>
@@ -3939,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="false">A21+1</f>
         <v>16</v>
@@ -3964,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="false">A22+1</f>
         <v>17</v>
@@ -3989,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <f aca="false">A23+1</f>
         <v>18</v>
@@ -4014,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="false">A24+1</f>
         <v>19</v>
@@ -4039,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <f aca="false">A25+1</f>
         <v>20</v>
@@ -4060,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="false">A26+1</f>
         <v>21</v>
@@ -4085,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <f aca="false">A27+1</f>
         <v>22</v>
@@ -4106,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">A28+1</f>
         <v>23</v>
@@ -4131,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="false">A29+1</f>
         <v>24</v>
@@ -4156,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="false">A30+1</f>
         <v>25</v>
@@ -4180,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">A31+1</f>
         <v>26</v>
@@ -4201,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">A32+1</f>
         <v>27</v>
@@ -4226,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">A33+1</f>
         <v>28</v>
@@ -4251,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">A34+1</f>
         <v>29</v>
@@ -4276,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="false">A35+1</f>
         <v>30</v>
@@ -4300,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">A36+1</f>
         <v>31</v>
@@ -4324,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">A37+1</f>
         <v>32</v>
@@ -4345,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">A38+1</f>
         <v>33</v>
@@ -4366,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="false">A39+1</f>
         <v>34</v>
@@ -4387,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">A40+1</f>
         <v>35</v>
@@ -4411,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <f aca="false">A41+1</f>
         <v>36</v>
@@ -4432,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <f aca="false">A42+1</f>
         <v>37</v>
@@ -4453,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="false">A43+1</f>
         <v>38</v>
@@ -4474,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="false">A44+1</f>
         <v>39</v>
@@ -4499,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="false">A45+1</f>
         <v>40</v>
@@ -4523,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <f aca="false">A46+1</f>
         <v>41</v>
@@ -4544,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="false">A47+1</f>
         <v>42</v>
@@ -4569,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">A48+1</f>
         <v>43</v>
@@ -4593,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <f aca="false">A49+1</f>
         <v>44</v>
@@ -4614,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <f aca="false">A50+1</f>
         <v>45</v>
@@ -4638,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <f aca="false">A51+1</f>
         <v>46</v>
@@ -4663,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <f aca="false">A52+1</f>
         <v>47</v>
@@ -4684,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="false">A53+1</f>
         <v>48</v>
@@ -4708,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">A54+1</f>
         <v>49</v>
@@ -4733,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <f aca="false">A55+1</f>
         <v>50</v>
@@ -4757,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">A56+1</f>
         <v>51</v>
@@ -4781,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="false">A57+1</f>
         <v>52</v>
@@ -4802,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="false">A58+1</f>
         <v>53</v>
@@ -4827,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="false">A59+1</f>
         <v>54</v>
@@ -4851,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="false">A60+1</f>
         <v>55</v>
@@ -4875,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <f aca="false">A61+1</f>
         <v>56</v>
@@ -4896,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+1</f>
         <v>57</v>
@@ -4921,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+1</f>
         <v>58</v>
@@ -4945,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+1</f>
         <v>59</v>
@@ -4969,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+1</f>
         <v>60</v>
@@ -4993,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <f aca="false">A66+1</f>
         <v>61</v>
@@ -5014,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+1</f>
         <v>62</v>
@@ -5038,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+1</f>
         <v>63</v>
@@ -5065,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+1</f>
         <v>64</v>
@@ -5089,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <f aca="false">A70+1</f>
         <v>65</v>
@@ -5110,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <f aca="false">A71+1</f>
         <v>66</v>
@@ -5131,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <f aca="false">A72+1</f>
         <v>67</v>
@@ -5152,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <f aca="false">A73+1</f>
         <v>68</v>
@@ -5173,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <f aca="false">A74+1</f>
         <v>69</v>
@@ -5197,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <f aca="false">A75+1</f>
         <v>70</v>
@@ -5218,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="false">A76+1</f>
         <v>71</v>
@@ -5244,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <f aca="false">A77+1</f>
         <v>72</v>
@@ -5268,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <f aca="false">A78+1</f>
         <v>73</v>
@@ -5289,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <f aca="false">A79+1</f>
         <v>74</v>
@@ -5310,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <f aca="false">A80+1</f>
         <v>75</v>
@@ -5331,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <f aca="false">A81+1</f>
         <v>76</v>
@@ -5356,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <f aca="false">A82+1</f>
         <v>77</v>
@@ -5377,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <f aca="false">A83+1</f>
         <v>78</v>
@@ -5401,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <f aca="false">A84+1</f>
         <v>79</v>
@@ -5425,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="false">A85+1</f>
         <v>80</v>
@@ -5449,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <f aca="false">A86+1</f>
         <v>81</v>
@@ -5470,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <f aca="false">A87+1</f>
         <v>82</v>
@@ -5491,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <f aca="false">A88+1</f>
         <v>83</v>
@@ -5515,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <f aca="false">A89+1</f>
         <v>84</v>
@@ -5539,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="false">A90+1</f>
         <v>85</v>
@@ -5563,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <f aca="false">A91+1</f>
         <v>86</v>
@@ -5587,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <f aca="false">A92+1</f>
         <v>87</v>
@@ -5611,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="false">A93+1</f>
         <v>88</v>
@@ -5638,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <f aca="false">A94+1</f>
         <v>89</v>
@@ -5664,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <f aca="false">A95+1</f>
         <v>90</v>
@@ -5685,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+1</f>
         <v>91</v>
@@ -5709,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <f aca="false">A97+1</f>
         <v>92</v>
@@ -5730,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">A98+1</f>
         <v>93</v>
@@ -5754,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="false">A99+1</f>
         <v>94</v>
@@ -5775,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <f aca="false">A100+1</f>
         <v>95</v>
@@ -5796,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="false">A101+1</f>
         <v>96</v>
@@ -5820,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <f aca="false">A102+1</f>
         <v>97</v>
@@ -5841,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <f aca="false">A103+1</f>
         <v>98</v>
@@ -5862,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <f aca="false">A104+1</f>
         <v>99</v>
@@ -5886,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <f aca="false">A105+1</f>
         <v>100</v>
@@ -5910,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <f aca="false">A106+1</f>
         <v>101</v>
@@ -5931,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <f aca="false">A107+1</f>
         <v>102</v>
@@ -5955,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <f aca="false">A108+1</f>
         <v>103</v>
@@ -5976,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <f aca="false">A109+1</f>
         <v>104</v>
@@ -5997,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <f aca="false">A110+1</f>
         <v>105</v>
@@ -6021,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">A111+1</f>
         <v>106</v>
@@ -6042,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+1</f>
         <v>107</v>
@@ -6063,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="false">A113+1</f>
         <v>108</v>
@@ -6084,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="false">A114+1</f>
         <v>109</v>
@@ -6108,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">A115+1</f>
         <v>110</v>
@@ -6134,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">A116+1</f>
         <v>111</v>
@@ -6155,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="false">A117+1</f>
         <v>112</v>
@@ -6176,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+1</f>
         <v>113</v>
@@ -6197,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">A119+1</f>
         <v>114</v>
@@ -6218,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">A120+1</f>
         <v>115</v>
@@ -6245,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">A121+1</f>
         <v>116</v>
@@ -6266,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">A122+1</f>
         <v>117</v>
@@ -6291,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">A123+1</f>
         <v>118</v>
@@ -6312,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">A124+1</f>
         <v>119</v>
@@ -6333,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">A125+1</f>
         <v>120</v>
@@ -6354,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="false">A126+1</f>
         <v>121</v>
@@ -6378,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="false">A127+1</f>
         <v>122</v>
@@ -6402,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <f aca="false">A128+1</f>
         <v>123</v>
@@ -6423,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">A129+1</f>
         <v>124</v>
@@ -6447,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+1</f>
         <v>125</v>
@@ -6468,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="false">A131+1</f>
         <v>126</v>
@@ -6492,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <f aca="false">A132+1</f>
         <v>127</v>
@@ -6513,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <f aca="false">A133+1</f>
         <v>128</v>
@@ -6539,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="false">A134+1</f>
         <v>129</v>
@@ -6560,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="false">A135+1</f>
         <v>130</v>
@@ -6586,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <f aca="false">A136+1</f>
         <v>131</v>
@@ -6610,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">A137+1</f>
         <v>132</v>
@@ -6631,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="false">A138+1</f>
         <v>133</v>
@@ -6652,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <f aca="false">A139+1</f>
         <v>134</v>
@@ -6676,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <f aca="false">A140+1</f>
         <v>135</v>
@@ -6700,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <f aca="false">A141+1</f>
         <v>136</v>
@@ -6721,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <f aca="false">A142+1</f>
         <v>137</v>
@@ -6742,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <f aca="false">A143+1</f>
         <v>138</v>
@@ -6766,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">A144+1</f>
         <v>139</v>
@@ -6790,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="false">A145+1</f>
         <v>140</v>
@@ -6814,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="false">A146+1</f>
         <v>141</v>
@@ -6838,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <f aca="false">A147+1</f>
         <v>142</v>
@@ -6859,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">A148+1</f>
         <v>143</v>
@@ -6880,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="false">A149+1</f>
         <v>144</v>
@@ -6901,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <f aca="false">A150+1</f>
         <v>145</v>
@@ -6922,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">A151+1</f>
         <v>146</v>
@@ -6946,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <f aca="false">A152+1</f>
         <v>147</v>
@@ -6970,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <f aca="false">A153+1</f>
         <v>148</v>
@@ -6991,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+1</f>
         <v>149</v>
@@ -7016,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <f aca="false">A155+1</f>
         <v>150</v>
@@ -7037,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <f aca="false">A156+1</f>
         <v>151</v>
@@ -7061,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <f aca="false">A157+1</f>
         <v>152</v>
@@ -7082,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <f aca="false">A158+1</f>
         <v>153</v>
@@ -7106,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <f aca="false">A159+1</f>
         <v>154</v>
@@ -7131,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <f aca="false">A160+1</f>
         <v>155</v>
@@ -7152,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <f aca="false">A161+1</f>
         <v>156</v>
@@ -7176,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <f aca="false">A162+1</f>
         <v>157</v>
@@ -7200,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <f aca="false">A163+1</f>
         <v>158</v>
@@ -7221,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <f aca="false">A164+1</f>
         <v>159</v>
@@ -7245,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="false">A165+1</f>
         <v>160</v>
@@ -7269,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <f aca="false">A166+1</f>
         <v>161</v>
@@ -7293,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <f aca="false">A167+1</f>
         <v>162</v>
@@ -7317,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <f aca="false">A168+1</f>
         <v>163</v>
@@ -7341,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <f aca="false">A169+1</f>
         <v>164</v>
@@ -7362,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <f aca="false">A170+1</f>
         <v>165</v>
@@ -7383,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <f aca="false">A171+1</f>
         <v>166</v>
@@ -7404,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="false">A172+1</f>
         <v>167</v>
@@ -7430,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <f aca="false">A173+1</f>
         <v>168</v>
@@ -7451,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <f aca="false">A174+1</f>
         <v>169</v>
@@ -7475,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <f aca="false">A175+1</f>
         <v>170</v>
@@ -7499,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <f aca="false">A176+1</f>
         <v>171</v>
@@ -7524,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <f aca="false">A177+1</f>
         <v>172</v>
@@ -7545,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <f aca="false">A178+1</f>
         <v>173</v>
@@ -7571,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <f aca="false">A179+1</f>
         <v>174</v>
@@ -7595,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <f aca="false">A180+1</f>
         <v>175</v>
@@ -7619,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <f aca="false">A181+1</f>
         <v>176</v>
@@ -7640,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <f aca="false">A182+1</f>
         <v>177</v>
@@ -7661,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <f aca="false">A183+1</f>
         <v>178</v>
@@ -7685,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <f aca="false">A184+1</f>
         <v>179</v>
@@ -7706,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <f aca="false">A185+1</f>
         <v>180</v>
@@ -7730,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <f aca="false">A186+1</f>
         <v>181</v>
@@ -7756,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <f aca="false">A187+1</f>
         <v>182</v>
@@ -7783,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <f aca="false">A188+1</f>
         <v>183</v>
@@ -7804,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <f aca="false">A189+1</f>
         <v>184</v>
@@ -7828,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <f aca="false">A190+1</f>
         <v>185</v>
@@ -7849,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <f aca="false">A191+1</f>
         <v>186</v>
@@ -7870,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <f aca="false">A192+1</f>
         <v>187</v>
@@ -7891,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <f aca="false">A193+1</f>
         <v>188</v>
@@ -7915,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <f aca="false">A194+1</f>
         <v>189</v>
@@ -7939,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <f aca="false">A195+1</f>
         <v>190</v>
@@ -7963,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <f aca="false">A196+1</f>
         <v>191</v>
@@ -7987,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <f aca="false">A197+1</f>
         <v>192</v>
@@ -8008,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <f aca="false">A198+1</f>
         <v>193</v>
@@ -8029,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <f aca="false">A199+1</f>
         <v>194</v>
@@ -8055,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <f aca="false">A200+1</f>
         <v>195</v>
@@ -8076,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <f aca="false">A201+1</f>
         <v>196</v>
@@ -8097,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <f aca="false">A202+1</f>
         <v>197</v>
@@ -8118,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <f aca="false">A203+1</f>
         <v>198</v>
@@ -8139,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <f aca="false">A204+1</f>
         <v>199</v>
@@ -8160,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <f aca="false">A205+1</f>
         <v>200</v>
@@ -8181,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <f aca="false">A206+1</f>
         <v>201</v>
@@ -8202,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <f aca="false">A207+1</f>
         <v>202</v>
@@ -8223,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <f aca="false">A208+1</f>
         <v>203</v>
@@ -8244,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <f aca="false">A209+1</f>
         <v>204</v>
@@ -8268,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <f aca="false">A210+1</f>
         <v>205</v>
@@ -8295,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <f aca="false">A211+1</f>
         <v>206</v>
@@ -8322,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <f aca="false">A212+1</f>
         <v>207</v>
@@ -8343,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <f aca="false">A213+1</f>
         <v>208</v>
@@ -8370,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <f aca="false">A214+1</f>
         <v>209</v>
@@ -8394,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <f aca="false">A215+1</f>
         <v>210</v>
@@ -8415,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <f aca="false">A216+1</f>
         <v>211</v>
@@ -8436,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <f aca="false">A217+1</f>
         <v>212</v>
@@ -8457,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <f aca="false">A218+1</f>
         <v>213</v>
@@ -8478,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <f aca="false">A219+1</f>
         <v>214</v>
@@ -8502,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <f aca="false">A220+1</f>
         <v>215</v>
@@ -8526,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <f aca="false">A221+1</f>
         <v>216</v>
@@ -8550,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <f aca="false">A222+1</f>
         <v>217</v>
@@ -8571,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <f aca="false">A223+1</f>
         <v>218</v>
@@ -8595,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <f aca="false">A224+1</f>
         <v>219</v>
@@ -8619,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <f aca="false">A225+1</f>
         <v>220</v>
@@ -8643,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <f aca="false">A226+1</f>
         <v>221</v>
@@ -8667,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <f aca="false">A227+1</f>
         <v>222</v>
@@ -8691,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <f aca="false">A228+1</f>
         <v>223</v>
@@ -8712,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <f aca="false">A229+1</f>
         <v>224</v>
@@ -8733,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <f aca="false">A230+1</f>
         <v>225</v>
@@ -8754,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <f aca="false">A231+1</f>
         <v>226</v>
@@ -8778,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <f aca="false">A232+1</f>
         <v>227</v>
@@ -8802,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <f aca="false">A233+1</f>
         <v>228</v>
@@ -8826,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <f aca="false">A234+1</f>
         <v>229</v>
@@ -8850,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <f aca="false">A235+1</f>
         <v>230</v>
@@ -8874,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <f aca="false">A236+1</f>
         <v>231</v>
@@ -8895,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <f aca="false">A237+1</f>
         <v>232</v>
@@ -8916,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <f aca="false">A238+1</f>
         <v>233</v>
@@ -8937,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <f aca="false">A239+1</f>
         <v>234</v>
@@ -8958,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <f aca="false">A240+1</f>
         <v>235</v>
@@ -8979,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <f aca="false">A241+1</f>
         <v>236</v>
@@ -9000,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <f aca="false">A242+1</f>
         <v>237</v>
@@ -9025,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <f aca="false">A243+1</f>
         <v>238</v>
@@ -9050,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <f aca="false">A244+1</f>
         <v>239</v>
@@ -9075,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <f aca="false">A245+1</f>
         <v>240</v>
@@ -9096,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <f aca="false">A246+1</f>
         <v>241</v>
@@ -9120,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <f aca="false">A247+1</f>
         <v>242</v>
@@ -9141,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <f aca="false">A248+1</f>
         <v>243</v>
@@ -9165,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <f aca="false">A249+1</f>
         <v>244</v>
@@ -9186,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <f aca="false">A250+1</f>
         <v>245</v>
@@ -9207,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <f aca="false">A251+1</f>
         <v>246</v>
@@ -9228,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <f aca="false">A252+1</f>
         <v>247</v>
@@ -9249,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <f aca="false">A253+1</f>
         <v>248</v>
@@ -9270,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <f aca="false">A254+1</f>
         <v>249</v>
@@ -9291,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <f aca="false">A255+1</f>
         <v>250</v>
@@ -9312,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <f aca="false">A256+1</f>
         <v>251</v>
@@ -9333,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <f aca="false">A257+1</f>
         <v>252</v>
@@ -9354,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <f aca="false">A258+1</f>
         <v>253</v>
@@ -9375,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <f aca="false">A259+1</f>
         <v>254</v>
@@ -9396,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <f aca="false">A260+1</f>
         <v>255</v>
@@ -9422,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <f aca="false">A261+1</f>
         <v>256</v>
@@ -9443,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <f aca="false">A262+1</f>
         <v>257</v>
@@ -9464,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <f aca="false">A263+1</f>
         <v>258</v>
@@ -9485,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <f aca="false">A264+1</f>
         <v>259</v>
@@ -9506,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <f aca="false">A265+1</f>
         <v>260</v>
@@ -9527,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <f aca="false">A266+1</f>
         <v>261</v>
@@ -9551,7 +9555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <f aca="false">A267+1</f>
         <v>262</v>
@@ -9575,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <f aca="false">A268+1</f>
         <v>263</v>
@@ -9596,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <f aca="false">A269+1</f>
         <v>264</v>
@@ -9617,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <f aca="false">A270+1</f>
         <v>265</v>
@@ -9638,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <f aca="false">A271+1</f>
         <v>266</v>
@@ -9659,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <f aca="false">A272+1</f>
         <v>267</v>
@@ -9683,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <f aca="false">A273+1</f>
         <v>268</v>
@@ -9709,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <f aca="false">A274+1</f>
         <v>269</v>
@@ -9733,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <f aca="false">A275+1</f>
         <v>270</v>
@@ -9757,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <f aca="false">A276+1</f>
         <v>271</v>
@@ -9781,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <f aca="false">A277+1</f>
         <v>272</v>
@@ -9802,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <f aca="false">A278+1</f>
         <v>273</v>
@@ -9823,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <f aca="false">A279+1</f>
         <v>274</v>
@@ -9844,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <f aca="false">A280+1</f>
         <v>275</v>
@@ -9865,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <f aca="false">A281+1</f>
         <v>276</v>
@@ -9889,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <f aca="false">A282+1</f>
         <v>277</v>
@@ -9910,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <f aca="false">A283+1</f>
         <v>278</v>
@@ -9934,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <f aca="false">A284+1</f>
         <v>279</v>
@@ -9955,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <f aca="false">A285+1</f>
         <v>280</v>
@@ -9976,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <f aca="false">A286+1</f>
         <v>281</v>
@@ -10000,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <f aca="false">A287+1</f>
         <v>282</v>
@@ -10024,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <f aca="false">A288+1</f>
         <v>283</v>
@@ -10045,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <f aca="false">A289+1</f>
         <v>284</v>
@@ -10066,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <f aca="false">A290+1</f>
         <v>285</v>
@@ -10087,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <f aca="false">A291+1</f>
         <v>286</v>
@@ -10108,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <f aca="false">A292+1</f>
         <v>287</v>
@@ -10129,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <f aca="false">A293+1</f>
         <v>288</v>
@@ -10153,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <f aca="false">A294+1</f>
         <v>289</v>
@@ -10224,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <f aca="false">A297+1</f>
         <v>292</v>
@@ -10245,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <f aca="false">A298+1</f>
         <v>293</v>
@@ -10269,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <f aca="false">A299+1</f>
         <v>294</v>
@@ -10293,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <f aca="false">A300+1</f>
         <v>295</v>
@@ -10314,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <f aca="false">A301+1</f>
         <v>296</v>
@@ -10335,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <f aca="false">A302+1</f>
         <v>297</v>
@@ -10356,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <f aca="false">A303+1</f>
         <v>298</v>
@@ -10377,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <f aca="false">A304+1</f>
         <v>299</v>
@@ -10398,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <f aca="false">A305+1</f>
         <v>300</v>
@@ -10422,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <f aca="false">A306+1</f>
         <v>301</v>
@@ -10446,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <f aca="false">A307+1</f>
         <v>302</v>
@@ -10470,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <f aca="false">A308+1</f>
         <v>303</v>
@@ -10494,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <f aca="false">A309+1</f>
         <v>304</v>
@@ -10515,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <f aca="false">A310+1</f>
         <v>305</v>
@@ -10565,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <f aca="false">A312+1</f>
         <v>307</v>
@@ -10586,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <f aca="false">A313+1</f>
         <v>308</v>
@@ -10607,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <f aca="false">A314+1</f>
         <v>309</v>
@@ -10628,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <f aca="false">A315+1</f>
         <v>310</v>
@@ -10649,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <f aca="false">A316+1</f>
         <v>311</v>
@@ -10675,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <f aca="false">A317+1</f>
         <v>312</v>
@@ -10699,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <f aca="false">A318+1</f>
         <v>313</v>
@@ -10720,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <f aca="false">A319+1</f>
         <v>314</v>
@@ -10741,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <f aca="false">A320+1</f>
         <v>315</v>
@@ -10765,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <f aca="false">A321+1</f>
         <v>316</v>
@@ -10789,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <f aca="false">A322+1</f>
         <v>317</v>
@@ -10813,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <f aca="false">A323+1</f>
         <v>318</v>
@@ -10837,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <f aca="false">A324+1</f>
         <v>319</v>
@@ -10858,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <f aca="false">A325+1</f>
         <v>320</v>
@@ -10882,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <f aca="false">A326+1</f>
         <v>321</v>
@@ -10906,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <f aca="false">A327+1</f>
         <v>322</v>
@@ -10930,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <f aca="false">A328+1</f>
         <v>323</v>
@@ -10954,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <f aca="false">A329+1</f>
         <v>324</v>
@@ -10978,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <f aca="false">A330+1</f>
         <v>325</v>
@@ -10999,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <f aca="false">A331+1</f>
         <v>326</v>
@@ -11023,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <f aca="false">A332+1</f>
         <v>327</v>
@@ -11047,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <f aca="false">A333+1</f>
         <v>328</v>
@@ -11071,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <f aca="false">A334+1</f>
         <v>329</v>
@@ -11095,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <f aca="false">A335+1</f>
         <v>330</v>
@@ -11119,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <f aca="false">A336+1</f>
         <v>331</v>
@@ -11143,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <f aca="false">A337+1</f>
         <v>332</v>
@@ -11167,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <f aca="false">A338+1</f>
         <v>333</v>
@@ -11194,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <f aca="false">A339+1</f>
         <v>334</v>
@@ -11221,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <f aca="false">A340+1</f>
         <v>335</v>
@@ -11242,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <f aca="false">A341+1</f>
         <v>336</v>
@@ -11267,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <f aca="false">A342+1</f>
         <v>337</v>
@@ -11291,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <f aca="false">A343+1</f>
         <v>338</v>
@@ -11315,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <f aca="false">A344+1</f>
         <v>339</v>
@@ -11336,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <f aca="false">A345+1</f>
         <v>340</v>
@@ -11357,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <f aca="false">A346+1</f>
         <v>341</v>
@@ -11378,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <f aca="false">A347+1</f>
         <v>342</v>
@@ -11399,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <f aca="false">A348+1</f>
         <v>343</v>
@@ -11420,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <f aca="false">A349+1</f>
         <v>344</v>
@@ -11441,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <f aca="false">A350+1</f>
         <v>345</v>
@@ -11465,7 +11469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <f aca="false">A351+1</f>
         <v>346</v>
@@ -11489,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <f aca="false">A352+1</f>
         <v>347</v>
@@ -11513,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <f aca="false">A353+1</f>
         <v>348</v>
@@ -11537,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <f aca="false">A354+1</f>
         <v>349</v>
@@ -11561,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <f aca="false">A355+1</f>
         <v>350</v>
@@ -11582,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <f aca="false">A356+1</f>
         <v>351</v>
@@ -11606,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <f aca="false">A357+1</f>
         <v>352</v>
@@ -11633,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <f aca="false">A358+1</f>
         <v>353</v>
@@ -11657,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <f aca="false">A359+1</f>
         <v>354</v>
@@ -11681,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <f aca="false">A360+1</f>
         <v>355</v>
@@ -11707,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <f aca="false">A361+1</f>
         <v>356</v>
@@ -11734,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <f aca="false">A362+1</f>
         <v>357</v>
@@ -11758,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <f aca="false">A363+1</f>
         <v>358</v>
@@ -11782,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
         <f aca="false">A364+1</f>
         <v>359</v>
@@ -11806,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <f aca="false">A365+1</f>
         <v>360</v>
@@ -11831,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <f aca="false">A366+1</f>
         <v>361</v>
@@ -11852,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <f aca="false">A367+1</f>
         <v>362</v>
@@ -11873,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <f aca="false">A368+1</f>
         <v>363</v>
@@ -11894,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <f aca="false">A369+1</f>
         <v>364</v>
@@ -11915,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <f aca="false">A370+1</f>
         <v>365</v>
@@ -11936,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <f aca="false">A371+1</f>
         <v>366</v>
@@ -11957,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
         <f aca="false">A372+1</f>
         <v>367</v>
@@ -11978,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <f aca="false">A373+1</f>
         <v>368</v>
@@ -11999,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <f aca="false">A374+1</f>
         <v>369</v>
@@ -12023,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
         <f aca="false">A375+1</f>
         <v>370</v>
@@ -12044,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <f aca="false">A376+1</f>
         <v>371</v>
@@ -12065,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <f aca="false">A377+1</f>
         <v>372</v>
@@ -12086,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
         <f aca="false">A378+1</f>
         <v>373</v>
@@ -12110,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <f aca="false">A379+1</f>
         <v>374</v>
@@ -12134,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <f aca="false">A380+1</f>
         <v>375</v>
@@ -12155,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
         <f aca="false">A381+1</f>
         <v>376</v>
@@ -12176,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
         <f aca="false">A382+1</f>
         <v>377</v>
@@ -12197,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
         <f aca="false">A383+1</f>
         <v>378</v>
@@ -12218,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
         <f aca="false">A384+1</f>
         <v>379</v>
@@ -12239,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
         <f aca="false">A385+1</f>
         <v>380</v>
@@ -12260,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
         <f aca="false">A386+1</f>
         <v>381</v>
@@ -12281,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
         <f aca="false">A387+1</f>
         <v>382</v>
@@ -12305,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
         <f aca="false">A388+1</f>
         <v>383</v>
@@ -12329,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
         <f aca="false">A389+1</f>
         <v>384</v>
@@ -12350,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
         <f aca="false">A390+1</f>
         <v>385</v>
@@ -12371,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
         <f aca="false">A391+1</f>
         <v>386</v>
@@ -12392,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
         <f aca="false">A392+1</f>
         <v>387</v>
@@ -12416,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
         <f aca="false">A393+1</f>
         <v>388</v>
@@ -12440,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
         <f aca="false">A394+1</f>
         <v>389</v>
@@ -12461,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
         <f aca="false">A395+1</f>
         <v>390</v>
@@ -12485,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
         <f aca="false">A396+1</f>
         <v>391</v>
@@ -12506,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
         <f aca="false">A397+1</f>
         <v>392</v>
@@ -12530,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
         <f aca="false">A398+1</f>
         <v>393</v>
@@ -12554,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
         <f aca="false">A399+1</f>
         <v>394</v>
@@ -12575,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
         <f aca="false">A400+1</f>
         <v>395</v>
@@ -12599,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
         <f aca="false">A401+1</f>
         <v>396</v>
@@ -12620,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
         <f aca="false">A402+1</f>
         <v>397</v>
@@ -12644,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
         <f aca="false">A403+1</f>
         <v>398</v>
@@ -12668,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
         <f aca="false">A404+1</f>
         <v>399</v>
@@ -12689,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
         <f aca="false">A405+1</f>
         <v>400</v>
@@ -12710,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
         <f aca="false">A406+1</f>
         <v>401</v>
@@ -12734,7 +12738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
         <f aca="false">A407+1</f>
         <v>402</v>
@@ -12755,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
         <f aca="false">A408+1</f>
         <v>403</v>
@@ -12776,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
         <f aca="false">A409+1</f>
         <v>404</v>
@@ -12800,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
         <f aca="false">A410+1</f>
         <v>405</v>
@@ -12821,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <f aca="false">A411+1</f>
         <v>406</v>
@@ -12848,7 +12852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
         <f aca="false">A412+1</f>
         <v>407</v>
@@ -12869,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
         <f aca="false">A413+1</f>
         <v>408</v>
@@ -12890,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <f aca="false">A414+1</f>
         <v>409</v>
@@ -12914,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <f aca="false">A415+1</f>
         <v>410</v>
@@ -12935,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <f aca="false">A416+1</f>
         <v>411</v>
@@ -12959,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
         <f aca="false">A417+1</f>
         <v>412</v>
@@ -12983,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <f aca="false">A418+1</f>
         <v>413</v>
@@ -13004,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
         <f aca="false">A419+1</f>
         <v>414</v>
@@ -13025,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <f aca="false">A420+1</f>
         <v>415</v>
@@ -13049,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
         <f aca="false">A421+1</f>
         <v>416</v>
@@ -13073,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
         <f aca="false">A422+1</f>
         <v>417</v>
@@ -13097,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
         <f aca="false">A423+1</f>
         <v>418</v>
@@ -13121,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="n">
         <f aca="false">A424+1</f>
         <v>419</v>
@@ -13142,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="n">
         <f aca="false">A425+1</f>
         <v>420</v>
@@ -13163,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="n">
         <f aca="false">A426+1</f>
         <v>421</v>
@@ -13187,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
         <f aca="false">A427+1</f>
         <v>422</v>
@@ -13208,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
         <f aca="false">A428+1</f>
         <v>423</v>
@@ -13232,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
         <f aca="false">A429+1</f>
         <v>424</v>
@@ -13256,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="n">
         <f aca="false">A430+1</f>
         <v>425</v>
@@ -13280,7 +13284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
         <f aca="false">A431+1</f>
         <v>426</v>
@@ -13304,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
         <f aca="false">A432+1</f>
         <v>427</v>
@@ -13325,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
         <f aca="false">A433+1</f>
         <v>428</v>
@@ -13349,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
         <f aca="false">A434+1</f>
         <v>429</v>
@@ -13373,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="n">
         <f aca="false">A435+1</f>
         <v>430</v>
@@ -13398,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
         <f aca="false">A436+1</f>
         <v>431</v>
@@ -13422,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
         <f aca="false">A437+1</f>
         <v>432</v>
@@ -13447,7 +13451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
         <f aca="false">A438+1</f>
         <v>433</v>
@@ -13471,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
         <f aca="false">A439+1</f>
         <v>434</v>
@@ -13495,7 +13499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
         <f aca="false">A440+1</f>
         <v>435</v>
@@ -13516,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
         <f aca="false">A441+1</f>
         <v>436</v>
@@ -13540,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
         <f aca="false">A442+1</f>
         <v>437</v>
@@ -13566,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
         <f aca="false">A443+1</f>
         <v>438</v>
@@ -13587,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
         <f aca="false">A444+1</f>
         <v>439</v>
@@ -13635,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
         <f aca="false">A446+1</f>
         <v>441</v>
@@ -13659,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
         <f aca="false">A447+1</f>
         <v>442</v>
@@ -13683,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
         <f aca="false">A448+1</f>
         <v>443</v>
@@ -13707,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
         <f aca="false">A449+1</f>
         <v>444</v>
@@ -13731,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
         <f aca="false">A450+1</f>
         <v>445</v>
@@ -13755,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="n">
         <f aca="false">A451+1</f>
         <v>446</v>
@@ -13779,7 +13783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
         <f aca="false">A452+1</f>
         <v>447</v>
@@ -13803,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
         <f aca="false">A453+1</f>
         <v>448</v>
@@ -13827,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
         <f aca="false">A454+1</f>
         <v>449</v>
@@ -13851,7 +13855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
         <f aca="false">A455+1</f>
         <v>450</v>
@@ -13872,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
         <f aca="false">A456+1</f>
         <v>451</v>
@@ -13896,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
         <f aca="false">A457+1</f>
         <v>452</v>
@@ -13917,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
         <f aca="false">A458+1</f>
         <v>453</v>
@@ -13938,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
         <f aca="false">A459+1</f>
         <v>454</v>
@@ -13962,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
         <f aca="false">A460+1</f>
         <v>455</v>
@@ -13983,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
         <f aca="false">A461+1</f>
         <v>456</v>
@@ -14007,7 +14011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
         <f aca="false">A462+1</f>
         <v>457</v>
@@ -14028,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
         <f aca="false">A463+1</f>
         <v>458</v>
@@ -14049,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
         <f aca="false">A464+1</f>
         <v>459</v>
@@ -14070,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
         <f aca="false">A465+1</f>
         <v>460</v>
@@ -14096,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
         <f aca="false">A466+1</f>
         <v>461</v>
@@ -14120,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
         <f aca="false">A467+1</f>
         <v>462</v>
@@ -14141,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
         <f aca="false">A468+1</f>
         <v>463</v>
@@ -14162,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
         <f aca="false">A469+1</f>
         <v>464</v>
@@ -14183,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
         <f aca="false">A470+1</f>
         <v>465</v>
@@ -14207,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
         <f aca="false">A471+1</f>
         <v>466</v>
@@ -14231,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
         <f aca="false">A472+1</f>
         <v>467</v>
@@ -14255,7 +14259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
         <f aca="false">A473+1</f>
         <v>468</v>
@@ -14279,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
         <f aca="false">A474+1</f>
         <v>469</v>
@@ -14300,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
         <f aca="false">A475+1</f>
         <v>470</v>
@@ -14321,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
         <f aca="false">A476+1</f>
         <v>471</v>
@@ -14345,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
         <f aca="false">A477+1</f>
         <v>472</v>
@@ -14366,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
         <f aca="false">A478+1</f>
         <v>473</v>
@@ -14387,7 +14391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
         <f aca="false">A479+1</f>
         <v>474</v>
@@ -14408,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
         <f aca="false">A480+1</f>
         <v>475</v>
@@ -14432,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
         <f aca="false">A481+1</f>
         <v>476</v>
@@ -14453,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="n">
         <f aca="false">A482+1</f>
         <v>477</v>
@@ -14474,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
         <f aca="false">A483+1</f>
         <v>478</v>
@@ -14495,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
         <f aca="false">A484+1</f>
         <v>479</v>
@@ -14516,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
         <f aca="false">A485+1</f>
         <v>480</v>
@@ -14540,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
         <f aca="false">A486+1</f>
         <v>481</v>
@@ -14566,7 +14570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
         <f aca="false">A487+1</f>
         <v>482</v>
@@ -14590,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
         <f aca="false">A488+1</f>
         <v>483</v>
@@ -14611,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
         <f aca="false">A489+1</f>
         <v>484</v>
@@ -14632,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
         <f aca="false">A490+1</f>
         <v>485</v>
@@ -14677,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="n">
         <f aca="false">A492+1</f>
         <v>487</v>
@@ -14698,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="n">
         <f aca="false">A493+1</f>
         <v>488</v>
@@ -14719,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="n">
         <f aca="false">A494+1</f>
         <v>489</v>
@@ -14744,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="n">
         <f aca="false">A495+1</f>
         <v>490</v>
@@ -14768,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="n">
         <f aca="false">A496+1</f>
         <v>491</v>
@@ -14789,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="n">
         <f aca="false">A497+1</f>
         <v>492</v>
@@ -14810,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="n">
         <f aca="false">A498+1</f>
         <v>493</v>
@@ -14831,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="n">
         <f aca="false">A499+1</f>
         <v>494</v>
@@ -14852,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="n">
         <f aca="false">A500+1</f>
         <v>495</v>
@@ -14876,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="n">
         <f aca="false">A501+1</f>
         <v>496</v>
@@ -14900,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="n">
         <f aca="false">A502+1</f>
         <v>497</v>
@@ -14921,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="n">
         <f aca="false">A503+1</f>
         <v>498</v>
@@ -14942,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="n">
         <f aca="false">A504+1</f>
         <v>499</v>
@@ -14966,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
         <f aca="false">A505+1</f>
         <v>500</v>
@@ -14987,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
         <f aca="false">A506+1</f>
         <v>501</v>
@@ -15011,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="n">
         <f aca="false">A507+1</f>
         <v>502</v>
@@ -15035,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="n">
         <f aca="false">A508+1</f>
         <v>503</v>
@@ -15059,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="n">
         <f aca="false">A509+1</f>
         <v>504</v>
@@ -15080,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
         <f aca="false">A510+1</f>
         <v>505</v>
@@ -15104,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="n">
         <f aca="false">A511+1</f>
         <v>506</v>
@@ -15125,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="n">
         <f aca="false">A512+1</f>
         <v>507</v>
@@ -15146,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="n">
         <f aca="false">A513+1</f>
         <v>508</v>
@@ -15167,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="n">
         <f aca="false">A514+1</f>
         <v>509</v>
@@ -15191,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="n">
         <f aca="false">A515+1</f>
         <v>510</v>
@@ -15262,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
         <f aca="false">A518+1</f>
         <v>513</v>
@@ -15283,7 +15287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="n">
         <f aca="false">A519+1</f>
         <v>514</v>
@@ -15307,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="n">
         <f aca="false">A520+1</f>
         <v>515</v>
@@ -15328,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
         <f aca="false">A521+1</f>
         <v>516</v>
@@ -15349,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
         <f aca="false">A522+1</f>
         <v>517</v>
@@ -15370,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
         <f aca="false">A523+1</f>
         <v>518</v>
@@ -15394,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="n">
         <f aca="false">A524+1</f>
         <v>519</v>
@@ -15418,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="n">
         <f aca="false">A525+1</f>
         <v>520</v>
@@ -15442,7 +15446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="n">
         <f aca="false">A526+1</f>
         <v>521</v>
@@ -15463,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
         <f aca="false">A527+1</f>
         <v>522</v>
@@ -15484,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
         <f aca="false">A528+1</f>
         <v>523</v>
@@ -15508,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
         <f aca="false">A529+1</f>
         <v>524</v>
@@ -15533,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="n">
         <f aca="false">A530+1</f>
         <v>525</v>
@@ -15559,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
         <f aca="false">A531+1</f>
         <v>526</v>
@@ -15583,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
         <f aca="false">A532+1</f>
         <v>527</v>
@@ -15607,7 +15611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="n">
         <f aca="false">A533+1</f>
         <v>528</v>
@@ -15628,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="n">
         <f aca="false">A534+1</f>
         <v>529</v>
@@ -15652,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="n">
         <f aca="false">A535+1</f>
         <v>530</v>
@@ -15676,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
         <f aca="false">A536+1</f>
         <v>531</v>
@@ -15697,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="n">
         <f aca="false">A537+1</f>
         <v>532</v>
@@ -15718,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
         <f aca="false">A538+1</f>
         <v>533</v>
@@ -15742,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
         <f aca="false">A539+1</f>
         <v>534</v>
@@ -15766,7 +15770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
         <f aca="false">A540+1</f>
         <v>535</v>
@@ -15790,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
         <f aca="false">A541+1</f>
         <v>536</v>
@@ -15814,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
         <f aca="false">A542+1</f>
         <v>537</v>
@@ -15835,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
         <f aca="false">A543+1</f>
         <v>538</v>
@@ -15862,7 +15866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
         <f aca="false">A544+1</f>
         <v>539</v>
@@ -15889,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
         <f aca="false">A545+1</f>
         <v>540</v>
@@ -15910,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
         <f aca="false">A546+1</f>
         <v>541</v>
@@ -15931,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
         <f aca="false">A547+1</f>
         <v>542</v>
@@ -15956,7 +15960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
         <f aca="false">A548+1</f>
         <v>543</v>
@@ -15980,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
         <f aca="false">A549+1</f>
         <v>544</v>
@@ -16001,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
         <f aca="false">A550+1</f>
         <v>545</v>
@@ -16026,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="n">
         <f aca="false">A551+1</f>
         <v>546</v>
@@ -16050,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
         <f aca="false">A552+1</f>
         <v>547</v>
@@ -16076,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
         <f aca="false">A553+1</f>
         <v>548</v>
@@ -16100,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
         <f aca="false">A554+1</f>
         <v>549</v>
@@ -16124,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
         <f aca="false">A555+1</f>
         <v>550</v>
@@ -16145,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="n">
         <f aca="false">A556+1</f>
         <v>551</v>
@@ -16166,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="n">
         <f aca="false">A557+1</f>
         <v>552</v>
@@ -16187,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
         <f aca="false">A558+1</f>
         <v>553</v>
@@ -16222,20 +16226,21 @@
       <c r="C560" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="D560" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F560" s="15"/>
       <c r="G560" s="1"/>
-      <c r="H560" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="I560" s="0" t="n">
         <f aca="false">IF(ISBLANK(B560),0,IF(D560="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J560" s="0" t="n">
         <f aca="false">IF(ISBLANK(D560),0,I560)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
         <f aca="false">A560+1</f>
         <v>555</v>
@@ -16256,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
         <f aca="false">A561+1</f>
         <v>556</v>
@@ -16277,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
         <f aca="false">A562+1</f>
         <v>557</v>
@@ -16298,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
         <f aca="false">A563+1</f>
         <v>558</v>
@@ -16322,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
         <f aca="false">A564+1</f>
         <v>559</v>
@@ -16343,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
         <f aca="false">A565+1</f>
         <v>560</v>
@@ -16364,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="n">
         <f aca="false">A566+1</f>
         <v>561</v>
@@ -16388,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="n">
         <f aca="false">A567+1</f>
         <v>562</v>
@@ -16412,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
         <f aca="false">A568+1</f>
         <v>563</v>
@@ -16436,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
         <f aca="false">A569+1</f>
         <v>564</v>
@@ -16462,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="n">
         <f aca="false">A570+1</f>
         <v>565</v>
@@ -16488,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="n">
         <f aca="false">A571+1</f>
         <v>566</v>
@@ -16512,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
         <f aca="false">A572+1</f>
         <v>567</v>
@@ -16536,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
         <f aca="false">A573+1</f>
         <v>568</v>
@@ -16560,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
         <f aca="false">A574+1</f>
         <v>569</v>
@@ -16584,7 +16589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="n">
         <f aca="false">A575+1</f>
         <v>570</v>
@@ -16608,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="n">
         <f aca="false">A576+1</f>
         <v>571</v>
@@ -16632,7 +16637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="n">
         <f aca="false">A577+1</f>
         <v>572</v>
@@ -16656,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
         <f aca="false">A578+1</f>
         <v>573</v>
@@ -16680,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
         <f aca="false">A579+1</f>
         <v>574</v>
@@ -16704,7 +16709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="n">
         <f aca="false">A580+1</f>
         <v>575</v>
@@ -16728,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="n">
         <f aca="false">A581+1</f>
         <v>576</v>
@@ -16754,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
         <f aca="false">A582+1</f>
         <v>577</v>
@@ -16780,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
         <f aca="false">A583+1</f>
         <v>578</v>
@@ -16804,7 +16809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
         <f aca="false">A584+1</f>
         <v>579</v>
@@ -16828,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="n">
         <f aca="false">A585+1</f>
         <v>580</v>
@@ -16852,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
         <f aca="false">A586+1</f>
         <v>581</v>
@@ -16876,7 +16881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="n">
         <f aca="false">A587+1</f>
         <v>582</v>
@@ -16900,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="n">
         <f aca="false">A588+1</f>
         <v>583</v>
@@ -16924,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="n">
         <f aca="false">A589+1</f>
         <v>584</v>
@@ -16948,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="n">
         <f aca="false">A590+1</f>
         <v>585</v>
@@ -16972,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="n">
         <f aca="false">A591+1</f>
         <v>586</v>
@@ -16996,7 +17001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="n">
         <f aca="false">A592+1</f>
         <v>587</v>
@@ -17020,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="n">
         <f aca="false">A593+1</f>
         <v>588</v>
@@ -17041,7 +17046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="n">
         <f aca="false">A594+1</f>
         <v>589</v>
@@ -17062,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="n">
         <f aca="false">A595+1</f>
         <v>590</v>
@@ -17083,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="n">
         <f aca="false">A596+1</f>
         <v>591</v>
@@ -17104,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="n">
         <f aca="false">A597+1</f>
         <v>592</v>
@@ -17125,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="n">
         <f aca="false">A598+1</f>
         <v>593</v>
@@ -17149,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="n">
         <f aca="false">A599+1</f>
         <v>594</v>
@@ -17173,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="n">
         <f aca="false">A600+1</f>
         <v>595</v>
@@ -17194,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
         <f aca="false">A601+1</f>
         <v>596</v>
@@ -17218,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="n">
         <f aca="false">A602+1</f>
         <v>597</v>
@@ -17239,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="n">
         <f aca="false">A603+1</f>
         <v>598</v>
@@ -17260,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="n">
         <f aca="false">A604+1</f>
         <v>599</v>
@@ -17284,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="n">
         <f aca="false">A605+1</f>
         <v>600</v>
@@ -17305,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="n">
         <f aca="false">A606+1</f>
         <v>601</v>
@@ -17326,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="n">
         <f aca="false">A607+1</f>
         <v>602</v>
@@ -17350,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="n">
         <f aca="false">A608+1</f>
         <v>603</v>
@@ -17371,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="n">
         <f aca="false">A609+1</f>
         <v>604</v>
@@ -17395,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="n">
         <f aca="false">A610+1</f>
         <v>605</v>
@@ -17416,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="n">
         <f aca="false">A611+1</f>
         <v>606</v>
@@ -17437,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="n">
         <f aca="false">A612+1</f>
         <v>607</v>
@@ -17458,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="n">
         <f aca="false">A613+1</f>
         <v>608</v>
@@ -17479,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="n">
         <f aca="false">A614+1</f>
         <v>609</v>
@@ -17504,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="n">
         <f aca="false">A615+1</f>
         <v>610</v>
@@ -17525,7 +17530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="n">
         <f aca="false">A616+1</f>
         <v>611</v>
@@ -17546,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="n">
         <f aca="false">A617+1</f>
         <v>612</v>
@@ -17567,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="n">
         <f aca="false">A618+1</f>
         <v>613</v>
@@ -17591,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="n">
         <f aca="false">A619+1</f>
         <v>614</v>
@@ -17612,7 +17617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
         <f aca="false">A620+1</f>
         <v>615</v>
@@ -17636,7 +17641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="n">
         <f aca="false">A621+1</f>
         <v>616</v>
@@ -17660,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="n">
         <f aca="false">A622+1</f>
         <v>617</v>
@@ -17681,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="n">
         <f aca="false">A623+1</f>
         <v>618</v>
@@ -17707,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="n">
         <f aca="false">A624+1</f>
         <v>619</v>
@@ -17733,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="n">
         <f aca="false">A625+1</f>
         <v>620</v>
@@ -17754,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="n">
         <f aca="false">A626+1</f>
         <v>621</v>
@@ -17778,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="n">
         <f aca="false">A627+1</f>
         <v>622</v>
@@ -17802,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="n">
         <f aca="false">A628+1</f>
         <v>623</v>
@@ -17826,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="n">
         <f aca="false">A629+1</f>
         <v>624</v>
@@ -17850,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="n">
         <f aca="false">A630+1</f>
         <v>625</v>
@@ -17871,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="n">
         <f aca="false">A631+1</f>
         <v>626</v>
@@ -17892,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="n">
         <f aca="false">A632+1</f>
         <v>627</v>
@@ -17916,7 +17921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="n">
         <f aca="false">A633+1</f>
         <v>628</v>
@@ -17942,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="n">
         <f aca="false">A634+1</f>
         <v>629</v>
@@ -17966,7 +17971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="n">
         <f aca="false">A635+1</f>
         <v>630</v>
@@ -17992,7 +17997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="n">
         <f aca="false">A636+1</f>
         <v>631</v>
@@ -18016,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="n">
         <f aca="false">A637+1</f>
         <v>632</v>
@@ -18042,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="n">
         <f aca="false">A638+1</f>
         <v>633</v>
@@ -18066,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="n">
         <f aca="false">A639+1</f>
         <v>634</v>
@@ -18090,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="n">
         <f aca="false">A640+1</f>
         <v>635</v>
@@ -18114,7 +18119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="n">
         <f aca="false">A641+1</f>
         <v>636</v>
@@ -18138,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="n">
         <f aca="false">A642+1</f>
         <v>637</v>
@@ -18162,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="n">
         <f aca="false">A643+1</f>
         <v>638</v>
@@ -18183,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="n">
         <f aca="false">A644+1</f>
         <v>639</v>
@@ -18207,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="n">
         <f aca="false">A645+1</f>
         <v>640</v>
@@ -18231,7 +18236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="n">
         <f aca="false">A646+1</f>
         <v>641</v>
@@ -18255,7 +18260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="n">
         <f aca="false">A647+1</f>
         <v>642</v>
@@ -18279,7 +18284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="n">
         <f aca="false">A648+1</f>
         <v>643</v>
@@ -18303,7 +18308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="n">
         <f aca="false">A649+1</f>
         <v>644</v>
@@ -18327,7 +18332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="n">
         <f aca="false">A650+1</f>
         <v>645</v>
@@ -18351,7 +18356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="n">
         <f aca="false">A651+1</f>
         <v>646</v>
@@ -18372,7 +18377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="n">
         <f aca="false">A652+1</f>
         <v>647</v>
@@ -18399,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="n">
         <f aca="false">A653+1</f>
         <v>648</v>
@@ -18420,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="n">
         <f aca="false">A654+1</f>
         <v>649</v>
@@ -18441,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="n">
         <f aca="false">A655+1</f>
         <v>650</v>
@@ -18462,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="n">
         <f aca="false">A656+1</f>
         <v>651</v>
@@ -18487,7 +18492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="n">
         <f aca="false">A657+1</f>
         <v>652</v>
@@ -18511,7 +18516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="n">
         <f aca="false">A658+1</f>
         <v>653</v>
@@ -18532,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="n">
         <f aca="false">A659+1</f>
         <v>654</v>
@@ -18553,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="n">
         <f aca="false">A660+1</f>
         <v>655</v>
@@ -18602,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="n">
         <f aca="false">A662+1</f>
         <v>657</v>
@@ -18623,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="n">
         <f aca="false">A663+1</f>
         <v>658</v>
@@ -18647,7 +18652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="n">
         <f aca="false">A664+1</f>
         <v>659</v>
@@ -18671,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="n">
         <f aca="false">A665+1</f>
         <v>660</v>
@@ -18695,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="n">
         <f aca="false">A666+1</f>
         <v>661</v>
@@ -18719,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="n">
         <f aca="false">A667+1</f>
         <v>662</v>
@@ -18743,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="n">
         <f aca="false">A668+1</f>
         <v>663</v>
@@ -18767,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="n">
         <f aca="false">A669+1</f>
         <v>664</v>
@@ -18788,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="n">
         <f aca="false">A670+1</f>
         <v>665</v>
@@ -18809,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="n">
         <f aca="false">A671+1</f>
         <v>666</v>
@@ -18855,7 +18860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="n">
         <f aca="false">A673+1</f>
         <v>668</v>
@@ -18879,7 +18884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="n">
         <f aca="false">A674+1</f>
         <v>669</v>
@@ -18900,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="n">
         <f aca="false">A675+1</f>
         <v>670</v>
@@ -18921,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="n">
         <f aca="false">A676+1</f>
         <v>671</v>
@@ -18942,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
         <f aca="false">A677+1</f>
         <v>672</v>
@@ -18966,7 +18971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
         <f aca="false">A678+1</f>
         <v>673</v>
@@ -18987,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="n">
         <f aca="false">A679+1</f>
         <v>674</v>
@@ -19008,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="n">
         <f aca="false">A680+1</f>
         <v>675</v>
@@ -19029,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
         <f aca="false">A681+1</f>
         <v>676</v>
@@ -19050,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="n">
         <f aca="false">A682+1</f>
         <v>677</v>
@@ -19076,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="n">
         <f aca="false">A683+1</f>
         <v>678</v>
@@ -19097,7 +19102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="n">
         <f aca="false">A684+1</f>
         <v>679</v>
@@ -19118,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="n">
         <f aca="false">A685+1</f>
         <v>680</v>
@@ -19139,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="n">
         <f aca="false">A686+1</f>
         <v>681</v>
@@ -19160,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="n">
         <f aca="false">A687+1</f>
         <v>682</v>
@@ -19184,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="n">
         <f aca="false">A688+1</f>
         <v>683</v>
@@ -19208,7 +19213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="n">
         <f aca="false">A689+1</f>
         <v>684</v>
@@ -19232,7 +19237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="n">
         <f aca="false">A690+1</f>
         <v>685</v>
@@ -19258,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="n">
         <f aca="false">A691+1</f>
         <v>686</v>
@@ -19279,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="n">
         <f aca="false">A692+1</f>
         <v>687</v>
@@ -19300,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="n">
         <f aca="false">A693+1</f>
         <v>688</v>
@@ -19327,7 +19332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="n">
         <f aca="false">A694+1</f>
         <v>689</v>
@@ -19348,7 +19353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="n">
         <f aca="false">A695+1</f>
         <v>690</v>
@@ -19372,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="n">
         <f aca="false">A696+1</f>
         <v>691</v>
@@ -19396,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="n">
         <f aca="false">A697+1</f>
         <v>692</v>
@@ -19420,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="n">
         <f aca="false">A698+1</f>
         <v>693</v>
@@ -19441,7 +19446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="n">
         <f aca="false">A699+1</f>
         <v>694</v>
@@ -19462,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="n">
         <f aca="false">A700+1</f>
         <v>695</v>
@@ -19483,7 +19488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="n">
         <f aca="false">A701+1</f>
         <v>696</v>
@@ -19504,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="n">
         <f aca="false">A702+1</f>
         <v>697</v>
@@ -19525,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="n">
         <f aca="false">A703+1</f>
         <v>698</v>
@@ -19549,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="n">
         <f aca="false">A704+1</f>
         <v>699</v>
@@ -19573,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="n">
         <f aca="false">A705+1</f>
         <v>700</v>
@@ -19594,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="n">
         <f aca="false">A706+1</f>
         <v>701</v>
@@ -19615,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="n">
         <f aca="false">A707+1</f>
         <v>702</v>
@@ -19636,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="n">
         <f aca="false">A708+1</f>
         <v>703</v>
@@ -19657,7 +19662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="n">
         <f aca="false">A709+1</f>
         <v>704</v>
@@ -19678,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="n">
         <f aca="false">A710+1</f>
         <v>705</v>
@@ -19699,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="n">
         <f aca="false">A711+1</f>
         <v>706</v>
@@ -19720,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="n">
         <f aca="false">A712+1</f>
         <v>707</v>
@@ -19741,7 +19746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="n">
         <f aca="false">A713+1</f>
         <v>708</v>
@@ -19762,7 +19767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="n">
         <f aca="false">A714+1</f>
         <v>709</v>
@@ -19789,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="n">
         <f aca="false">A715+1</f>
         <v>710</v>
@@ -19814,7 +19819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="n">
         <f aca="false">A716+1</f>
         <v>711</v>
@@ -19839,7 +19844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="n">
         <f aca="false">A717+1</f>
         <v>712</v>
@@ -19863,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="n">
         <f aca="false">A718+1</f>
         <v>713</v>
@@ -19884,7 +19889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="n">
         <f aca="false">A719+1</f>
         <v>714</v>
@@ -19905,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="n">
         <f aca="false">A720+1</f>
         <v>715</v>
@@ -19929,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="n">
         <f aca="false">A721+1</f>
         <v>716</v>
@@ -19953,7 +19958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="n">
         <f aca="false">A722+1</f>
         <v>717</v>
@@ -19977,7 +19982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="n">
         <f aca="false">A723+1</f>
         <v>718</v>
@@ -20001,7 +20006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="n">
         <f aca="false">A724+1</f>
         <v>719</v>
@@ -20025,7 +20030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="n">
         <f aca="false">A725+1</f>
         <v>720</v>
@@ -20046,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="n">
         <f aca="false">A726+1</f>
         <v>721</v>
@@ -20067,7 +20072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="n">
         <f aca="false">A727+1</f>
         <v>722</v>
@@ -20088,7 +20093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="n">
         <f aca="false">A728+1</f>
         <v>723</v>
@@ -20109,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="n">
         <f aca="false">A729+1</f>
         <v>724</v>
@@ -20134,7 +20139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="n">
         <f aca="false">A730+1</f>
         <v>725</v>
@@ -20158,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="n">
         <f aca="false">A731+1</f>
         <v>726</v>
@@ -20182,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="n">
         <f aca="false">A732+1</f>
         <v>727</v>
@@ -20203,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="n">
         <f aca="false">A733+1</f>
         <v>728</v>
@@ -20227,7 +20232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="n">
         <f aca="false">A734+1</f>
         <v>729</v>
@@ -20248,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="n">
         <f aca="false">A735+1</f>
         <v>730</v>
@@ -20272,7 +20277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="n">
         <f aca="false">A736+1</f>
         <v>731</v>
@@ -20293,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="n">
         <f aca="false">A737+1</f>
         <v>732</v>
@@ -20314,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="n">
         <f aca="false">A738+1</f>
         <v>733</v>
@@ -20335,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="n">
         <f aca="false">A739+1</f>
         <v>734</v>
@@ -20356,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="n">
         <f aca="false">A740+1</f>
         <v>735</v>
@@ -20377,7 +20382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="n">
         <f aca="false">A741+1</f>
         <v>736</v>
@@ -20401,7 +20406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="n">
         <f aca="false">A742+1</f>
         <v>737</v>
@@ -20422,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="n">
         <f aca="false">A743+1</f>
         <v>738</v>
@@ -20443,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="n">
         <f aca="false">A744+1</f>
         <v>739</v>
@@ -20464,7 +20469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="n">
         <f aca="false">A745+1</f>
         <v>740</v>
@@ -20488,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="n">
         <f aca="false">A746+1</f>
         <v>741</v>
@@ -20512,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="n">
         <f aca="false">A747+1</f>
         <v>742</v>
@@ -20533,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="n">
         <f aca="false">A748+1</f>
         <v>743</v>
@@ -20557,7 +20562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="n">
         <f aca="false">A749+1</f>
         <v>744</v>
@@ -20581,7 +20586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="n">
         <f aca="false">A750+1</f>
         <v>745</v>
@@ -20605,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="n">
         <f aca="false">A751+1</f>
         <v>746</v>
@@ -20626,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="n">
         <f aca="false">A752+1</f>
         <v>747</v>
@@ -20650,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="n">
         <f aca="false">A753+1</f>
         <v>748</v>
@@ -20671,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="n">
         <f aca="false">A754+1</f>
         <v>749</v>
@@ -20695,7 +20700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="n">
         <f aca="false">A755+1</f>
         <v>750</v>
@@ -20719,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="n">
         <f aca="false">A756+1</f>
         <v>751</v>
@@ -20743,7 +20748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="n">
         <f aca="false">A757+1</f>
         <v>752</v>
@@ -20764,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="n">
         <f aca="false">A758+1</f>
         <v>753</v>
@@ -20785,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="n">
         <f aca="false">A759+1</f>
         <v>754</v>
@@ -20806,7 +20811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="n">
         <f aca="false">A760+1</f>
         <v>755</v>
@@ -20827,7 +20832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="n">
         <f aca="false">A761+1</f>
         <v>756</v>
@@ -20848,7 +20853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="n">
         <f aca="false">A762+1</f>
         <v>757</v>
@@ -20869,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="n">
         <f aca="false">A763+1</f>
         <v>758</v>
@@ -20890,7 +20895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="n">
         <f aca="false">A764+1</f>
         <v>759</v>
@@ -20911,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="n">
         <f aca="false">A765+1</f>
         <v>760</v>
@@ -20932,7 +20937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="n">
         <f aca="false">A766+1</f>
         <v>761</v>
@@ -20953,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="n">
         <f aca="false">A767+1</f>
         <v>762</v>
@@ -20977,7 +20982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="n">
         <f aca="false">A768+1</f>
         <v>763</v>
@@ -21001,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="n">
         <f aca="false">A769+1</f>
         <v>764</v>
@@ -21028,7 +21033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="n">
         <f aca="false">A770+1</f>
         <v>765</v>
@@ -21049,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="n">
         <f aca="false">A771+1</f>
         <v>766</v>
@@ -21070,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="n">
         <f aca="false">A772+1</f>
         <v>767</v>
@@ -21091,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="n">
         <f aca="false">A773+1</f>
         <v>768</v>
@@ -21112,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="n">
         <f aca="false">A774+1</f>
         <v>769</v>
@@ -21139,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="n">
         <f aca="false">A775+1</f>
         <v>770</v>
@@ -21160,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="n">
         <f aca="false">A776+1</f>
         <v>771</v>
@@ -21181,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="n">
         <f aca="false">A777+1</f>
         <v>772</v>
@@ -21202,7 +21207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="n">
         <f aca="false">A778+1</f>
         <v>773</v>
@@ -21223,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="n">
         <f aca="false">A779+1</f>
         <v>774</v>
@@ -21244,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="n">
         <f aca="false">A780+1</f>
         <v>775</v>
@@ -21265,7 +21270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="n">
         <f aca="false">A781+1</f>
         <v>776</v>
@@ -21286,7 +21291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="n">
         <f aca="false">A782+1</f>
         <v>777</v>
@@ -21307,7 +21312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="n">
         <f aca="false">A783+1</f>
         <v>778</v>
@@ -21331,7 +21336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="n">
         <f aca="false">A784+1</f>
         <v>779</v>
@@ -21355,7 +21360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="n">
         <f aca="false">A785+1</f>
         <v>780</v>
@@ -21379,7 +21384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="n">
         <f aca="false">A786+1</f>
         <v>781</v>
@@ -21403,7 +21408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="n">
         <f aca="false">A787+1</f>
         <v>782</v>
@@ -21427,7 +21432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="n">
         <f aca="false">A788+1</f>
         <v>783</v>
@@ -21451,7 +21456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="n">
         <f aca="false">A789+1</f>
         <v>784</v>
@@ -21475,7 +21480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="n">
         <f aca="false">A790+1</f>
         <v>785</v>
@@ -21499,7 +21504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="n">
         <f aca="false">A791+1</f>
         <v>786</v>
@@ -21523,7 +21528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="n">
         <f aca="false">A792+1</f>
         <v>787</v>
@@ -21547,7 +21552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="n">
         <f aca="false">A793+1</f>
         <v>788</v>
@@ -21571,7 +21576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="n">
         <f aca="false">A794+1</f>
         <v>789</v>
@@ -21595,7 +21600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="n">
         <f aca="false">A795+1</f>
         <v>790</v>
@@ -21619,7 +21624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="1" t="n">
         <f aca="false">A796+1</f>
         <v>791</v>
@@ -21643,7 +21648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="n">
         <f aca="false">A797+1</f>
         <v>792</v>
@@ -21667,7 +21672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="n">
         <f aca="false">A798+1</f>
         <v>793</v>
@@ -21691,7 +21696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="n">
         <f aca="false">A799+1</f>
         <v>794</v>
@@ -21715,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="n">
         <f aca="false">A800+1</f>
         <v>795</v>
@@ -21739,7 +21744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="1" t="n">
         <f aca="false">A801+1</f>
         <v>796</v>
@@ -21763,7 +21768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="1" t="n">
         <f aca="false">A802+1</f>
         <v>797</v>
@@ -21787,7 +21792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="1" t="n">
         <f aca="false">A803+1</f>
         <v>798</v>
@@ -21811,7 +21816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="1" t="n">
         <f aca="false">A804+1</f>
         <v>799</v>
@@ -21835,7 +21840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="n">
         <f aca="false">A805+1</f>
         <v>800</v>
@@ -21859,7 +21864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="n">
         <f aca="false">A806+1</f>
         <v>801</v>
@@ -21883,7 +21888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="n">
         <f aca="false">A807+1</f>
         <v>802</v>
@@ -21907,7 +21912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="n">
         <f aca="false">A808+1</f>
         <v>803</v>
@@ -21931,7 +21936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="n">
         <f aca="false">A809+1</f>
         <v>804</v>
@@ -21955,7 +21960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="n">
         <f aca="false">A810+1</f>
         <v>805</v>
@@ -21979,7 +21984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="n">
         <f aca="false">A811+1</f>
         <v>806</v>
@@ -22003,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="n">
         <f aca="false">A812+1</f>
         <v>807</v>
@@ -22027,7 +22032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="n">
         <f aca="false">A813+1</f>
         <v>808</v>
@@ -22051,7 +22056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="n">
         <f aca="false">A814+1</f>
         <v>809</v>
@@ -22075,7 +22080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="n">
         <f aca="false">A815+1</f>
         <v>810</v>
@@ -22099,7 +22104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="n">
         <f aca="false">A816+1</f>
         <v>811</v>
@@ -22123,7 +22128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="n">
         <f aca="false">A817+1</f>
         <v>812</v>
@@ -22147,7 +22152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="1" t="n">
         <f aca="false">A818+1</f>
         <v>813</v>
@@ -22171,7 +22176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="n">
         <f aca="false">A819+1</f>
         <v>814</v>
@@ -22195,7 +22200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="n">
         <f aca="false">A820+1</f>
         <v>815</v>
@@ -22219,7 +22224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="n">
         <f aca="false">A821+1</f>
         <v>816</v>
@@ -22243,7 +22248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="n">
         <f aca="false">A822+1</f>
         <v>817</v>
@@ -22267,7 +22272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="n">
         <f aca="false">A823+1</f>
         <v>818</v>
@@ -22291,7 +22296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="n">
         <f aca="false">A824+1</f>
         <v>819</v>
@@ -22315,7 +22320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="n">
         <f aca="false">A825+1</f>
         <v>820</v>
@@ -22339,7 +22344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="n">
         <f aca="false">A826+1</f>
         <v>821</v>
@@ -22363,7 +22368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="n">
         <f aca="false">A827+1</f>
         <v>822</v>
@@ -22387,7 +22392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="1" t="n">
         <f aca="false">A828+1</f>
         <v>823</v>
@@ -22411,7 +22416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="1" t="n">
         <f aca="false">A829+1</f>
         <v>824</v>
@@ -22435,7 +22440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="1" t="n">
         <f aca="false">A830+1</f>
         <v>825</v>
@@ -22459,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="1" t="n">
         <f aca="false">A831+1</f>
         <v>826</v>
@@ -22483,7 +22488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="n">
         <f aca="false">A832+1</f>
         <v>827</v>
@@ -22507,7 +22512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="n">
         <f aca="false">A833+1</f>
         <v>828</v>
@@ -22531,7 +22536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="n">
         <f aca="false">A834+1</f>
         <v>829</v>
@@ -22555,7 +22560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="n">
         <f aca="false">A835+1</f>
         <v>830</v>
@@ -22579,7 +22584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="n">
         <f aca="false">A836+1</f>
         <v>831</v>
@@ -22603,7 +22608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="n">
         <f aca="false">A837+1</f>
         <v>832</v>
@@ -22627,7 +22632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="n">
         <f aca="false">A838+1</f>
         <v>833</v>
@@ -22651,7 +22656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="n">
         <f aca="false">A839+1</f>
         <v>834</v>
@@ -22675,7 +22680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="n">
         <f aca="false">A840+1</f>
         <v>835</v>
@@ -22699,7 +22704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="n">
         <f aca="false">A841+1</f>
         <v>836</v>
@@ -22723,7 +22728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="n">
         <f aca="false">A842+1</f>
         <v>837</v>
@@ -22747,7 +22752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="n">
         <f aca="false">A843+1</f>
         <v>838</v>
@@ -22771,7 +22776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="n">
         <f aca="false">A844+1</f>
         <v>839</v>
@@ -22795,7 +22800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="n">
         <f aca="false">A845+1</f>
         <v>840</v>
@@ -22819,7 +22824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="n">
         <f aca="false">A846+1</f>
         <v>841</v>
@@ -22843,7 +22848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="n">
         <f aca="false">A847+1</f>
         <v>842</v>
@@ -22867,7 +22872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="n">
         <f aca="false">A848+1</f>
         <v>843</v>
@@ -22891,7 +22896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="1" t="n">
         <f aca="false">A849+1</f>
         <v>844</v>
@@ -22915,7 +22920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="n">
         <f aca="false">A850+1</f>
         <v>845</v>
@@ -22939,7 +22944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="n">
         <f aca="false">A851+1</f>
         <v>846</v>
@@ -22963,7 +22968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="n">
         <f aca="false">A852+1</f>
         <v>847</v>
@@ -22987,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="n">
         <f aca="false">A853+1</f>
         <v>848</v>
@@ -23011,7 +23016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="1" t="n">
         <f aca="false">A854+1</f>
         <v>849</v>
@@ -23035,7 +23040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="n">
         <f aca="false">A855+1</f>
         <v>850</v>
@@ -23059,7 +23064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="n">
         <f aca="false">A856+1</f>
         <v>851</v>
@@ -23083,7 +23088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="n">
         <f aca="false">A857+1</f>
         <v>852</v>
@@ -23107,7 +23112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="n">
         <f aca="false">A858+1</f>
         <v>853</v>
@@ -23131,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="n">
         <f aca="false">A859+1</f>
         <v>854</v>
@@ -23155,7 +23160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="n">
         <f aca="false">A860+1</f>
         <v>855</v>
@@ -23179,7 +23184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="n">
         <f aca="false">A861+1</f>
         <v>856</v>
@@ -23203,7 +23208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="1" t="n">
         <f aca="false">A862+1</f>
         <v>857</v>
@@ -23227,7 +23232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="n">
         <f aca="false">A863+1</f>
         <v>858</v>
@@ -23251,7 +23256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="n">
         <f aca="false">A864+1</f>
         <v>859</v>
@@ -23275,7 +23280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="n">
         <f aca="false">A865+1</f>
         <v>860</v>
@@ -23299,7 +23304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="n">
         <f aca="false">A866+1</f>
         <v>861</v>
@@ -23323,7 +23328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="1" t="n">
         <f aca="false">A867+1</f>
         <v>862</v>
@@ -23347,7 +23352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="n">
         <f aca="false">A868+1</f>
         <v>863</v>
@@ -23371,7 +23376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="n">
         <f aca="false">A869+1</f>
         <v>864</v>
@@ -23395,7 +23400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="n">
         <f aca="false">A870+1</f>
         <v>865</v>
@@ -23419,7 +23424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="n">
         <f aca="false">A871+1</f>
         <v>866</v>
@@ -23443,7 +23448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="n">
         <f aca="false">A872+1</f>
         <v>867</v>
@@ -23467,7 +23472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="1" t="n">
         <f aca="false">A873+1</f>
         <v>868</v>
@@ -23491,7 +23496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="n">
         <f aca="false">A874+1</f>
         <v>869</v>
@@ -23515,7 +23520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="n">
         <f aca="false">A875+1</f>
         <v>870</v>
@@ -23539,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="n">
         <f aca="false">A876+1</f>
         <v>871</v>
@@ -23563,7 +23568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="n">
         <f aca="false">A877+1</f>
         <v>872</v>
@@ -23587,7 +23592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="1" t="n">
         <f aca="false">A878+1</f>
         <v>873</v>
@@ -23611,7 +23616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="n">
         <f aca="false">A879+1</f>
         <v>874</v>
@@ -23635,7 +23640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="n">
         <f aca="false">A880+1</f>
         <v>875</v>
@@ -23659,7 +23664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="n">
         <f aca="false">A881+1</f>
         <v>876</v>
@@ -23683,7 +23688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="n">
         <f aca="false">A882+1</f>
         <v>877</v>
@@ -23707,7 +23712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="n">
         <f aca="false">A883+1</f>
         <v>878</v>
@@ -23731,7 +23736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="n">
         <f aca="false">A884+1</f>
         <v>879</v>
@@ -23755,7 +23760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="n">
         <f aca="false">A885+1</f>
         <v>880</v>
@@ -23779,7 +23784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="n">
         <f aca="false">A886+1</f>
         <v>881</v>
@@ -23803,7 +23808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="n">
         <f aca="false">A887+1</f>
         <v>882</v>
@@ -23827,7 +23832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="n">
         <f aca="false">A888+1</f>
         <v>883</v>
@@ -23851,7 +23856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="n">
         <f aca="false">A889+1</f>
         <v>884</v>
@@ -23875,7 +23880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="n">
         <f aca="false">A890+1</f>
         <v>885</v>
@@ -23899,7 +23904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="n">
         <f aca="false">A891+1</f>
         <v>886</v>
@@ -23923,7 +23928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="n">
         <f aca="false">A892+1</f>
         <v>887</v>
@@ -23947,7 +23952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="n">
         <f aca="false">A893+1</f>
         <v>888</v>
@@ -23971,7 +23976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="n">
         <f aca="false">A894+1</f>
         <v>889</v>
@@ -23995,20 +24000,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="n">
         <f aca="false">A895+1</f>
         <v>890</v>
       </c>
-      <c r="B896" s="1"/>
+      <c r="B896" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>857</v>
+      </c>
       <c r="G896" s="1"/>
       <c r="I896" s="0" t="n">
         <f aca="false">IF(ISBLANK(B896),0,IF(D896="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J896" s="0" t="n">
         <f aca="false">IF(ISBLANK(D896),0,I896)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26880,13 +26893,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:H999">
-    <filterColumn colId="2">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Composites"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:H999"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -26916,35 +26923,35 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26955,7 +26962,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -27,9 +27,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="985">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -1322,6 +1323,9 @@
     <t xml:space="preserve">LAST</t>
   </si>
   <si>
+    <t xml:space="preserve">See LASTARG</t>
+  </si>
+  <si>
     <t xml:space="preserve">LASTARG</t>
   </si>
   <si>
@@ -1913,6 +1917,9 @@
     <t xml:space="preserve">REPL</t>
   </si>
   <si>
+    <t xml:space="preserve">GROBS not yet supported</t>
+  </si>
+  <si>
     <t xml:space="preserve">RES</t>
   </si>
   <si>
@@ -2111,6 +2118,9 @@
     <t xml:space="preserve">SIZE</t>
   </si>
   <si>
+    <t xml:space="preserve">Units and symbolics not implemented</t>
+  </si>
+  <si>
     <t xml:space="preserve">SL</t>
   </si>
   <si>
@@ -2958,6 +2968,15 @@
   </si>
   <si>
     <t xml:space="preserve">→NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSREV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPOSREV</t>
   </si>
   <si>
     <t xml:space="preserve">Num</t>
@@ -2995,7 +3014,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3018,28 +3036,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3047,28 +3061,24 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3076,7 +3086,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3084,14 +3093,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3099,14 +3106,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3114,7 +3119,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3122,7 +3126,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3130,10 +3133,9 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3149,7 +3151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -3192,6 +3194,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF00"/>
         <bgColor rgb="FF66FF33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFEEEE"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -3322,7 +3330,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3371,15 +3379,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3388,6 +3396,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3463,7 +3475,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFAFEEEE"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -3503,9 +3515,9 @@
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A888" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1005" activeCellId="0" sqref="F1005"/>
+      <selection pane="bottomLeft" activeCell="C1002" activeCellId="0" sqref="C1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3528,14 +3540,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3556,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.422305764411028</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3821,7 @@
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -4720,7 +4732,7 @@
       <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -5056,7 +5068,7 @@
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="12"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="1" t="s">
         <v>91</v>
       </c>
@@ -5185,7 +5197,7 @@
       <c r="B75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5343,7 +5355,7 @@
       <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5629,7 +5641,7 @@
       <c r="D94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="12"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="1" t="s">
         <v>122</v>
       </c>
@@ -5650,7 +5662,7 @@
       <c r="B95" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -6120,7 +6132,7 @@
       <c r="B116" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -6236,7 +6248,7 @@
       <c r="D121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="12"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="1" t="s">
         <v>154</v>
       </c>
@@ -6278,7 +6290,7 @@
       <c r="B123" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6366,7 +6378,7 @@
       <c r="B127" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -6688,7 +6700,7 @@
       <c r="B141" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -7003,7 +7015,7 @@
       <c r="B155" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -7094,7 +7106,7 @@
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -7118,13 +7130,13 @@
       <c r="B160" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="14"/>
+      <c r="F160" s="15"/>
       <c r="G160" s="1"/>
       <c r="I160" s="0" t="n">
         <f aca="false">IF(ISBLANK(B160),0,IF(D160="N/A",0,1))</f>
@@ -7257,7 +7269,7 @@
       <c r="B166" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -7511,13 +7523,13 @@
       <c r="B177" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F177" s="14"/>
+      <c r="F177" s="15"/>
       <c r="G177" s="1"/>
       <c r="I177" s="0" t="n">
         <f aca="false">IF(ISBLANK(B177),0,IF(D177="N/A",0,1))</f>
@@ -7539,6 +7551,9 @@
       <c r="C178" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D178" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="I178" s="0" t="n">
         <f aca="false">IF(ISBLANK(B178),0,IF(D178="N/A",0,1))</f>
@@ -7546,7 +7561,7 @@
       </c>
       <c r="J178" s="0" t="n">
         <f aca="false">IF(ISBLANK(D178),0,I178)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7557,7 +7572,7 @@
       <c r="B179" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -7774,7 +7789,7 @@
       <c r="D188" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F188" s="12"/>
+      <c r="F188" s="13"/>
       <c r="G188" s="1" t="s">
         <v>231</v>
       </c>
@@ -8041,7 +8056,7 @@
       <c r="B200" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -8256,7 +8271,7 @@
       <c r="B210" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -8280,13 +8295,13 @@
       <c r="B211" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F211" s="12"/>
+      <c r="F211" s="13"/>
       <c r="G211" s="1" t="s">
         <v>256</v>
       </c>
@@ -8313,7 +8328,7 @@
       <c r="D212" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F212" s="12"/>
+      <c r="F212" s="13"/>
       <c r="G212" s="1" t="s">
         <v>258</v>
       </c>
@@ -8361,7 +8376,7 @@
       <c r="D214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F214" s="12"/>
+      <c r="F214" s="13"/>
       <c r="G214" s="1" t="s">
         <v>261</v>
       </c>
@@ -8814,7 +8829,7 @@
       <c r="B234" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -8838,7 +8853,7 @@
       <c r="B235" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -9012,7 +9027,7 @@
       <c r="B243" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -9037,7 +9052,7 @@
       <c r="B244" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -9062,7 +9077,7 @@
       <c r="B245" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -9877,7 +9892,7 @@
       <c r="B282" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D282" s="1" t="s">
@@ -10186,13 +10201,13 @@
       <c r="B296" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C296" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F296" s="15"/>
+      <c r="F296" s="16"/>
       <c r="G296" s="1"/>
       <c r="I296" s="0" t="n">
         <f aca="false">IF(ISBLANK(B296),0,IF(D296="N/A",0,1))</f>
@@ -10211,13 +10226,13 @@
       <c r="B297" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F297" s="15"/>
+      <c r="F297" s="16"/>
       <c r="G297" s="1"/>
       <c r="I297" s="0" t="n">
         <f aca="false">IF(ISBLANK(B297),0,IF(D297="N/A",0,1))</f>
@@ -10527,7 +10542,7 @@
       <c r="B311" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C311" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D311" s="1" t="s">
@@ -10552,13 +10567,13 @@
       <c r="B312" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="C312" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F312" s="15"/>
+      <c r="F312" s="16"/>
       <c r="G312" s="1"/>
       <c r="I312" s="0" t="n">
         <f aca="false">IF(ISBLANK(B312),0,IF(D312="N/A",0,1))</f>
@@ -10661,7 +10676,7 @@
       <c r="B317" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C317" s="13" t="s">
+      <c r="C317" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D317" s="1" t="s">
@@ -10825,7 +10840,7 @@
       <c r="B324" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="C324" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D324" s="1" t="s">
@@ -11107,7 +11122,7 @@
       <c r="B336" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C336" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D336" s="1" t="s">
@@ -11131,7 +11146,7 @@
       <c r="B337" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C337" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D337" s="1" t="s">
@@ -11179,13 +11194,13 @@
       <c r="B339" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F339" s="15"/>
+      <c r="F339" s="16"/>
       <c r="G339" s="1" t="s">
         <v>389</v>
       </c>
@@ -11206,13 +11221,13 @@
       <c r="B340" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F340" s="15"/>
+      <c r="F340" s="16"/>
       <c r="G340" s="1" t="s">
         <v>391</v>
       </c>
@@ -11254,7 +11269,7 @@
       <c r="B342" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C342" s="13" t="s">
+      <c r="C342" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D342" s="1" t="s">
@@ -11725,7 +11740,7 @@
       <c r="D362" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F362" s="16"/>
+      <c r="F362" s="17"/>
       <c r="G362" s="1" t="s">
         <v>415</v>
       </c>
@@ -11818,7 +11833,7 @@
       <c r="B366" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="C366" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D366" s="1" t="s">
@@ -11951,10 +11966,15 @@
       <c r="C372" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G372" s="1"/>
+      <c r="D372" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="I372" s="0" t="n">
         <f aca="false">IF(ISBLANK(B372),0,IF(D372="N/A",0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" s="0" t="n">
         <f aca="false">IF(ISBLANK(D372),0,I372)</f>
@@ -11967,7 +11987,7 @@
         <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>22</v>
@@ -11988,7 +12008,7 @@
         <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>55</v>
@@ -12009,7 +12029,7 @@
         <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>16</v>
@@ -12033,7 +12053,7 @@
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>27</v>
@@ -12054,7 +12074,7 @@
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>27</v>
@@ -12075,7 +12095,7 @@
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>27</v>
@@ -12096,7 +12116,7 @@
         <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>16</v>
@@ -12120,7 +12140,7 @@
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>53</v>
@@ -12144,7 +12164,7 @@
         <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>22</v>
@@ -12165,7 +12185,7 @@
         <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>27</v>
@@ -12186,7 +12206,7 @@
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>27</v>
@@ -12207,7 +12227,7 @@
         <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>55</v>
@@ -12228,7 +12248,7 @@
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>145</v>
@@ -12249,7 +12269,7 @@
         <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>27</v>
@@ -12270,7 +12290,7 @@
         <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>27</v>
@@ -12291,7 +12311,7 @@
         <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>62</v>
@@ -12315,7 +12335,7 @@
         <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>87</v>
@@ -12339,7 +12359,7 @@
         <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>27</v>
@@ -12360,7 +12380,7 @@
         <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>27</v>
@@ -12381,7 +12401,7 @@
         <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>87</v>
@@ -12402,7 +12422,7 @@
         <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>42</v>
@@ -12426,7 +12446,7 @@
         <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>87</v>
@@ -12450,7 +12470,7 @@
         <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>145</v>
@@ -12471,7 +12491,7 @@
         <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>47</v>
@@ -12495,7 +12515,7 @@
         <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>145</v>
@@ -12516,7 +12536,7 @@
         <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>47</v>
@@ -12540,7 +12560,7 @@
         <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>47</v>
@@ -12564,7 +12584,7 @@
         <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>27</v>
@@ -12585,7 +12605,7 @@
         <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>47</v>
@@ -12609,7 +12629,7 @@
         <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>111</v>
@@ -12630,7 +12650,7 @@
         <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>163</v>
@@ -12654,7 +12674,7 @@
         <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>62</v>
@@ -12678,7 +12698,7 @@
         <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>111</v>
@@ -12699,7 +12719,7 @@
         <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>111</v>
@@ -12720,7 +12740,7 @@
         <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>16</v>
@@ -12744,10 +12764,10 @@
         <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G408" s="1"/>
       <c r="I408" s="0" t="n">
@@ -12765,7 +12785,7 @@
         <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>145</v>
@@ -12786,10 +12806,10 @@
         <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G410" s="1"/>
       <c r="H410" s="0" t="n">
@@ -12810,7 +12830,7 @@
         <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>145</v>
@@ -12831,7 +12851,7 @@
         <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>22</v>
@@ -12839,9 +12859,9 @@
       <c r="D412" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F412" s="12"/>
+      <c r="F412" s="13"/>
       <c r="G412" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I412" s="0" t="n">
         <f aca="false">IF(ISBLANK(B412),0,IF(D412="N/A",0,1))</f>
@@ -12858,7 +12878,7 @@
         <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>111</v>
@@ -12879,7 +12899,7 @@
         <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>111</v>
@@ -12900,7 +12920,7 @@
         <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>16</v>
@@ -12924,7 +12944,7 @@
         <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>53</v>
@@ -12945,7 +12965,7 @@
         <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>53</v>
@@ -12969,10 +12989,10 @@
         <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G418" s="1"/>
       <c r="H418" s="0" t="n">
@@ -12993,10 +13013,10 @@
         <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G419" s="1"/>
       <c r="I419" s="0" t="n">
@@ -13014,7 +13034,7 @@
         <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>145</v>
@@ -13035,10 +13055,10 @@
         <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="0" t="n">
@@ -13059,7 +13079,7 @@
         <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>47</v>
@@ -13083,7 +13103,7 @@
         <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>16</v>
@@ -13107,7 +13127,7 @@
         <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>16</v>
@@ -13131,7 +13151,7 @@
         <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>111</v>
@@ -13152,10 +13172,10 @@
         <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G426" s="1"/>
       <c r="I426" s="0" t="n">
@@ -13173,10 +13193,10 @@
         <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G427" s="1"/>
       <c r="H427" s="0" t="n">
@@ -13197,7 +13217,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>111</v>
@@ -13218,10 +13238,10 @@
         <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G429" s="1"/>
       <c r="H429" s="0" t="n">
@@ -13242,10 +13262,10 @@
         <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G430" s="1"/>
       <c r="H430" s="0" t="n">
@@ -13266,7 +13286,7 @@
         <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>16</v>
@@ -13290,10 +13310,10 @@
         <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G432" s="1"/>
       <c r="H432" s="0" t="n">
@@ -13314,7 +13334,7 @@
         <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>145</v>
@@ -13335,7 +13355,7 @@
         <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>102</v>
@@ -13359,7 +13379,7 @@
         <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>12</v>
@@ -13383,7 +13403,7 @@
         <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>22</v>
@@ -13408,9 +13428,9 @@
         <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C437" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C437" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D437" s="1" t="s">
@@ -13432,7 +13452,7 @@
         <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>16</v>
@@ -13457,7 +13477,7 @@
         <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>102</v>
@@ -13481,9 +13501,9 @@
         <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C440" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C440" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D440" s="1" t="s">
@@ -13505,7 +13525,7 @@
         <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>111</v>
@@ -13526,7 +13546,7 @@
         <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>62</v>
@@ -13550,7 +13570,7 @@
         <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>170</v>
@@ -13559,7 +13579,7 @@
         <v>43</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I443" s="0" t="n">
         <f aca="false">IF(ISBLANK(B443),0,IF(D443="N/A",0,1))</f>
@@ -13576,7 +13596,7 @@
         <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>55</v>
@@ -13597,7 +13617,7 @@
         <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>55</v>
@@ -13618,17 +13638,17 @@
         <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C446" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C446" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F446" s="15"/>
-      <c r="G446" s="17" t="s">
-        <v>504</v>
+      <c r="F446" s="16"/>
+      <c r="G446" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="I446" s="0" t="n">
         <f aca="false">IF(ISBLANK(B446),0,IF(D446="N/A",0,1))</f>
@@ -13645,7 +13665,7 @@
         <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>22</v>
@@ -13669,7 +13689,7 @@
         <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>22</v>
@@ -13693,7 +13713,7 @@
         <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>84</v>
@@ -13717,7 +13737,7 @@
         <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>84</v>
@@ -13741,9 +13761,9 @@
         <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C451" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C451" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D451" s="1" t="s">
@@ -13765,12 +13785,12 @@
         <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D452" s="18" t="s">
+      <c r="D452" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G452" s="1"/>
@@ -13789,7 +13809,7 @@
         <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>102</v>
@@ -13813,7 +13833,7 @@
         <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>16</v>
@@ -13837,7 +13857,7 @@
         <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>16</v>
@@ -13861,7 +13881,7 @@
         <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>55</v>
@@ -13882,7 +13902,7 @@
         <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>84</v>
@@ -13906,7 +13926,7 @@
         <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>55</v>
@@ -13927,7 +13947,7 @@
         <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>27</v>
@@ -13948,9 +13968,9 @@
         <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C460" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C460" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -13972,7 +13992,7 @@
         <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>27</v>
@@ -13993,7 +14013,7 @@
         <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>16</v>
@@ -14017,7 +14037,7 @@
         <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>55</v>
@@ -14038,7 +14058,7 @@
         <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>145</v>
@@ -14059,7 +14079,7 @@
         <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>55</v>
@@ -14080,7 +14100,7 @@
         <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>53</v>
@@ -14089,7 +14109,7 @@
         <v>13</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I466" s="0" t="n">
         <f aca="false">IF(ISBLANK(B466),0,IF(D466="N/A",0,1))</f>
@@ -14106,7 +14126,7 @@
         <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>53</v>
@@ -14130,10 +14150,10 @@
         <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G468" s="1"/>
       <c r="I468" s="0" t="n">
@@ -14151,7 +14171,7 @@
         <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>145</v>
@@ -14172,10 +14192,10 @@
         <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G470" s="1"/>
       <c r="I470" s="0" t="n">
@@ -14193,7 +14213,7 @@
         <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>16</v>
@@ -14217,9 +14237,9 @@
         <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C472" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C472" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D472" s="1" t="s">
@@ -14241,7 +14261,7 @@
         <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>102</v>
@@ -14265,7 +14285,7 @@
         <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>102</v>
@@ -14289,7 +14309,7 @@
         <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>55</v>
@@ -14310,7 +14330,7 @@
         <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>111</v>
@@ -14331,7 +14351,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>53</v>
@@ -14355,7 +14375,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>55</v>
@@ -14376,7 +14396,7 @@
         <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>55</v>
@@ -14397,7 +14417,7 @@
         <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>55</v>
@@ -14418,7 +14438,7 @@
         <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>84</v>
@@ -14442,7 +14462,7 @@
         <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>55</v>
@@ -14463,7 +14483,7 @@
         <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>55</v>
@@ -14484,7 +14504,7 @@
         <v>478</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>55</v>
@@ -14505,7 +14525,7 @@
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>55</v>
@@ -14526,7 +14546,7 @@
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>47</v>
@@ -14550,7 +14570,7 @@
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>53</v>
@@ -14559,7 +14579,7 @@
         <v>13</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I487" s="0" t="n">
         <f aca="false">IF(ISBLANK(B487),0,IF(D487="N/A",0,1))</f>
@@ -14576,7 +14596,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>53</v>
@@ -14600,7 +14620,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>55</v>
@@ -14621,7 +14641,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>111</v>
@@ -14642,7 +14662,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>22</v>
@@ -14663,11 +14683,15 @@
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C492" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C492" s="12" t="s">
         <v>345</v>
       </c>
+      <c r="D492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F492" s="16"/>
       <c r="G492" s="1"/>
       <c r="H492" s="0" t="n">
         <v>120</v>
@@ -14678,7 +14702,7 @@
       </c>
       <c r="J492" s="0" t="n">
         <f aca="false">IF(ISBLANK(D492),0,I492)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14687,7 +14711,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>27</v>
@@ -14708,7 +14732,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>27</v>
@@ -14729,7 +14753,7 @@
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>16</v>
@@ -14754,7 +14778,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>84</v>
@@ -14778,7 +14802,7 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>145</v>
@@ -14799,7 +14823,7 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>145</v>
@@ -14820,7 +14844,7 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>145</v>
@@ -14841,7 +14865,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>27</v>
@@ -14862,7 +14886,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>16</v>
@@ -14886,7 +14910,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>84</v>
@@ -14910,7 +14934,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>111</v>
@@ -14931,7 +14955,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>111</v>
@@ -14952,7 +14976,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>16</v>
@@ -14976,7 +15000,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>27</v>
@@ -14997,7 +15021,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>84</v>
@@ -15021,7 +15045,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>84</v>
@@ -15045,7 +15069,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>84</v>
@@ -15069,7 +15093,7 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>145</v>
@@ -15090,7 +15114,7 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>16</v>
@@ -15114,7 +15138,7 @@
         <v>506</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>27</v>
@@ -15135,7 +15159,7 @@
         <v>507</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>27</v>
@@ -15156,10 +15180,10 @@
         <v>508</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G514" s="1"/>
       <c r="I514" s="0" t="n">
@@ -15177,7 +15201,7 @@
         <v>509</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>42</v>
@@ -15201,7 +15225,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>22</v>
@@ -15222,15 +15246,15 @@
         <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C517" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C517" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F517" s="15"/>
+      <c r="F517" s="16"/>
       <c r="G517" s="1"/>
       <c r="I517" s="0" t="n">
         <f aca="false">IF(ISBLANK(B517),0,IF(D517="N/A",0,1))</f>
@@ -15247,15 +15271,15 @@
         <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C518" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C518" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F518" s="15"/>
+      <c r="F518" s="16"/>
       <c r="G518" s="1"/>
       <c r="I518" s="0" t="n">
         <f aca="false">IF(ISBLANK(B518),0,IF(D518="N/A",0,1))</f>
@@ -15272,7 +15296,7 @@
         <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>145</v>
@@ -15293,7 +15317,7 @@
         <v>514</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>53</v>
@@ -15317,7 +15341,7 @@
         <v>515</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>55</v>
@@ -15338,7 +15362,7 @@
         <v>516</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>145</v>
@@ -15359,7 +15383,7 @@
         <v>517</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>55</v>
@@ -15380,7 +15404,7 @@
         <v>518</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>47</v>
@@ -15404,10 +15428,10 @@
         <v>519</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G525" s="1"/>
       <c r="H525" s="0" t="n">
@@ -15428,7 +15452,7 @@
         <v>520</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>16</v>
@@ -15452,7 +15476,7 @@
         <v>521</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>27</v>
@@ -15473,7 +15497,7 @@
         <v>522</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>27</v>
@@ -15494,7 +15518,7 @@
         <v>523</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>22</v>
@@ -15518,9 +15542,9 @@
         <v>524</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C530" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="C530" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D530" s="1" t="s">
@@ -15543,7 +15567,7 @@
         <v>525</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>87</v>
@@ -15569,7 +15593,7 @@
         <v>526</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>22</v>
@@ -15593,7 +15617,7 @@
         <v>527</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>22</v>
@@ -15617,7 +15641,7 @@
         <v>528</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>145</v>
@@ -15638,7 +15662,7 @@
         <v>529</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>47</v>
@@ -15662,7 +15686,7 @@
         <v>530</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>47</v>
@@ -15686,7 +15710,7 @@
         <v>531</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>27</v>
@@ -15707,7 +15731,7 @@
         <v>532</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>42</v>
@@ -15728,7 +15752,7 @@
         <v>533</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>47</v>
@@ -15752,7 +15776,7 @@
         <v>534</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>47</v>
@@ -15776,7 +15800,7 @@
         <v>535</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>42</v>
@@ -15800,7 +15824,7 @@
         <v>536</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>84</v>
@@ -15824,7 +15848,7 @@
         <v>537</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>22</v>
@@ -15845,7 +15869,7 @@
         <v>538</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>22</v>
@@ -15853,9 +15877,9 @@
       <c r="D544" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F544" s="12"/>
+      <c r="F544" s="13"/>
       <c r="G544" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I544" s="0" t="n">
         <f aca="false">IF(ISBLANK(B544),0,IF(D544="N/A",0,1))</f>
@@ -15872,7 +15896,7 @@
         <v>539</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>111</v>
@@ -15880,9 +15904,9 @@
       <c r="D545" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F545" s="12"/>
+      <c r="F545" s="13"/>
       <c r="G545" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I545" s="0" t="n">
         <f aca="false">IF(ISBLANK(B545),0,IF(D545="N/A",0,1))</f>
@@ -15899,7 +15923,7 @@
         <v>540</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>27</v>
@@ -15920,7 +15944,7 @@
         <v>541</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>145</v>
@@ -15941,9 +15965,9 @@
         <v>542</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C548" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C548" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D548" s="1" t="s">
@@ -15966,7 +15990,7 @@
         <v>543</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>47</v>
@@ -15990,7 +16014,7 @@
         <v>544</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>145</v>
@@ -16011,9 +16035,9 @@
         <v>545</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C551" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C551" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D551" s="1" t="s">
@@ -16036,7 +16060,7 @@
         <v>546</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>84</v>
@@ -16060,7 +16084,7 @@
         <v>547</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>22</v>
@@ -16069,7 +16093,7 @@
         <v>43</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I553" s="0" t="n">
         <f aca="false">IF(ISBLANK(B553),0,IF(D553="N/A",0,1))</f>
@@ -16086,7 +16110,7 @@
         <v>548</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>84</v>
@@ -16110,7 +16134,7 @@
         <v>549</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>47</v>
@@ -16134,7 +16158,7 @@
         <v>550</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>27</v>
@@ -16155,7 +16179,7 @@
         <v>551</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>42</v>
@@ -16176,7 +16200,7 @@
         <v>552</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>27</v>
@@ -16197,9 +16221,9 @@
         <v>553</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C559" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C559" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D559" s="1" t="s">
@@ -16221,16 +16245,18 @@
         <v>554</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C560" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C560" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F560" s="15"/>
-      <c r="G560" s="1"/>
+      <c r="F560" s="16"/>
+      <c r="G560" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="I560" s="0" t="n">
         <f aca="false">IF(ISBLANK(B560),0,IF(D560="N/A",0,1))</f>
         <v>1</v>
@@ -16246,7 +16272,7 @@
         <v>555</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>55</v>
@@ -16267,7 +16293,7 @@
         <v>556</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>22</v>
@@ -16288,7 +16314,7 @@
         <v>557</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>27</v>
@@ -16309,7 +16335,7 @@
         <v>558</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>62</v>
@@ -16333,7 +16359,7 @@
         <v>559</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>111</v>
@@ -16354,7 +16380,7 @@
         <v>560</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>27</v>
@@ -16375,10 +16401,10 @@
         <v>561</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G567" s="1"/>
       <c r="H567" s="0" t="n">
@@ -16399,10 +16425,10 @@
         <v>562</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G568" s="1"/>
       <c r="H568" s="0" t="n">
@@ -16423,10 +16449,10 @@
         <v>563</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="G569" s="1"/>
       <c r="H569" s="0" t="n">
@@ -16447,16 +16473,16 @@
         <v>564</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C570" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="C570" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="I570" s="0" t="n">
         <f aca="false">IF(ISBLANK(B570),0,IF(D570="N/A",0,1))</f>
@@ -16473,16 +16499,16 @@
         <v>565</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C571" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C571" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="I571" s="0" t="n">
         <f aca="false">IF(ISBLANK(B571),0,IF(D571="N/A",0,1))</f>
@@ -16499,7 +16525,7 @@
         <v>566</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>163</v>
@@ -16523,7 +16549,7 @@
         <v>567</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>47</v>
@@ -16547,7 +16573,7 @@
         <v>568</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>102</v>
@@ -16571,7 +16597,7 @@
         <v>569</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>102</v>
@@ -16595,10 +16621,10 @@
         <v>570</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G576" s="1"/>
       <c r="H576" s="0" t="n">
@@ -16619,7 +16645,7 @@
         <v>571</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>102</v>
@@ -16643,7 +16669,7 @@
         <v>572</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>47</v>
@@ -16667,7 +16693,7 @@
         <v>573</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>47</v>
@@ -16691,7 +16717,7 @@
         <v>574</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>47</v>
@@ -16715,7 +16741,7 @@
         <v>575</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>22</v>
@@ -16739,16 +16765,16 @@
         <v>576</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C582" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="C582" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I582" s="0" t="n">
         <f aca="false">IF(ISBLANK(B582),0,IF(D582="N/A",0,1))</f>
@@ -16765,16 +16791,16 @@
         <v>577</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C583" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C583" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I583" s="0" t="n">
         <f aca="false">IF(ISBLANK(B583),0,IF(D583="N/A",0,1))</f>
@@ -16791,7 +16817,7 @@
         <v>578</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>47</v>
@@ -16815,7 +16841,7 @@
         <v>579</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>47</v>
@@ -16839,10 +16865,10 @@
         <v>580</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G586" s="1"/>
       <c r="H586" s="0" t="n">
@@ -16863,10 +16889,10 @@
         <v>581</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G587" s="1"/>
       <c r="H587" s="0" t="n">
@@ -16887,10 +16913,10 @@
         <v>582</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G588" s="1"/>
       <c r="H588" s="0" t="n">
@@ -16911,7 +16937,7 @@
         <v>583</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>47</v>
@@ -16935,7 +16961,7 @@
         <v>584</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>47</v>
@@ -16959,7 +16985,7 @@
         <v>585</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>53</v>
@@ -16983,7 +17009,7 @@
         <v>586</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>12</v>
@@ -17007,7 +17033,7 @@
         <v>587</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>84</v>
@@ -17031,7 +17057,7 @@
         <v>588</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>55</v>
@@ -17052,7 +17078,7 @@
         <v>589</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>55</v>
@@ -17073,7 +17099,7 @@
         <v>590</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>55</v>
@@ -17094,7 +17120,7 @@
         <v>591</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>55</v>
@@ -17115,7 +17141,7 @@
         <v>592</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>55</v>
@@ -17136,7 +17162,7 @@
         <v>593</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>47</v>
@@ -17160,7 +17186,7 @@
         <v>594</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>22</v>
@@ -17184,7 +17210,7 @@
         <v>595</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>55</v>
@@ -17205,12 +17231,12 @@
         <v>596</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D602" s="18" t="s">
+      <c r="D602" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G602" s="1"/>
@@ -17229,7 +17255,7 @@
         <v>597</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>55</v>
@@ -17250,7 +17276,7 @@
         <v>598</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>145</v>
@@ -17271,7 +17297,7 @@
         <v>599</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>84</v>
@@ -17295,7 +17321,7 @@
         <v>600</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>62</v>
@@ -17316,7 +17342,7 @@
         <v>601</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>27</v>
@@ -17337,7 +17363,7 @@
         <v>602</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>84</v>
@@ -17361,7 +17387,7 @@
         <v>603</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>27</v>
@@ -17382,7 +17408,7 @@
         <v>604</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>22</v>
@@ -17406,7 +17432,7 @@
         <v>605</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>27</v>
@@ -17427,7 +17453,7 @@
         <v>606</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>215</v>
@@ -17448,7 +17474,7 @@
         <v>607</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>27</v>
@@ -17469,7 +17495,7 @@
         <v>608</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>27</v>
@@ -17490,7 +17516,7 @@
         <v>609</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>16</v>
@@ -17515,7 +17541,7 @@
         <v>610</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>55</v>
@@ -17536,7 +17562,7 @@
         <v>611</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>27</v>
@@ -17557,7 +17583,7 @@
         <v>612</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>27</v>
@@ -17578,7 +17604,7 @@
         <v>613</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>87</v>
@@ -17602,7 +17628,7 @@
         <v>614</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>27</v>
@@ -17623,7 +17649,7 @@
         <v>615</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>87</v>
@@ -17647,12 +17673,12 @@
         <v>616</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D622" s="18" t="s">
+      <c r="D622" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G622" s="1"/>
@@ -17671,19 +17697,25 @@
         <v>617</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G623" s="1"/>
+        <v>690</v>
+      </c>
+      <c r="C623" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F623" s="13"/>
+      <c r="G623" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="I623" s="0" t="n">
         <f aca="false">IF(ISBLANK(B623),0,IF(D623="N/A",0,1))</f>
         <v>1</v>
       </c>
       <c r="J623" s="0" t="n">
         <f aca="false">IF(ISBLANK(D623),0,I623)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17692,16 +17724,16 @@
         <v>618</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C624" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C624" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D624" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I624" s="0" t="n">
         <f aca="false">IF(ISBLANK(B624),0,IF(D624="N/A",0,1))</f>
@@ -17718,16 +17750,16 @@
         <v>619</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C625" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C625" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D625" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I625" s="0" t="n">
         <f aca="false">IF(ISBLANK(B625),0,IF(D625="N/A",0,1))</f>
@@ -17744,7 +17776,7 @@
         <v>620</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>55</v>
@@ -17765,12 +17797,12 @@
         <v>621</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D627" s="18" t="s">
+      <c r="D627" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G627" s="1"/>
@@ -17789,7 +17821,7 @@
         <v>622</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>47</v>
@@ -17813,10 +17845,10 @@
         <v>623</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G629" s="1"/>
       <c r="H629" s="0" t="n">
@@ -17837,10 +17869,10 @@
         <v>624</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G630" s="1"/>
       <c r="H630" s="0" t="n">
@@ -17861,7 +17893,7 @@
         <v>625</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>111</v>
@@ -17882,7 +17914,7 @@
         <v>626</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>27</v>
@@ -17903,7 +17935,7 @@
         <v>627</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>62</v>
@@ -17927,7 +17959,7 @@
         <v>628</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>22</v>
@@ -17936,7 +17968,7 @@
         <v>43</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I634" s="0" t="n">
         <f aca="false">IF(ISBLANK(B634),0,IF(D634="N/A",0,1))</f>
@@ -17953,7 +17985,7 @@
         <v>629</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>12</v>
@@ -17977,16 +18009,16 @@
         <v>630</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C636" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="C636" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D636" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I636" s="0" t="n">
         <f aca="false">IF(ISBLANK(B636),0,IF(D636="N/A",0,1))</f>
@@ -18003,7 +18035,7 @@
         <v>631</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>47</v>
@@ -18027,16 +18059,16 @@
         <v>632</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C638" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C638" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I638" s="0" t="n">
         <f aca="false">IF(ISBLANK(B638),0,IF(D638="N/A",0,1))</f>
@@ -18053,7 +18085,7 @@
         <v>633</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>84</v>
@@ -18077,7 +18109,7 @@
         <v>634</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>170</v>
@@ -18101,9 +18133,9 @@
         <v>635</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C641" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C641" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D641" s="1" t="s">
@@ -18125,7 +18157,7 @@
         <v>636</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>22</v>
@@ -18149,9 +18181,9 @@
         <v>637</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C643" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C643" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D643" s="1" t="s">
@@ -18173,7 +18205,7 @@
         <v>638</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>42</v>
@@ -18194,7 +18226,7 @@
         <v>639</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>84</v>
@@ -18218,7 +18250,7 @@
         <v>640</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>42</v>
@@ -18242,12 +18274,12 @@
         <v>641</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D647" s="18" t="s">
+      <c r="D647" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G647" s="1"/>
@@ -18266,12 +18298,12 @@
         <v>642</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D648" s="18" t="s">
+      <c r="D648" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G648" s="1"/>
@@ -18290,12 +18322,12 @@
         <v>643</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D649" s="18" t="s">
+      <c r="D649" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G649" s="1"/>
@@ -18314,12 +18346,12 @@
         <v>644</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D650" s="18" t="s">
+      <c r="D650" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G650" s="1"/>
@@ -18338,7 +18370,7 @@
         <v>645</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>84</v>
@@ -18362,7 +18394,7 @@
         <v>646</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>22</v>
@@ -18383,7 +18415,7 @@
         <v>647</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>22</v>
@@ -18391,9 +18423,9 @@
       <c r="D653" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F653" s="12"/>
+      <c r="F653" s="13"/>
       <c r="G653" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="I653" s="0" t="n">
         <f aca="false">IF(ISBLANK(B653),0,IF(D653="N/A",0,1))</f>
@@ -18410,7 +18442,7 @@
         <v>648</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>27</v>
@@ -18431,7 +18463,7 @@
         <v>649</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>27</v>
@@ -18452,7 +18484,7 @@
         <v>650</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>145</v>
@@ -18473,7 +18505,7 @@
         <v>651</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>22</v>
@@ -18481,7 +18513,7 @@
       <c r="D657" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F657" s="14"/>
+      <c r="F657" s="15"/>
       <c r="G657" s="1"/>
       <c r="I657" s="0" t="n">
         <f aca="false">IF(ISBLANK(B657),0,IF(D657="N/A",0,1))</f>
@@ -18498,7 +18530,7 @@
         <v>652</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>62</v>
@@ -18522,7 +18554,7 @@
         <v>653</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>27</v>
@@ -18543,7 +18575,7 @@
         <v>654</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>27</v>
@@ -18564,9 +18596,9 @@
         <v>655</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C661" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="C661" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D661" s="1" t="s">
@@ -18589,12 +18621,18 @@
         <v>656</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C662" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C662" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="G662" s="1"/>
+      <c r="D662" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F662" s="16"/>
+      <c r="G662" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="H662" s="0" t="n">
         <v>120</v>
       </c>
@@ -18604,7 +18642,7 @@
       </c>
       <c r="J662" s="0" t="n">
         <f aca="false">IF(ISBLANK(D662),0,I662)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18613,7 +18651,7 @@
         <v>657</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>27</v>
@@ -18634,7 +18672,7 @@
         <v>658</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>16</v>
@@ -18658,7 +18696,7 @@
         <v>659</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>47</v>
@@ -18682,7 +18720,7 @@
         <v>660</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>47</v>
@@ -18706,7 +18744,7 @@
         <v>661</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>102</v>
@@ -18730,7 +18768,7 @@
         <v>662</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>47</v>
@@ -18754,7 +18792,7 @@
         <v>663</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>53</v>
@@ -18778,7 +18816,7 @@
         <v>664</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>27</v>
@@ -18799,7 +18837,7 @@
         <v>665</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>27</v>
@@ -18820,7 +18858,7 @@
         <v>666</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>27</v>
@@ -18841,15 +18879,15 @@
         <v>667</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C673" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C673" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F673" s="15"/>
+      <c r="F673" s="16"/>
       <c r="G673" s="1"/>
       <c r="I673" s="0" t="n">
         <f aca="false">IF(ISBLANK(B673),0,IF(D673="N/A",0,1))</f>
@@ -18866,7 +18904,7 @@
         <v>668</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>87</v>
@@ -18890,7 +18928,7 @@
         <v>669</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>27</v>
@@ -18911,7 +18949,7 @@
         <v>670</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>27</v>
@@ -18932,7 +18970,7 @@
         <v>671</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>27</v>
@@ -18953,7 +18991,7 @@
         <v>672</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>87</v>
@@ -18977,7 +19015,7 @@
         <v>673</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>27</v>
@@ -18998,7 +19036,7 @@
         <v>674</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>27</v>
@@ -19019,7 +19057,7 @@
         <v>675</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>27</v>
@@ -19040,7 +19078,7 @@
         <v>676</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>27</v>
@@ -19061,7 +19099,7 @@
         <v>677</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>215</v>
@@ -19070,7 +19108,7 @@
         <v>43</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="I683" s="0" t="n">
         <f aca="false">IF(ISBLANK(B683),0,IF(D683="N/A",0,1))</f>
@@ -19087,7 +19125,7 @@
         <v>678</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>111</v>
@@ -19108,7 +19146,7 @@
         <v>679</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>22</v>
@@ -19129,7 +19167,7 @@
         <v>680</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>27</v>
@@ -19150,7 +19188,7 @@
         <v>681</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>55</v>
@@ -19171,9 +19209,9 @@
         <v>682</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C688" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C688" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D688" s="1" t="s">
@@ -19195,7 +19233,7 @@
         <v>683</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>22</v>
@@ -19219,7 +19257,7 @@
         <v>684</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>50</v>
@@ -19243,7 +19281,7 @@
         <v>685</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>215</v>
@@ -19252,7 +19290,7 @@
         <v>43</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="I691" s="0" t="n">
         <f aca="false">IF(ISBLANK(B691),0,IF(D691="N/A",0,1))</f>
@@ -19269,7 +19307,7 @@
         <v>686</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>27</v>
@@ -19290,7 +19328,7 @@
         <v>687</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>55</v>
@@ -19311,7 +19349,7 @@
         <v>688</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>111</v>
@@ -19319,9 +19357,9 @@
       <c r="D694" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F694" s="12"/>
+      <c r="F694" s="13"/>
       <c r="G694" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I694" s="0" t="n">
         <f aca="false">IF(ISBLANK(B694),0,IF(D694="N/A",0,1))</f>
@@ -19338,7 +19376,7 @@
         <v>689</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>145</v>
@@ -19359,7 +19397,7 @@
         <v>690</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>47</v>
@@ -19383,7 +19421,7 @@
         <v>691</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>47</v>
@@ -19407,7 +19445,7 @@
         <v>692</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>84</v>
@@ -19431,7 +19469,7 @@
         <v>693</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>27</v>
@@ -19452,7 +19490,7 @@
         <v>694</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>27</v>
@@ -19473,7 +19511,7 @@
         <v>695</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>111</v>
@@ -19494,7 +19532,7 @@
         <v>696</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>27</v>
@@ -19515,7 +19553,7 @@
         <v>697</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>27</v>
@@ -19536,7 +19574,7 @@
         <v>698</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>47</v>
@@ -19560,7 +19598,7 @@
         <v>699</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>163</v>
@@ -19584,7 +19622,7 @@
         <v>700</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>27</v>
@@ -19605,7 +19643,7 @@
         <v>701</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>55</v>
@@ -19626,7 +19664,7 @@
         <v>702</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>27</v>
@@ -19647,7 +19685,7 @@
         <v>703</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>50</v>
@@ -19668,7 +19706,7 @@
         <v>704</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>42</v>
@@ -19689,7 +19727,7 @@
         <v>705</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>111</v>
@@ -19710,7 +19748,7 @@
         <v>706</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>97</v>
@@ -19731,7 +19769,7 @@
         <v>707</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>97</v>
@@ -19752,7 +19790,7 @@
         <v>708</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>97</v>
@@ -19773,7 +19811,7 @@
         <v>709</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>22</v>
@@ -19781,9 +19819,9 @@
       <c r="D715" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F715" s="12"/>
+      <c r="F715" s="13"/>
       <c r="G715" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="I715" s="0" t="n">
         <f aca="false">IF(ISBLANK(B715),0,IF(D715="N/A",0,1))</f>
@@ -19800,15 +19838,15 @@
         <v>710</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="C716" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C716" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D716" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F716" s="14"/>
+      <c r="F716" s="15"/>
       <c r="G716" s="1"/>
       <c r="I716" s="0" t="n">
         <f aca="false">IF(ISBLANK(B716),0,IF(D716="N/A",0,1))</f>
@@ -19825,15 +19863,15 @@
         <v>711</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C717" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C717" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D717" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F717" s="14"/>
+      <c r="F717" s="15"/>
       <c r="G717" s="1"/>
       <c r="I717" s="0" t="n">
         <f aca="false">IF(ISBLANK(B717),0,IF(D717="N/A",0,1))</f>
@@ -19850,7 +19888,7 @@
         <v>712</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>53</v>
@@ -19874,7 +19912,7 @@
         <v>713</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>42</v>
@@ -19895,7 +19933,7 @@
         <v>714</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>27</v>
@@ -19916,7 +19954,7 @@
         <v>715</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>42</v>
@@ -19940,7 +19978,7 @@
         <v>716</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>102</v>
@@ -19964,7 +20002,7 @@
         <v>717</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>102</v>
@@ -19988,9 +20026,9 @@
         <v>718</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C724" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C724" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D724" s="1" t="s">
@@ -20012,9 +20050,9 @@
         <v>719</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C725" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="C725" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D725" s="1" t="s">
@@ -20036,7 +20074,7 @@
         <v>720</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>145</v>
@@ -20057,7 +20095,7 @@
         <v>721</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>145</v>
@@ -20078,7 +20116,7 @@
         <v>722</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>145</v>
@@ -20099,7 +20137,7 @@
         <v>723</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>145</v>
@@ -20120,15 +20158,15 @@
         <v>724</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C730" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C730" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F730" s="14"/>
+      <c r="F730" s="15"/>
       <c r="G730" s="1"/>
       <c r="I730" s="0" t="n">
         <f aca="false">IF(ISBLANK(B730),0,IF(D730="N/A",0,1))</f>
@@ -20145,7 +20183,7 @@
         <v>725</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>47</v>
@@ -20169,7 +20207,7 @@
         <v>726</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>47</v>
@@ -20193,7 +20231,7 @@
         <v>727</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>145</v>
@@ -20214,12 +20252,12 @@
         <v>728</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D734" s="18" t="s">
+      <c r="D734" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G734" s="1"/>
@@ -20238,7 +20276,7 @@
         <v>729</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>22</v>
@@ -20259,7 +20297,7 @@
         <v>730</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>22</v>
@@ -20283,7 +20321,7 @@
         <v>731</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>22</v>
@@ -20304,7 +20342,7 @@
         <v>732</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>22</v>
@@ -20325,7 +20363,7 @@
         <v>733</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>27</v>
@@ -20346,7 +20384,7 @@
         <v>734</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>22</v>
@@ -20367,7 +20405,7 @@
         <v>735</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>111</v>
@@ -20388,9 +20426,9 @@
         <v>736</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C742" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C742" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D742" s="1" t="s">
@@ -20412,7 +20450,7 @@
         <v>737</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>55</v>
@@ -20433,7 +20471,7 @@
         <v>738</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>53</v>
@@ -20454,7 +20492,7 @@
         <v>739</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>145</v>
@@ -20475,7 +20513,7 @@
         <v>740</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>84</v>
@@ -20499,7 +20537,7 @@
         <v>741</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>84</v>
@@ -20523,10 +20561,10 @@
         <v>742</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G748" s="1"/>
       <c r="I748" s="0" t="n">
@@ -20544,9 +20582,9 @@
         <v>743</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C749" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="C749" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D749" s="1" t="s">
@@ -20568,7 +20606,7 @@
         <v>744</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>163</v>
@@ -20592,7 +20630,7 @@
         <v>745</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>84</v>
@@ -20616,7 +20654,7 @@
         <v>746</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>27</v>
@@ -20637,7 +20675,7 @@
         <v>747</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>84</v>
@@ -20661,7 +20699,7 @@
         <v>748</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>55</v>
@@ -20682,7 +20720,7 @@
         <v>749</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>12</v>
@@ -20706,7 +20744,7 @@
         <v>750</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>84</v>
@@ -20730,7 +20768,7 @@
         <v>751</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>84</v>
@@ -20754,7 +20792,7 @@
         <v>752</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>55</v>
@@ -20775,7 +20813,7 @@
         <v>753</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>55</v>
@@ -20796,7 +20834,7 @@
         <v>754</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>145</v>
@@ -20817,7 +20855,7 @@
         <v>755</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>55</v>
@@ -20838,7 +20876,7 @@
         <v>756</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>55</v>
@@ -20859,7 +20897,7 @@
         <v>757</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>55</v>
@@ -20880,7 +20918,7 @@
         <v>758</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>55</v>
@@ -20901,7 +20939,7 @@
         <v>759</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>27</v>
@@ -20922,7 +20960,7 @@
         <v>760</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>215</v>
@@ -20943,7 +20981,7 @@
         <v>761</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>55</v>
@@ -20964,7 +21002,7 @@
         <v>762</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>62</v>
@@ -20988,7 +21026,7 @@
         <v>763</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>78</v>
@@ -21012,7 +21050,7 @@
         <v>764</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>62</v>
@@ -21020,9 +21058,9 @@
       <c r="D770" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F770" s="12"/>
+      <c r="F770" s="13"/>
       <c r="G770" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="I770" s="0" t="n">
         <f aca="false">IF(ISBLANK(B770),0,IF(D770="N/A",0,1))</f>
@@ -21039,7 +21077,7 @@
         <v>765</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>27</v>
@@ -21060,7 +21098,7 @@
         <v>766</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>27</v>
@@ -21081,7 +21119,7 @@
         <v>767</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>27</v>
@@ -21102,7 +21140,7 @@
         <v>768</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>145</v>
@@ -21123,7 +21161,7 @@
         <v>769</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>62</v>
@@ -21131,9 +21169,9 @@
       <c r="D775" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F775" s="12"/>
+      <c r="F775" s="13"/>
       <c r="G775" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="I775" s="0" t="n">
         <f aca="false">IF(ISBLANK(B775),0,IF(D775="N/A",0,1))</f>
@@ -21150,7 +21188,7 @@
         <v>770</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>145</v>
@@ -21171,7 +21209,7 @@
         <v>771</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>145</v>
@@ -21192,7 +21230,7 @@
         <v>772</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>145</v>
@@ -21213,7 +21251,7 @@
         <v>773</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>145</v>
@@ -21234,7 +21272,7 @@
         <v>774</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>145</v>
@@ -21255,7 +21293,7 @@
         <v>775</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>145</v>
@@ -21276,7 +21314,7 @@
         <v>776</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>145</v>
@@ -21297,7 +21335,7 @@
         <v>777</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>145</v>
@@ -21318,13 +21356,13 @@
         <v>778</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C784" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C784" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G784" s="1"/>
       <c r="I784" s="0" t="n">
@@ -21342,13 +21380,13 @@
         <v>779</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C785" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C785" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G785" s="1"/>
       <c r="I785" s="0" t="n">
@@ -21366,13 +21404,13 @@
         <v>780</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="C786" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C786" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G786" s="1"/>
       <c r="I786" s="0" t="n">
@@ -21390,13 +21428,13 @@
         <v>781</v>
       </c>
       <c r="B787" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C787" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D787" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C787" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D787" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="G787" s="1"/>
       <c r="I787" s="0" t="n">
@@ -21414,13 +21452,13 @@
         <v>782</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C788" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C788" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G788" s="1"/>
       <c r="I788" s="0" t="n">
@@ -21438,13 +21476,13 @@
         <v>783</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C789" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C789" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G789" s="1"/>
       <c r="I789" s="0" t="n">
@@ -21462,13 +21500,13 @@
         <v>784</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="C790" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C790" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G790" s="1"/>
       <c r="I790" s="0" t="n">
@@ -21486,13 +21524,13 @@
         <v>785</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C791" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C791" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G791" s="1"/>
       <c r="I791" s="0" t="n">
@@ -21510,13 +21548,13 @@
         <v>786</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C792" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C792" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G792" s="1"/>
       <c r="I792" s="0" t="n">
@@ -21534,13 +21572,13 @@
         <v>787</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C793" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C793" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G793" s="1"/>
       <c r="I793" s="0" t="n">
@@ -21558,13 +21596,13 @@
         <v>788</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C794" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C794" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G794" s="1"/>
       <c r="I794" s="0" t="n">
@@ -21582,13 +21620,13 @@
         <v>789</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G795" s="1"/>
       <c r="I795" s="0" t="n">
@@ -21606,13 +21644,13 @@
         <v>790</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G796" s="1"/>
       <c r="I796" s="0" t="n">
@@ -21630,13 +21668,13 @@
         <v>791</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G797" s="1"/>
       <c r="I797" s="0" t="n">
@@ -21654,13 +21692,13 @@
         <v>792</v>
       </c>
       <c r="B798" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C798" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C798" s="1" t="s">
-        <v>869</v>
-      </c>
       <c r="D798" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G798" s="1"/>
       <c r="I798" s="0" t="n">
@@ -21678,13 +21716,13 @@
         <v>793</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G799" s="1"/>
       <c r="I799" s="0" t="n">
@@ -21702,13 +21740,13 @@
         <v>794</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G800" s="1"/>
       <c r="I800" s="0" t="n">
@@ -21726,13 +21764,13 @@
         <v>795</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G801" s="1"/>
       <c r="I801" s="0" t="n">
@@ -21750,13 +21788,13 @@
         <v>796</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G802" s="1"/>
       <c r="I802" s="0" t="n">
@@ -21774,13 +21812,13 @@
         <v>797</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G803" s="1"/>
       <c r="I803" s="0" t="n">
@@ -21798,13 +21836,13 @@
         <v>798</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G804" s="1"/>
       <c r="I804" s="0" t="n">
@@ -21822,13 +21860,13 @@
         <v>799</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G805" s="1"/>
       <c r="I805" s="0" t="n">
@@ -21846,13 +21884,13 @@
         <v>800</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G806" s="1"/>
       <c r="I806" s="0" t="n">
@@ -21870,13 +21908,13 @@
         <v>801</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G807" s="1"/>
       <c r="I807" s="0" t="n">
@@ -21894,13 +21932,13 @@
         <v>802</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G808" s="1"/>
       <c r="I808" s="0" t="n">
@@ -21918,13 +21956,13 @@
         <v>803</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G809" s="1"/>
       <c r="I809" s="0" t="n">
@@ -21942,13 +21980,13 @@
         <v>804</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G810" s="1"/>
       <c r="I810" s="0" t="n">
@@ -21966,13 +22004,13 @@
         <v>805</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G811" s="1"/>
       <c r="I811" s="0" t="n">
@@ -21990,13 +22028,13 @@
         <v>806</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G812" s="1"/>
       <c r="I812" s="0" t="n">
@@ -22014,13 +22052,13 @@
         <v>807</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G813" s="1"/>
       <c r="I813" s="0" t="n">
@@ -22038,13 +22076,13 @@
         <v>808</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G814" s="1"/>
       <c r="I814" s="0" t="n">
@@ -22062,13 +22100,13 @@
         <v>809</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G815" s="1"/>
       <c r="I815" s="0" t="n">
@@ -22086,13 +22124,13 @@
         <v>810</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G816" s="1"/>
       <c r="I816" s="0" t="n">
@@ -22110,13 +22148,13 @@
         <v>811</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G817" s="1"/>
       <c r="I817" s="0" t="n">
@@ -22134,13 +22172,13 @@
         <v>812</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G818" s="1"/>
       <c r="I818" s="0" t="n">
@@ -22158,13 +22196,13 @@
         <v>813</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G819" s="1"/>
       <c r="I819" s="0" t="n">
@@ -22182,13 +22220,13 @@
         <v>814</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G820" s="1"/>
       <c r="I820" s="0" t="n">
@@ -22206,13 +22244,13 @@
         <v>815</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G821" s="1"/>
       <c r="I821" s="0" t="n">
@@ -22230,13 +22268,13 @@
         <v>816</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G822" s="1"/>
       <c r="I822" s="0" t="n">
@@ -22254,13 +22292,13 @@
         <v>817</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G823" s="1"/>
       <c r="I823" s="0" t="n">
@@ -22278,13 +22316,13 @@
         <v>818</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G824" s="1"/>
       <c r="I824" s="0" t="n">
@@ -22302,13 +22340,13 @@
         <v>819</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G825" s="1"/>
       <c r="I825" s="0" t="n">
@@ -22326,13 +22364,13 @@
         <v>820</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G826" s="1"/>
       <c r="I826" s="0" t="n">
@@ -22350,13 +22388,13 @@
         <v>821</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C827" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="C827" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G827" s="1"/>
       <c r="I827" s="0" t="n">
@@ -22374,13 +22412,13 @@
         <v>822</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C828" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C828" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G828" s="1"/>
       <c r="I828" s="0" t="n">
@@ -22398,13 +22436,13 @@
         <v>823</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C829" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="C829" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G829" s="1"/>
       <c r="I829" s="0" t="n">
@@ -22422,13 +22460,13 @@
         <v>824</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C830" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="C830" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G830" s="1"/>
       <c r="I830" s="0" t="n">
@@ -22446,13 +22484,13 @@
         <v>825</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C831" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="C831" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G831" s="1"/>
       <c r="I831" s="0" t="n">
@@ -22470,13 +22508,13 @@
         <v>826</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C832" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C832" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G832" s="1"/>
       <c r="I832" s="0" t="n">
@@ -22494,13 +22532,13 @@
         <v>827</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C833" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="C833" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G833" s="1"/>
       <c r="I833" s="0" t="n">
@@ -22518,13 +22556,13 @@
         <v>828</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="C834" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="C834" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G834" s="1"/>
       <c r="I834" s="0" t="n">
@@ -22542,13 +22580,13 @@
         <v>829</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="C835" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="C835" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G835" s="1"/>
       <c r="I835" s="0" t="n">
@@ -22566,13 +22604,13 @@
         <v>830</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="C836" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C836" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G836" s="1"/>
       <c r="I836" s="0" t="n">
@@ -22590,13 +22628,13 @@
         <v>831</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C837" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="C837" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G837" s="1"/>
       <c r="I837" s="0" t="n">
@@ -22614,13 +22652,13 @@
         <v>832</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="C838" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C838" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G838" s="1"/>
       <c r="I838" s="0" t="n">
@@ -22638,13 +22676,13 @@
         <v>833</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C839" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="C839" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G839" s="1"/>
       <c r="I839" s="0" t="n">
@@ -22662,13 +22700,13 @@
         <v>834</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G840" s="1"/>
       <c r="I840" s="0" t="n">
@@ -22686,13 +22724,13 @@
         <v>835</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G841" s="1"/>
       <c r="I841" s="0" t="n">
@@ -22710,13 +22748,13 @@
         <v>836</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G842" s="1"/>
       <c r="I842" s="0" t="n">
@@ -22734,13 +22772,13 @@
         <v>837</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G843" s="1"/>
       <c r="I843" s="0" t="n">
@@ -22758,13 +22796,13 @@
         <v>838</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G844" s="1"/>
       <c r="I844" s="0" t="n">
@@ -22782,13 +22820,13 @@
         <v>839</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G845" s="1"/>
       <c r="I845" s="0" t="n">
@@ -22806,13 +22844,13 @@
         <v>840</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G846" s="1"/>
       <c r="I846" s="0" t="n">
@@ -22830,13 +22868,13 @@
         <v>841</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G847" s="1"/>
       <c r="I847" s="0" t="n">
@@ -22854,13 +22892,13 @@
         <v>842</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G848" s="1"/>
       <c r="I848" s="0" t="n">
@@ -22878,13 +22916,13 @@
         <v>843</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G849" s="1"/>
       <c r="I849" s="0" t="n">
@@ -22902,13 +22940,13 @@
         <v>844</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G850" s="1"/>
       <c r="I850" s="0" t="n">
@@ -22926,13 +22964,13 @@
         <v>845</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G851" s="1"/>
       <c r="I851" s="0" t="n">
@@ -22950,13 +22988,13 @@
         <v>846</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C852" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C852" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G852" s="1"/>
       <c r="I852" s="0" t="n">
@@ -22974,13 +23012,13 @@
         <v>847</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C853" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C853" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G853" s="1"/>
       <c r="I853" s="0" t="n">
@@ -22998,13 +23036,13 @@
         <v>848</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C854" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
+      </c>
+      <c r="C854" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G854" s="1"/>
       <c r="I854" s="0" t="n">
@@ -23022,13 +23060,13 @@
         <v>849</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C855" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
+      </c>
+      <c r="C855" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G855" s="1"/>
       <c r="I855" s="0" t="n">
@@ -23046,13 +23084,13 @@
         <v>850</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C856" s="1" t="s">
-        <v>929</v>
+        <v>934</v>
+      </c>
+      <c r="C856" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G856" s="1"/>
       <c r="I856" s="0" t="n">
@@ -23070,13 +23108,13 @@
         <v>851</v>
       </c>
       <c r="B857" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C857" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="C857" s="1" t="s">
-        <v>929</v>
-      </c>
       <c r="D857" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G857" s="1"/>
       <c r="I857" s="0" t="n">
@@ -23094,13 +23132,13 @@
         <v>852</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C858" s="1" t="s">
-        <v>929</v>
+        <v>936</v>
+      </c>
+      <c r="C858" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G858" s="1"/>
       <c r="I858" s="0" t="n">
@@ -23118,13 +23156,13 @@
         <v>853</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="C859" s="1" t="s">
-        <v>929</v>
+        <v>937</v>
+      </c>
+      <c r="C859" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G859" s="1"/>
       <c r="I859" s="0" t="n">
@@ -23142,13 +23180,13 @@
         <v>854</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="C860" s="1" t="s">
-        <v>929</v>
+        <v>938</v>
+      </c>
+      <c r="C860" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G860" s="1"/>
       <c r="I860" s="0" t="n">
@@ -23166,13 +23204,13 @@
         <v>855</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C861" s="1" t="s">
-        <v>929</v>
+        <v>939</v>
+      </c>
+      <c r="C861" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G861" s="1"/>
       <c r="I861" s="0" t="n">
@@ -23190,13 +23228,13 @@
         <v>856</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G862" s="1"/>
       <c r="I862" s="0" t="n">
@@ -23214,13 +23252,13 @@
         <v>857</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G863" s="1"/>
       <c r="I863" s="0" t="n">
@@ -23238,13 +23276,13 @@
         <v>858</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G864" s="1"/>
       <c r="I864" s="0" t="n">
@@ -23262,13 +23300,13 @@
         <v>859</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G865" s="1"/>
       <c r="I865" s="0" t="n">
@@ -23286,13 +23324,13 @@
         <v>860</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G866" s="1"/>
       <c r="I866" s="0" t="n">
@@ -23310,13 +23348,13 @@
         <v>861</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G867" s="1"/>
       <c r="I867" s="0" t="n">
@@ -23334,13 +23372,13 @@
         <v>862</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G868" s="1"/>
       <c r="I868" s="0" t="n">
@@ -23358,13 +23396,13 @@
         <v>863</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G869" s="1"/>
       <c r="I869" s="0" t="n">
@@ -23382,13 +23420,13 @@
         <v>864</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G870" s="1"/>
       <c r="I870" s="0" t="n">
@@ -23406,13 +23444,13 @@
         <v>865</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G871" s="1"/>
       <c r="I871" s="0" t="n">
@@ -23430,13 +23468,13 @@
         <v>866</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G872" s="1"/>
       <c r="I872" s="0" t="n">
@@ -23454,13 +23492,13 @@
         <v>867</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G873" s="1"/>
       <c r="I873" s="0" t="n">
@@ -23478,13 +23516,13 @@
         <v>868</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G874" s="1"/>
       <c r="I874" s="0" t="n">
@@ -23502,13 +23540,13 @@
         <v>869</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="C875" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C875" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G875" s="1"/>
       <c r="I875" s="0" t="n">
@@ -23526,13 +23564,13 @@
         <v>870</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="C876" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C876" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G876" s="1"/>
       <c r="I876" s="0" t="n">
@@ -23550,13 +23588,13 @@
         <v>871</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G877" s="1"/>
       <c r="I877" s="0" t="n">
@@ -23574,13 +23612,13 @@
         <v>872</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G878" s="1"/>
       <c r="I878" s="0" t="n">
@@ -23598,13 +23636,13 @@
         <v>873</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G879" s="1"/>
       <c r="I879" s="0" t="n">
@@ -23622,13 +23660,13 @@
         <v>874</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G880" s="1"/>
       <c r="I880" s="0" t="n">
@@ -23646,13 +23684,13 @@
         <v>875</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G881" s="1"/>
       <c r="I881" s="0" t="n">
@@ -23670,13 +23708,13 @@
         <v>876</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G882" s="1"/>
       <c r="I882" s="0" t="n">
@@ -23694,13 +23732,13 @@
         <v>877</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G883" s="1"/>
       <c r="I883" s="0" t="n">
@@ -23718,13 +23756,13 @@
         <v>878</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G884" s="1"/>
       <c r="I884" s="0" t="n">
@@ -23742,13 +23780,13 @@
         <v>879</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G885" s="1"/>
       <c r="I885" s="0" t="n">
@@ -23766,13 +23804,13 @@
         <v>880</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G886" s="1"/>
       <c r="I886" s="0" t="n">
@@ -23790,13 +23828,13 @@
         <v>881</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G887" s="1"/>
       <c r="I887" s="0" t="n">
@@ -23814,13 +23852,13 @@
         <v>882</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G888" s="1"/>
       <c r="I888" s="0" t="n">
@@ -23838,13 +23876,13 @@
         <v>883</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G889" s="1"/>
       <c r="I889" s="0" t="n">
@@ -23862,13 +23900,13 @@
         <v>884</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G890" s="1"/>
       <c r="I890" s="0" t="n">
@@ -23886,13 +23924,13 @@
         <v>885</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G891" s="1"/>
       <c r="I891" s="0" t="n">
@@ -23910,13 +23948,13 @@
         <v>886</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G892" s="1"/>
       <c r="I892" s="0" t="n">
@@ -23934,13 +23972,13 @@
         <v>887</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G893" s="1"/>
       <c r="I893" s="0" t="n">
@@ -23958,13 +23996,13 @@
         <v>888</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D894" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G894" s="1"/>
       <c r="I894" s="0" t="n">
@@ -23982,13 +24020,13 @@
         <v>889</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G895" s="1"/>
       <c r="I895" s="0" t="n">
@@ -24006,13 +24044,13 @@
         <v>890</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C896" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G896" s="1"/>
       <c r="I896" s="0" t="n">
@@ -24024,55 +24062,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="n">
         <f aca="false">A896+1</f>
         <v>891</v>
       </c>
-      <c r="B897" s="1"/>
+      <c r="B897" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C897" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>860</v>
+      </c>
       <c r="G897" s="1"/>
       <c r="I897" s="0" t="n">
         <f aca="false">IF(ISBLANK(B897),0,IF(D897="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J897" s="0" t="n">
         <f aca="false">IF(ISBLANK(D897),0,I897)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="898" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="n">
         <f aca="false">A897+1</f>
         <v>892</v>
       </c>
-      <c r="B898" s="1"/>
+      <c r="B898" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C898" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>860</v>
+      </c>
       <c r="G898" s="1"/>
       <c r="I898" s="0" t="n">
         <f aca="false">IF(ISBLANK(B898),0,IF(D898="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J898" s="0" t="n">
         <f aca="false">IF(ISBLANK(D898),0,I898)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="899" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="n">
         <f aca="false">A898+1</f>
         <v>893</v>
       </c>
-      <c r="B899" s="1"/>
+      <c r="B899" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C899" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>860</v>
+      </c>
       <c r="G899" s="1"/>
       <c r="I899" s="0" t="n">
         <f aca="false">IF(ISBLANK(B899),0,IF(D899="N/A",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J899" s="0" t="n">
         <f aca="false">IF(ISBLANK(D899),0,I899)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="900" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="n">
         <f aca="false">A899+1</f>
         <v>894</v>
@@ -24088,7 +24150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="n">
         <f aca="false">A900+1</f>
         <v>895</v>
@@ -24104,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="n">
         <f aca="false">A901+1</f>
         <v>896</v>
@@ -24120,7 +24182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="n">
         <f aca="false">A902+1</f>
         <v>897</v>
@@ -24136,7 +24198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="n">
         <f aca="false">A903+1</f>
         <v>898</v>
@@ -24152,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="n">
         <f aca="false">A904+1</f>
         <v>899</v>
@@ -24168,7 +24230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="n">
         <f aca="false">A905+1</f>
         <v>900</v>
@@ -24184,7 +24246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="n">
         <f aca="false">A906+1</f>
         <v>901</v>
@@ -24200,7 +24262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="n">
         <f aca="false">A907+1</f>
         <v>902</v>
@@ -24216,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="n">
         <f aca="false">A908+1</f>
         <v>903</v>
@@ -24232,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="n">
         <f aca="false">A909+1</f>
         <v>904</v>
@@ -24248,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="n">
         <f aca="false">A910+1</f>
         <v>905</v>
@@ -24264,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="n">
         <f aca="false">A911+1</f>
         <v>906</v>
@@ -24280,7 +24342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="n">
         <f aca="false">A912+1</f>
         <v>907</v>
@@ -24296,7 +24358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="n">
         <f aca="false">A913+1</f>
         <v>908</v>
@@ -24312,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="n">
         <f aca="false">A914+1</f>
         <v>909</v>
@@ -24328,7 +24390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="n">
         <f aca="false">A915+1</f>
         <v>910</v>
@@ -24344,7 +24406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="n">
         <f aca="false">A916+1</f>
         <v>911</v>
@@ -24360,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="n">
         <f aca="false">A917+1</f>
         <v>912</v>
@@ -24376,7 +24438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="n">
         <f aca="false">A918+1</f>
         <v>913</v>
@@ -24392,7 +24454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="n">
         <f aca="false">A919+1</f>
         <v>914</v>
@@ -24408,7 +24470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="n">
         <f aca="false">A920+1</f>
         <v>915</v>
@@ -24424,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="n">
         <f aca="false">A921+1</f>
         <v>916</v>
@@ -24440,7 +24502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="n">
         <f aca="false">A922+1</f>
         <v>917</v>
@@ -24456,7 +24518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="n">
         <f aca="false">A923+1</f>
         <v>918</v>
@@ -24472,7 +24534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="n">
         <f aca="false">A924+1</f>
         <v>919</v>
@@ -24488,7 +24550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="n">
         <f aca="false">A925+1</f>
         <v>920</v>
@@ -24504,7 +24566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="n">
         <f aca="false">A926+1</f>
         <v>921</v>
@@ -24520,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="n">
         <f aca="false">A927+1</f>
         <v>922</v>
@@ -24536,7 +24598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="n">
         <f aca="false">A928+1</f>
         <v>923</v>
@@ -24552,7 +24614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="n">
         <f aca="false">A929+1</f>
         <v>924</v>
@@ -24568,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="n">
         <f aca="false">A930+1</f>
         <v>925</v>
@@ -24584,7 +24646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="n">
         <f aca="false">A931+1</f>
         <v>926</v>
@@ -24600,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="n">
         <f aca="false">A932+1</f>
         <v>927</v>
@@ -24616,7 +24678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="n">
         <f aca="false">A933+1</f>
         <v>928</v>
@@ -24632,7 +24694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="n">
         <f aca="false">A934+1</f>
         <v>929</v>
@@ -24648,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="n">
         <f aca="false">A935+1</f>
         <v>930</v>
@@ -24664,7 +24726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="n">
         <f aca="false">A936+1</f>
         <v>931</v>
@@ -24680,7 +24742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="n">
         <f aca="false">A937+1</f>
         <v>932</v>
@@ -24696,7 +24758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="n">
         <f aca="false">A938+1</f>
         <v>933</v>
@@ -24712,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="n">
         <f aca="false">A939+1</f>
         <v>934</v>
@@ -24728,7 +24790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="n">
         <f aca="false">A940+1</f>
         <v>935</v>
@@ -24744,7 +24806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="n">
         <f aca="false">A941+1</f>
         <v>936</v>
@@ -24760,7 +24822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="n">
         <f aca="false">A942+1</f>
         <v>937</v>
@@ -24776,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="n">
         <f aca="false">A943+1</f>
         <v>938</v>
@@ -24792,7 +24854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="n">
         <f aca="false">A944+1</f>
         <v>939</v>
@@ -24808,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="n">
         <f aca="false">A945+1</f>
         <v>940</v>
@@ -24824,7 +24886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="n">
         <f aca="false">A946+1</f>
         <v>941</v>
@@ -24840,7 +24902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="n">
         <f aca="false">A947+1</f>
         <v>942</v>
@@ -24856,7 +24918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="n">
         <f aca="false">A948+1</f>
         <v>943</v>
@@ -24872,7 +24934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="n">
         <f aca="false">A949+1</f>
         <v>944</v>
@@ -24888,7 +24950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="n">
         <f aca="false">A950+1</f>
         <v>945</v>
@@ -24904,7 +24966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="n">
         <f aca="false">A951+1</f>
         <v>946</v>
@@ -24920,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="n">
         <f aca="false">A952+1</f>
         <v>947</v>
@@ -24936,7 +24998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="n">
         <f aca="false">A953+1</f>
         <v>948</v>
@@ -24952,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="n">
         <f aca="false">A954+1</f>
         <v>949</v>
@@ -24968,7 +25030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="n">
         <f aca="false">A955+1</f>
         <v>950</v>
@@ -24984,7 +25046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="n">
         <f aca="false">A956+1</f>
         <v>951</v>
@@ -25000,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="n">
         <f aca="false">A957+1</f>
         <v>952</v>
@@ -25016,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="n">
         <f aca="false">A958+1</f>
         <v>953</v>
@@ -25032,7 +25094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="n">
         <f aca="false">A959+1</f>
         <v>954</v>
@@ -25048,7 +25110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="n">
         <f aca="false">A960+1</f>
         <v>955</v>
@@ -25064,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="n">
         <f aca="false">A961+1</f>
         <v>956</v>
@@ -25080,7 +25142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="n">
         <f aca="false">A962+1</f>
         <v>957</v>
@@ -25096,7 +25158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="n">
         <f aca="false">A963+1</f>
         <v>958</v>
@@ -25112,7 +25174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="n">
         <f aca="false">A964+1</f>
         <v>959</v>
@@ -25128,7 +25190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="n">
         <f aca="false">A965+1</f>
         <v>960</v>
@@ -25144,7 +25206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="n">
         <f aca="false">A966+1</f>
         <v>961</v>
@@ -25160,7 +25222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="n">
         <f aca="false">A967+1</f>
         <v>962</v>
@@ -25176,7 +25238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="n">
         <f aca="false">A968+1</f>
         <v>963</v>
@@ -25192,7 +25254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="n">
         <f aca="false">A969+1</f>
         <v>964</v>
@@ -25208,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="n">
         <f aca="false">A970+1</f>
         <v>965</v>
@@ -25224,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="n">
         <f aca="false">A971+1</f>
         <v>966</v>
@@ -25240,7 +25302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="n">
         <f aca="false">A972+1</f>
         <v>967</v>
@@ -25256,7 +25318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="n">
         <f aca="false">A973+1</f>
         <v>968</v>
@@ -25272,7 +25334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="n">
         <f aca="false">A974+1</f>
         <v>969</v>
@@ -25288,7 +25350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="n">
         <f aca="false">A975+1</f>
         <v>970</v>
@@ -25304,7 +25366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="n">
         <f aca="false">A976+1</f>
         <v>971</v>
@@ -25320,7 +25382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="n">
         <f aca="false">A977+1</f>
         <v>972</v>
@@ -25336,7 +25398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="n">
         <f aca="false">A978+1</f>
         <v>973</v>
@@ -25352,7 +25414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="n">
         <f aca="false">A979+1</f>
         <v>974</v>
@@ -25368,7 +25430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="n">
         <f aca="false">A980+1</f>
         <v>975</v>
@@ -25384,7 +25446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="n">
         <f aca="false">A981+1</f>
         <v>976</v>
@@ -25400,7 +25462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="n">
         <f aca="false">A982+1</f>
         <v>977</v>
@@ -25416,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="n">
         <f aca="false">A983+1</f>
         <v>978</v>
@@ -25432,7 +25494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="n">
         <f aca="false">A984+1</f>
         <v>979</v>
@@ -25448,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="n">
         <f aca="false">A985+1</f>
         <v>980</v>
@@ -25464,7 +25526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="n">
         <f aca="false">A986+1</f>
         <v>981</v>
@@ -25480,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="n">
         <f aca="false">A987+1</f>
         <v>982</v>
@@ -25496,7 +25558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="n">
         <f aca="false">A988+1</f>
         <v>983</v>
@@ -25512,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="n">
         <f aca="false">A989+1</f>
         <v>984</v>
@@ -25528,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="n">
         <f aca="false">A990+1</f>
         <v>985</v>
@@ -25544,7 +25606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="n">
         <f aca="false">A991+1</f>
         <v>986</v>
@@ -25560,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="n">
         <f aca="false">A992+1</f>
         <v>987</v>
@@ -25576,7 +25638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="n">
         <f aca="false">A993+1</f>
         <v>988</v>
@@ -25592,7 +25654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="n">
         <f aca="false">A994+1</f>
         <v>989</v>
@@ -25608,7 +25670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="n">
         <f aca="false">A995+1</f>
         <v>990</v>
@@ -25624,7 +25686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="n">
         <f aca="false">A996+1</f>
         <v>991</v>
@@ -25640,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="n">
         <f aca="false">A997+1</f>
         <v>992</v>
@@ -25656,7 +25718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="n">
         <f aca="false">A998+1</f>
         <v>993</v>
@@ -26923,46 +26985,46 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="D3" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="D4" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -28,9 +28,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="985">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -3014,6 +3015,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3036,24 +3038,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3061,24 +3067,28 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3086,6 +3096,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3093,12 +3104,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3106,12 +3119,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3119,6 +3134,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3126,6 +3142,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3133,6 +3150,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3515,9 +3533,9 @@
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1002" activeCellId="0" sqref="C1002"/>
+      <selection pane="bottomLeft" activeCell="C841" activeCellId="0" sqref="C841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3540,7 +3558,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -3556,7 +3574,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.43</v>
+        <v>0.43125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6555,7 @@
       <c r="B134" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -13572,7 +13590,7 @@
       <c r="B443" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C443" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D443" s="1" t="s">
@@ -18111,9 +18129,13 @@
       <c r="B640" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C640" s="1" t="s">
+      <c r="C640" s="12" t="s">
         <v>170</v>
       </c>
+      <c r="D640" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F640" s="16"/>
       <c r="G640" s="1"/>
       <c r="H640" s="0" t="n">
         <v>120</v>
@@ -18124,7 +18146,7 @@
       </c>
       <c r="J640" s="0" t="n">
         <f aca="false">IF(ISBLANK(D640),0,I640)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23590,7 +23612,7 @@
       <c r="B877" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C877" s="1" t="s">
+      <c r="C877" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D877" s="1" t="s">
@@ -23614,7 +23636,7 @@
       <c r="B878" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C878" s="1" t="s">
+      <c r="C878" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D878" s="1" t="s">
@@ -23638,7 +23660,7 @@
       <c r="B879" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C879" s="1" t="s">
+      <c r="C879" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D879" s="1" t="s">
@@ -23662,7 +23684,7 @@
       <c r="B880" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C880" s="1" t="s">
+      <c r="C880" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D880" s="1" t="s">
@@ -23686,7 +23708,7 @@
       <c r="B881" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="C881" s="1" t="s">
+      <c r="C881" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D881" s="1" t="s">
@@ -23710,7 +23732,7 @@
       <c r="B882" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C882" s="1" t="s">
+      <c r="C882" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D882" s="1" t="s">
@@ -23734,7 +23756,7 @@
       <c r="B883" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C883" s="1" t="s">
+      <c r="C883" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D883" s="1" t="s">
@@ -23758,7 +23780,7 @@
       <c r="B884" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C884" s="1" t="s">
+      <c r="C884" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D884" s="1" t="s">
@@ -23782,7 +23804,7 @@
       <c r="B885" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="C885" s="1" t="s">
+      <c r="C885" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D885" s="1" t="s">
@@ -23806,7 +23828,7 @@
       <c r="B886" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="C886" s="1" t="s">
+      <c r="C886" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D886" s="1" t="s">
@@ -24046,7 +24068,7 @@
       <c r="B896" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="C896" s="1" t="s">
+      <c r="C896" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D896" s="1" t="s">

--- a/newrpl/docs/newRPLCommandDatabase.xlsx
+++ b/newrpl/docs/newRPLCommandDatabase.xlsx
@@ -29,9 +29,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$H$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Commands!$A$5:$G$999</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="987">
   <si>
     <t xml:space="preserve">Total commands implemented</t>
   </si>
@@ -2800,7 +2801,7 @@
     <t xml:space="preserve">SETLOCALE</t>
   </si>
   <si>
-    <t xml:space="preserve">SETNUMFORMAT</t>
+    <t xml:space="preserve">SETNFMT</t>
   </si>
   <si>
     <t xml:space="preserve">TMENULST</t>
@@ -2978,6 +2979,12 @@
   </si>
   <si>
     <t xml:space="preserve">NPOSREV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETLOCALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETNFMT</t>
   </si>
   <si>
     <t xml:space="preserve">Num</t>
@@ -3527,15 +3534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:J1121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C841" activeCellId="0" sqref="C841"/>
+      <selection pane="bottomLeft" activeCell="B600" activeCellId="0" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3558,14 +3565,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNTIF(J6:J1001,1)</f>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="n">
         <f aca="false">COUNTIF(I6:I1001,1)</f>
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3581,7 @@
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">D2/F2</f>
-        <v>0.43125</v>
+        <v>0.432668329177057</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,10 +3613,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>1</v>
@@ -3634,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>2</v>
@@ -3659,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>3</v>
@@ -3683,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>4</v>
@@ -3707,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>5</v>
@@ -3731,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>6</v>
@@ -3756,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>7</v>
@@ -3806,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>9</v>
@@ -3831,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>10</v>
@@ -3856,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="false">A16+1</f>
         <v>11</v>
@@ -3877,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>12</v>
@@ -3902,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>13</v>
@@ -3927,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <f aca="false">A19+1</f>
         <v>14</v>
@@ -3948,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">A20+1</f>
         <v>15</v>
@@ -3973,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="false">A21+1</f>
         <v>16</v>
@@ -3998,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="false">A22+1</f>
         <v>17</v>
@@ -4073,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <f aca="false">A25+1</f>
         <v>20</v>
@@ -4094,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="false">A26+1</f>
         <v>21</v>
@@ -4119,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <f aca="false">A27+1</f>
         <v>22</v>
@@ -4140,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">A28+1</f>
         <v>23</v>
@@ -4165,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="false">A29+1</f>
         <v>24</v>
@@ -4190,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="false">A30+1</f>
         <v>25</v>
@@ -4214,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">A31+1</f>
         <v>26</v>
@@ -4235,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">A32+1</f>
         <v>27</v>
@@ -4260,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">A33+1</f>
         <v>28</v>
@@ -4285,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">A34+1</f>
         <v>29</v>
@@ -4310,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="false">A35+1</f>
         <v>30</v>
@@ -4334,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">A36+1</f>
         <v>31</v>
@@ -4358,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">A37+1</f>
         <v>32</v>
@@ -4379,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">A38+1</f>
         <v>33</v>
@@ -4400,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="false">A39+1</f>
         <v>34</v>
@@ -4421,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">A40+1</f>
         <v>35</v>
@@ -4487,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="false">A43+1</f>
         <v>38</v>
@@ -4508,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="false">A44+1</f>
         <v>39</v>
@@ -4557,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <f aca="false">A46+1</f>
         <v>41</v>
@@ -4578,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="false">A47+1</f>
         <v>42</v>
@@ -4603,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">A48+1</f>
         <v>43</v>
@@ -4627,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <f aca="false">A49+1</f>
         <v>44</v>
@@ -4648,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <f aca="false">A50+1</f>
         <v>45</v>
@@ -4697,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <f aca="false">A52+1</f>
         <v>47</v>
@@ -4718,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="false">A53+1</f>
         <v>48</v>
@@ -4742,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">A54+1</f>
         <v>49</v>
@@ -4767,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <f aca="false">A55+1</f>
         <v>50</v>
@@ -4791,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">A56+1</f>
         <v>51</v>
@@ -4815,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="false">A57+1</f>
         <v>52</v>
@@ -4836,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="false">A58+1</f>
         <v>53</v>
@@ -4861,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="false">A59+1</f>
         <v>54</v>
@@ -4885,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="false">A60+1</f>
         <v>55</v>
@@ -4909,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <f aca="false">A61+1</f>
         <v>56</v>
@@ -4930,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+1</f>
         <v>57</v>
@@ -4955,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+1</f>
         <v>58</v>
@@ -4979,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+1</f>
         <v>59</v>
@@ -5003,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+1</f>
         <v>60</v>
@@ -5027,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <f aca="false">A66+1</f>
         <v>61</v>
@@ -5048,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+1</f>
         <v>62</v>
@@ -5072,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+1</f>
         <v>63</v>
@@ -5099,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+1</f>
         <v>64</v>
@@ -5123,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <f aca="false">A70+1</f>
         <v>65</v>
@@ -5144,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <f aca="false">A71+1</f>
         <v>66</v>
@@ -5165,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <f aca="false">A72+1</f>
         <v>67</v>
@@ -5186,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <f aca="false">A73+1</f>
         <v>68</v>
@@ -5207,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <f aca="false">A74+1</f>
         <v>69</v>
@@ -5231,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <f aca="false">A75+1</f>
         <v>70</v>
@@ -5252,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="false">A76+1</f>
         <v>71</v>
@@ -5278,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <f aca="false">A77+1</f>
         <v>72</v>
@@ -5302,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <f aca="false">A78+1</f>
         <v>73</v>
@@ -5323,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <f aca="false">A79+1</f>
         <v>74</v>
@@ -5365,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <f aca="false">A81+1</f>
         <v>76</v>
@@ -5390,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <f aca="false">A82+1</f>
         <v>77</v>
@@ -5411,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <f aca="false">A83+1</f>
         <v>78</v>
@@ -5435,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <f aca="false">A84+1</f>
         <v>79</v>
@@ -5459,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="false">A85+1</f>
         <v>80</v>
@@ -5483,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <f aca="false">A86+1</f>
         <v>81</v>
@@ -5504,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <f aca="false">A87+1</f>
         <v>82</v>
@@ -5525,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <f aca="false">A88+1</f>
         <v>83</v>
@@ -5549,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <f aca="false">A89+1</f>
         <v>84</v>
@@ -5573,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="false">A90+1</f>
         <v>85</v>
@@ -5597,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <f aca="false">A91+1</f>
         <v>86</v>
@@ -5621,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <f aca="false">A92+1</f>
         <v>87</v>
@@ -5645,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="false">A93+1</f>
         <v>88</v>
@@ -5672,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <f aca="false">A94+1</f>
         <v>89</v>
@@ -5698,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <f aca="false">A95+1</f>
         <v>90</v>
@@ -5719,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+1</f>
         <v>91</v>
@@ -5743,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <f aca="false">A97+1</f>
         <v>92</v>
@@ -5764,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">A98+1</f>
         <v>93</v>
@@ -5788,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="false">A99+1</f>
         <v>94</v>
@@ -5830,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="false">A101+1</f>
         <v>96</v>
@@ -5854,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <f aca="false">A102+1</f>
         <v>97</v>
@@ -5875,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <f aca="false">A103+1</f>
         <v>98</v>
@@ -5896,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+   